--- a/DatabaseFiller/guidelines.xlsx
+++ b/DatabaseFiller/guidelines.xlsx
@@ -160,12 +160,16 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A10">
+    <comment authorId="0" ref="E4">
       <text>
-        <t xml:space="preserve">======
-ID#AAAAsVmpgs0
-Riccardo Germenia    (2023-03-02 14:49:57)
-il nome del foglio aveva uno spazio finale</t>
+        <t xml:space="preserve">At a minimum, TLS servers conforming to this specification shall be configured with an RSA signature certificate or an ECDSA signature certificate.
+======</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E6">
+      <text>
+        <t xml:space="preserve">At a minimum, TLS servers conforming to this specification shall be configured with an RSA signature certificate or an ECDSA signature certificate.
+======</t>
       </text>
     </comment>
     <comment authorId="0" ref="H1">
@@ -219,7 +223,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgJLXfwQ/tX095t1eeYc9yCwG7EYQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mj7UfKuns9jZOVm243wfUbHxDvAcw=="/>
     </ext>
   </extLst>
 </comments>
@@ -312,10 +316,7 @@
     <comment authorId="0" ref="D1">
       <text>
         <t xml:space="preserve">SP 800-56A, Appendix D
-======
-ID#AAAAaftSOOs
-    (2022-09-01 13:47:41)
-SP 800-56A, Appendix D</t>
+======</t>
       </text>
     </comment>
     <comment authorId="0" ref="B3">
@@ -324,14 +325,6 @@
 ID#AAAAsHuun4I
 Riccardo Germenia    (2023-02-27 10:53:30)
 può essere null questo? (messo "?" temporaneamente)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F3">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAsHutg00
-Riccardo Germenia    (2023-02-27 08:25:25)
-dato che l'idea è riconoscere il "tipo" di una colonna guardando la sua prima cella è meglio avere "&lt;Not mentioned&gt;" piuttosto che una cella vuota</t>
       </text>
     </comment>
     <comment authorId="0" ref="H1">
@@ -376,22 +369,6 @@
 Up to 2022</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D4">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAaftSOPg
-    (2022-09-01 13:47:41)
-either this or P-384</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D5">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAaftSOO8
-    (2022-09-01 13:47:41)
-either this or P-256</t>
-      </text>
-    </comment>
     <comment authorId="0" ref="G2">
       <text>
         <t xml:space="preserve">======
@@ -403,7 +380,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgk4awncGay3077e7cCkEIVwdfZRQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mg8UlNb0Hv/RDpH/AVeGLLg4InZfQ=="/>
     </ext>
   </extLst>
 </comments>
@@ -711,7 +688,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="546">
   <si>
     <t>NIST</t>
   </si>
@@ -1889,22 +1866,28 @@
     <t>TLS version</t>
   </si>
   <si>
+    <t>Condition</t>
+  </si>
+  <si>
     <t>anonymous</t>
   </si>
   <si>
     <t>rsa</t>
   </si>
   <si>
-    <t>THIS OR CERTSIG ecdsa</t>
+    <t>THIS or CERTSIG ecdsa and CHECK_KEY_TYPE rsa</t>
   </si>
   <si>
     <t>dsa</t>
   </si>
   <si>
+    <t>CHECK_KEY_TYPE dsa</t>
+  </si>
+  <si>
     <t>ecdsa</t>
   </si>
   <si>
-    <t>THIS OR CERTSIG rsa</t>
+    <t>THIS or CERTSIG rsa and CHECK_KEY_TYPE ecdsa</t>
   </si>
   <si>
     <t>HashAlgorithm</t>
@@ -2434,6 +2417,11 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -2464,14 +2452,9 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <u/>
       <sz val="10.0"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFE8E6E3"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -2619,6 +2602,14 @@
       <bottom/>
     </border>
     <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -2655,14 +2646,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -2867,31 +2850,38 @@
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2900,7 +2890,7 @@
     <xf borderId="3" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2921,23 +2911,19 @@
     <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2946,22 +2932,22 @@
     <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
     <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2976,30 +2962,27 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="17" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3014,7 +2997,7 @@
     <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3037,13 +3020,13 @@
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="3" fillId="7" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="18" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="14" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3088,7 +3071,7 @@
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -4842,7 +4825,7 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B2" s="157"/>
       <c r="C2" s="157"/>
@@ -4850,8 +4833,8 @@
       <c r="E2" s="9"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="77" t="s">
-        <v>541</v>
+      <c r="A3" s="78" t="s">
+        <v>543</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>14</v>
@@ -4865,14 +4848,14 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="77" t="s">
-        <v>542</v>
+      <c r="A4" s="78" t="s">
+        <v>544</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1"/>
@@ -14321,35 +14304,35 @@
       <c r="B2" s="74"/>
       <c r="C2" s="74"/>
       <c r="D2" s="75"/>
-      <c r="E2" s="73" t="s">
-        <v>9</v>
+      <c r="E2" s="76" t="s">
+        <v>392</v>
       </c>
       <c r="F2" s="75"/>
       <c r="G2" s="75"/>
-      <c r="H2" s="76" t="s">
+      <c r="H2" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="76" t="s">
+      <c r="I2" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="76" t="s">
+      <c r="J2" s="77" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="77" t="s">
-        <v>392</v>
-      </c>
-      <c r="B3" s="77">
+      <c r="A3" s="78" t="s">
+        <v>393</v>
+      </c>
+      <c r="B3" s="78">
         <v>0.0</v>
       </c>
-      <c r="C3" s="77">
+      <c r="C3" s="78">
         <v>1.2</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="79"/>
       <c r="F3" s="10" t="s">
         <v>16</v>
       </c>
@@ -14367,20 +14350,20 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="77" t="s">
-        <v>393</v>
-      </c>
-      <c r="B4" s="77">
+      <c r="A4" s="78" t="s">
+        <v>394</v>
+      </c>
+      <c r="B4" s="78">
         <v>1.0</v>
       </c>
-      <c r="C4" s="77">
+      <c r="C4" s="78">
         <v>1.2</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>394</v>
+      <c r="E4" s="80" t="s">
+        <v>395</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>19</v>
@@ -14399,19 +14382,21 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="77" t="s">
-        <v>395</v>
-      </c>
-      <c r="B5" s="77">
+      <c r="A5" s="78" t="s">
+        <v>396</v>
+      </c>
+      <c r="B5" s="78">
         <v>2.0</v>
       </c>
-      <c r="C5" s="77">
+      <c r="C5" s="78">
         <v>1.2</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="80" t="s">
+        <v>397</v>
+      </c>
       <c r="F5" s="10" t="s">
         <v>19</v>
       </c>
@@ -14429,20 +14414,20 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="77" t="s">
-        <v>396</v>
-      </c>
-      <c r="B6" s="77">
+      <c r="A6" s="78" t="s">
+        <v>398</v>
+      </c>
+      <c r="B6" s="78">
         <v>3.0</v>
       </c>
-      <c r="C6" s="77">
+      <c r="C6" s="78">
         <v>1.2</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>397</v>
+      <c r="E6" s="80" t="s">
+        <v>399</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>19</v>
@@ -14461,12 +14446,12 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="78"/>
-      <c r="D7" s="78"/>
+      <c r="A7" s="81"/>
+      <c r="D7" s="81"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="78"/>
-      <c r="D8" s="78"/>
+      <c r="A8" s="81"/>
+      <c r="D8" s="81"/>
     </row>
     <row r="9" ht="15.75" customHeight="1"/>
     <row r="10" ht="15.75" customHeight="1"/>
@@ -14475,13 +14460,13 @@
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1"/>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="78"/>
+      <c r="A15" s="81"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="78"/>
+      <c r="A16" s="81"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="79"/>
+      <c r="A17" s="82"/>
     </row>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -15532,10 +15517,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="80" t="s">
-        <v>398</v>
-      </c>
-      <c r="B1" s="81" t="s">
+      <c r="A1" s="83" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1" s="84" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -15547,7 +15532,7 @@
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="85" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -15560,217 +15545,217 @@
       <c r="C2" s="74"/>
       <c r="D2" s="75"/>
       <c r="E2" s="75"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="76" t="s">
+      <c r="F2" s="86"/>
+      <c r="G2" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="76" t="s">
+      <c r="H2" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="76" t="s">
+      <c r="I2" s="77" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="77" t="s">
-        <v>399</v>
-      </c>
-      <c r="B3" s="77">
+      <c r="A3" s="78" t="s">
+        <v>401</v>
+      </c>
+      <c r="B3" s="78">
         <v>0.0</v>
       </c>
-      <c r="C3" s="77">
+      <c r="C3" s="78">
         <v>1.2</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="87" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="86" t="s">
+      <c r="F3" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="89" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="77" t="s">
-        <v>400</v>
-      </c>
-      <c r="B4" s="77">
+      <c r="A4" s="78" t="s">
+        <v>402</v>
+      </c>
+      <c r="B4" s="78">
         <v>1.0</v>
       </c>
-      <c r="C4" s="77">
+      <c r="C4" s="78">
         <v>1.2</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="87" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="86" t="s">
+      <c r="F4" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="89" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="77" t="s">
-        <v>401</v>
-      </c>
-      <c r="B5" s="77">
+      <c r="A5" s="78" t="s">
+        <v>403</v>
+      </c>
+      <c r="B5" s="78">
         <v>2.0</v>
       </c>
-      <c r="C5" s="77">
+      <c r="C5" s="78">
         <v>1.2</v>
       </c>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="87" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="86" t="s">
+      <c r="F5" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="89" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="77" t="s">
-        <v>402</v>
-      </c>
-      <c r="B6" s="77">
+      <c r="A6" s="78" t="s">
+        <v>404</v>
+      </c>
+      <c r="B6" s="78">
         <v>3.0</v>
       </c>
-      <c r="C6" s="77">
+      <c r="C6" s="78">
         <v>1.2</v>
       </c>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="87" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="86" t="s">
+      <c r="F6" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="89" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="77" t="s">
-        <v>403</v>
-      </c>
-      <c r="B7" s="77">
+      <c r="A7" s="78" t="s">
+        <v>405</v>
+      </c>
+      <c r="B7" s="78">
         <v>4.0</v>
       </c>
-      <c r="C7" s="77">
+      <c r="C7" s="78">
         <v>1.2</v>
       </c>
-      <c r="D7" s="87" t="s">
+      <c r="D7" s="90" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="86" t="s">
+      <c r="F7" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="89" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="77" t="s">
-        <v>404</v>
-      </c>
-      <c r="B8" s="77">
+      <c r="A8" s="78" t="s">
+        <v>406</v>
+      </c>
+      <c r="B8" s="78">
         <v>5.0</v>
       </c>
-      <c r="C8" s="77">
+      <c r="C8" s="78">
         <v>1.2</v>
       </c>
-      <c r="D8" s="87" t="s">
+      <c r="D8" s="90" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="86" t="s">
+      <c r="F8" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="89" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="77" t="s">
-        <v>405</v>
-      </c>
-      <c r="B9" s="77">
+      <c r="A9" s="78" t="s">
+        <v>407</v>
+      </c>
+      <c r="B9" s="78">
         <v>6.0</v>
       </c>
-      <c r="C9" s="77">
+      <c r="C9" s="78">
         <v>1.2</v>
       </c>
-      <c r="D9" s="87" t="s">
+      <c r="D9" s="90" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="86" t="s">
+      <c r="F9" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="89" t="s">
         <v>16</v>
       </c>
     </row>
@@ -15784,17 +15769,17 @@
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="78"/>
+      <c r="A19" s="81"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="78"/>
+      <c r="A20" s="81"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="78"/>
+      <c r="A22" s="81"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="78"/>
+      <c r="A23" s="81"/>
     </row>
     <row r="24" ht="15.75" customHeight="1"/>
     <row r="25" ht="15.75" customHeight="1"/>
@@ -16849,7 +16834,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="64" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>33</v>
@@ -16864,7 +16849,7 @@
       <c r="F1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="88" t="s">
+      <c r="I1" s="91" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="25" t="s">
@@ -16876,44 +16861,44 @@
       <c r="B2" s="74"/>
       <c r="C2" s="74"/>
       <c r="D2" s="75"/>
-      <c r="E2" s="89" t="s">
-        <v>407</v>
-      </c>
-      <c r="F2" s="90" t="s">
-        <v>408</v>
+      <c r="E2" s="92" t="s">
+        <v>409</v>
+      </c>
+      <c r="F2" s="93" t="s">
+        <v>410</v>
       </c>
       <c r="G2" s="65" t="s">
+        <v>411</v>
+      </c>
+      <c r="H2" s="94" t="s">
         <v>409</v>
       </c>
-      <c r="H2" s="91" t="s">
-        <v>407</v>
-      </c>
-      <c r="I2" s="83"/>
-      <c r="J2" s="92" t="s">
+      <c r="I2" s="86"/>
+      <c r="J2" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="92" t="s">
+      <c r="K2" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="92" t="s">
+      <c r="L2" s="95" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="28" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C3" s="28">
         <v>1.3</v>
       </c>
-      <c r="D3" s="93" t="s">
+      <c r="D3" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="94" t="s">
-        <v>412</v>
+      <c r="E3" s="97" t="s">
+        <v>414</v>
       </c>
       <c r="F3" s="31" t="s">
         <v>16</v>
@@ -16922,9 +16907,9 @@
         <v>19</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>413</v>
-      </c>
-      <c r="I3" s="95" t="s">
+        <v>415</v>
+      </c>
+      <c r="I3" s="98" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="61" t="s">
@@ -16939,19 +16924,19 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="28" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C4" s="28">
         <v>1.3</v>
       </c>
-      <c r="D4" s="93" t="s">
+      <c r="D4" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="94" t="s">
-        <v>412</v>
+      <c r="E4" s="97" t="s">
+        <v>414</v>
       </c>
       <c r="F4" s="31" t="s">
         <v>16</v>
@@ -16960,9 +16945,9 @@
         <v>19</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>413</v>
-      </c>
-      <c r="I4" s="95" t="s">
+        <v>415</v>
+      </c>
+      <c r="I4" s="98" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="61" t="s">
@@ -16977,19 +16962,19 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="28" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C5" s="28">
         <v>1.3</v>
       </c>
-      <c r="D5" s="93" t="s">
+      <c r="D5" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="94" t="s">
-        <v>412</v>
+      <c r="E5" s="97" t="s">
+        <v>414</v>
       </c>
       <c r="F5" s="31" t="s">
         <v>16</v>
@@ -16998,9 +16983,9 @@
         <v>19</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>413</v>
-      </c>
-      <c r="I5" s="95" t="s">
+        <v>415</v>
+      </c>
+      <c r="I5" s="98" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="61" t="s">
@@ -17015,18 +17000,18 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C6" s="28">
         <v>1.3</v>
       </c>
-      <c r="D6" s="96" t="s">
+      <c r="D6" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="96"/>
+      <c r="E6" s="99"/>
       <c r="F6" s="31" t="s">
         <v>19</v>
       </c>
@@ -17034,9 +17019,9 @@
         <v>19</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>413</v>
-      </c>
-      <c r="I6" s="95" t="s">
+        <v>415</v>
+      </c>
+      <c r="I6" s="98" t="s">
         <v>19</v>
       </c>
       <c r="J6" s="61" t="s">
@@ -17051,18 +17036,18 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C7" s="28">
         <v>1.3</v>
       </c>
-      <c r="D7" s="96" t="s">
+      <c r="D7" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="96"/>
+      <c r="E7" s="99"/>
       <c r="F7" s="31" t="s">
         <v>19</v>
       </c>
@@ -17070,9 +17055,9 @@
         <v>19</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>413</v>
-      </c>
-      <c r="I7" s="95" t="s">
+        <v>415</v>
+      </c>
+      <c r="I7" s="98" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="61" t="s">
@@ -17087,18 +17072,18 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C8" s="28">
         <v>1.3</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="96"/>
+      <c r="E8" s="99"/>
       <c r="F8" s="31" t="s">
         <v>19</v>
       </c>
@@ -17106,9 +17091,9 @@
         <v>19</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>413</v>
-      </c>
-      <c r="I8" s="95" t="s">
+        <v>415</v>
+      </c>
+      <c r="I8" s="98" t="s">
         <v>19</v>
       </c>
       <c r="J8" s="61" t="s">
@@ -17123,18 +17108,18 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C9" s="28">
         <v>1.3</v>
       </c>
-      <c r="D9" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="96"/>
+      <c r="D9" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="99"/>
       <c r="F9" s="31" t="s">
         <v>16</v>
       </c>
@@ -17142,9 +17127,9 @@
         <v>16</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>413</v>
-      </c>
-      <c r="I9" s="95" t="s">
+        <v>415</v>
+      </c>
+      <c r="I9" s="98" t="s">
         <v>19</v>
       </c>
       <c r="J9" s="61" t="s">
@@ -17159,18 +17144,18 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="28" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C10" s="28">
         <v>1.3</v>
       </c>
-      <c r="D10" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="96"/>
+      <c r="D10" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="99"/>
       <c r="F10" s="31" t="s">
         <v>16</v>
       </c>
@@ -17178,9 +17163,9 @@
         <v>16</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>413</v>
-      </c>
-      <c r="I10" s="95" t="s">
+        <v>415</v>
+      </c>
+      <c r="I10" s="98" t="s">
         <v>19</v>
       </c>
       <c r="J10" s="61" t="s">
@@ -17195,18 +17180,18 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="28" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C11" s="28">
         <v>1.3</v>
       </c>
-      <c r="D11" s="96" t="s">
+      <c r="D11" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="96"/>
+      <c r="E11" s="99"/>
       <c r="F11" s="31" t="s">
         <v>19</v>
       </c>
@@ -17214,9 +17199,9 @@
         <v>19</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>413</v>
-      </c>
-      <c r="I11" s="95" t="s">
+        <v>415</v>
+      </c>
+      <c r="I11" s="98" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="61" t="s">
@@ -17231,18 +17216,18 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="28" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C12" s="28">
         <v>1.3</v>
       </c>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="96"/>
+      <c r="E12" s="99"/>
       <c r="F12" s="31" t="s">
         <v>19</v>
       </c>
@@ -17250,9 +17235,9 @@
         <v>19</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>413</v>
-      </c>
-      <c r="I12" s="95" t="s">
+        <v>415</v>
+      </c>
+      <c r="I12" s="98" t="s">
         <v>19</v>
       </c>
       <c r="J12" s="61" t="s">
@@ -17267,18 +17252,18 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="28" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C13" s="28">
         <v>1.3</v>
       </c>
-      <c r="D13" s="96" t="s">
+      <c r="D13" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="96"/>
+      <c r="E13" s="99"/>
       <c r="F13" s="31" t="s">
         <v>19</v>
       </c>
@@ -17286,9 +17271,9 @@
         <v>19</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>413</v>
-      </c>
-      <c r="I13" s="95" t="s">
+        <v>415</v>
+      </c>
+      <c r="I13" s="98" t="s">
         <v>19</v>
       </c>
       <c r="J13" s="61" t="s">
@@ -17303,18 +17288,18 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="28" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C14" s="28">
         <v>1.3</v>
       </c>
-      <c r="D14" s="96" t="s">
+      <c r="D14" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="96"/>
+      <c r="E14" s="99"/>
       <c r="F14" s="31" t="s">
         <v>19</v>
       </c>
@@ -17322,9 +17307,9 @@
         <v>19</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>413</v>
-      </c>
-      <c r="I14" s="95" t="s">
+        <v>415</v>
+      </c>
+      <c r="I14" s="98" t="s">
         <v>19</v>
       </c>
       <c r="J14" s="61" t="s">
@@ -17339,18 +17324,18 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="28" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C15" s="28">
         <v>1.3</v>
       </c>
-      <c r="D15" s="96" t="s">
+      <c r="D15" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="96"/>
+      <c r="E15" s="99"/>
       <c r="F15" s="31" t="s">
         <v>19</v>
       </c>
@@ -17358,9 +17343,9 @@
         <v>19</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>413</v>
-      </c>
-      <c r="I15" s="95" t="s">
+        <v>415</v>
+      </c>
+      <c r="I15" s="98" t="s">
         <v>19</v>
       </c>
       <c r="J15" s="61" t="s">
@@ -17375,18 +17360,18 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="28" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C16" s="28">
         <v>1.3</v>
       </c>
-      <c r="D16" s="96" t="s">
+      <c r="D16" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="96"/>
+      <c r="E16" s="99"/>
       <c r="F16" s="31" t="s">
         <v>19</v>
       </c>
@@ -17394,9 +17379,9 @@
         <v>19</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>413</v>
-      </c>
-      <c r="I16" s="95" t="s">
+        <v>415</v>
+      </c>
+      <c r="I16" s="98" t="s">
         <v>19</v>
       </c>
       <c r="J16" s="61" t="s">
@@ -17411,18 +17396,18 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="28" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C17" s="28">
         <v>1.3</v>
       </c>
-      <c r="D17" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="96"/>
+      <c r="D17" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="99"/>
       <c r="F17" s="31" t="s">
         <v>19</v>
       </c>
@@ -17430,9 +17415,9 @@
         <v>19</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>413</v>
-      </c>
-      <c r="I17" s="95" t="s">
+        <v>415</v>
+      </c>
+      <c r="I17" s="98" t="s">
         <v>19</v>
       </c>
       <c r="J17" s="61" t="s">
@@ -17447,18 +17432,18 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="28" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C18" s="28">
         <v>1.3</v>
       </c>
-      <c r="D18" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="96"/>
+      <c r="D18" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="99"/>
       <c r="F18" s="31" t="s">
         <v>19</v>
       </c>
@@ -17466,9 +17451,9 @@
         <v>19</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>413</v>
-      </c>
-      <c r="I18" s="95" t="s">
+        <v>415</v>
+      </c>
+      <c r="I18" s="98" t="s">
         <v>19</v>
       </c>
       <c r="J18" s="61" t="s">
@@ -17483,18 +17468,18 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="28" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C19" s="28">
         <v>1.3</v>
       </c>
-      <c r="D19" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="96"/>
+      <c r="D19" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="99"/>
       <c r="F19" s="31" t="s">
         <v>19</v>
       </c>
@@ -17502,9 +17487,9 @@
         <v>19</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>413</v>
-      </c>
-      <c r="I19" s="95" t="s">
+        <v>415</v>
+      </c>
+      <c r="I19" s="98" t="s">
         <v>19</v>
       </c>
       <c r="J19" s="61" t="s">
@@ -17518,3929 +17503,3929 @@
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
+      <c r="A22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="D32" s="78"/>
-      <c r="E32" s="78"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="D38" s="78"/>
-      <c r="E38" s="78"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="D39" s="78"/>
-      <c r="E39" s="78"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="D40" s="78"/>
-      <c r="E40" s="78"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="D41" s="78"/>
-      <c r="E41" s="78"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="D42" s="78"/>
-      <c r="E42" s="78"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="D44" s="78"/>
-      <c r="E44" s="78"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="81"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="D45" s="78"/>
-      <c r="E45" s="78"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="81"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="D46" s="78"/>
-      <c r="E46" s="78"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="81"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="D47" s="78"/>
-      <c r="E47" s="78"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="81"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="D48" s="78"/>
-      <c r="E48" s="78"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="81"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="D49" s="78"/>
-      <c r="E49" s="78"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="81"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="D50" s="78"/>
-      <c r="E50" s="78"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="81"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="D51" s="78"/>
-      <c r="E51" s="78"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="81"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="D52" s="78"/>
-      <c r="E52" s="78"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="D53" s="78"/>
-      <c r="E53" s="78"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="D54" s="78"/>
-      <c r="E54" s="78"/>
+      <c r="D54" s="81"/>
+      <c r="E54" s="81"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="D55" s="78"/>
-      <c r="E55" s="78"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="D56" s="78"/>
-      <c r="E56" s="78"/>
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="D57" s="78"/>
-      <c r="E57" s="78"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="81"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="D58" s="78"/>
-      <c r="E58" s="78"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="81"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="D59" s="78"/>
-      <c r="E59" s="78"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="D60" s="78"/>
-      <c r="E60" s="78"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="D61" s="78"/>
-      <c r="E61" s="78"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="81"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="D62" s="78"/>
-      <c r="E62" s="78"/>
+      <c r="D62" s="81"/>
+      <c r="E62" s="81"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="D63" s="78"/>
-      <c r="E63" s="78"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="D64" s="78"/>
-      <c r="E64" s="78"/>
+      <c r="D64" s="81"/>
+      <c r="E64" s="81"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="D65" s="78"/>
-      <c r="E65" s="78"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="81"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="D66" s="78"/>
-      <c r="E66" s="78"/>
+      <c r="D66" s="81"/>
+      <c r="E66" s="81"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="D67" s="78"/>
-      <c r="E67" s="78"/>
+      <c r="D67" s="81"/>
+      <c r="E67" s="81"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="D68" s="78"/>
-      <c r="E68" s="78"/>
+      <c r="D68" s="81"/>
+      <c r="E68" s="81"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="D69" s="78"/>
-      <c r="E69" s="78"/>
+      <c r="D69" s="81"/>
+      <c r="E69" s="81"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="D70" s="78"/>
-      <c r="E70" s="78"/>
+      <c r="D70" s="81"/>
+      <c r="E70" s="81"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="D71" s="78"/>
-      <c r="E71" s="78"/>
+      <c r="D71" s="81"/>
+      <c r="E71" s="81"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="D72" s="78"/>
-      <c r="E72" s="78"/>
+      <c r="D72" s="81"/>
+      <c r="E72" s="81"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="D73" s="78"/>
-      <c r="E73" s="78"/>
+      <c r="D73" s="81"/>
+      <c r="E73" s="81"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="D74" s="78"/>
-      <c r="E74" s="78"/>
+      <c r="D74" s="81"/>
+      <c r="E74" s="81"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="D75" s="78"/>
-      <c r="E75" s="78"/>
+      <c r="D75" s="81"/>
+      <c r="E75" s="81"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="D76" s="78"/>
-      <c r="E76" s="78"/>
+      <c r="D76" s="81"/>
+      <c r="E76" s="81"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="D77" s="78"/>
-      <c r="E77" s="78"/>
+      <c r="D77" s="81"/>
+      <c r="E77" s="81"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="D78" s="78"/>
-      <c r="E78" s="78"/>
+      <c r="D78" s="81"/>
+      <c r="E78" s="81"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="D79" s="78"/>
-      <c r="E79" s="78"/>
+      <c r="D79" s="81"/>
+      <c r="E79" s="81"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="D80" s="78"/>
-      <c r="E80" s="78"/>
+      <c r="D80" s="81"/>
+      <c r="E80" s="81"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="D81" s="78"/>
-      <c r="E81" s="78"/>
+      <c r="D81" s="81"/>
+      <c r="E81" s="81"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="D82" s="78"/>
-      <c r="E82" s="78"/>
+      <c r="D82" s="81"/>
+      <c r="E82" s="81"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="D83" s="78"/>
-      <c r="E83" s="78"/>
+      <c r="D83" s="81"/>
+      <c r="E83" s="81"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="D84" s="78"/>
-      <c r="E84" s="78"/>
+      <c r="D84" s="81"/>
+      <c r="E84" s="81"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="D85" s="78"/>
-      <c r="E85" s="78"/>
+      <c r="D85" s="81"/>
+      <c r="E85" s="81"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="D86" s="78"/>
-      <c r="E86" s="78"/>
+      <c r="D86" s="81"/>
+      <c r="E86" s="81"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="D87" s="78"/>
-      <c r="E87" s="78"/>
+      <c r="D87" s="81"/>
+      <c r="E87" s="81"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="D88" s="78"/>
-      <c r="E88" s="78"/>
+      <c r="D88" s="81"/>
+      <c r="E88" s="81"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="D89" s="78"/>
-      <c r="E89" s="78"/>
+      <c r="D89" s="81"/>
+      <c r="E89" s="81"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="D90" s="78"/>
-      <c r="E90" s="78"/>
+      <c r="D90" s="81"/>
+      <c r="E90" s="81"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="D91" s="78"/>
-      <c r="E91" s="78"/>
+      <c r="D91" s="81"/>
+      <c r="E91" s="81"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="D92" s="78"/>
-      <c r="E92" s="78"/>
+      <c r="D92" s="81"/>
+      <c r="E92" s="81"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="D93" s="78"/>
-      <c r="E93" s="78"/>
+      <c r="D93" s="81"/>
+      <c r="E93" s="81"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="D94" s="78"/>
-      <c r="E94" s="78"/>
+      <c r="D94" s="81"/>
+      <c r="E94" s="81"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="D95" s="78"/>
-      <c r="E95" s="78"/>
+      <c r="D95" s="81"/>
+      <c r="E95" s="81"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="D96" s="78"/>
-      <c r="E96" s="78"/>
+      <c r="D96" s="81"/>
+      <c r="E96" s="81"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="D97" s="78"/>
-      <c r="E97" s="78"/>
+      <c r="D97" s="81"/>
+      <c r="E97" s="81"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="D98" s="78"/>
-      <c r="E98" s="78"/>
+      <c r="D98" s="81"/>
+      <c r="E98" s="81"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="D99" s="78"/>
-      <c r="E99" s="78"/>
+      <c r="D99" s="81"/>
+      <c r="E99" s="81"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="D100" s="78"/>
-      <c r="E100" s="78"/>
+      <c r="D100" s="81"/>
+      <c r="E100" s="81"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="D101" s="78"/>
-      <c r="E101" s="78"/>
+      <c r="D101" s="81"/>
+      <c r="E101" s="81"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="D102" s="78"/>
-      <c r="E102" s="78"/>
+      <c r="D102" s="81"/>
+      <c r="E102" s="81"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="D103" s="78"/>
-      <c r="E103" s="78"/>
+      <c r="D103" s="81"/>
+      <c r="E103" s="81"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="D104" s="78"/>
-      <c r="E104" s="78"/>
+      <c r="D104" s="81"/>
+      <c r="E104" s="81"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="D105" s="78"/>
-      <c r="E105" s="78"/>
+      <c r="D105" s="81"/>
+      <c r="E105" s="81"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="D106" s="78"/>
-      <c r="E106" s="78"/>
+      <c r="D106" s="81"/>
+      <c r="E106" s="81"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="D107" s="78"/>
-      <c r="E107" s="78"/>
+      <c r="D107" s="81"/>
+      <c r="E107" s="81"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="D108" s="78"/>
-      <c r="E108" s="78"/>
+      <c r="D108" s="81"/>
+      <c r="E108" s="81"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="D109" s="78"/>
-      <c r="E109" s="78"/>
+      <c r="D109" s="81"/>
+      <c r="E109" s="81"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="D110" s="78"/>
-      <c r="E110" s="78"/>
+      <c r="D110" s="81"/>
+      <c r="E110" s="81"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="D111" s="78"/>
-      <c r="E111" s="78"/>
+      <c r="D111" s="81"/>
+      <c r="E111" s="81"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="D112" s="78"/>
-      <c r="E112" s="78"/>
+      <c r="D112" s="81"/>
+      <c r="E112" s="81"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="D113" s="78"/>
-      <c r="E113" s="78"/>
+      <c r="D113" s="81"/>
+      <c r="E113" s="81"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="D114" s="78"/>
-      <c r="E114" s="78"/>
+      <c r="D114" s="81"/>
+      <c r="E114" s="81"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="D115" s="78"/>
-      <c r="E115" s="78"/>
+      <c r="D115" s="81"/>
+      <c r="E115" s="81"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="D116" s="78"/>
-      <c r="E116" s="78"/>
+      <c r="D116" s="81"/>
+      <c r="E116" s="81"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="D117" s="78"/>
-      <c r="E117" s="78"/>
+      <c r="D117" s="81"/>
+      <c r="E117" s="81"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="D118" s="78"/>
-      <c r="E118" s="78"/>
+      <c r="D118" s="81"/>
+      <c r="E118" s="81"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="D119" s="78"/>
-      <c r="E119" s="78"/>
+      <c r="D119" s="81"/>
+      <c r="E119" s="81"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="D120" s="78"/>
-      <c r="E120" s="78"/>
+      <c r="D120" s="81"/>
+      <c r="E120" s="81"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="D121" s="78"/>
-      <c r="E121" s="78"/>
+      <c r="D121" s="81"/>
+      <c r="E121" s="81"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="D122" s="78"/>
-      <c r="E122" s="78"/>
+      <c r="D122" s="81"/>
+      <c r="E122" s="81"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="D123" s="78"/>
-      <c r="E123" s="78"/>
+      <c r="D123" s="81"/>
+      <c r="E123" s="81"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="D124" s="78"/>
-      <c r="E124" s="78"/>
+      <c r="D124" s="81"/>
+      <c r="E124" s="81"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="D125" s="78"/>
-      <c r="E125" s="78"/>
+      <c r="D125" s="81"/>
+      <c r="E125" s="81"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="D126" s="78"/>
-      <c r="E126" s="78"/>
+      <c r="D126" s="81"/>
+      <c r="E126" s="81"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="D127" s="78"/>
-      <c r="E127" s="78"/>
+      <c r="D127" s="81"/>
+      <c r="E127" s="81"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="D128" s="78"/>
-      <c r="E128" s="78"/>
+      <c r="D128" s="81"/>
+      <c r="E128" s="81"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="D129" s="78"/>
-      <c r="E129" s="78"/>
+      <c r="D129" s="81"/>
+      <c r="E129" s="81"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="D130" s="78"/>
-      <c r="E130" s="78"/>
+      <c r="D130" s="81"/>
+      <c r="E130" s="81"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="D131" s="78"/>
-      <c r="E131" s="78"/>
+      <c r="D131" s="81"/>
+      <c r="E131" s="81"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="D132" s="78"/>
-      <c r="E132" s="78"/>
+      <c r="D132" s="81"/>
+      <c r="E132" s="81"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="D133" s="78"/>
-      <c r="E133" s="78"/>
+      <c r="D133" s="81"/>
+      <c r="E133" s="81"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="D134" s="78"/>
-      <c r="E134" s="78"/>
+      <c r="D134" s="81"/>
+      <c r="E134" s="81"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="D135" s="78"/>
-      <c r="E135" s="78"/>
+      <c r="D135" s="81"/>
+      <c r="E135" s="81"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="D136" s="78"/>
-      <c r="E136" s="78"/>
+      <c r="D136" s="81"/>
+      <c r="E136" s="81"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="D137" s="78"/>
-      <c r="E137" s="78"/>
+      <c r="D137" s="81"/>
+      <c r="E137" s="81"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="D138" s="78"/>
-      <c r="E138" s="78"/>
+      <c r="D138" s="81"/>
+      <c r="E138" s="81"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="D139" s="78"/>
-      <c r="E139" s="78"/>
+      <c r="D139" s="81"/>
+      <c r="E139" s="81"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="D140" s="78"/>
-      <c r="E140" s="78"/>
+      <c r="D140" s="81"/>
+      <c r="E140" s="81"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="D141" s="78"/>
-      <c r="E141" s="78"/>
+      <c r="D141" s="81"/>
+      <c r="E141" s="81"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="D142" s="78"/>
-      <c r="E142" s="78"/>
+      <c r="D142" s="81"/>
+      <c r="E142" s="81"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="D143" s="78"/>
-      <c r="E143" s="78"/>
+      <c r="D143" s="81"/>
+      <c r="E143" s="81"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="D144" s="78"/>
-      <c r="E144" s="78"/>
+      <c r="D144" s="81"/>
+      <c r="E144" s="81"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="D145" s="78"/>
-      <c r="E145" s="78"/>
+      <c r="D145" s="81"/>
+      <c r="E145" s="81"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="D146" s="78"/>
-      <c r="E146" s="78"/>
+      <c r="D146" s="81"/>
+      <c r="E146" s="81"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="D147" s="78"/>
-      <c r="E147" s="78"/>
+      <c r="D147" s="81"/>
+      <c r="E147" s="81"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="D148" s="78"/>
-      <c r="E148" s="78"/>
+      <c r="D148" s="81"/>
+      <c r="E148" s="81"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="D149" s="78"/>
-      <c r="E149" s="78"/>
+      <c r="D149" s="81"/>
+      <c r="E149" s="81"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="D150" s="78"/>
-      <c r="E150" s="78"/>
+      <c r="D150" s="81"/>
+      <c r="E150" s="81"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="D151" s="78"/>
-      <c r="E151" s="78"/>
+      <c r="D151" s="81"/>
+      <c r="E151" s="81"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="D152" s="78"/>
-      <c r="E152" s="78"/>
+      <c r="D152" s="81"/>
+      <c r="E152" s="81"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="D153" s="78"/>
-      <c r="E153" s="78"/>
+      <c r="D153" s="81"/>
+      <c r="E153" s="81"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="D154" s="78"/>
-      <c r="E154" s="78"/>
+      <c r="D154" s="81"/>
+      <c r="E154" s="81"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="D155" s="78"/>
-      <c r="E155" s="78"/>
+      <c r="D155" s="81"/>
+      <c r="E155" s="81"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="D156" s="78"/>
-      <c r="E156" s="78"/>
+      <c r="D156" s="81"/>
+      <c r="E156" s="81"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="D157" s="78"/>
-      <c r="E157" s="78"/>
+      <c r="D157" s="81"/>
+      <c r="E157" s="81"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="D158" s="78"/>
-      <c r="E158" s="78"/>
+      <c r="D158" s="81"/>
+      <c r="E158" s="81"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="D159" s="78"/>
-      <c r="E159" s="78"/>
+      <c r="D159" s="81"/>
+      <c r="E159" s="81"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="D160" s="78"/>
-      <c r="E160" s="78"/>
+      <c r="D160" s="81"/>
+      <c r="E160" s="81"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="D161" s="78"/>
-      <c r="E161" s="78"/>
+      <c r="D161" s="81"/>
+      <c r="E161" s="81"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="D162" s="78"/>
-      <c r="E162" s="78"/>
+      <c r="D162" s="81"/>
+      <c r="E162" s="81"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="D163" s="78"/>
-      <c r="E163" s="78"/>
+      <c r="D163" s="81"/>
+      <c r="E163" s="81"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="D164" s="78"/>
-      <c r="E164" s="78"/>
+      <c r="D164" s="81"/>
+      <c r="E164" s="81"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="D165" s="78"/>
-      <c r="E165" s="78"/>
+      <c r="D165" s="81"/>
+      <c r="E165" s="81"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="D166" s="78"/>
-      <c r="E166" s="78"/>
+      <c r="D166" s="81"/>
+      <c r="E166" s="81"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="D167" s="78"/>
-      <c r="E167" s="78"/>
+      <c r="D167" s="81"/>
+      <c r="E167" s="81"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="D168" s="78"/>
-      <c r="E168" s="78"/>
+      <c r="D168" s="81"/>
+      <c r="E168" s="81"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="D169" s="78"/>
-      <c r="E169" s="78"/>
+      <c r="D169" s="81"/>
+      <c r="E169" s="81"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="D170" s="78"/>
-      <c r="E170" s="78"/>
+      <c r="D170" s="81"/>
+      <c r="E170" s="81"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="D171" s="78"/>
-      <c r="E171" s="78"/>
+      <c r="D171" s="81"/>
+      <c r="E171" s="81"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="D172" s="78"/>
-      <c r="E172" s="78"/>
+      <c r="D172" s="81"/>
+      <c r="E172" s="81"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="D173" s="78"/>
-      <c r="E173" s="78"/>
+      <c r="D173" s="81"/>
+      <c r="E173" s="81"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="D174" s="78"/>
-      <c r="E174" s="78"/>
+      <c r="D174" s="81"/>
+      <c r="E174" s="81"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="D175" s="78"/>
-      <c r="E175" s="78"/>
+      <c r="D175" s="81"/>
+      <c r="E175" s="81"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="D176" s="78"/>
-      <c r="E176" s="78"/>
+      <c r="D176" s="81"/>
+      <c r="E176" s="81"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="D177" s="78"/>
-      <c r="E177" s="78"/>
+      <c r="D177" s="81"/>
+      <c r="E177" s="81"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="D178" s="78"/>
-      <c r="E178" s="78"/>
+      <c r="D178" s="81"/>
+      <c r="E178" s="81"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="D179" s="78"/>
-      <c r="E179" s="78"/>
+      <c r="D179" s="81"/>
+      <c r="E179" s="81"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="D180" s="78"/>
-      <c r="E180" s="78"/>
+      <c r="D180" s="81"/>
+      <c r="E180" s="81"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="D181" s="78"/>
-      <c r="E181" s="78"/>
+      <c r="D181" s="81"/>
+      <c r="E181" s="81"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="D182" s="78"/>
-      <c r="E182" s="78"/>
+      <c r="D182" s="81"/>
+      <c r="E182" s="81"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="D183" s="78"/>
-      <c r="E183" s="78"/>
+      <c r="D183" s="81"/>
+      <c r="E183" s="81"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="D184" s="78"/>
-      <c r="E184" s="78"/>
+      <c r="D184" s="81"/>
+      <c r="E184" s="81"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="D185" s="78"/>
-      <c r="E185" s="78"/>
+      <c r="D185" s="81"/>
+      <c r="E185" s="81"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="D186" s="78"/>
-      <c r="E186" s="78"/>
+      <c r="D186" s="81"/>
+      <c r="E186" s="81"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="D187" s="78"/>
-      <c r="E187" s="78"/>
+      <c r="D187" s="81"/>
+      <c r="E187" s="81"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="D188" s="78"/>
-      <c r="E188" s="78"/>
+      <c r="D188" s="81"/>
+      <c r="E188" s="81"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="D189" s="78"/>
-      <c r="E189" s="78"/>
+      <c r="D189" s="81"/>
+      <c r="E189" s="81"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="D190" s="78"/>
-      <c r="E190" s="78"/>
+      <c r="D190" s="81"/>
+      <c r="E190" s="81"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="D191" s="78"/>
-      <c r="E191" s="78"/>
+      <c r="D191" s="81"/>
+      <c r="E191" s="81"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="D192" s="78"/>
-      <c r="E192" s="78"/>
+      <c r="D192" s="81"/>
+      <c r="E192" s="81"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="D193" s="78"/>
-      <c r="E193" s="78"/>
+      <c r="D193" s="81"/>
+      <c r="E193" s="81"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="D194" s="78"/>
-      <c r="E194" s="78"/>
+      <c r="D194" s="81"/>
+      <c r="E194" s="81"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="D195" s="78"/>
-      <c r="E195" s="78"/>
+      <c r="D195" s="81"/>
+      <c r="E195" s="81"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="D196" s="78"/>
-      <c r="E196" s="78"/>
+      <c r="D196" s="81"/>
+      <c r="E196" s="81"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="D197" s="78"/>
-      <c r="E197" s="78"/>
+      <c r="D197" s="81"/>
+      <c r="E197" s="81"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="D198" s="78"/>
-      <c r="E198" s="78"/>
+      <c r="D198" s="81"/>
+      <c r="E198" s="81"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="D199" s="78"/>
-      <c r="E199" s="78"/>
+      <c r="D199" s="81"/>
+      <c r="E199" s="81"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="D200" s="78"/>
-      <c r="E200" s="78"/>
+      <c r="D200" s="81"/>
+      <c r="E200" s="81"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="D201" s="78"/>
-      <c r="E201" s="78"/>
+      <c r="D201" s="81"/>
+      <c r="E201" s="81"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="D202" s="78"/>
-      <c r="E202" s="78"/>
+      <c r="D202" s="81"/>
+      <c r="E202" s="81"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="D203" s="78"/>
-      <c r="E203" s="78"/>
+      <c r="D203" s="81"/>
+      <c r="E203" s="81"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="D204" s="78"/>
-      <c r="E204" s="78"/>
+      <c r="D204" s="81"/>
+      <c r="E204" s="81"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="D205" s="78"/>
-      <c r="E205" s="78"/>
+      <c r="D205" s="81"/>
+      <c r="E205" s="81"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="D206" s="78"/>
-      <c r="E206" s="78"/>
+      <c r="D206" s="81"/>
+      <c r="E206" s="81"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="D207" s="78"/>
-      <c r="E207" s="78"/>
+      <c r="D207" s="81"/>
+      <c r="E207" s="81"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="D208" s="78"/>
-      <c r="E208" s="78"/>
+      <c r="D208" s="81"/>
+      <c r="E208" s="81"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="D209" s="78"/>
-      <c r="E209" s="78"/>
+      <c r="D209" s="81"/>
+      <c r="E209" s="81"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="D210" s="78"/>
-      <c r="E210" s="78"/>
+      <c r="D210" s="81"/>
+      <c r="E210" s="81"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="D211" s="78"/>
-      <c r="E211" s="78"/>
+      <c r="D211" s="81"/>
+      <c r="E211" s="81"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="D212" s="78"/>
-      <c r="E212" s="78"/>
+      <c r="D212" s="81"/>
+      <c r="E212" s="81"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="D213" s="78"/>
-      <c r="E213" s="78"/>
+      <c r="D213" s="81"/>
+      <c r="E213" s="81"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="D214" s="78"/>
-      <c r="E214" s="78"/>
+      <c r="D214" s="81"/>
+      <c r="E214" s="81"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="D215" s="78"/>
-      <c r="E215" s="78"/>
+      <c r="D215" s="81"/>
+      <c r="E215" s="81"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="D216" s="78"/>
-      <c r="E216" s="78"/>
+      <c r="D216" s="81"/>
+      <c r="E216" s="81"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="D217" s="78"/>
-      <c r="E217" s="78"/>
+      <c r="D217" s="81"/>
+      <c r="E217" s="81"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="D218" s="78"/>
-      <c r="E218" s="78"/>
+      <c r="D218" s="81"/>
+      <c r="E218" s="81"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="D219" s="78"/>
-      <c r="E219" s="78"/>
+      <c r="D219" s="81"/>
+      <c r="E219" s="81"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="D220" s="78"/>
-      <c r="E220" s="78"/>
+      <c r="D220" s="81"/>
+      <c r="E220" s="81"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="D221" s="78"/>
-      <c r="E221" s="78"/>
+      <c r="D221" s="81"/>
+      <c r="E221" s="81"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="D222" s="78"/>
-      <c r="E222" s="78"/>
+      <c r="D222" s="81"/>
+      <c r="E222" s="81"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="D223" s="78"/>
-      <c r="E223" s="78"/>
+      <c r="D223" s="81"/>
+      <c r="E223" s="81"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="D224" s="78"/>
-      <c r="E224" s="78"/>
+      <c r="D224" s="81"/>
+      <c r="E224" s="81"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="D225" s="78"/>
-      <c r="E225" s="78"/>
+      <c r="D225" s="81"/>
+      <c r="E225" s="81"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="D226" s="78"/>
-      <c r="E226" s="78"/>
+      <c r="D226" s="81"/>
+      <c r="E226" s="81"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="D227" s="78"/>
-      <c r="E227" s="78"/>
+      <c r="D227" s="81"/>
+      <c r="E227" s="81"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="D228" s="78"/>
-      <c r="E228" s="78"/>
+      <c r="D228" s="81"/>
+      <c r="E228" s="81"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="D229" s="78"/>
-      <c r="E229" s="78"/>
+      <c r="D229" s="81"/>
+      <c r="E229" s="81"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="D230" s="78"/>
-      <c r="E230" s="78"/>
+      <c r="D230" s="81"/>
+      <c r="E230" s="81"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="D231" s="78"/>
-      <c r="E231" s="78"/>
+      <c r="D231" s="81"/>
+      <c r="E231" s="81"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="D232" s="78"/>
-      <c r="E232" s="78"/>
+      <c r="D232" s="81"/>
+      <c r="E232" s="81"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="D233" s="78"/>
-      <c r="E233" s="78"/>
+      <c r="D233" s="81"/>
+      <c r="E233" s="81"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="D234" s="78"/>
-      <c r="E234" s="78"/>
+      <c r="D234" s="81"/>
+      <c r="E234" s="81"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="D235" s="78"/>
-      <c r="E235" s="78"/>
+      <c r="D235" s="81"/>
+      <c r="E235" s="81"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="D236" s="78"/>
-      <c r="E236" s="78"/>
+      <c r="D236" s="81"/>
+      <c r="E236" s="81"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="D237" s="78"/>
-      <c r="E237" s="78"/>
+      <c r="D237" s="81"/>
+      <c r="E237" s="81"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="D238" s="78"/>
-      <c r="E238" s="78"/>
+      <c r="D238" s="81"/>
+      <c r="E238" s="81"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="D239" s="78"/>
-      <c r="E239" s="78"/>
+      <c r="D239" s="81"/>
+      <c r="E239" s="81"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="D240" s="78"/>
-      <c r="E240" s="78"/>
+      <c r="D240" s="81"/>
+      <c r="E240" s="81"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="D241" s="78"/>
-      <c r="E241" s="78"/>
+      <c r="D241" s="81"/>
+      <c r="E241" s="81"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="D242" s="78"/>
-      <c r="E242" s="78"/>
+      <c r="D242" s="81"/>
+      <c r="E242" s="81"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="D243" s="78"/>
-      <c r="E243" s="78"/>
+      <c r="D243" s="81"/>
+      <c r="E243" s="81"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="D244" s="78"/>
-      <c r="E244" s="78"/>
+      <c r="D244" s="81"/>
+      <c r="E244" s="81"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="D245" s="78"/>
-      <c r="E245" s="78"/>
+      <c r="D245" s="81"/>
+      <c r="E245" s="81"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="D246" s="78"/>
-      <c r="E246" s="78"/>
+      <c r="D246" s="81"/>
+      <c r="E246" s="81"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="D247" s="78"/>
-      <c r="E247" s="78"/>
+      <c r="D247" s="81"/>
+      <c r="E247" s="81"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="D248" s="78"/>
-      <c r="E248" s="78"/>
+      <c r="D248" s="81"/>
+      <c r="E248" s="81"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="D249" s="78"/>
-      <c r="E249" s="78"/>
+      <c r="D249" s="81"/>
+      <c r="E249" s="81"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="D250" s="78"/>
-      <c r="E250" s="78"/>
+      <c r="D250" s="81"/>
+      <c r="E250" s="81"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="D251" s="78"/>
-      <c r="E251" s="78"/>
+      <c r="D251" s="81"/>
+      <c r="E251" s="81"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="D252" s="78"/>
-      <c r="E252" s="78"/>
+      <c r="D252" s="81"/>
+      <c r="E252" s="81"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="D253" s="78"/>
-      <c r="E253" s="78"/>
+      <c r="D253" s="81"/>
+      <c r="E253" s="81"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="D254" s="78"/>
-      <c r="E254" s="78"/>
+      <c r="D254" s="81"/>
+      <c r="E254" s="81"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="D255" s="78"/>
-      <c r="E255" s="78"/>
+      <c r="D255" s="81"/>
+      <c r="E255" s="81"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="D256" s="78"/>
-      <c r="E256" s="78"/>
+      <c r="D256" s="81"/>
+      <c r="E256" s="81"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="D257" s="78"/>
-      <c r="E257" s="78"/>
+      <c r="D257" s="81"/>
+      <c r="E257" s="81"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="D258" s="78"/>
-      <c r="E258" s="78"/>
+      <c r="D258" s="81"/>
+      <c r="E258" s="81"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="D259" s="78"/>
-      <c r="E259" s="78"/>
+      <c r="D259" s="81"/>
+      <c r="E259" s="81"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="D260" s="78"/>
-      <c r="E260" s="78"/>
+      <c r="D260" s="81"/>
+      <c r="E260" s="81"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="D261" s="78"/>
-      <c r="E261" s="78"/>
+      <c r="D261" s="81"/>
+      <c r="E261" s="81"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="D262" s="78"/>
-      <c r="E262" s="78"/>
+      <c r="D262" s="81"/>
+      <c r="E262" s="81"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="D263" s="78"/>
-      <c r="E263" s="78"/>
+      <c r="D263" s="81"/>
+      <c r="E263" s="81"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="D264" s="78"/>
-      <c r="E264" s="78"/>
+      <c r="D264" s="81"/>
+      <c r="E264" s="81"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="D265" s="78"/>
-      <c r="E265" s="78"/>
+      <c r="D265" s="81"/>
+      <c r="E265" s="81"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="D266" s="78"/>
-      <c r="E266" s="78"/>
+      <c r="D266" s="81"/>
+      <c r="E266" s="81"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="D267" s="78"/>
-      <c r="E267" s="78"/>
+      <c r="D267" s="81"/>
+      <c r="E267" s="81"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="D268" s="78"/>
-      <c r="E268" s="78"/>
+      <c r="D268" s="81"/>
+      <c r="E268" s="81"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="D269" s="78"/>
-      <c r="E269" s="78"/>
+      <c r="D269" s="81"/>
+      <c r="E269" s="81"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="D270" s="78"/>
-      <c r="E270" s="78"/>
+      <c r="D270" s="81"/>
+      <c r="E270" s="81"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="D271" s="78"/>
-      <c r="E271" s="78"/>
+      <c r="D271" s="81"/>
+      <c r="E271" s="81"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="D272" s="78"/>
-      <c r="E272" s="78"/>
+      <c r="D272" s="81"/>
+      <c r="E272" s="81"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="D273" s="78"/>
-      <c r="E273" s="78"/>
+      <c r="D273" s="81"/>
+      <c r="E273" s="81"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="D274" s="78"/>
-      <c r="E274" s="78"/>
+      <c r="D274" s="81"/>
+      <c r="E274" s="81"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="D275" s="78"/>
-      <c r="E275" s="78"/>
+      <c r="D275" s="81"/>
+      <c r="E275" s="81"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="D276" s="78"/>
-      <c r="E276" s="78"/>
+      <c r="D276" s="81"/>
+      <c r="E276" s="81"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="D277" s="78"/>
-      <c r="E277" s="78"/>
+      <c r="D277" s="81"/>
+      <c r="E277" s="81"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="D278" s="78"/>
-      <c r="E278" s="78"/>
+      <c r="D278" s="81"/>
+      <c r="E278" s="81"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="D279" s="78"/>
-      <c r="E279" s="78"/>
+      <c r="D279" s="81"/>
+      <c r="E279" s="81"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="D280" s="78"/>
-      <c r="E280" s="78"/>
+      <c r="D280" s="81"/>
+      <c r="E280" s="81"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="D281" s="78"/>
-      <c r="E281" s="78"/>
+      <c r="D281" s="81"/>
+      <c r="E281" s="81"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="D282" s="78"/>
-      <c r="E282" s="78"/>
+      <c r="D282" s="81"/>
+      <c r="E282" s="81"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="D283" s="78"/>
-      <c r="E283" s="78"/>
+      <c r="D283" s="81"/>
+      <c r="E283" s="81"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="D284" s="78"/>
-      <c r="E284" s="78"/>
+      <c r="D284" s="81"/>
+      <c r="E284" s="81"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="D285" s="78"/>
-      <c r="E285" s="78"/>
+      <c r="D285" s="81"/>
+      <c r="E285" s="81"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="D286" s="78"/>
-      <c r="E286" s="78"/>
+      <c r="D286" s="81"/>
+      <c r="E286" s="81"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="D287" s="78"/>
-      <c r="E287" s="78"/>
+      <c r="D287" s="81"/>
+      <c r="E287" s="81"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="D288" s="78"/>
-      <c r="E288" s="78"/>
+      <c r="D288" s="81"/>
+      <c r="E288" s="81"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="D289" s="78"/>
-      <c r="E289" s="78"/>
+      <c r="D289" s="81"/>
+      <c r="E289" s="81"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="D290" s="78"/>
-      <c r="E290" s="78"/>
+      <c r="D290" s="81"/>
+      <c r="E290" s="81"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="D291" s="78"/>
-      <c r="E291" s="78"/>
+      <c r="D291" s="81"/>
+      <c r="E291" s="81"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="D292" s="78"/>
-      <c r="E292" s="78"/>
+      <c r="D292" s="81"/>
+      <c r="E292" s="81"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="D293" s="78"/>
-      <c r="E293" s="78"/>
+      <c r="D293" s="81"/>
+      <c r="E293" s="81"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="D294" s="78"/>
-      <c r="E294" s="78"/>
+      <c r="D294" s="81"/>
+      <c r="E294" s="81"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="D295" s="78"/>
-      <c r="E295" s="78"/>
+      <c r="D295" s="81"/>
+      <c r="E295" s="81"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="D296" s="78"/>
-      <c r="E296" s="78"/>
+      <c r="D296" s="81"/>
+      <c r="E296" s="81"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="D297" s="78"/>
-      <c r="E297" s="78"/>
+      <c r="D297" s="81"/>
+      <c r="E297" s="81"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="D298" s="78"/>
-      <c r="E298" s="78"/>
+      <c r="D298" s="81"/>
+      <c r="E298" s="81"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="D299" s="78"/>
-      <c r="E299" s="78"/>
+      <c r="D299" s="81"/>
+      <c r="E299" s="81"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="D300" s="78"/>
-      <c r="E300" s="78"/>
+      <c r="D300" s="81"/>
+      <c r="E300" s="81"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="D301" s="78"/>
-      <c r="E301" s="78"/>
+      <c r="D301" s="81"/>
+      <c r="E301" s="81"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="D302" s="78"/>
-      <c r="E302" s="78"/>
+      <c r="D302" s="81"/>
+      <c r="E302" s="81"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="D303" s="78"/>
-      <c r="E303" s="78"/>
+      <c r="D303" s="81"/>
+      <c r="E303" s="81"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="D304" s="78"/>
-      <c r="E304" s="78"/>
+      <c r="D304" s="81"/>
+      <c r="E304" s="81"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="D305" s="78"/>
-      <c r="E305" s="78"/>
+      <c r="D305" s="81"/>
+      <c r="E305" s="81"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="D306" s="78"/>
-      <c r="E306" s="78"/>
+      <c r="D306" s="81"/>
+      <c r="E306" s="81"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="D307" s="78"/>
-      <c r="E307" s="78"/>
+      <c r="D307" s="81"/>
+      <c r="E307" s="81"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="D308" s="78"/>
-      <c r="E308" s="78"/>
+      <c r="D308" s="81"/>
+      <c r="E308" s="81"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="D309" s="78"/>
-      <c r="E309" s="78"/>
+      <c r="D309" s="81"/>
+      <c r="E309" s="81"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="D310" s="78"/>
-      <c r="E310" s="78"/>
+      <c r="D310" s="81"/>
+      <c r="E310" s="81"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="D311" s="78"/>
-      <c r="E311" s="78"/>
+      <c r="D311" s="81"/>
+      <c r="E311" s="81"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="D312" s="78"/>
-      <c r="E312" s="78"/>
+      <c r="D312" s="81"/>
+      <c r="E312" s="81"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="D313" s="78"/>
-      <c r="E313" s="78"/>
+      <c r="D313" s="81"/>
+      <c r="E313" s="81"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="D314" s="78"/>
-      <c r="E314" s="78"/>
+      <c r="D314" s="81"/>
+      <c r="E314" s="81"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="D315" s="78"/>
-      <c r="E315" s="78"/>
+      <c r="D315" s="81"/>
+      <c r="E315" s="81"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="D316" s="78"/>
-      <c r="E316" s="78"/>
+      <c r="D316" s="81"/>
+      <c r="E316" s="81"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="D317" s="78"/>
-      <c r="E317" s="78"/>
+      <c r="D317" s="81"/>
+      <c r="E317" s="81"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="D318" s="78"/>
-      <c r="E318" s="78"/>
+      <c r="D318" s="81"/>
+      <c r="E318" s="81"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="D319" s="78"/>
-      <c r="E319" s="78"/>
+      <c r="D319" s="81"/>
+      <c r="E319" s="81"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="D320" s="78"/>
-      <c r="E320" s="78"/>
+      <c r="D320" s="81"/>
+      <c r="E320" s="81"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="D321" s="78"/>
-      <c r="E321" s="78"/>
+      <c r="D321" s="81"/>
+      <c r="E321" s="81"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="D322" s="78"/>
-      <c r="E322" s="78"/>
+      <c r="D322" s="81"/>
+      <c r="E322" s="81"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="D323" s="78"/>
-      <c r="E323" s="78"/>
+      <c r="D323" s="81"/>
+      <c r="E323" s="81"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="D324" s="78"/>
-      <c r="E324" s="78"/>
+      <c r="D324" s="81"/>
+      <c r="E324" s="81"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="D325" s="78"/>
-      <c r="E325" s="78"/>
+      <c r="D325" s="81"/>
+      <c r="E325" s="81"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="D326" s="78"/>
-      <c r="E326" s="78"/>
+      <c r="D326" s="81"/>
+      <c r="E326" s="81"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="D327" s="78"/>
-      <c r="E327" s="78"/>
+      <c r="D327" s="81"/>
+      <c r="E327" s="81"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="D328" s="78"/>
-      <c r="E328" s="78"/>
+      <c r="D328" s="81"/>
+      <c r="E328" s="81"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="D329" s="78"/>
-      <c r="E329" s="78"/>
+      <c r="D329" s="81"/>
+      <c r="E329" s="81"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="D330" s="78"/>
-      <c r="E330" s="78"/>
+      <c r="D330" s="81"/>
+      <c r="E330" s="81"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="D331" s="78"/>
-      <c r="E331" s="78"/>
+      <c r="D331" s="81"/>
+      <c r="E331" s="81"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="D332" s="78"/>
-      <c r="E332" s="78"/>
+      <c r="D332" s="81"/>
+      <c r="E332" s="81"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="D333" s="78"/>
-      <c r="E333" s="78"/>
+      <c r="D333" s="81"/>
+      <c r="E333" s="81"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="D334" s="78"/>
-      <c r="E334" s="78"/>
+      <c r="D334" s="81"/>
+      <c r="E334" s="81"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="D335" s="78"/>
-      <c r="E335" s="78"/>
+      <c r="D335" s="81"/>
+      <c r="E335" s="81"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="D336" s="78"/>
-      <c r="E336" s="78"/>
+      <c r="D336" s="81"/>
+      <c r="E336" s="81"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="D337" s="78"/>
-      <c r="E337" s="78"/>
+      <c r="D337" s="81"/>
+      <c r="E337" s="81"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="D338" s="78"/>
-      <c r="E338" s="78"/>
+      <c r="D338" s="81"/>
+      <c r="E338" s="81"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="D339" s="78"/>
-      <c r="E339" s="78"/>
+      <c r="D339" s="81"/>
+      <c r="E339" s="81"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="D340" s="78"/>
-      <c r="E340" s="78"/>
+      <c r="D340" s="81"/>
+      <c r="E340" s="81"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="D341" s="78"/>
-      <c r="E341" s="78"/>
+      <c r="D341" s="81"/>
+      <c r="E341" s="81"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="D342" s="78"/>
-      <c r="E342" s="78"/>
+      <c r="D342" s="81"/>
+      <c r="E342" s="81"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="D343" s="78"/>
-      <c r="E343" s="78"/>
+      <c r="D343" s="81"/>
+      <c r="E343" s="81"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="D344" s="78"/>
-      <c r="E344" s="78"/>
+      <c r="D344" s="81"/>
+      <c r="E344" s="81"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="D345" s="78"/>
-      <c r="E345" s="78"/>
+      <c r="D345" s="81"/>
+      <c r="E345" s="81"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="D346" s="78"/>
-      <c r="E346" s="78"/>
+      <c r="D346" s="81"/>
+      <c r="E346" s="81"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="D347" s="78"/>
-      <c r="E347" s="78"/>
+      <c r="D347" s="81"/>
+      <c r="E347" s="81"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="D348" s="78"/>
-      <c r="E348" s="78"/>
+      <c r="D348" s="81"/>
+      <c r="E348" s="81"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="D349" s="78"/>
-      <c r="E349" s="78"/>
+      <c r="D349" s="81"/>
+      <c r="E349" s="81"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="D350" s="78"/>
-      <c r="E350" s="78"/>
+      <c r="D350" s="81"/>
+      <c r="E350" s="81"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="D351" s="78"/>
-      <c r="E351" s="78"/>
+      <c r="D351" s="81"/>
+      <c r="E351" s="81"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="D352" s="78"/>
-      <c r="E352" s="78"/>
+      <c r="D352" s="81"/>
+      <c r="E352" s="81"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="D353" s="78"/>
-      <c r="E353" s="78"/>
+      <c r="D353" s="81"/>
+      <c r="E353" s="81"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="D354" s="78"/>
-      <c r="E354" s="78"/>
+      <c r="D354" s="81"/>
+      <c r="E354" s="81"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="D355" s="78"/>
-      <c r="E355" s="78"/>
+      <c r="D355" s="81"/>
+      <c r="E355" s="81"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="D356" s="78"/>
-      <c r="E356" s="78"/>
+      <c r="D356" s="81"/>
+      <c r="E356" s="81"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="D357" s="78"/>
-      <c r="E357" s="78"/>
+      <c r="D357" s="81"/>
+      <c r="E357" s="81"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="D358" s="78"/>
-      <c r="E358" s="78"/>
+      <c r="D358" s="81"/>
+      <c r="E358" s="81"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="D359" s="78"/>
-      <c r="E359" s="78"/>
+      <c r="D359" s="81"/>
+      <c r="E359" s="81"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="D360" s="78"/>
-      <c r="E360" s="78"/>
+      <c r="D360" s="81"/>
+      <c r="E360" s="81"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="D361" s="78"/>
-      <c r="E361" s="78"/>
+      <c r="D361" s="81"/>
+      <c r="E361" s="81"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="D362" s="78"/>
-      <c r="E362" s="78"/>
+      <c r="D362" s="81"/>
+      <c r="E362" s="81"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="D363" s="78"/>
-      <c r="E363" s="78"/>
+      <c r="D363" s="81"/>
+      <c r="E363" s="81"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="D364" s="78"/>
-      <c r="E364" s="78"/>
+      <c r="D364" s="81"/>
+      <c r="E364" s="81"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="D365" s="78"/>
-      <c r="E365" s="78"/>
+      <c r="D365" s="81"/>
+      <c r="E365" s="81"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="D366" s="78"/>
-      <c r="E366" s="78"/>
+      <c r="D366" s="81"/>
+      <c r="E366" s="81"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="D367" s="78"/>
-      <c r="E367" s="78"/>
+      <c r="D367" s="81"/>
+      <c r="E367" s="81"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="D368" s="78"/>
-      <c r="E368" s="78"/>
+      <c r="D368" s="81"/>
+      <c r="E368" s="81"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="D369" s="78"/>
-      <c r="E369" s="78"/>
+      <c r="D369" s="81"/>
+      <c r="E369" s="81"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="D370" s="78"/>
-      <c r="E370" s="78"/>
+      <c r="D370" s="81"/>
+      <c r="E370" s="81"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="D371" s="78"/>
-      <c r="E371" s="78"/>
+      <c r="D371" s="81"/>
+      <c r="E371" s="81"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="D372" s="78"/>
-      <c r="E372" s="78"/>
+      <c r="D372" s="81"/>
+      <c r="E372" s="81"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="D373" s="78"/>
-      <c r="E373" s="78"/>
+      <c r="D373" s="81"/>
+      <c r="E373" s="81"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="D374" s="78"/>
-      <c r="E374" s="78"/>
+      <c r="D374" s="81"/>
+      <c r="E374" s="81"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="D375" s="78"/>
-      <c r="E375" s="78"/>
+      <c r="D375" s="81"/>
+      <c r="E375" s="81"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="D376" s="78"/>
-      <c r="E376" s="78"/>
+      <c r="D376" s="81"/>
+      <c r="E376" s="81"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="D377" s="78"/>
-      <c r="E377" s="78"/>
+      <c r="D377" s="81"/>
+      <c r="E377" s="81"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="D378" s="78"/>
-      <c r="E378" s="78"/>
+      <c r="D378" s="81"/>
+      <c r="E378" s="81"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="D379" s="78"/>
-      <c r="E379" s="78"/>
+      <c r="D379" s="81"/>
+      <c r="E379" s="81"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="D380" s="78"/>
-      <c r="E380" s="78"/>
+      <c r="D380" s="81"/>
+      <c r="E380" s="81"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="D381" s="78"/>
-      <c r="E381" s="78"/>
+      <c r="D381" s="81"/>
+      <c r="E381" s="81"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="D382" s="78"/>
-      <c r="E382" s="78"/>
+      <c r="D382" s="81"/>
+      <c r="E382" s="81"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="D383" s="78"/>
-      <c r="E383" s="78"/>
+      <c r="D383" s="81"/>
+      <c r="E383" s="81"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="D384" s="78"/>
-      <c r="E384" s="78"/>
+      <c r="D384" s="81"/>
+      <c r="E384" s="81"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="D385" s="78"/>
-      <c r="E385" s="78"/>
+      <c r="D385" s="81"/>
+      <c r="E385" s="81"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="D386" s="78"/>
-      <c r="E386" s="78"/>
+      <c r="D386" s="81"/>
+      <c r="E386" s="81"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="D387" s="78"/>
-      <c r="E387" s="78"/>
+      <c r="D387" s="81"/>
+      <c r="E387" s="81"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="D388" s="78"/>
-      <c r="E388" s="78"/>
+      <c r="D388" s="81"/>
+      <c r="E388" s="81"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="D389" s="78"/>
-      <c r="E389" s="78"/>
+      <c r="D389" s="81"/>
+      <c r="E389" s="81"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="D390" s="78"/>
-      <c r="E390" s="78"/>
+      <c r="D390" s="81"/>
+      <c r="E390" s="81"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="D391" s="78"/>
-      <c r="E391" s="78"/>
+      <c r="D391" s="81"/>
+      <c r="E391" s="81"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="D392" s="78"/>
-      <c r="E392" s="78"/>
+      <c r="D392" s="81"/>
+      <c r="E392" s="81"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="D393" s="78"/>
-      <c r="E393" s="78"/>
+      <c r="D393" s="81"/>
+      <c r="E393" s="81"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="D394" s="78"/>
-      <c r="E394" s="78"/>
+      <c r="D394" s="81"/>
+      <c r="E394" s="81"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="D395" s="78"/>
-      <c r="E395" s="78"/>
+      <c r="D395" s="81"/>
+      <c r="E395" s="81"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="D396" s="78"/>
-      <c r="E396" s="78"/>
+      <c r="D396" s="81"/>
+      <c r="E396" s="81"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="D397" s="78"/>
-      <c r="E397" s="78"/>
+      <c r="D397" s="81"/>
+      <c r="E397" s="81"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="D398" s="78"/>
-      <c r="E398" s="78"/>
+      <c r="D398" s="81"/>
+      <c r="E398" s="81"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="D399" s="78"/>
-      <c r="E399" s="78"/>
+      <c r="D399" s="81"/>
+      <c r="E399" s="81"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="D400" s="78"/>
-      <c r="E400" s="78"/>
+      <c r="D400" s="81"/>
+      <c r="E400" s="81"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="D401" s="78"/>
-      <c r="E401" s="78"/>
+      <c r="D401" s="81"/>
+      <c r="E401" s="81"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="D402" s="78"/>
-      <c r="E402" s="78"/>
+      <c r="D402" s="81"/>
+      <c r="E402" s="81"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="D403" s="78"/>
-      <c r="E403" s="78"/>
+      <c r="D403" s="81"/>
+      <c r="E403" s="81"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="D404" s="78"/>
-      <c r="E404" s="78"/>
+      <c r="D404" s="81"/>
+      <c r="E404" s="81"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="D405" s="78"/>
-      <c r="E405" s="78"/>
+      <c r="D405" s="81"/>
+      <c r="E405" s="81"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="D406" s="78"/>
-      <c r="E406" s="78"/>
+      <c r="D406" s="81"/>
+      <c r="E406" s="81"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="D407" s="78"/>
-      <c r="E407" s="78"/>
+      <c r="D407" s="81"/>
+      <c r="E407" s="81"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="D408" s="78"/>
-      <c r="E408" s="78"/>
+      <c r="D408" s="81"/>
+      <c r="E408" s="81"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="D409" s="78"/>
-      <c r="E409" s="78"/>
+      <c r="D409" s="81"/>
+      <c r="E409" s="81"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="D410" s="78"/>
-      <c r="E410" s="78"/>
+      <c r="D410" s="81"/>
+      <c r="E410" s="81"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="D411" s="78"/>
-      <c r="E411" s="78"/>
+      <c r="D411" s="81"/>
+      <c r="E411" s="81"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="D412" s="78"/>
-      <c r="E412" s="78"/>
+      <c r="D412" s="81"/>
+      <c r="E412" s="81"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="D413" s="78"/>
-      <c r="E413" s="78"/>
+      <c r="D413" s="81"/>
+      <c r="E413" s="81"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="D414" s="78"/>
-      <c r="E414" s="78"/>
+      <c r="D414" s="81"/>
+      <c r="E414" s="81"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="D415" s="78"/>
-      <c r="E415" s="78"/>
+      <c r="D415" s="81"/>
+      <c r="E415" s="81"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="D416" s="78"/>
-      <c r="E416" s="78"/>
+      <c r="D416" s="81"/>
+      <c r="E416" s="81"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="D417" s="78"/>
-      <c r="E417" s="78"/>
+      <c r="D417" s="81"/>
+      <c r="E417" s="81"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="D418" s="78"/>
-      <c r="E418" s="78"/>
+      <c r="D418" s="81"/>
+      <c r="E418" s="81"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="D419" s="78"/>
-      <c r="E419" s="78"/>
+      <c r="D419" s="81"/>
+      <c r="E419" s="81"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="D420" s="78"/>
-      <c r="E420" s="78"/>
+      <c r="D420" s="81"/>
+      <c r="E420" s="81"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="D421" s="78"/>
-      <c r="E421" s="78"/>
+      <c r="D421" s="81"/>
+      <c r="E421" s="81"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="D422" s="78"/>
-      <c r="E422" s="78"/>
+      <c r="D422" s="81"/>
+      <c r="E422" s="81"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="D423" s="78"/>
-      <c r="E423" s="78"/>
+      <c r="D423" s="81"/>
+      <c r="E423" s="81"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="D424" s="78"/>
-      <c r="E424" s="78"/>
+      <c r="D424" s="81"/>
+      <c r="E424" s="81"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="D425" s="78"/>
-      <c r="E425" s="78"/>
+      <c r="D425" s="81"/>
+      <c r="E425" s="81"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="D426" s="78"/>
-      <c r="E426" s="78"/>
+      <c r="D426" s="81"/>
+      <c r="E426" s="81"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="D427" s="78"/>
-      <c r="E427" s="78"/>
+      <c r="D427" s="81"/>
+      <c r="E427" s="81"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="D428" s="78"/>
-      <c r="E428" s="78"/>
+      <c r="D428" s="81"/>
+      <c r="E428" s="81"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="D429" s="78"/>
-      <c r="E429" s="78"/>
+      <c r="D429" s="81"/>
+      <c r="E429" s="81"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="D430" s="78"/>
-      <c r="E430" s="78"/>
+      <c r="D430" s="81"/>
+      <c r="E430" s="81"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="D431" s="78"/>
-      <c r="E431" s="78"/>
+      <c r="D431" s="81"/>
+      <c r="E431" s="81"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="D432" s="78"/>
-      <c r="E432" s="78"/>
+      <c r="D432" s="81"/>
+      <c r="E432" s="81"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="D433" s="78"/>
-      <c r="E433" s="78"/>
+      <c r="D433" s="81"/>
+      <c r="E433" s="81"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="D434" s="78"/>
-      <c r="E434" s="78"/>
+      <c r="D434" s="81"/>
+      <c r="E434" s="81"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="D435" s="78"/>
-      <c r="E435" s="78"/>
+      <c r="D435" s="81"/>
+      <c r="E435" s="81"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="D436" s="78"/>
-      <c r="E436" s="78"/>
+      <c r="D436" s="81"/>
+      <c r="E436" s="81"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="D437" s="78"/>
-      <c r="E437" s="78"/>
+      <c r="D437" s="81"/>
+      <c r="E437" s="81"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="D438" s="78"/>
-      <c r="E438" s="78"/>
+      <c r="D438" s="81"/>
+      <c r="E438" s="81"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="D439" s="78"/>
-      <c r="E439" s="78"/>
+      <c r="D439" s="81"/>
+      <c r="E439" s="81"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="D440" s="78"/>
-      <c r="E440" s="78"/>
+      <c r="D440" s="81"/>
+      <c r="E440" s="81"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="D441" s="78"/>
-      <c r="E441" s="78"/>
+      <c r="D441" s="81"/>
+      <c r="E441" s="81"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="D442" s="78"/>
-      <c r="E442" s="78"/>
+      <c r="D442" s="81"/>
+      <c r="E442" s="81"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="D443" s="78"/>
-      <c r="E443" s="78"/>
+      <c r="D443" s="81"/>
+      <c r="E443" s="81"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="D444" s="78"/>
-      <c r="E444" s="78"/>
+      <c r="D444" s="81"/>
+      <c r="E444" s="81"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="D445" s="78"/>
-      <c r="E445" s="78"/>
+      <c r="D445" s="81"/>
+      <c r="E445" s="81"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="D446" s="78"/>
-      <c r="E446" s="78"/>
+      <c r="D446" s="81"/>
+      <c r="E446" s="81"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="D447" s="78"/>
-      <c r="E447" s="78"/>
+      <c r="D447" s="81"/>
+      <c r="E447" s="81"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="D448" s="78"/>
-      <c r="E448" s="78"/>
+      <c r="D448" s="81"/>
+      <c r="E448" s="81"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="D449" s="78"/>
-      <c r="E449" s="78"/>
+      <c r="D449" s="81"/>
+      <c r="E449" s="81"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="D450" s="78"/>
-      <c r="E450" s="78"/>
+      <c r="D450" s="81"/>
+      <c r="E450" s="81"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="D451" s="78"/>
-      <c r="E451" s="78"/>
+      <c r="D451" s="81"/>
+      <c r="E451" s="81"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="D452" s="78"/>
-      <c r="E452" s="78"/>
+      <c r="D452" s="81"/>
+      <c r="E452" s="81"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="D453" s="78"/>
-      <c r="E453" s="78"/>
+      <c r="D453" s="81"/>
+      <c r="E453" s="81"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="D454" s="78"/>
-      <c r="E454" s="78"/>
+      <c r="D454" s="81"/>
+      <c r="E454" s="81"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="D455" s="78"/>
-      <c r="E455" s="78"/>
+      <c r="D455" s="81"/>
+      <c r="E455" s="81"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="D456" s="78"/>
-      <c r="E456" s="78"/>
+      <c r="D456" s="81"/>
+      <c r="E456" s="81"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="D457" s="78"/>
-      <c r="E457" s="78"/>
+      <c r="D457" s="81"/>
+      <c r="E457" s="81"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="D458" s="78"/>
-      <c r="E458" s="78"/>
+      <c r="D458" s="81"/>
+      <c r="E458" s="81"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="D459" s="78"/>
-      <c r="E459" s="78"/>
+      <c r="D459" s="81"/>
+      <c r="E459" s="81"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="D460" s="78"/>
-      <c r="E460" s="78"/>
+      <c r="D460" s="81"/>
+      <c r="E460" s="81"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="D461" s="78"/>
-      <c r="E461" s="78"/>
+      <c r="D461" s="81"/>
+      <c r="E461" s="81"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="D462" s="78"/>
-      <c r="E462" s="78"/>
+      <c r="D462" s="81"/>
+      <c r="E462" s="81"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="D463" s="78"/>
-      <c r="E463" s="78"/>
+      <c r="D463" s="81"/>
+      <c r="E463" s="81"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="D464" s="78"/>
-      <c r="E464" s="78"/>
+      <c r="D464" s="81"/>
+      <c r="E464" s="81"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="D465" s="78"/>
-      <c r="E465" s="78"/>
+      <c r="D465" s="81"/>
+      <c r="E465" s="81"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="D466" s="78"/>
-      <c r="E466" s="78"/>
+      <c r="D466" s="81"/>
+      <c r="E466" s="81"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="D467" s="78"/>
-      <c r="E467" s="78"/>
+      <c r="D467" s="81"/>
+      <c r="E467" s="81"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="D468" s="78"/>
-      <c r="E468" s="78"/>
+      <c r="D468" s="81"/>
+      <c r="E468" s="81"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="D469" s="78"/>
-      <c r="E469" s="78"/>
+      <c r="D469" s="81"/>
+      <c r="E469" s="81"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="D470" s="78"/>
-      <c r="E470" s="78"/>
+      <c r="D470" s="81"/>
+      <c r="E470" s="81"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="D471" s="78"/>
-      <c r="E471" s="78"/>
+      <c r="D471" s="81"/>
+      <c r="E471" s="81"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="D472" s="78"/>
-      <c r="E472" s="78"/>
+      <c r="D472" s="81"/>
+      <c r="E472" s="81"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="D473" s="78"/>
-      <c r="E473" s="78"/>
+      <c r="D473" s="81"/>
+      <c r="E473" s="81"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="D474" s="78"/>
-      <c r="E474" s="78"/>
+      <c r="D474" s="81"/>
+      <c r="E474" s="81"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="D475" s="78"/>
-      <c r="E475" s="78"/>
+      <c r="D475" s="81"/>
+      <c r="E475" s="81"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="D476" s="78"/>
-      <c r="E476" s="78"/>
+      <c r="D476" s="81"/>
+      <c r="E476" s="81"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="D477" s="78"/>
-      <c r="E477" s="78"/>
+      <c r="D477" s="81"/>
+      <c r="E477" s="81"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="D478" s="78"/>
-      <c r="E478" s="78"/>
+      <c r="D478" s="81"/>
+      <c r="E478" s="81"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="D479" s="78"/>
-      <c r="E479" s="78"/>
+      <c r="D479" s="81"/>
+      <c r="E479" s="81"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="D480" s="78"/>
-      <c r="E480" s="78"/>
+      <c r="D480" s="81"/>
+      <c r="E480" s="81"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="D481" s="78"/>
-      <c r="E481" s="78"/>
+      <c r="D481" s="81"/>
+      <c r="E481" s="81"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="D482" s="78"/>
-      <c r="E482" s="78"/>
+      <c r="D482" s="81"/>
+      <c r="E482" s="81"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="D483" s="78"/>
-      <c r="E483" s="78"/>
+      <c r="D483" s="81"/>
+      <c r="E483" s="81"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="D484" s="78"/>
-      <c r="E484" s="78"/>
+      <c r="D484" s="81"/>
+      <c r="E484" s="81"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="D485" s="78"/>
-      <c r="E485" s="78"/>
+      <c r="D485" s="81"/>
+      <c r="E485" s="81"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="D486" s="78"/>
-      <c r="E486" s="78"/>
+      <c r="D486" s="81"/>
+      <c r="E486" s="81"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="D487" s="78"/>
-      <c r="E487" s="78"/>
+      <c r="D487" s="81"/>
+      <c r="E487" s="81"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="D488" s="78"/>
-      <c r="E488" s="78"/>
+      <c r="D488" s="81"/>
+      <c r="E488" s="81"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="D489" s="78"/>
-      <c r="E489" s="78"/>
+      <c r="D489" s="81"/>
+      <c r="E489" s="81"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="D490" s="78"/>
-      <c r="E490" s="78"/>
+      <c r="D490" s="81"/>
+      <c r="E490" s="81"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="D491" s="78"/>
-      <c r="E491" s="78"/>
+      <c r="D491" s="81"/>
+      <c r="E491" s="81"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="D492" s="78"/>
-      <c r="E492" s="78"/>
+      <c r="D492" s="81"/>
+      <c r="E492" s="81"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="D493" s="78"/>
-      <c r="E493" s="78"/>
+      <c r="D493" s="81"/>
+      <c r="E493" s="81"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="D494" s="78"/>
-      <c r="E494" s="78"/>
+      <c r="D494" s="81"/>
+      <c r="E494" s="81"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="D495" s="78"/>
-      <c r="E495" s="78"/>
+      <c r="D495" s="81"/>
+      <c r="E495" s="81"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="D496" s="78"/>
-      <c r="E496" s="78"/>
+      <c r="D496" s="81"/>
+      <c r="E496" s="81"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="D497" s="78"/>
-      <c r="E497" s="78"/>
+      <c r="D497" s="81"/>
+      <c r="E497" s="81"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="D498" s="78"/>
-      <c r="E498" s="78"/>
+      <c r="D498" s="81"/>
+      <c r="E498" s="81"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="D499" s="78"/>
-      <c r="E499" s="78"/>
+      <c r="D499" s="81"/>
+      <c r="E499" s="81"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="D500" s="78"/>
-      <c r="E500" s="78"/>
+      <c r="D500" s="81"/>
+      <c r="E500" s="81"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="D501" s="78"/>
-      <c r="E501" s="78"/>
+      <c r="D501" s="81"/>
+      <c r="E501" s="81"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="D502" s="78"/>
-      <c r="E502" s="78"/>
+      <c r="D502" s="81"/>
+      <c r="E502" s="81"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="D503" s="78"/>
-      <c r="E503" s="78"/>
+      <c r="D503" s="81"/>
+      <c r="E503" s="81"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="D504" s="78"/>
-      <c r="E504" s="78"/>
+      <c r="D504" s="81"/>
+      <c r="E504" s="81"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="D505" s="78"/>
-      <c r="E505" s="78"/>
+      <c r="D505" s="81"/>
+      <c r="E505" s="81"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="D506" s="78"/>
-      <c r="E506" s="78"/>
+      <c r="D506" s="81"/>
+      <c r="E506" s="81"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="D507" s="78"/>
-      <c r="E507" s="78"/>
+      <c r="D507" s="81"/>
+      <c r="E507" s="81"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="D508" s="78"/>
-      <c r="E508" s="78"/>
+      <c r="D508" s="81"/>
+      <c r="E508" s="81"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="D509" s="78"/>
-      <c r="E509" s="78"/>
+      <c r="D509" s="81"/>
+      <c r="E509" s="81"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="D510" s="78"/>
-      <c r="E510" s="78"/>
+      <c r="D510" s="81"/>
+      <c r="E510" s="81"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="D511" s="78"/>
-      <c r="E511" s="78"/>
+      <c r="D511" s="81"/>
+      <c r="E511" s="81"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="D512" s="78"/>
-      <c r="E512" s="78"/>
+      <c r="D512" s="81"/>
+      <c r="E512" s="81"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="D513" s="78"/>
-      <c r="E513" s="78"/>
+      <c r="D513" s="81"/>
+      <c r="E513" s="81"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="D514" s="78"/>
-      <c r="E514" s="78"/>
+      <c r="D514" s="81"/>
+      <c r="E514" s="81"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="D515" s="78"/>
-      <c r="E515" s="78"/>
+      <c r="D515" s="81"/>
+      <c r="E515" s="81"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="D516" s="78"/>
-      <c r="E516" s="78"/>
+      <c r="D516" s="81"/>
+      <c r="E516" s="81"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="D517" s="78"/>
-      <c r="E517" s="78"/>
+      <c r="D517" s="81"/>
+      <c r="E517" s="81"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="D518" s="78"/>
-      <c r="E518" s="78"/>
+      <c r="D518" s="81"/>
+      <c r="E518" s="81"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="D519" s="78"/>
-      <c r="E519" s="78"/>
+      <c r="D519" s="81"/>
+      <c r="E519" s="81"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="D520" s="78"/>
-      <c r="E520" s="78"/>
+      <c r="D520" s="81"/>
+      <c r="E520" s="81"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="D521" s="78"/>
-      <c r="E521" s="78"/>
+      <c r="D521" s="81"/>
+      <c r="E521" s="81"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="D522" s="78"/>
-      <c r="E522" s="78"/>
+      <c r="D522" s="81"/>
+      <c r="E522" s="81"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="D523" s="78"/>
-      <c r="E523" s="78"/>
+      <c r="D523" s="81"/>
+      <c r="E523" s="81"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="D524" s="78"/>
-      <c r="E524" s="78"/>
+      <c r="D524" s="81"/>
+      <c r="E524" s="81"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="D525" s="78"/>
-      <c r="E525" s="78"/>
+      <c r="D525" s="81"/>
+      <c r="E525" s="81"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="D526" s="78"/>
-      <c r="E526" s="78"/>
+      <c r="D526" s="81"/>
+      <c r="E526" s="81"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="D527" s="78"/>
-      <c r="E527" s="78"/>
+      <c r="D527" s="81"/>
+      <c r="E527" s="81"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="D528" s="78"/>
-      <c r="E528" s="78"/>
+      <c r="D528" s="81"/>
+      <c r="E528" s="81"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="D529" s="78"/>
-      <c r="E529" s="78"/>
+      <c r="D529" s="81"/>
+      <c r="E529" s="81"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="D530" s="78"/>
-      <c r="E530" s="78"/>
+      <c r="D530" s="81"/>
+      <c r="E530" s="81"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="D531" s="78"/>
-      <c r="E531" s="78"/>
+      <c r="D531" s="81"/>
+      <c r="E531" s="81"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="D532" s="78"/>
-      <c r="E532" s="78"/>
+      <c r="D532" s="81"/>
+      <c r="E532" s="81"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="D533" s="78"/>
-      <c r="E533" s="78"/>
+      <c r="D533" s="81"/>
+      <c r="E533" s="81"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="D534" s="78"/>
-      <c r="E534" s="78"/>
+      <c r="D534" s="81"/>
+      <c r="E534" s="81"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="D535" s="78"/>
-      <c r="E535" s="78"/>
+      <c r="D535" s="81"/>
+      <c r="E535" s="81"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="D536" s="78"/>
-      <c r="E536" s="78"/>
+      <c r="D536" s="81"/>
+      <c r="E536" s="81"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="D537" s="78"/>
-      <c r="E537" s="78"/>
+      <c r="D537" s="81"/>
+      <c r="E537" s="81"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="D538" s="78"/>
-      <c r="E538" s="78"/>
+      <c r="D538" s="81"/>
+      <c r="E538" s="81"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="D539" s="78"/>
-      <c r="E539" s="78"/>
+      <c r="D539" s="81"/>
+      <c r="E539" s="81"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="D540" s="78"/>
-      <c r="E540" s="78"/>
+      <c r="D540" s="81"/>
+      <c r="E540" s="81"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="D541" s="78"/>
-      <c r="E541" s="78"/>
+      <c r="D541" s="81"/>
+      <c r="E541" s="81"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="D542" s="78"/>
-      <c r="E542" s="78"/>
+      <c r="D542" s="81"/>
+      <c r="E542" s="81"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="D543" s="78"/>
-      <c r="E543" s="78"/>
+      <c r="D543" s="81"/>
+      <c r="E543" s="81"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="D544" s="78"/>
-      <c r="E544" s="78"/>
+      <c r="D544" s="81"/>
+      <c r="E544" s="81"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="D545" s="78"/>
-      <c r="E545" s="78"/>
+      <c r="D545" s="81"/>
+      <c r="E545" s="81"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="D546" s="78"/>
-      <c r="E546" s="78"/>
+      <c r="D546" s="81"/>
+      <c r="E546" s="81"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="D547" s="78"/>
-      <c r="E547" s="78"/>
+      <c r="D547" s="81"/>
+      <c r="E547" s="81"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="D548" s="78"/>
-      <c r="E548" s="78"/>
+      <c r="D548" s="81"/>
+      <c r="E548" s="81"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="D549" s="78"/>
-      <c r="E549" s="78"/>
+      <c r="D549" s="81"/>
+      <c r="E549" s="81"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="D550" s="78"/>
-      <c r="E550" s="78"/>
+      <c r="D550" s="81"/>
+      <c r="E550" s="81"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="D551" s="78"/>
-      <c r="E551" s="78"/>
+      <c r="D551" s="81"/>
+      <c r="E551" s="81"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="D552" s="78"/>
-      <c r="E552" s="78"/>
+      <c r="D552" s="81"/>
+      <c r="E552" s="81"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="D553" s="78"/>
-      <c r="E553" s="78"/>
+      <c r="D553" s="81"/>
+      <c r="E553" s="81"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="D554" s="78"/>
-      <c r="E554" s="78"/>
+      <c r="D554" s="81"/>
+      <c r="E554" s="81"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="D555" s="78"/>
-      <c r="E555" s="78"/>
+      <c r="D555" s="81"/>
+      <c r="E555" s="81"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="D556" s="78"/>
-      <c r="E556" s="78"/>
+      <c r="D556" s="81"/>
+      <c r="E556" s="81"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="D557" s="78"/>
-      <c r="E557" s="78"/>
+      <c r="D557" s="81"/>
+      <c r="E557" s="81"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="D558" s="78"/>
-      <c r="E558" s="78"/>
+      <c r="D558" s="81"/>
+      <c r="E558" s="81"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="D559" s="78"/>
-      <c r="E559" s="78"/>
+      <c r="D559" s="81"/>
+      <c r="E559" s="81"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="D560" s="78"/>
-      <c r="E560" s="78"/>
+      <c r="D560" s="81"/>
+      <c r="E560" s="81"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="D561" s="78"/>
-      <c r="E561" s="78"/>
+      <c r="D561" s="81"/>
+      <c r="E561" s="81"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="D562" s="78"/>
-      <c r="E562" s="78"/>
+      <c r="D562" s="81"/>
+      <c r="E562" s="81"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="D563" s="78"/>
-      <c r="E563" s="78"/>
+      <c r="D563" s="81"/>
+      <c r="E563" s="81"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="D564" s="78"/>
-      <c r="E564" s="78"/>
+      <c r="D564" s="81"/>
+      <c r="E564" s="81"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="D565" s="78"/>
-      <c r="E565" s="78"/>
+      <c r="D565" s="81"/>
+      <c r="E565" s="81"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="D566" s="78"/>
-      <c r="E566" s="78"/>
+      <c r="D566" s="81"/>
+      <c r="E566" s="81"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="D567" s="78"/>
-      <c r="E567" s="78"/>
+      <c r="D567" s="81"/>
+      <c r="E567" s="81"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="D568" s="78"/>
-      <c r="E568" s="78"/>
+      <c r="D568" s="81"/>
+      <c r="E568" s="81"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="D569" s="78"/>
-      <c r="E569" s="78"/>
+      <c r="D569" s="81"/>
+      <c r="E569" s="81"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="D570" s="78"/>
-      <c r="E570" s="78"/>
+      <c r="D570" s="81"/>
+      <c r="E570" s="81"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="D571" s="78"/>
-      <c r="E571" s="78"/>
+      <c r="D571" s="81"/>
+      <c r="E571" s="81"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="D572" s="78"/>
-      <c r="E572" s="78"/>
+      <c r="D572" s="81"/>
+      <c r="E572" s="81"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="D573" s="78"/>
-      <c r="E573" s="78"/>
+      <c r="D573" s="81"/>
+      <c r="E573" s="81"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="D574" s="78"/>
-      <c r="E574" s="78"/>
+      <c r="D574" s="81"/>
+      <c r="E574" s="81"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="D575" s="78"/>
-      <c r="E575" s="78"/>
+      <c r="D575" s="81"/>
+      <c r="E575" s="81"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="D576" s="78"/>
-      <c r="E576" s="78"/>
+      <c r="D576" s="81"/>
+      <c r="E576" s="81"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="D577" s="78"/>
-      <c r="E577" s="78"/>
+      <c r="D577" s="81"/>
+      <c r="E577" s="81"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="D578" s="78"/>
-      <c r="E578" s="78"/>
+      <c r="D578" s="81"/>
+      <c r="E578" s="81"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="D579" s="78"/>
-      <c r="E579" s="78"/>
+      <c r="D579" s="81"/>
+      <c r="E579" s="81"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="D580" s="78"/>
-      <c r="E580" s="78"/>
+      <c r="D580" s="81"/>
+      <c r="E580" s="81"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="D581" s="78"/>
-      <c r="E581" s="78"/>
+      <c r="D581" s="81"/>
+      <c r="E581" s="81"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="D582" s="78"/>
-      <c r="E582" s="78"/>
+      <c r="D582" s="81"/>
+      <c r="E582" s="81"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="D583" s="78"/>
-      <c r="E583" s="78"/>
+      <c r="D583" s="81"/>
+      <c r="E583" s="81"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="D584" s="78"/>
-      <c r="E584" s="78"/>
+      <c r="D584" s="81"/>
+      <c r="E584" s="81"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="D585" s="78"/>
-      <c r="E585" s="78"/>
+      <c r="D585" s="81"/>
+      <c r="E585" s="81"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="D586" s="78"/>
-      <c r="E586" s="78"/>
+      <c r="D586" s="81"/>
+      <c r="E586" s="81"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="D587" s="78"/>
-      <c r="E587" s="78"/>
+      <c r="D587" s="81"/>
+      <c r="E587" s="81"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="D588" s="78"/>
-      <c r="E588" s="78"/>
+      <c r="D588" s="81"/>
+      <c r="E588" s="81"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="D589" s="78"/>
-      <c r="E589" s="78"/>
+      <c r="D589" s="81"/>
+      <c r="E589" s="81"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="D590" s="78"/>
-      <c r="E590" s="78"/>
+      <c r="D590" s="81"/>
+      <c r="E590" s="81"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="D591" s="78"/>
-      <c r="E591" s="78"/>
+      <c r="D591" s="81"/>
+      <c r="E591" s="81"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="D592" s="78"/>
-      <c r="E592" s="78"/>
+      <c r="D592" s="81"/>
+      <c r="E592" s="81"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="D593" s="78"/>
-      <c r="E593" s="78"/>
+      <c r="D593" s="81"/>
+      <c r="E593" s="81"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="D594" s="78"/>
-      <c r="E594" s="78"/>
+      <c r="D594" s="81"/>
+      <c r="E594" s="81"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="D595" s="78"/>
-      <c r="E595" s="78"/>
+      <c r="D595" s="81"/>
+      <c r="E595" s="81"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="D596" s="78"/>
-      <c r="E596" s="78"/>
+      <c r="D596" s="81"/>
+      <c r="E596" s="81"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="D597" s="78"/>
-      <c r="E597" s="78"/>
+      <c r="D597" s="81"/>
+      <c r="E597" s="81"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="D598" s="78"/>
-      <c r="E598" s="78"/>
+      <c r="D598" s="81"/>
+      <c r="E598" s="81"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="D599" s="78"/>
-      <c r="E599" s="78"/>
+      <c r="D599" s="81"/>
+      <c r="E599" s="81"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="D600" s="78"/>
-      <c r="E600" s="78"/>
+      <c r="D600" s="81"/>
+      <c r="E600" s="81"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="D601" s="78"/>
-      <c r="E601" s="78"/>
+      <c r="D601" s="81"/>
+      <c r="E601" s="81"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="D602" s="78"/>
-      <c r="E602" s="78"/>
+      <c r="D602" s="81"/>
+      <c r="E602" s="81"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="D603" s="78"/>
-      <c r="E603" s="78"/>
+      <c r="D603" s="81"/>
+      <c r="E603" s="81"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="D604" s="78"/>
-      <c r="E604" s="78"/>
+      <c r="D604" s="81"/>
+      <c r="E604" s="81"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="D605" s="78"/>
-      <c r="E605" s="78"/>
+      <c r="D605" s="81"/>
+      <c r="E605" s="81"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="D606" s="78"/>
-      <c r="E606" s="78"/>
+      <c r="D606" s="81"/>
+      <c r="E606" s="81"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="D607" s="78"/>
-      <c r="E607" s="78"/>
+      <c r="D607" s="81"/>
+      <c r="E607" s="81"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="D608" s="78"/>
-      <c r="E608" s="78"/>
+      <c r="D608" s="81"/>
+      <c r="E608" s="81"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="D609" s="78"/>
-      <c r="E609" s="78"/>
+      <c r="D609" s="81"/>
+      <c r="E609" s="81"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="D610" s="78"/>
-      <c r="E610" s="78"/>
+      <c r="D610" s="81"/>
+      <c r="E610" s="81"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="D611" s="78"/>
-      <c r="E611" s="78"/>
+      <c r="D611" s="81"/>
+      <c r="E611" s="81"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="D612" s="78"/>
-      <c r="E612" s="78"/>
+      <c r="D612" s="81"/>
+      <c r="E612" s="81"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="D613" s="78"/>
-      <c r="E613" s="78"/>
+      <c r="D613" s="81"/>
+      <c r="E613" s="81"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="D614" s="78"/>
-      <c r="E614" s="78"/>
+      <c r="D614" s="81"/>
+      <c r="E614" s="81"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="D615" s="78"/>
-      <c r="E615" s="78"/>
+      <c r="D615" s="81"/>
+      <c r="E615" s="81"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="D616" s="78"/>
-      <c r="E616" s="78"/>
+      <c r="D616" s="81"/>
+      <c r="E616" s="81"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="D617" s="78"/>
-      <c r="E617" s="78"/>
+      <c r="D617" s="81"/>
+      <c r="E617" s="81"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="D618" s="78"/>
-      <c r="E618" s="78"/>
+      <c r="D618" s="81"/>
+      <c r="E618" s="81"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="D619" s="78"/>
-      <c r="E619" s="78"/>
+      <c r="D619" s="81"/>
+      <c r="E619" s="81"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="D620" s="78"/>
-      <c r="E620" s="78"/>
+      <c r="D620" s="81"/>
+      <c r="E620" s="81"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="D621" s="78"/>
-      <c r="E621" s="78"/>
+      <c r="D621" s="81"/>
+      <c r="E621" s="81"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="D622" s="78"/>
-      <c r="E622" s="78"/>
+      <c r="D622" s="81"/>
+      <c r="E622" s="81"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="D623" s="78"/>
-      <c r="E623" s="78"/>
+      <c r="D623" s="81"/>
+      <c r="E623" s="81"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="D624" s="78"/>
-      <c r="E624" s="78"/>
+      <c r="D624" s="81"/>
+      <c r="E624" s="81"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="D625" s="78"/>
-      <c r="E625" s="78"/>
+      <c r="D625" s="81"/>
+      <c r="E625" s="81"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="D626" s="78"/>
-      <c r="E626" s="78"/>
+      <c r="D626" s="81"/>
+      <c r="E626" s="81"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="D627" s="78"/>
-      <c r="E627" s="78"/>
+      <c r="D627" s="81"/>
+      <c r="E627" s="81"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="D628" s="78"/>
-      <c r="E628" s="78"/>
+      <c r="D628" s="81"/>
+      <c r="E628" s="81"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="D629" s="78"/>
-      <c r="E629" s="78"/>
+      <c r="D629" s="81"/>
+      <c r="E629" s="81"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="D630" s="78"/>
-      <c r="E630" s="78"/>
+      <c r="D630" s="81"/>
+      <c r="E630" s="81"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="D631" s="78"/>
-      <c r="E631" s="78"/>
+      <c r="D631" s="81"/>
+      <c r="E631" s="81"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="D632" s="78"/>
-      <c r="E632" s="78"/>
+      <c r="D632" s="81"/>
+      <c r="E632" s="81"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="D633" s="78"/>
-      <c r="E633" s="78"/>
+      <c r="D633" s="81"/>
+      <c r="E633" s="81"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="D634" s="78"/>
-      <c r="E634" s="78"/>
+      <c r="D634" s="81"/>
+      <c r="E634" s="81"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="D635" s="78"/>
-      <c r="E635" s="78"/>
+      <c r="D635" s="81"/>
+      <c r="E635" s="81"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="D636" s="78"/>
-      <c r="E636" s="78"/>
+      <c r="D636" s="81"/>
+      <c r="E636" s="81"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="D637" s="78"/>
-      <c r="E637" s="78"/>
+      <c r="D637" s="81"/>
+      <c r="E637" s="81"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="D638" s="78"/>
-      <c r="E638" s="78"/>
+      <c r="D638" s="81"/>
+      <c r="E638" s="81"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="D639" s="78"/>
-      <c r="E639" s="78"/>
+      <c r="D639" s="81"/>
+      <c r="E639" s="81"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="D640" s="78"/>
-      <c r="E640" s="78"/>
+      <c r="D640" s="81"/>
+      <c r="E640" s="81"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="D641" s="78"/>
-      <c r="E641" s="78"/>
+      <c r="D641" s="81"/>
+      <c r="E641" s="81"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="D642" s="78"/>
-      <c r="E642" s="78"/>
+      <c r="D642" s="81"/>
+      <c r="E642" s="81"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="D643" s="78"/>
-      <c r="E643" s="78"/>
+      <c r="D643" s="81"/>
+      <c r="E643" s="81"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="D644" s="78"/>
-      <c r="E644" s="78"/>
+      <c r="D644" s="81"/>
+      <c r="E644" s="81"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="D645" s="78"/>
-      <c r="E645" s="78"/>
+      <c r="D645" s="81"/>
+      <c r="E645" s="81"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="D646" s="78"/>
-      <c r="E646" s="78"/>
+      <c r="D646" s="81"/>
+      <c r="E646" s="81"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="D647" s="78"/>
-      <c r="E647" s="78"/>
+      <c r="D647" s="81"/>
+      <c r="E647" s="81"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="D648" s="78"/>
-      <c r="E648" s="78"/>
+      <c r="D648" s="81"/>
+      <c r="E648" s="81"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="D649" s="78"/>
-      <c r="E649" s="78"/>
+      <c r="D649" s="81"/>
+      <c r="E649" s="81"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="D650" s="78"/>
-      <c r="E650" s="78"/>
+      <c r="D650" s="81"/>
+      <c r="E650" s="81"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="D651" s="78"/>
-      <c r="E651" s="78"/>
+      <c r="D651" s="81"/>
+      <c r="E651" s="81"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="D652" s="78"/>
-      <c r="E652" s="78"/>
+      <c r="D652" s="81"/>
+      <c r="E652" s="81"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="D653" s="78"/>
-      <c r="E653" s="78"/>
+      <c r="D653" s="81"/>
+      <c r="E653" s="81"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="D654" s="78"/>
-      <c r="E654" s="78"/>
+      <c r="D654" s="81"/>
+      <c r="E654" s="81"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="D655" s="78"/>
-      <c r="E655" s="78"/>
+      <c r="D655" s="81"/>
+      <c r="E655" s="81"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="D656" s="78"/>
-      <c r="E656" s="78"/>
+      <c r="D656" s="81"/>
+      <c r="E656" s="81"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="D657" s="78"/>
-      <c r="E657" s="78"/>
+      <c r="D657" s="81"/>
+      <c r="E657" s="81"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="D658" s="78"/>
-      <c r="E658" s="78"/>
+      <c r="D658" s="81"/>
+      <c r="E658" s="81"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="D659" s="78"/>
-      <c r="E659" s="78"/>
+      <c r="D659" s="81"/>
+      <c r="E659" s="81"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="D660" s="78"/>
-      <c r="E660" s="78"/>
+      <c r="D660" s="81"/>
+      <c r="E660" s="81"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="D661" s="78"/>
-      <c r="E661" s="78"/>
+      <c r="D661" s="81"/>
+      <c r="E661" s="81"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="D662" s="78"/>
-      <c r="E662" s="78"/>
+      <c r="D662" s="81"/>
+      <c r="E662" s="81"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="D663" s="78"/>
-      <c r="E663" s="78"/>
+      <c r="D663" s="81"/>
+      <c r="E663" s="81"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="D664" s="78"/>
-      <c r="E664" s="78"/>
+      <c r="D664" s="81"/>
+      <c r="E664" s="81"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="D665" s="78"/>
-      <c r="E665" s="78"/>
+      <c r="D665" s="81"/>
+      <c r="E665" s="81"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="D666" s="78"/>
-      <c r="E666" s="78"/>
+      <c r="D666" s="81"/>
+      <c r="E666" s="81"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="D667" s="78"/>
-      <c r="E667" s="78"/>
+      <c r="D667" s="81"/>
+      <c r="E667" s="81"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="D668" s="78"/>
-      <c r="E668" s="78"/>
+      <c r="D668" s="81"/>
+      <c r="E668" s="81"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="D669" s="78"/>
-      <c r="E669" s="78"/>
+      <c r="D669" s="81"/>
+      <c r="E669" s="81"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="D670" s="78"/>
-      <c r="E670" s="78"/>
+      <c r="D670" s="81"/>
+      <c r="E670" s="81"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="D671" s="78"/>
-      <c r="E671" s="78"/>
+      <c r="D671" s="81"/>
+      <c r="E671" s="81"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="D672" s="78"/>
-      <c r="E672" s="78"/>
+      <c r="D672" s="81"/>
+      <c r="E672" s="81"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="D673" s="78"/>
-      <c r="E673" s="78"/>
+      <c r="D673" s="81"/>
+      <c r="E673" s="81"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="D674" s="78"/>
-      <c r="E674" s="78"/>
+      <c r="D674" s="81"/>
+      <c r="E674" s="81"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="D675" s="78"/>
-      <c r="E675" s="78"/>
+      <c r="D675" s="81"/>
+      <c r="E675" s="81"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="D676" s="78"/>
-      <c r="E676" s="78"/>
+      <c r="D676" s="81"/>
+      <c r="E676" s="81"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="D677" s="78"/>
-      <c r="E677" s="78"/>
+      <c r="D677" s="81"/>
+      <c r="E677" s="81"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="D678" s="78"/>
-      <c r="E678" s="78"/>
+      <c r="D678" s="81"/>
+      <c r="E678" s="81"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="D679" s="78"/>
-      <c r="E679" s="78"/>
+      <c r="D679" s="81"/>
+      <c r="E679" s="81"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="D680" s="78"/>
-      <c r="E680" s="78"/>
+      <c r="D680" s="81"/>
+      <c r="E680" s="81"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="D681" s="78"/>
-      <c r="E681" s="78"/>
+      <c r="D681" s="81"/>
+      <c r="E681" s="81"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="D682" s="78"/>
-      <c r="E682" s="78"/>
+      <c r="D682" s="81"/>
+      <c r="E682" s="81"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="D683" s="78"/>
-      <c r="E683" s="78"/>
+      <c r="D683" s="81"/>
+      <c r="E683" s="81"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="D684" s="78"/>
-      <c r="E684" s="78"/>
+      <c r="D684" s="81"/>
+      <c r="E684" s="81"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="D685" s="78"/>
-      <c r="E685" s="78"/>
+      <c r="D685" s="81"/>
+      <c r="E685" s="81"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="D686" s="78"/>
-      <c r="E686" s="78"/>
+      <c r="D686" s="81"/>
+      <c r="E686" s="81"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="D687" s="78"/>
-      <c r="E687" s="78"/>
+      <c r="D687" s="81"/>
+      <c r="E687" s="81"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="D688" s="78"/>
-      <c r="E688" s="78"/>
+      <c r="D688" s="81"/>
+      <c r="E688" s="81"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="D689" s="78"/>
-      <c r="E689" s="78"/>
+      <c r="D689" s="81"/>
+      <c r="E689" s="81"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="D690" s="78"/>
-      <c r="E690" s="78"/>
+      <c r="D690" s="81"/>
+      <c r="E690" s="81"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="D691" s="78"/>
-      <c r="E691" s="78"/>
+      <c r="D691" s="81"/>
+      <c r="E691" s="81"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="D692" s="78"/>
-      <c r="E692" s="78"/>
+      <c r="D692" s="81"/>
+      <c r="E692" s="81"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="D693" s="78"/>
-      <c r="E693" s="78"/>
+      <c r="D693" s="81"/>
+      <c r="E693" s="81"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="D694" s="78"/>
-      <c r="E694" s="78"/>
+      <c r="D694" s="81"/>
+      <c r="E694" s="81"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="D695" s="78"/>
-      <c r="E695" s="78"/>
+      <c r="D695" s="81"/>
+      <c r="E695" s="81"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="D696" s="78"/>
-      <c r="E696" s="78"/>
+      <c r="D696" s="81"/>
+      <c r="E696" s="81"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="D697" s="78"/>
-      <c r="E697" s="78"/>
+      <c r="D697" s="81"/>
+      <c r="E697" s="81"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="D698" s="78"/>
-      <c r="E698" s="78"/>
+      <c r="D698" s="81"/>
+      <c r="E698" s="81"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="D699" s="78"/>
-      <c r="E699" s="78"/>
+      <c r="D699" s="81"/>
+      <c r="E699" s="81"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="D700" s="78"/>
-      <c r="E700" s="78"/>
+      <c r="D700" s="81"/>
+      <c r="E700" s="81"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="D701" s="78"/>
-      <c r="E701" s="78"/>
+      <c r="D701" s="81"/>
+      <c r="E701" s="81"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="D702" s="78"/>
-      <c r="E702" s="78"/>
+      <c r="D702" s="81"/>
+      <c r="E702" s="81"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="D703" s="78"/>
-      <c r="E703" s="78"/>
+      <c r="D703" s="81"/>
+      <c r="E703" s="81"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="D704" s="78"/>
-      <c r="E704" s="78"/>
+      <c r="D704" s="81"/>
+      <c r="E704" s="81"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="D705" s="78"/>
-      <c r="E705" s="78"/>
+      <c r="D705" s="81"/>
+      <c r="E705" s="81"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="D706" s="78"/>
-      <c r="E706" s="78"/>
+      <c r="D706" s="81"/>
+      <c r="E706" s="81"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="D707" s="78"/>
-      <c r="E707" s="78"/>
+      <c r="D707" s="81"/>
+      <c r="E707" s="81"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="D708" s="78"/>
-      <c r="E708" s="78"/>
+      <c r="D708" s="81"/>
+      <c r="E708" s="81"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="D709" s="78"/>
-      <c r="E709" s="78"/>
+      <c r="D709" s="81"/>
+      <c r="E709" s="81"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="D710" s="78"/>
-      <c r="E710" s="78"/>
+      <c r="D710" s="81"/>
+      <c r="E710" s="81"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="D711" s="78"/>
-      <c r="E711" s="78"/>
+      <c r="D711" s="81"/>
+      <c r="E711" s="81"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="D712" s="78"/>
-      <c r="E712" s="78"/>
+      <c r="D712" s="81"/>
+      <c r="E712" s="81"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="D713" s="78"/>
-      <c r="E713" s="78"/>
+      <c r="D713" s="81"/>
+      <c r="E713" s="81"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="D714" s="78"/>
-      <c r="E714" s="78"/>
+      <c r="D714" s="81"/>
+      <c r="E714" s="81"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="D715" s="78"/>
-      <c r="E715" s="78"/>
+      <c r="D715" s="81"/>
+      <c r="E715" s="81"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="D716" s="78"/>
-      <c r="E716" s="78"/>
+      <c r="D716" s="81"/>
+      <c r="E716" s="81"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="D717" s="78"/>
-      <c r="E717" s="78"/>
+      <c r="D717" s="81"/>
+      <c r="E717" s="81"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="D718" s="78"/>
-      <c r="E718" s="78"/>
+      <c r="D718" s="81"/>
+      <c r="E718" s="81"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="D719" s="78"/>
-      <c r="E719" s="78"/>
+      <c r="D719" s="81"/>
+      <c r="E719" s="81"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="D720" s="78"/>
-      <c r="E720" s="78"/>
+      <c r="D720" s="81"/>
+      <c r="E720" s="81"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="D721" s="78"/>
-      <c r="E721" s="78"/>
+      <c r="D721" s="81"/>
+      <c r="E721" s="81"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="D722" s="78"/>
-      <c r="E722" s="78"/>
+      <c r="D722" s="81"/>
+      <c r="E722" s="81"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="D723" s="78"/>
-      <c r="E723" s="78"/>
+      <c r="D723" s="81"/>
+      <c r="E723" s="81"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="D724" s="78"/>
-      <c r="E724" s="78"/>
+      <c r="D724" s="81"/>
+      <c r="E724" s="81"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="D725" s="78"/>
-      <c r="E725" s="78"/>
+      <c r="D725" s="81"/>
+      <c r="E725" s="81"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="D726" s="78"/>
-      <c r="E726" s="78"/>
+      <c r="D726" s="81"/>
+      <c r="E726" s="81"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="D727" s="78"/>
-      <c r="E727" s="78"/>
+      <c r="D727" s="81"/>
+      <c r="E727" s="81"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="D728" s="78"/>
-      <c r="E728" s="78"/>
+      <c r="D728" s="81"/>
+      <c r="E728" s="81"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="D729" s="78"/>
-      <c r="E729" s="78"/>
+      <c r="D729" s="81"/>
+      <c r="E729" s="81"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="D730" s="78"/>
-      <c r="E730" s="78"/>
+      <c r="D730" s="81"/>
+      <c r="E730" s="81"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="D731" s="78"/>
-      <c r="E731" s="78"/>
+      <c r="D731" s="81"/>
+      <c r="E731" s="81"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="D732" s="78"/>
-      <c r="E732" s="78"/>
+      <c r="D732" s="81"/>
+      <c r="E732" s="81"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="D733" s="78"/>
-      <c r="E733" s="78"/>
+      <c r="D733" s="81"/>
+      <c r="E733" s="81"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="D734" s="78"/>
-      <c r="E734" s="78"/>
+      <c r="D734" s="81"/>
+      <c r="E734" s="81"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="D735" s="78"/>
-      <c r="E735" s="78"/>
+      <c r="D735" s="81"/>
+      <c r="E735" s="81"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="D736" s="78"/>
-      <c r="E736" s="78"/>
+      <c r="D736" s="81"/>
+      <c r="E736" s="81"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="D737" s="78"/>
-      <c r="E737" s="78"/>
+      <c r="D737" s="81"/>
+      <c r="E737" s="81"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="D738" s="78"/>
-      <c r="E738" s="78"/>
+      <c r="D738" s="81"/>
+      <c r="E738" s="81"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="D739" s="78"/>
-      <c r="E739" s="78"/>
+      <c r="D739" s="81"/>
+      <c r="E739" s="81"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="D740" s="78"/>
-      <c r="E740" s="78"/>
+      <c r="D740" s="81"/>
+      <c r="E740" s="81"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="D741" s="78"/>
-      <c r="E741" s="78"/>
+      <c r="D741" s="81"/>
+      <c r="E741" s="81"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="D742" s="78"/>
-      <c r="E742" s="78"/>
+      <c r="D742" s="81"/>
+      <c r="E742" s="81"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="D743" s="78"/>
-      <c r="E743" s="78"/>
+      <c r="D743" s="81"/>
+      <c r="E743" s="81"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="D744" s="78"/>
-      <c r="E744" s="78"/>
+      <c r="D744" s="81"/>
+      <c r="E744" s="81"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="D745" s="78"/>
-      <c r="E745" s="78"/>
+      <c r="D745" s="81"/>
+      <c r="E745" s="81"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="D746" s="78"/>
-      <c r="E746" s="78"/>
+      <c r="D746" s="81"/>
+      <c r="E746" s="81"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="D747" s="78"/>
-      <c r="E747" s="78"/>
+      <c r="D747" s="81"/>
+      <c r="E747" s="81"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="D748" s="78"/>
-      <c r="E748" s="78"/>
+      <c r="D748" s="81"/>
+      <c r="E748" s="81"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="D749" s="78"/>
-      <c r="E749" s="78"/>
+      <c r="D749" s="81"/>
+      <c r="E749" s="81"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="D750" s="78"/>
-      <c r="E750" s="78"/>
+      <c r="D750" s="81"/>
+      <c r="E750" s="81"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="D751" s="78"/>
-      <c r="E751" s="78"/>
+      <c r="D751" s="81"/>
+      <c r="E751" s="81"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="D752" s="78"/>
-      <c r="E752" s="78"/>
+      <c r="D752" s="81"/>
+      <c r="E752" s="81"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="D753" s="78"/>
-      <c r="E753" s="78"/>
+      <c r="D753" s="81"/>
+      <c r="E753" s="81"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="D754" s="78"/>
-      <c r="E754" s="78"/>
+      <c r="D754" s="81"/>
+      <c r="E754" s="81"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="D755" s="78"/>
-      <c r="E755" s="78"/>
+      <c r="D755" s="81"/>
+      <c r="E755" s="81"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="D756" s="78"/>
-      <c r="E756" s="78"/>
+      <c r="D756" s="81"/>
+      <c r="E756" s="81"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="D757" s="78"/>
-      <c r="E757" s="78"/>
+      <c r="D757" s="81"/>
+      <c r="E757" s="81"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="D758" s="78"/>
-      <c r="E758" s="78"/>
+      <c r="D758" s="81"/>
+      <c r="E758" s="81"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="D759" s="78"/>
-      <c r="E759" s="78"/>
+      <c r="D759" s="81"/>
+      <c r="E759" s="81"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="D760" s="78"/>
-      <c r="E760" s="78"/>
+      <c r="D760" s="81"/>
+      <c r="E760" s="81"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="D761" s="78"/>
-      <c r="E761" s="78"/>
+      <c r="D761" s="81"/>
+      <c r="E761" s="81"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="D762" s="78"/>
-      <c r="E762" s="78"/>
+      <c r="D762" s="81"/>
+      <c r="E762" s="81"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="D763" s="78"/>
-      <c r="E763" s="78"/>
+      <c r="D763" s="81"/>
+      <c r="E763" s="81"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="D764" s="78"/>
-      <c r="E764" s="78"/>
+      <c r="D764" s="81"/>
+      <c r="E764" s="81"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="D765" s="78"/>
-      <c r="E765" s="78"/>
+      <c r="D765" s="81"/>
+      <c r="E765" s="81"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="D766" s="78"/>
-      <c r="E766" s="78"/>
+      <c r="D766" s="81"/>
+      <c r="E766" s="81"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="D767" s="78"/>
-      <c r="E767" s="78"/>
+      <c r="D767" s="81"/>
+      <c r="E767" s="81"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="D768" s="78"/>
-      <c r="E768" s="78"/>
+      <c r="D768" s="81"/>
+      <c r="E768" s="81"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="D769" s="78"/>
-      <c r="E769" s="78"/>
+      <c r="D769" s="81"/>
+      <c r="E769" s="81"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="D770" s="78"/>
-      <c r="E770" s="78"/>
+      <c r="D770" s="81"/>
+      <c r="E770" s="81"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="D771" s="78"/>
-      <c r="E771" s="78"/>
+      <c r="D771" s="81"/>
+      <c r="E771" s="81"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="D772" s="78"/>
-      <c r="E772" s="78"/>
+      <c r="D772" s="81"/>
+      <c r="E772" s="81"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="D773" s="78"/>
-      <c r="E773" s="78"/>
+      <c r="D773" s="81"/>
+      <c r="E773" s="81"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="D774" s="78"/>
-      <c r="E774" s="78"/>
+      <c r="D774" s="81"/>
+      <c r="E774" s="81"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="D775" s="78"/>
-      <c r="E775" s="78"/>
+      <c r="D775" s="81"/>
+      <c r="E775" s="81"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="D776" s="78"/>
-      <c r="E776" s="78"/>
+      <c r="D776" s="81"/>
+      <c r="E776" s="81"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="D777" s="78"/>
-      <c r="E777" s="78"/>
+      <c r="D777" s="81"/>
+      <c r="E777" s="81"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="D778" s="78"/>
-      <c r="E778" s="78"/>
+      <c r="D778" s="81"/>
+      <c r="E778" s="81"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="D779" s="78"/>
-      <c r="E779" s="78"/>
+      <c r="D779" s="81"/>
+      <c r="E779" s="81"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="D780" s="78"/>
-      <c r="E780" s="78"/>
+      <c r="D780" s="81"/>
+      <c r="E780" s="81"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="D781" s="78"/>
-      <c r="E781" s="78"/>
+      <c r="D781" s="81"/>
+      <c r="E781" s="81"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="D782" s="78"/>
-      <c r="E782" s="78"/>
+      <c r="D782" s="81"/>
+      <c r="E782" s="81"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="D783" s="78"/>
-      <c r="E783" s="78"/>
+      <c r="D783" s="81"/>
+      <c r="E783" s="81"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="D784" s="78"/>
-      <c r="E784" s="78"/>
+      <c r="D784" s="81"/>
+      <c r="E784" s="81"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="D785" s="78"/>
-      <c r="E785" s="78"/>
+      <c r="D785" s="81"/>
+      <c r="E785" s="81"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="D786" s="78"/>
-      <c r="E786" s="78"/>
+      <c r="D786" s="81"/>
+      <c r="E786" s="81"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="D787" s="78"/>
-      <c r="E787" s="78"/>
+      <c r="D787" s="81"/>
+      <c r="E787" s="81"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="D788" s="78"/>
-      <c r="E788" s="78"/>
+      <c r="D788" s="81"/>
+      <c r="E788" s="81"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="D789" s="78"/>
-      <c r="E789" s="78"/>
+      <c r="D789" s="81"/>
+      <c r="E789" s="81"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="D790" s="78"/>
-      <c r="E790" s="78"/>
+      <c r="D790" s="81"/>
+      <c r="E790" s="81"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="D791" s="78"/>
-      <c r="E791" s="78"/>
+      <c r="D791" s="81"/>
+      <c r="E791" s="81"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="D792" s="78"/>
-      <c r="E792" s="78"/>
+      <c r="D792" s="81"/>
+      <c r="E792" s="81"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="D793" s="78"/>
-      <c r="E793" s="78"/>
+      <c r="D793" s="81"/>
+      <c r="E793" s="81"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="D794" s="78"/>
-      <c r="E794" s="78"/>
+      <c r="D794" s="81"/>
+      <c r="E794" s="81"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="D795" s="78"/>
-      <c r="E795" s="78"/>
+      <c r="D795" s="81"/>
+      <c r="E795" s="81"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="D796" s="78"/>
-      <c r="E796" s="78"/>
+      <c r="D796" s="81"/>
+      <c r="E796" s="81"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="D797" s="78"/>
-      <c r="E797" s="78"/>
+      <c r="D797" s="81"/>
+      <c r="E797" s="81"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="D798" s="78"/>
-      <c r="E798" s="78"/>
+      <c r="D798" s="81"/>
+      <c r="E798" s="81"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="D799" s="78"/>
-      <c r="E799" s="78"/>
+      <c r="D799" s="81"/>
+      <c r="E799" s="81"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="D800" s="78"/>
-      <c r="E800" s="78"/>
+      <c r="D800" s="81"/>
+      <c r="E800" s="81"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="D801" s="78"/>
-      <c r="E801" s="78"/>
+      <c r="D801" s="81"/>
+      <c r="E801" s="81"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="D802" s="78"/>
-      <c r="E802" s="78"/>
+      <c r="D802" s="81"/>
+      <c r="E802" s="81"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="D803" s="78"/>
-      <c r="E803" s="78"/>
+      <c r="D803" s="81"/>
+      <c r="E803" s="81"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="D804" s="78"/>
-      <c r="E804" s="78"/>
+      <c r="D804" s="81"/>
+      <c r="E804" s="81"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="D805" s="78"/>
-      <c r="E805" s="78"/>
+      <c r="D805" s="81"/>
+      <c r="E805" s="81"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="D806" s="78"/>
-      <c r="E806" s="78"/>
+      <c r="D806" s="81"/>
+      <c r="E806" s="81"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="D807" s="78"/>
-      <c r="E807" s="78"/>
+      <c r="D807" s="81"/>
+      <c r="E807" s="81"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="D808" s="78"/>
-      <c r="E808" s="78"/>
+      <c r="D808" s="81"/>
+      <c r="E808" s="81"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="D809" s="78"/>
-      <c r="E809" s="78"/>
+      <c r="D809" s="81"/>
+      <c r="E809" s="81"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="D810" s="78"/>
-      <c r="E810" s="78"/>
+      <c r="D810" s="81"/>
+      <c r="E810" s="81"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="D811" s="78"/>
-      <c r="E811" s="78"/>
+      <c r="D811" s="81"/>
+      <c r="E811" s="81"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="D812" s="78"/>
-      <c r="E812" s="78"/>
+      <c r="D812" s="81"/>
+      <c r="E812" s="81"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="D813" s="78"/>
-      <c r="E813" s="78"/>
+      <c r="D813" s="81"/>
+      <c r="E813" s="81"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="D814" s="78"/>
-      <c r="E814" s="78"/>
+      <c r="D814" s="81"/>
+      <c r="E814" s="81"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="D815" s="78"/>
-      <c r="E815" s="78"/>
+      <c r="D815" s="81"/>
+      <c r="E815" s="81"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="D816" s="78"/>
-      <c r="E816" s="78"/>
+      <c r="D816" s="81"/>
+      <c r="E816" s="81"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="D817" s="78"/>
-      <c r="E817" s="78"/>
+      <c r="D817" s="81"/>
+      <c r="E817" s="81"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="D818" s="78"/>
-      <c r="E818" s="78"/>
+      <c r="D818" s="81"/>
+      <c r="E818" s="81"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="D819" s="78"/>
-      <c r="E819" s="78"/>
+      <c r="D819" s="81"/>
+      <c r="E819" s="81"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="D820" s="78"/>
-      <c r="E820" s="78"/>
+      <c r="D820" s="81"/>
+      <c r="E820" s="81"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="D821" s="78"/>
-      <c r="E821" s="78"/>
+      <c r="D821" s="81"/>
+      <c r="E821" s="81"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="D822" s="78"/>
-      <c r="E822" s="78"/>
+      <c r="D822" s="81"/>
+      <c r="E822" s="81"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="D823" s="78"/>
-      <c r="E823" s="78"/>
+      <c r="D823" s="81"/>
+      <c r="E823" s="81"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="D824" s="78"/>
-      <c r="E824" s="78"/>
+      <c r="D824" s="81"/>
+      <c r="E824" s="81"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="D825" s="78"/>
-      <c r="E825" s="78"/>
+      <c r="D825" s="81"/>
+      <c r="E825" s="81"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="D826" s="78"/>
-      <c r="E826" s="78"/>
+      <c r="D826" s="81"/>
+      <c r="E826" s="81"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="D827" s="78"/>
-      <c r="E827" s="78"/>
+      <c r="D827" s="81"/>
+      <c r="E827" s="81"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="D828" s="78"/>
-      <c r="E828" s="78"/>
+      <c r="D828" s="81"/>
+      <c r="E828" s="81"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="D829" s="78"/>
-      <c r="E829" s="78"/>
+      <c r="D829" s="81"/>
+      <c r="E829" s="81"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="D830" s="78"/>
-      <c r="E830" s="78"/>
+      <c r="D830" s="81"/>
+      <c r="E830" s="81"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="D831" s="78"/>
-      <c r="E831" s="78"/>
+      <c r="D831" s="81"/>
+      <c r="E831" s="81"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="D832" s="78"/>
-      <c r="E832" s="78"/>
+      <c r="D832" s="81"/>
+      <c r="E832" s="81"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="D833" s="78"/>
-      <c r="E833" s="78"/>
+      <c r="D833" s="81"/>
+      <c r="E833" s="81"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="D834" s="78"/>
-      <c r="E834" s="78"/>
+      <c r="D834" s="81"/>
+      <c r="E834" s="81"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="D835" s="78"/>
-      <c r="E835" s="78"/>
+      <c r="D835" s="81"/>
+      <c r="E835" s="81"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="D836" s="78"/>
-      <c r="E836" s="78"/>
+      <c r="D836" s="81"/>
+      <c r="E836" s="81"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="D837" s="78"/>
-      <c r="E837" s="78"/>
+      <c r="D837" s="81"/>
+      <c r="E837" s="81"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="D838" s="78"/>
-      <c r="E838" s="78"/>
+      <c r="D838" s="81"/>
+      <c r="E838" s="81"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="D839" s="78"/>
-      <c r="E839" s="78"/>
+      <c r="D839" s="81"/>
+      <c r="E839" s="81"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="D840" s="78"/>
-      <c r="E840" s="78"/>
+      <c r="D840" s="81"/>
+      <c r="E840" s="81"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="D841" s="78"/>
-      <c r="E841" s="78"/>
+      <c r="D841" s="81"/>
+      <c r="E841" s="81"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="D842" s="78"/>
-      <c r="E842" s="78"/>
+      <c r="D842" s="81"/>
+      <c r="E842" s="81"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="D843" s="78"/>
-      <c r="E843" s="78"/>
+      <c r="D843" s="81"/>
+      <c r="E843" s="81"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="D844" s="78"/>
-      <c r="E844" s="78"/>
+      <c r="D844" s="81"/>
+      <c r="E844" s="81"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="D845" s="78"/>
-      <c r="E845" s="78"/>
+      <c r="D845" s="81"/>
+      <c r="E845" s="81"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="D846" s="78"/>
-      <c r="E846" s="78"/>
+      <c r="D846" s="81"/>
+      <c r="E846" s="81"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="D847" s="78"/>
-      <c r="E847" s="78"/>
+      <c r="D847" s="81"/>
+      <c r="E847" s="81"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="D848" s="78"/>
-      <c r="E848" s="78"/>
+      <c r="D848" s="81"/>
+      <c r="E848" s="81"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="D849" s="78"/>
-      <c r="E849" s="78"/>
+      <c r="D849" s="81"/>
+      <c r="E849" s="81"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="D850" s="78"/>
-      <c r="E850" s="78"/>
+      <c r="D850" s="81"/>
+      <c r="E850" s="81"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="D851" s="78"/>
-      <c r="E851" s="78"/>
+      <c r="D851" s="81"/>
+      <c r="E851" s="81"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="D852" s="78"/>
-      <c r="E852" s="78"/>
+      <c r="D852" s="81"/>
+      <c r="E852" s="81"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="D853" s="78"/>
-      <c r="E853" s="78"/>
+      <c r="D853" s="81"/>
+      <c r="E853" s="81"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="D854" s="78"/>
-      <c r="E854" s="78"/>
+      <c r="D854" s="81"/>
+      <c r="E854" s="81"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="D855" s="78"/>
-      <c r="E855" s="78"/>
+      <c r="D855" s="81"/>
+      <c r="E855" s="81"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="D856" s="78"/>
-      <c r="E856" s="78"/>
+      <c r="D856" s="81"/>
+      <c r="E856" s="81"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="D857" s="78"/>
-      <c r="E857" s="78"/>
+      <c r="D857" s="81"/>
+      <c r="E857" s="81"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="D858" s="78"/>
-      <c r="E858" s="78"/>
+      <c r="D858" s="81"/>
+      <c r="E858" s="81"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="D859" s="78"/>
-      <c r="E859" s="78"/>
+      <c r="D859" s="81"/>
+      <c r="E859" s="81"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="D860" s="78"/>
-      <c r="E860" s="78"/>
+      <c r="D860" s="81"/>
+      <c r="E860" s="81"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="D861" s="78"/>
-      <c r="E861" s="78"/>
+      <c r="D861" s="81"/>
+      <c r="E861" s="81"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="D862" s="78"/>
-      <c r="E862" s="78"/>
+      <c r="D862" s="81"/>
+      <c r="E862" s="81"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="D863" s="78"/>
-      <c r="E863" s="78"/>
+      <c r="D863" s="81"/>
+      <c r="E863" s="81"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="D864" s="78"/>
-      <c r="E864" s="78"/>
+      <c r="D864" s="81"/>
+      <c r="E864" s="81"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="D865" s="78"/>
-      <c r="E865" s="78"/>
+      <c r="D865" s="81"/>
+      <c r="E865" s="81"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="D866" s="78"/>
-      <c r="E866" s="78"/>
+      <c r="D866" s="81"/>
+      <c r="E866" s="81"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="D867" s="78"/>
-      <c r="E867" s="78"/>
+      <c r="D867" s="81"/>
+      <c r="E867" s="81"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="D868" s="78"/>
-      <c r="E868" s="78"/>
+      <c r="D868" s="81"/>
+      <c r="E868" s="81"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="D869" s="78"/>
-      <c r="E869" s="78"/>
+      <c r="D869" s="81"/>
+      <c r="E869" s="81"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="D870" s="78"/>
-      <c r="E870" s="78"/>
+      <c r="D870" s="81"/>
+      <c r="E870" s="81"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="D871" s="78"/>
-      <c r="E871" s="78"/>
+      <c r="D871" s="81"/>
+      <c r="E871" s="81"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="D872" s="78"/>
-      <c r="E872" s="78"/>
+      <c r="D872" s="81"/>
+      <c r="E872" s="81"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="D873" s="78"/>
-      <c r="E873" s="78"/>
+      <c r="D873" s="81"/>
+      <c r="E873" s="81"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="D874" s="78"/>
-      <c r="E874" s="78"/>
+      <c r="D874" s="81"/>
+      <c r="E874" s="81"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="D875" s="78"/>
-      <c r="E875" s="78"/>
+      <c r="D875" s="81"/>
+      <c r="E875" s="81"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="D876" s="78"/>
-      <c r="E876" s="78"/>
+      <c r="D876" s="81"/>
+      <c r="E876" s="81"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="D877" s="78"/>
-      <c r="E877" s="78"/>
+      <c r="D877" s="81"/>
+      <c r="E877" s="81"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="D878" s="78"/>
-      <c r="E878" s="78"/>
+      <c r="D878" s="81"/>
+      <c r="E878" s="81"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="D879" s="78"/>
-      <c r="E879" s="78"/>
+      <c r="D879" s="81"/>
+      <c r="E879" s="81"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="D880" s="78"/>
-      <c r="E880" s="78"/>
+      <c r="D880" s="81"/>
+      <c r="E880" s="81"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="D881" s="78"/>
-      <c r="E881" s="78"/>
+      <c r="D881" s="81"/>
+      <c r="E881" s="81"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="D882" s="78"/>
-      <c r="E882" s="78"/>
+      <c r="D882" s="81"/>
+      <c r="E882" s="81"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="D883" s="78"/>
-      <c r="E883" s="78"/>
+      <c r="D883" s="81"/>
+      <c r="E883" s="81"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="D884" s="78"/>
-      <c r="E884" s="78"/>
+      <c r="D884" s="81"/>
+      <c r="E884" s="81"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="D885" s="78"/>
-      <c r="E885" s="78"/>
+      <c r="D885" s="81"/>
+      <c r="E885" s="81"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="D886" s="78"/>
-      <c r="E886" s="78"/>
+      <c r="D886" s="81"/>
+      <c r="E886" s="81"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="D887" s="78"/>
-      <c r="E887" s="78"/>
+      <c r="D887" s="81"/>
+      <c r="E887" s="81"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="D888" s="78"/>
-      <c r="E888" s="78"/>
+      <c r="D888" s="81"/>
+      <c r="E888" s="81"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="D889" s="78"/>
-      <c r="E889" s="78"/>
+      <c r="D889" s="81"/>
+      <c r="E889" s="81"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="D890" s="78"/>
-      <c r="E890" s="78"/>
+      <c r="D890" s="81"/>
+      <c r="E890" s="81"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="D891" s="78"/>
-      <c r="E891" s="78"/>
+      <c r="D891" s="81"/>
+      <c r="E891" s="81"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="D892" s="78"/>
-      <c r="E892" s="78"/>
+      <c r="D892" s="81"/>
+      <c r="E892" s="81"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="D893" s="78"/>
-      <c r="E893" s="78"/>
+      <c r="D893" s="81"/>
+      <c r="E893" s="81"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="D894" s="78"/>
-      <c r="E894" s="78"/>
+      <c r="D894" s="81"/>
+      <c r="E894" s="81"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="D895" s="78"/>
-      <c r="E895" s="78"/>
+      <c r="D895" s="81"/>
+      <c r="E895" s="81"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="D896" s="78"/>
-      <c r="E896" s="78"/>
+      <c r="D896" s="81"/>
+      <c r="E896" s="81"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="D897" s="78"/>
-      <c r="E897" s="78"/>
+      <c r="D897" s="81"/>
+      <c r="E897" s="81"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="D898" s="78"/>
-      <c r="E898" s="78"/>
+      <c r="D898" s="81"/>
+      <c r="E898" s="81"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="D899" s="78"/>
-      <c r="E899" s="78"/>
+      <c r="D899" s="81"/>
+      <c r="E899" s="81"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="D900" s="78"/>
-      <c r="E900" s="78"/>
+      <c r="D900" s="81"/>
+      <c r="E900" s="81"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="D901" s="78"/>
-      <c r="E901" s="78"/>
+      <c r="D901" s="81"/>
+      <c r="E901" s="81"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="D902" s="78"/>
-      <c r="E902" s="78"/>
+      <c r="D902" s="81"/>
+      <c r="E902" s="81"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="D903" s="78"/>
-      <c r="E903" s="78"/>
+      <c r="D903" s="81"/>
+      <c r="E903" s="81"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="D904" s="78"/>
-      <c r="E904" s="78"/>
+      <c r="D904" s="81"/>
+      <c r="E904" s="81"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="D905" s="78"/>
-      <c r="E905" s="78"/>
+      <c r="D905" s="81"/>
+      <c r="E905" s="81"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="D906" s="78"/>
-      <c r="E906" s="78"/>
+      <c r="D906" s="81"/>
+      <c r="E906" s="81"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="D907" s="78"/>
-      <c r="E907" s="78"/>
+      <c r="D907" s="81"/>
+      <c r="E907" s="81"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="D908" s="78"/>
-      <c r="E908" s="78"/>
+      <c r="D908" s="81"/>
+      <c r="E908" s="81"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="D909" s="78"/>
-      <c r="E909" s="78"/>
+      <c r="D909" s="81"/>
+      <c r="E909" s="81"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="D910" s="78"/>
-      <c r="E910" s="78"/>
+      <c r="D910" s="81"/>
+      <c r="E910" s="81"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="D911" s="78"/>
-      <c r="E911" s="78"/>
+      <c r="D911" s="81"/>
+      <c r="E911" s="81"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="D912" s="78"/>
-      <c r="E912" s="78"/>
+      <c r="D912" s="81"/>
+      <c r="E912" s="81"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="D913" s="78"/>
-      <c r="E913" s="78"/>
+      <c r="D913" s="81"/>
+      <c r="E913" s="81"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="D914" s="78"/>
-      <c r="E914" s="78"/>
+      <c r="D914" s="81"/>
+      <c r="E914" s="81"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="D915" s="78"/>
-      <c r="E915" s="78"/>
+      <c r="D915" s="81"/>
+      <c r="E915" s="81"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="D916" s="78"/>
-      <c r="E916" s="78"/>
+      <c r="D916" s="81"/>
+      <c r="E916" s="81"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="D917" s="78"/>
-      <c r="E917" s="78"/>
+      <c r="D917" s="81"/>
+      <c r="E917" s="81"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="D918" s="78"/>
-      <c r="E918" s="78"/>
+      <c r="D918" s="81"/>
+      <c r="E918" s="81"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="D919" s="78"/>
-      <c r="E919" s="78"/>
+      <c r="D919" s="81"/>
+      <c r="E919" s="81"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="D920" s="78"/>
-      <c r="E920" s="78"/>
+      <c r="D920" s="81"/>
+      <c r="E920" s="81"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="D921" s="78"/>
-      <c r="E921" s="78"/>
+      <c r="D921" s="81"/>
+      <c r="E921" s="81"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="D922" s="78"/>
-      <c r="E922" s="78"/>
+      <c r="D922" s="81"/>
+      <c r="E922" s="81"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="D923" s="78"/>
-      <c r="E923" s="78"/>
+      <c r="D923" s="81"/>
+      <c r="E923" s="81"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="D924" s="78"/>
-      <c r="E924" s="78"/>
+      <c r="D924" s="81"/>
+      <c r="E924" s="81"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="D925" s="78"/>
-      <c r="E925" s="78"/>
+      <c r="D925" s="81"/>
+      <c r="E925" s="81"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="D926" s="78"/>
-      <c r="E926" s="78"/>
+      <c r="D926" s="81"/>
+      <c r="E926" s="81"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="D927" s="78"/>
-      <c r="E927" s="78"/>
+      <c r="D927" s="81"/>
+      <c r="E927" s="81"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="D928" s="78"/>
-      <c r="E928" s="78"/>
+      <c r="D928" s="81"/>
+      <c r="E928" s="81"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="D929" s="78"/>
-      <c r="E929" s="78"/>
+      <c r="D929" s="81"/>
+      <c r="E929" s="81"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="D930" s="78"/>
-      <c r="E930" s="78"/>
+      <c r="D930" s="81"/>
+      <c r="E930" s="81"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="D931" s="78"/>
-      <c r="E931" s="78"/>
+      <c r="D931" s="81"/>
+      <c r="E931" s="81"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="D932" s="78"/>
-      <c r="E932" s="78"/>
+      <c r="D932" s="81"/>
+      <c r="E932" s="81"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="D933" s="78"/>
-      <c r="E933" s="78"/>
+      <c r="D933" s="81"/>
+      <c r="E933" s="81"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="D934" s="78"/>
-      <c r="E934" s="78"/>
+      <c r="D934" s="81"/>
+      <c r="E934" s="81"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="D935" s="78"/>
-      <c r="E935" s="78"/>
+      <c r="D935" s="81"/>
+      <c r="E935" s="81"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="D936" s="78"/>
-      <c r="E936" s="78"/>
+      <c r="D936" s="81"/>
+      <c r="E936" s="81"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="D937" s="78"/>
-      <c r="E937" s="78"/>
+      <c r="D937" s="81"/>
+      <c r="E937" s="81"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="D938" s="78"/>
-      <c r="E938" s="78"/>
+      <c r="D938" s="81"/>
+      <c r="E938" s="81"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="D939" s="78"/>
-      <c r="E939" s="78"/>
+      <c r="D939" s="81"/>
+      <c r="E939" s="81"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="D940" s="78"/>
-      <c r="E940" s="78"/>
+      <c r="D940" s="81"/>
+      <c r="E940" s="81"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="D941" s="78"/>
-      <c r="E941" s="78"/>
+      <c r="D941" s="81"/>
+      <c r="E941" s="81"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="D942" s="78"/>
-      <c r="E942" s="78"/>
+      <c r="D942" s="81"/>
+      <c r="E942" s="81"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="D943" s="78"/>
-      <c r="E943" s="78"/>
+      <c r="D943" s="81"/>
+      <c r="E943" s="81"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="D944" s="78"/>
-      <c r="E944" s="78"/>
+      <c r="D944" s="81"/>
+      <c r="E944" s="81"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="D945" s="78"/>
-      <c r="E945" s="78"/>
+      <c r="D945" s="81"/>
+      <c r="E945" s="81"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="D946" s="78"/>
-      <c r="E946" s="78"/>
+      <c r="D946" s="81"/>
+      <c r="E946" s="81"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="D947" s="78"/>
-      <c r="E947" s="78"/>
+      <c r="D947" s="81"/>
+      <c r="E947" s="81"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="D948" s="78"/>
-      <c r="E948" s="78"/>
+      <c r="D948" s="81"/>
+      <c r="E948" s="81"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="D949" s="78"/>
-      <c r="E949" s="78"/>
+      <c r="D949" s="81"/>
+      <c r="E949" s="81"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="D950" s="78"/>
-      <c r="E950" s="78"/>
+      <c r="D950" s="81"/>
+      <c r="E950" s="81"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="D951" s="78"/>
-      <c r="E951" s="78"/>
+      <c r="D951" s="81"/>
+      <c r="E951" s="81"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="D952" s="78"/>
-      <c r="E952" s="78"/>
+      <c r="D952" s="81"/>
+      <c r="E952" s="81"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="D953" s="78"/>
-      <c r="E953" s="78"/>
+      <c r="D953" s="81"/>
+      <c r="E953" s="81"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="D954" s="78"/>
-      <c r="E954" s="78"/>
+      <c r="D954" s="81"/>
+      <c r="E954" s="81"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="D955" s="78"/>
-      <c r="E955" s="78"/>
+      <c r="D955" s="81"/>
+      <c r="E955" s="81"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="D956" s="78"/>
-      <c r="E956" s="78"/>
+      <c r="D956" s="81"/>
+      <c r="E956" s="81"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="D957" s="78"/>
-      <c r="E957" s="78"/>
+      <c r="D957" s="81"/>
+      <c r="E957" s="81"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="D958" s="78"/>
-      <c r="E958" s="78"/>
+      <c r="D958" s="81"/>
+      <c r="E958" s="81"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="D959" s="78"/>
-      <c r="E959" s="78"/>
+      <c r="D959" s="81"/>
+      <c r="E959" s="81"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="D960" s="78"/>
-      <c r="E960" s="78"/>
+      <c r="D960" s="81"/>
+      <c r="E960" s="81"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="D961" s="78"/>
-      <c r="E961" s="78"/>
+      <c r="D961" s="81"/>
+      <c r="E961" s="81"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="D962" s="78"/>
-      <c r="E962" s="78"/>
+      <c r="D962" s="81"/>
+      <c r="E962" s="81"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="D963" s="78"/>
-      <c r="E963" s="78"/>
+      <c r="D963" s="81"/>
+      <c r="E963" s="81"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="D964" s="78"/>
-      <c r="E964" s="78"/>
+      <c r="D964" s="81"/>
+      <c r="E964" s="81"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="D965" s="78"/>
-      <c r="E965" s="78"/>
+      <c r="D965" s="81"/>
+      <c r="E965" s="81"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="D966" s="78"/>
-      <c r="E966" s="78"/>
+      <c r="D966" s="81"/>
+      <c r="E966" s="81"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="D967" s="78"/>
-      <c r="E967" s="78"/>
+      <c r="D967" s="81"/>
+      <c r="E967" s="81"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="D968" s="78"/>
-      <c r="E968" s="78"/>
+      <c r="D968" s="81"/>
+      <c r="E968" s="81"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="D969" s="78"/>
-      <c r="E969" s="78"/>
+      <c r="D969" s="81"/>
+      <c r="E969" s="81"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="D970" s="78"/>
-      <c r="E970" s="78"/>
+      <c r="D970" s="81"/>
+      <c r="E970" s="81"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="D971" s="78"/>
-      <c r="E971" s="78"/>
+      <c r="D971" s="81"/>
+      <c r="E971" s="81"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="D972" s="78"/>
-      <c r="E972" s="78"/>
+      <c r="D972" s="81"/>
+      <c r="E972" s="81"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="D973" s="78"/>
-      <c r="E973" s="78"/>
+      <c r="D973" s="81"/>
+      <c r="E973" s="81"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="D974" s="78"/>
-      <c r="E974" s="78"/>
+      <c r="D974" s="81"/>
+      <c r="E974" s="81"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="D975" s="78"/>
-      <c r="E975" s="78"/>
+      <c r="D975" s="81"/>
+      <c r="E975" s="81"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="D976" s="78"/>
-      <c r="E976" s="78"/>
+      <c r="D976" s="81"/>
+      <c r="E976" s="81"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="D977" s="78"/>
-      <c r="E977" s="78"/>
+      <c r="D977" s="81"/>
+      <c r="E977" s="81"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="D978" s="78"/>
-      <c r="E978" s="78"/>
+      <c r="D978" s="81"/>
+      <c r="E978" s="81"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="D979" s="78"/>
-      <c r="E979" s="78"/>
+      <c r="D979" s="81"/>
+      <c r="E979" s="81"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="D980" s="78"/>
-      <c r="E980" s="78"/>
+      <c r="D980" s="81"/>
+      <c r="E980" s="81"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="D981" s="78"/>
-      <c r="E981" s="78"/>
+      <c r="D981" s="81"/>
+      <c r="E981" s="81"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="D982" s="78"/>
-      <c r="E982" s="78"/>
+      <c r="D982" s="81"/>
+      <c r="E982" s="81"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="D983" s="78"/>
-      <c r="E983" s="78"/>
+      <c r="D983" s="81"/>
+      <c r="E983" s="81"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="D984" s="78"/>
-      <c r="E984" s="78"/>
+      <c r="D984" s="81"/>
+      <c r="E984" s="81"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="D985" s="78"/>
-      <c r="E985" s="78"/>
+      <c r="D985" s="81"/>
+      <c r="E985" s="81"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="D986" s="78"/>
-      <c r="E986" s="78"/>
+      <c r="D986" s="81"/>
+      <c r="E986" s="81"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="D987" s="78"/>
-      <c r="E987" s="78"/>
+      <c r="D987" s="81"/>
+      <c r="E987" s="81"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="D988" s="78"/>
-      <c r="E988" s="78"/>
+      <c r="D988" s="81"/>
+      <c r="E988" s="81"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="D989" s="78"/>
-      <c r="E989" s="78"/>
+      <c r="D989" s="81"/>
+      <c r="E989" s="81"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="D990" s="78"/>
-      <c r="E990" s="78"/>
+      <c r="D990" s="81"/>
+      <c r="E990" s="81"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="D991" s="78"/>
-      <c r="E991" s="78"/>
+      <c r="D991" s="81"/>
+      <c r="E991" s="81"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
-      <c r="D992" s="78"/>
-      <c r="E992" s="78"/>
+      <c r="D992" s="81"/>
+      <c r="E992" s="81"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
-      <c r="D993" s="78"/>
-      <c r="E993" s="78"/>
+      <c r="D993" s="81"/>
+      <c r="E993" s="81"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
-      <c r="D994" s="78"/>
-      <c r="E994" s="78"/>
+      <c r="D994" s="81"/>
+      <c r="E994" s="81"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
-      <c r="D995" s="78"/>
-      <c r="E995" s="78"/>
+      <c r="D995" s="81"/>
+      <c r="E995" s="81"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
-      <c r="D996" s="78"/>
-      <c r="E996" s="78"/>
+      <c r="D996" s="81"/>
+      <c r="E996" s="81"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
-      <c r="D997" s="78"/>
-      <c r="E997" s="78"/>
+      <c r="D997" s="81"/>
+      <c r="E997" s="81"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
-      <c r="D998" s="78"/>
-      <c r="E998" s="78"/>
+      <c r="D998" s="81"/>
+      <c r="E998" s="81"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
-      <c r="D999" s="78"/>
-      <c r="E999" s="78"/>
+      <c r="D999" s="81"/>
+      <c r="E999" s="81"/>
     </row>
     <row r="1000" ht="15.75" customHeight="1">
-      <c r="D1000" s="78"/>
-      <c r="E1000" s="78"/>
+      <c r="D1000" s="81"/>
+      <c r="E1000" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -21517,22 +21502,22 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="72" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B1" s="72" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="D1" s="97" t="s">
+        <v>449</v>
+      </c>
+      <c r="D1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="98"/>
+      <c r="E1" s="73"/>
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="85" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -21548,7 +21533,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="99"/>
+      <c r="H2" s="101"/>
       <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
@@ -21560,53 +21545,53 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="100" t="s">
-        <v>448</v>
-      </c>
-      <c r="B3" s="100" t="s">
-        <v>449</v>
+      <c r="A3" s="102" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3" s="102" t="s">
+        <v>451</v>
       </c>
       <c r="C3" s="47">
         <v>112.0</v>
       </c>
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="102"/>
+      <c r="E3" s="79"/>
       <c r="F3" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="103" t="s">
+      <c r="H3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="104" t="s">
+      <c r="I3" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="105" t="s">
+      <c r="J3" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="105" t="s">
+      <c r="K3" s="106" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="77" t="s">
-        <v>450</v>
-      </c>
-      <c r="B4" s="77">
+      <c r="A4" s="78" t="s">
+        <v>452</v>
+      </c>
+      <c r="B4" s="78">
         <v>23.0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="D4" s="106" t="s">
+        <v>453</v>
+      </c>
+      <c r="D4" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="107" t="s">
-        <v>452</v>
+      <c r="E4" s="108" t="s">
+        <v>454</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>22</v>
@@ -21614,7 +21599,7 @@
       <c r="G4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="108" t="s">
+      <c r="H4" s="109" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="5" t="s">
@@ -21628,20 +21613,20 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="77" t="s">
-        <v>453</v>
-      </c>
-      <c r="B5" s="77">
+      <c r="A5" s="78" t="s">
+        <v>455</v>
+      </c>
+      <c r="B5" s="78">
         <v>24.0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="D5" s="106" t="s">
+        <v>456</v>
+      </c>
+      <c r="D5" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="107" t="s">
-        <v>455</v>
+      <c r="E5" s="108" t="s">
+        <v>457</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>19</v>
@@ -21649,7 +21634,7 @@
       <c r="G5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="108" t="s">
+      <c r="H5" s="109" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="5" t="s">
@@ -21663,26 +21648,26 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="77" t="s">
-        <v>456</v>
-      </c>
-      <c r="B6" s="77">
+      <c r="A6" s="78" t="s">
+        <v>458</v>
+      </c>
+      <c r="B6" s="78">
         <v>25.0</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="D6" s="106" t="s">
+        <v>459</v>
+      </c>
+      <c r="D6" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="109"/>
+      <c r="E6" s="110"/>
       <c r="F6" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="108" t="s">
+      <c r="H6" s="109" t="s">
         <v>19</v>
       </c>
       <c r="I6" s="5" t="s">
@@ -21696,26 +21681,26 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="77" t="s">
-        <v>458</v>
-      </c>
-      <c r="B7" s="77">
+      <c r="A7" s="78" t="s">
+        <v>460</v>
+      </c>
+      <c r="B7" s="78">
         <v>6.0</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="D7" s="106" t="s">
+        <v>453</v>
+      </c>
+      <c r="D7" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="109"/>
+      <c r="E7" s="110"/>
       <c r="F7" s="48" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="108" t="s">
+      <c r="H7" s="109" t="s">
         <v>14</v>
       </c>
       <c r="I7" s="5" t="s">
@@ -21729,26 +21714,26 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="77" t="s">
-        <v>459</v>
-      </c>
-      <c r="B8" s="77">
+      <c r="A8" s="78" t="s">
+        <v>461</v>
+      </c>
+      <c r="B8" s="78">
         <v>9.0</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="D8" s="106" t="s">
+        <v>453</v>
+      </c>
+      <c r="D8" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="109"/>
+      <c r="E8" s="110"/>
       <c r="F8" s="48" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="108" t="s">
+      <c r="H8" s="109" t="s">
         <v>14</v>
       </c>
       <c r="I8" s="5" t="s">
@@ -21762,26 +21747,26 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="77" t="s">
-        <v>460</v>
-      </c>
-      <c r="B9" s="77">
+      <c r="A9" s="78" t="s">
+        <v>462</v>
+      </c>
+      <c r="B9" s="78">
         <v>11.0</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="D9" s="106" t="s">
+        <v>456</v>
+      </c>
+      <c r="D9" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="109"/>
+      <c r="E9" s="110"/>
       <c r="F9" s="48" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="108" t="s">
+      <c r="H9" s="109" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="5" t="s">
@@ -21795,26 +21780,26 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="77" t="s">
-        <v>461</v>
-      </c>
-      <c r="B10" s="77">
+      <c r="A10" s="78" t="s">
+        <v>463</v>
+      </c>
+      <c r="B10" s="78">
         <v>13.0</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="D10" s="106" t="s">
+        <v>459</v>
+      </c>
+      <c r="D10" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="109"/>
+      <c r="E10" s="110"/>
       <c r="F10" s="48" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="108" t="s">
+      <c r="H10" s="109" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="5" t="s">
@@ -21828,26 +21813,26 @@
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="77" t="s">
-        <v>462</v>
-      </c>
-      <c r="B11" s="77">
+      <c r="A11" s="78" t="s">
+        <v>464</v>
+      </c>
+      <c r="B11" s="78">
         <v>7.0</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="D11" s="106" t="s">
+        <v>453</v>
+      </c>
+      <c r="D11" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="109"/>
+      <c r="E11" s="110"/>
       <c r="F11" s="48" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="108" t="s">
+      <c r="H11" s="109" t="s">
         <v>14</v>
       </c>
       <c r="I11" s="5" t="s">
@@ -21861,26 +21846,26 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="77" t="s">
-        <v>463</v>
-      </c>
-      <c r="B12" s="77">
+      <c r="A12" s="78" t="s">
+        <v>465</v>
+      </c>
+      <c r="B12" s="78">
         <v>10.0</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="D12" s="106" t="s">
+        <v>453</v>
+      </c>
+      <c r="D12" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="109"/>
+      <c r="E12" s="110"/>
       <c r="F12" s="48" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="108" t="s">
+      <c r="H12" s="109" t="s">
         <v>14</v>
       </c>
       <c r="I12" s="5" t="s">
@@ -21894,26 +21879,26 @@
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="77" t="s">
-        <v>464</v>
-      </c>
-      <c r="B13" s="77">
+      <c r="A13" s="78" t="s">
+        <v>466</v>
+      </c>
+      <c r="B13" s="78">
         <v>12.0</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="D13" s="106" t="s">
+        <v>456</v>
+      </c>
+      <c r="D13" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="109"/>
+      <c r="E13" s="110"/>
       <c r="F13" s="48" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="108" t="s">
+      <c r="H13" s="109" t="s">
         <v>14</v>
       </c>
       <c r="I13" s="5" t="s">
@@ -21927,59 +21912,59 @@
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="77" t="s">
-        <v>465</v>
-      </c>
-      <c r="B14" s="77">
+      <c r="A14" s="78" t="s">
+        <v>467</v>
+      </c>
+      <c r="B14" s="78">
         <v>14.0</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="D14" s="110" t="s">
+        <v>459</v>
+      </c>
+      <c r="D14" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="111"/>
+      <c r="E14" s="112"/>
       <c r="F14" s="48" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="108" t="s">
+      <c r="H14" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="112" t="s">
+      <c r="I14" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="113" t="s">
+      <c r="J14" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="113" t="s">
+      <c r="K14" s="114" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="100" t="s">
-        <v>466</v>
-      </c>
-      <c r="B15" s="100" t="s">
-        <v>449</v>
+      <c r="A15" s="102" t="s">
+        <v>468</v>
+      </c>
+      <c r="B15" s="102" t="s">
+        <v>451</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="109"/>
+      <c r="E15" s="110"/>
       <c r="F15" s="48" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="103" t="s">
+      <c r="H15" s="104" t="s">
         <v>14</v>
       </c>
       <c r="I15" s="4" t="s">
@@ -21993,10 +21978,10 @@
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="77" t="s">
-        <v>467</v>
-      </c>
-      <c r="B16" s="77">
+      <c r="A16" s="78" t="s">
+        <v>469</v>
+      </c>
+      <c r="B16" s="78">
         <v>256.0</v>
       </c>
       <c r="C16" s="6">
@@ -22005,14 +21990,14 @@
       <c r="D16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="109"/>
+      <c r="E16" s="110"/>
       <c r="F16" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="108" t="s">
+      <c r="H16" s="109" t="s">
         <v>25</v>
       </c>
       <c r="I16" s="5" t="s">
@@ -22026,26 +22011,26 @@
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="77" t="s">
-        <v>468</v>
-      </c>
-      <c r="B17" s="77">
+      <c r="A17" s="78" t="s">
+        <v>470</v>
+      </c>
+      <c r="B17" s="78">
         <v>257.0</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="109"/>
+      <c r="E17" s="110"/>
       <c r="F17" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="108" t="s">
+      <c r="H17" s="109" t="s">
         <v>25</v>
       </c>
       <c r="I17" s="5" t="s">
@@ -22059,26 +22044,26 @@
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="77" t="s">
-        <v>469</v>
-      </c>
-      <c r="B18" s="77">
+      <c r="A18" s="78" t="s">
+        <v>471</v>
+      </c>
+      <c r="B18" s="78">
         <v>258.0</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="109"/>
+      <c r="E18" s="110"/>
       <c r="F18" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="108" t="s">
+      <c r="H18" s="109" t="s">
         <v>25</v>
       </c>
       <c r="I18" s="5" t="s">
@@ -22092,26 +22077,26 @@
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="77" t="s">
-        <v>471</v>
-      </c>
-      <c r="B19" s="77">
+      <c r="A19" s="78" t="s">
+        <v>473</v>
+      </c>
+      <c r="B19" s="78">
         <v>259.0</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="109"/>
+      <c r="E19" s="110"/>
       <c r="F19" s="48" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="108" t="s">
+      <c r="H19" s="109" t="s">
         <v>25</v>
       </c>
       <c r="I19" s="5" t="s">
@@ -22125,26 +22110,26 @@
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="77" t="s">
-        <v>473</v>
-      </c>
-      <c r="B20" s="77">
+      <c r="A20" s="78" t="s">
+        <v>475</v>
+      </c>
+      <c r="B20" s="78">
         <v>260.0</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="109"/>
+      <c r="E20" s="110"/>
       <c r="F20" s="48" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="108" t="s">
+      <c r="H20" s="109" t="s">
         <v>25</v>
       </c>
       <c r="I20" s="5" t="s">
@@ -22158,24 +22143,24 @@
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="77" t="s">
-        <v>475</v>
-      </c>
-      <c r="B21" s="77">
+      <c r="A21" s="78" t="s">
+        <v>477</v>
+      </c>
+      <c r="B21" s="78">
         <v>26.0</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="109"/>
+      <c r="E21" s="110"/>
       <c r="F21" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="108" t="s">
+      <c r="H21" s="109" t="s">
         <v>25</v>
       </c>
       <c r="I21" s="5" t="s">
@@ -22189,24 +22174,24 @@
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="77" t="s">
-        <v>476</v>
-      </c>
-      <c r="B22" s="77">
+      <c r="A22" s="78" t="s">
+        <v>478</v>
+      </c>
+      <c r="B22" s="78">
         <v>27.0</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="109"/>
+      <c r="E22" s="110"/>
       <c r="F22" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="108" t="s">
+      <c r="H22" s="109" t="s">
         <v>25</v>
       </c>
       <c r="I22" s="5" t="s">
@@ -22220,24 +22205,24 @@
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="77" t="s">
-        <v>477</v>
-      </c>
-      <c r="B23" s="77">
+      <c r="A23" s="78" t="s">
+        <v>479</v>
+      </c>
+      <c r="B23" s="78">
         <v>28.0</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="109"/>
+      <c r="E23" s="110"/>
       <c r="F23" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="108" t="s">
+      <c r="H23" s="109" t="s">
         <v>25</v>
       </c>
       <c r="I23" s="5" t="s">
@@ -22251,24 +22236,24 @@
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="77" t="s">
-        <v>478</v>
-      </c>
-      <c r="B24" s="77">
+      <c r="A24" s="78" t="s">
+        <v>480</v>
+      </c>
+      <c r="B24" s="78">
         <v>29.0</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="109"/>
+      <c r="E24" s="110"/>
       <c r="F24" s="48" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="108" t="s">
+      <c r="H24" s="109" t="s">
         <v>25</v>
       </c>
       <c r="I24" s="5" t="s">
@@ -22282,24 +22267,24 @@
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="114" t="s">
-        <v>479</v>
-      </c>
-      <c r="B25" s="77">
+      <c r="A25" s="115" t="s">
+        <v>481</v>
+      </c>
+      <c r="B25" s="78">
         <v>30.0</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="109"/>
+      <c r="E25" s="110"/>
       <c r="F25" s="48" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="108" t="s">
+      <c r="H25" s="109" t="s">
         <v>25</v>
       </c>
       <c r="I25" s="5" t="s">
@@ -22315,8 +22300,8 @@
     <row r="26" ht="15.75" customHeight="1"/>
     <row r="27" ht="15.75" customHeight="1"/>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
     </row>
     <row r="29" ht="15.75" customHeight="1"/>
     <row r="30" ht="15.75" customHeight="1"/>
@@ -23363,71 +23348,71 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="71" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B1" s="71" t="s">
-        <v>481</v>
-      </c>
-      <c r="C1" s="115" t="s">
-        <v>482</v>
-      </c>
-      <c r="D1" s="116" t="s">
+        <v>483</v>
+      </c>
+      <c r="C1" s="116" t="s">
+        <v>484</v>
+      </c>
+      <c r="D1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="118" t="s">
+      <c r="E1" s="118"/>
+      <c r="F1" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="119"/>
-      <c r="H1" s="120" t="s">
+      <c r="G1" s="120"/>
+      <c r="H1" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121" t="s">
+      <c r="I1" s="122"/>
+      <c r="J1" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="74"/>
       <c r="B2" s="74"/>
       <c r="C2" s="74"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="123" t="s">
-        <v>483</v>
-      </c>
-      <c r="F2" s="83"/>
-      <c r="G2" s="123" t="s">
-        <v>483</v>
-      </c>
-      <c r="H2" s="83"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76" t="s">
+      <c r="D2" s="86"/>
+      <c r="E2" s="76" t="s">
+        <v>485</v>
+      </c>
+      <c r="F2" s="86"/>
+      <c r="G2" s="76" t="s">
+        <v>485</v>
+      </c>
+      <c r="H2" s="86"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="76" t="s">
+      <c r="K2" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="76" t="s">
+      <c r="L2" s="77" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="124" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="77">
+      <c r="C3" s="78">
         <v>224.0</v>
       </c>
       <c r="D3" s="125" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="126" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F3" s="127" t="s">
         <v>16</v>
@@ -23448,26 +23433,26 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="C4" s="77">
+      <c r="C4" s="78">
         <v>256.0</v>
       </c>
       <c r="D4" s="125" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="126" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F4" s="129" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="126" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H4" s="130" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="130" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="J4" s="36" t="s">
         <v>16</v>
@@ -23481,22 +23466,22 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="B5" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="C5" s="77">
+        <v>490</v>
+      </c>
+      <c r="C5" s="78">
         <v>2048.0</v>
       </c>
       <c r="D5" s="125" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="126" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F5" s="129" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="128" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H5" s="32" t="s">
         <v>16</v>
@@ -23513,20 +23498,20 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="C6" s="77">
+      <c r="C6" s="78">
         <v>3076.0</v>
       </c>
       <c r="D6" s="125" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="126" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F6" s="129" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="128" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H6" s="32" t="s">
         <v>16</v>
@@ -23546,26 +23531,26 @@
       <c r="B7" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="77">
+      <c r="C7" s="78">
         <v>2048.0</v>
       </c>
       <c r="D7" s="125" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="126" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F7" s="129" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="126" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H7" s="130" t="s">
         <v>19</v>
       </c>
       <c r="I7" s="131" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="J7" s="36" t="s">
         <v>16</v>
@@ -23578,20 +23563,20 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="C8" s="77">
+      <c r="C8" s="78">
         <v>3076.0</v>
       </c>
       <c r="D8" s="125" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="126" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F8" s="129" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="128" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H8" s="32" t="s">
         <v>16</v>
@@ -23608,7 +23593,7 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="C9" s="77">
+      <c r="C9" s="78">
         <v>1024.0</v>
       </c>
       <c r="D9" s="128" t="s">
@@ -23635,12 +23620,12 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="124" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="C10" s="77">
+        <v>493</v>
+      </c>
+      <c r="C10" s="78">
         <v>224.0</v>
       </c>
       <c r="D10" s="128" t="s">
@@ -23666,7 +23651,7 @@
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="C11" s="77">
+      <c r="C11" s="78">
         <v>256.0</v>
       </c>
       <c r="D11" s="128" t="s">
@@ -23677,7 +23662,7 @@
         <v>19</v>
       </c>
       <c r="G11" s="128" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H11" s="32" t="s">
         <v>16</v>
@@ -23695,9 +23680,9 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="B12" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="C12" s="77">
+        <v>494</v>
+      </c>
+      <c r="C12" s="78">
         <v>2048.0</v>
       </c>
       <c r="D12" s="128" t="s">
@@ -23708,7 +23693,7 @@
         <v>19</v>
       </c>
       <c r="G12" s="128" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H12" s="32" t="s">
         <v>16</v>
@@ -23725,7 +23710,7 @@
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="C13" s="77">
+      <c r="C13" s="78">
         <v>3076.0</v>
       </c>
       <c r="D13" s="128" t="s">
@@ -23736,7 +23721,7 @@
         <v>19</v>
       </c>
       <c r="G13" s="128" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H13" s="32" t="s">
         <v>16</v>
@@ -23755,8 +23740,8 @@
     <row r="14" ht="15.75" customHeight="1"/>
     <row r="15" ht="15.75" customHeight="1"/>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
     </row>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
@@ -24829,42 +24814,42 @@
         <v>3</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="77"/>
+      <c r="A2" s="78"/>
       <c r="B2" s="135"/>
-      <c r="C2" s="77" t="s">
-        <v>494</v>
+      <c r="C2" s="78" t="s">
+        <v>496</v>
       </c>
       <c r="D2" s="136" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E2" s="135"/>
-      <c r="F2" s="77" t="s">
-        <v>494</v>
-      </c>
-      <c r="G2" s="77" t="s">
-        <v>495</v>
+      <c r="F2" s="78" t="s">
+        <v>496</v>
+      </c>
+      <c r="G2" s="78" t="s">
+        <v>497</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="48"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="77" t="s">
-        <v>496</v>
+      <c r="A3" s="78" t="s">
+        <v>498</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="77"/>
+      <c r="C3" s="78"/>
       <c r="D3" s="136"/>
       <c r="E3" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
       <c r="H3" s="10" t="s">
         <v>16</v>
       </c>
@@ -24873,17 +24858,17 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="77" t="s">
-        <v>497</v>
+      <c r="A4" s="78" t="s">
+        <v>499</v>
       </c>
       <c r="B4" s="135"/>
-      <c r="C4" s="77"/>
+      <c r="C4" s="78"/>
       <c r="D4" s="138" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E4" s="135"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
       <c r="H4" s="10" t="s">
         <v>16</v>
       </c>
@@ -24892,62 +24877,62 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="77"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="135"/>
-      <c r="C5" s="77"/>
+      <c r="C5" s="78"/>
       <c r="D5" s="139" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E5" s="135"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="77"/>
+      <c r="A6" s="78"/>
       <c r="B6" s="135"/>
-      <c r="C6" s="77"/>
+      <c r="C6" s="78"/>
       <c r="D6" s="139" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E6" s="135"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="77"/>
+      <c r="A7" s="78"/>
       <c r="B7" s="135"/>
-      <c r="C7" s="77"/>
+      <c r="C7" s="78"/>
       <c r="D7" s="139" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E7" s="135"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="77" t="s">
-        <v>502</v>
+      <c r="A8" s="78" t="s">
+        <v>504</v>
       </c>
       <c r="B8" s="135"/>
-      <c r="C8" s="77"/>
+      <c r="C8" s="78"/>
       <c r="D8" s="136" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E8" s="135"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
       <c r="H8" s="10" t="s">
         <v>16</v>
       </c>
@@ -24956,20 +24941,20 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="77" t="s">
-        <v>504</v>
+      <c r="A9" s="78" t="s">
+        <v>506</v>
       </c>
       <c r="B9" s="135"/>
-      <c r="C9" s="77"/>
+      <c r="C9" s="78"/>
       <c r="D9" s="136" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E9" s="140" t="s">
-        <v>506</v>
-      </c>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77" t="s">
-        <v>505</v>
+        <v>508</v>
+      </c>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78" t="s">
+        <v>507</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>16</v>
@@ -24979,38 +24964,38 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="77" t="s">
-        <v>507</v>
+      <c r="A10" s="78" t="s">
+        <v>509</v>
       </c>
       <c r="B10" s="135"/>
-      <c r="C10" s="77"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="136" t="s">
+        <v>510</v>
+      </c>
+      <c r="E10" s="135"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="78" t="s">
+        <v>511</v>
+      </c>
+      <c r="B11" s="140" t="s">
         <v>508</v>
       </c>
-      <c r="E10" s="135"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="77" t="s">
-        <v>509</v>
-      </c>
-      <c r="B11" s="140" t="s">
-        <v>506</v>
-      </c>
-      <c r="C11" s="77"/>
+      <c r="C11" s="78"/>
       <c r="D11" s="139" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E11" s="135"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
       <c r="H11" s="10" t="s">
         <v>16</v>
       </c>
@@ -25019,51 +25004,51 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="77"/>
+      <c r="A12" s="78"/>
       <c r="B12" s="140" t="s">
-        <v>506</v>
-      </c>
-      <c r="C12" s="77"/>
+        <v>508</v>
+      </c>
+      <c r="C12" s="78"/>
       <c r="D12" s="139" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E12" s="135"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="77"/>
+      <c r="A13" s="78"/>
       <c r="B13" s="140" t="s">
-        <v>506</v>
-      </c>
-      <c r="C13" s="77"/>
+        <v>508</v>
+      </c>
+      <c r="C13" s="78"/>
       <c r="D13" s="139" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E13" s="135"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="77"/>
+      <c r="A14" s="78"/>
       <c r="B14" s="135" t="s">
-        <v>510</v>
-      </c>
-      <c r="C14" s="77"/>
+        <v>512</v>
+      </c>
+      <c r="C14" s="78"/>
       <c r="D14" s="139" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E14" s="135"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10" t="s">
         <v>16</v>
@@ -25071,7 +25056,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="141" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B15" s="142"/>
       <c r="C15" s="142"/>
@@ -25084,12 +25069,12 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="144" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B16" s="145"/>
       <c r="C16" s="24"/>
       <c r="D16" s="144" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
@@ -25098,64 +25083,64 @@
         <v>22</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="144" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B17" s="145"/>
       <c r="C17" s="24"/>
       <c r="D17" s="144" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="144"/>
       <c r="H17" s="144"/>
       <c r="I17" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="144" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B18" s="145"/>
       <c r="C18" s="147" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D18" s="144" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="E18" s="148" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F18" s="147" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="G18" s="144"/>
       <c r="H18" s="146" t="s">
         <v>22</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="144" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B19" s="147" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="149" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E19" s="150" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="144"/>
@@ -25163,49 +25148,49 @@
         <v>22</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="144"/>
       <c r="B20" s="151" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="149" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="G20" s="144"/>
       <c r="H20" s="144"/>
       <c r="I20" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="144"/>
       <c r="B21" s="152" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="144" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
       <c r="G21" s="144"/>
       <c r="H21" s="144"/>
       <c r="I21" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="144" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B22" s="151" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="144"/>
@@ -25213,22 +25198,22 @@
       <c r="F22" s="24"/>
       <c r="G22" s="144"/>
       <c r="H22" s="153" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="144" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B23" s="147" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C23" s="24"/>
       <c r="D23" s="144" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
@@ -25237,22 +25222,22 @@
         <v>22</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="144" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B24" s="147" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C24" s="24"/>
       <c r="D24" s="154" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E24" s="147" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F24" s="24"/>
       <c r="G24" s="144"/>
@@ -25260,39 +25245,39 @@
         <v>22</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="144"/>
       <c r="B25" s="147" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="144" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="144"/>
       <c r="H25" s="144"/>
       <c r="I25" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="144" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B26" s="151" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C26" s="24"/>
       <c r="D26" s="144" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E26" s="147" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F26" s="24"/>
       <c r="G26" s="144"/>
@@ -25300,32 +25285,32 @@
         <v>22</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="144"/>
       <c r="B27" s="152" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C27" s="24"/>
       <c r="D27" s="144" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="144"/>
       <c r="H27" s="144"/>
       <c r="I27" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="144" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B28" s="151" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C28" s="24"/>
       <c r="D28" s="144"/>
@@ -25333,31 +25318,31 @@
       <c r="F28" s="24"/>
       <c r="G28" s="144"/>
       <c r="H28" s="153" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="144" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B29" s="151" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C29" s="24"/>
       <c r="D29" s="144" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E29" s="151"/>
       <c r="F29" s="24"/>
       <c r="G29" s="144"/>
       <c r="H29" s="153" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -25370,12 +25355,12 @@
       <c r="G30" s="144"/>
       <c r="H30" s="144"/>
       <c r="I30" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="144" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B31" s="155" t="s">
         <v>22</v>
@@ -25387,12 +25372,12 @@
       <c r="G31" s="144"/>
       <c r="H31" s="144"/>
       <c r="I31" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="144" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B32" s="22" t="s">
         <v>25</v>
@@ -25404,7 +25389,7 @@
       <c r="G32" s="144"/>
       <c r="H32" s="144"/>
       <c r="I32" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>

--- a/DatabaseFiller/guidelines.xlsx
+++ b/DatabaseFiller/guidelines.xlsx
@@ -688,7 +688,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="547">
   <si>
     <t>NIST</t>
   </si>
@@ -1935,7 +1935,7 @@
     <t>YEAR 2023</t>
   </si>
   <si>
-    <t>2028+</t>
+    <t>YEAR 2028+</t>
   </si>
   <si>
     <t>rsa_pkcs1_sha384</t>
@@ -2157,13 +2157,16 @@
     <t>YEAR 2031+</t>
   </si>
   <si>
-    <t>YEAR 2029+</t>
+    <t>YEAR 2029+ and CHECK_ONLY_FIRST 2</t>
   </si>
   <si>
     <t>DSS</t>
   </si>
   <si>
-    <t>YEAR 2022</t>
+    <t>YEAR 2022 and CHECK_ONLY_FIRST 1</t>
+  </si>
+  <si>
+    <t>YEAR 2029+ and CHECK_ONLY_FIRST 1</t>
   </si>
   <si>
     <t>Static and ephemeral Diffie-Hellman keys</t>
@@ -2654,7 +2657,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="161">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2911,6 +2914,9 @@
     <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="15" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2997,8 +3003,14 @@
     <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
@@ -4809,14 +4821,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="133"/>
-      <c r="B1" s="134" t="s">
+      <c r="A1" s="136"/>
+      <c r="B1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="134" t="s">
+      <c r="C1" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="156" t="s">
+      <c r="D1" s="159" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
@@ -4825,16 +4837,16 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
+        <v>543</v>
+      </c>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
       <c r="E2" s="9"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="78" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>14</v>
@@ -4849,13 +4861,13 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="78" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1"/>
@@ -16906,10 +16918,10 @@
       <c r="G3" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="98" t="s">
         <v>415</v>
       </c>
-      <c r="I3" s="98" t="s">
+      <c r="I3" s="99" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="61" t="s">
@@ -16944,10 +16956,10 @@
       <c r="G4" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="98" t="s">
         <v>415</v>
       </c>
-      <c r="I4" s="98" t="s">
+      <c r="I4" s="99" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="61" t="s">
@@ -16982,10 +16994,10 @@
       <c r="G5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="98" t="s">
         <v>415</v>
       </c>
-      <c r="I5" s="98" t="s">
+      <c r="I5" s="99" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="61" t="s">
@@ -17008,20 +17020,20 @@
       <c r="C6" s="28">
         <v>1.3</v>
       </c>
-      <c r="D6" s="99" t="s">
+      <c r="D6" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="99"/>
+      <c r="E6" s="100"/>
       <c r="F6" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="98" t="s">
         <v>415</v>
       </c>
-      <c r="I6" s="98" t="s">
+      <c r="I6" s="99" t="s">
         <v>19</v>
       </c>
       <c r="J6" s="61" t="s">
@@ -17044,20 +17056,20 @@
       <c r="C7" s="28">
         <v>1.3</v>
       </c>
-      <c r="D7" s="99" t="s">
+      <c r="D7" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="99"/>
+      <c r="E7" s="100"/>
       <c r="F7" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="98" t="s">
         <v>415</v>
       </c>
-      <c r="I7" s="98" t="s">
+      <c r="I7" s="99" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="61" t="s">
@@ -17080,20 +17092,20 @@
       <c r="C8" s="28">
         <v>1.3</v>
       </c>
-      <c r="D8" s="99" t="s">
+      <c r="D8" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="99"/>
+      <c r="E8" s="100"/>
       <c r="F8" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="98" t="s">
         <v>415</v>
       </c>
-      <c r="I8" s="98" t="s">
+      <c r="I8" s="99" t="s">
         <v>19</v>
       </c>
       <c r="J8" s="61" t="s">
@@ -17116,20 +17128,20 @@
       <c r="C9" s="28">
         <v>1.3</v>
       </c>
-      <c r="D9" s="99" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="99"/>
+      <c r="D9" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="100"/>
       <c r="F9" s="31" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="98" t="s">
         <v>415</v>
       </c>
-      <c r="I9" s="98" t="s">
+      <c r="I9" s="99" t="s">
         <v>19</v>
       </c>
       <c r="J9" s="61" t="s">
@@ -17152,20 +17164,20 @@
       <c r="C10" s="28">
         <v>1.3</v>
       </c>
-      <c r="D10" s="99" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="99"/>
+      <c r="D10" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="100"/>
       <c r="F10" s="31" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="98" t="s">
         <v>415</v>
       </c>
-      <c r="I10" s="98" t="s">
+      <c r="I10" s="99" t="s">
         <v>19</v>
       </c>
       <c r="J10" s="61" t="s">
@@ -17188,20 +17200,20 @@
       <c r="C11" s="28">
         <v>1.3</v>
       </c>
-      <c r="D11" s="99" t="s">
+      <c r="D11" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="99"/>
+      <c r="E11" s="100"/>
       <c r="F11" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="98" t="s">
         <v>415</v>
       </c>
-      <c r="I11" s="98" t="s">
+      <c r="I11" s="99" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="61" t="s">
@@ -17224,20 +17236,20 @@
       <c r="C12" s="28">
         <v>1.3</v>
       </c>
-      <c r="D12" s="99" t="s">
+      <c r="D12" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="99"/>
+      <c r="E12" s="100"/>
       <c r="F12" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="98" t="s">
         <v>415</v>
       </c>
-      <c r="I12" s="98" t="s">
+      <c r="I12" s="99" t="s">
         <v>19</v>
       </c>
       <c r="J12" s="61" t="s">
@@ -17260,20 +17272,20 @@
       <c r="C13" s="28">
         <v>1.3</v>
       </c>
-      <c r="D13" s="99" t="s">
+      <c r="D13" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="99"/>
+      <c r="E13" s="100"/>
       <c r="F13" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="98" t="s">
         <v>415</v>
       </c>
-      <c r="I13" s="98" t="s">
+      <c r="I13" s="99" t="s">
         <v>19</v>
       </c>
       <c r="J13" s="61" t="s">
@@ -17296,20 +17308,20 @@
       <c r="C14" s="28">
         <v>1.3</v>
       </c>
-      <c r="D14" s="99" t="s">
+      <c r="D14" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="99"/>
+      <c r="E14" s="100"/>
       <c r="F14" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="98" t="s">
         <v>415</v>
       </c>
-      <c r="I14" s="98" t="s">
+      <c r="I14" s="99" t="s">
         <v>19</v>
       </c>
       <c r="J14" s="61" t="s">
@@ -17332,20 +17344,20 @@
       <c r="C15" s="28">
         <v>1.3</v>
       </c>
-      <c r="D15" s="99" t="s">
+      <c r="D15" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="99"/>
+      <c r="E15" s="100"/>
       <c r="F15" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="H15" s="98" t="s">
         <v>415</v>
       </c>
-      <c r="I15" s="98" t="s">
+      <c r="I15" s="99" t="s">
         <v>19</v>
       </c>
       <c r="J15" s="61" t="s">
@@ -17368,20 +17380,20 @@
       <c r="C16" s="28">
         <v>1.3</v>
       </c>
-      <c r="D16" s="99" t="s">
+      <c r="D16" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="99"/>
+      <c r="E16" s="100"/>
       <c r="F16" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="33" t="s">
+      <c r="H16" s="98" t="s">
         <v>415</v>
       </c>
-      <c r="I16" s="98" t="s">
+      <c r="I16" s="99" t="s">
         <v>19</v>
       </c>
       <c r="J16" s="61" t="s">
@@ -17404,20 +17416,20 @@
       <c r="C17" s="28">
         <v>1.3</v>
       </c>
-      <c r="D17" s="99" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="99"/>
+      <c r="D17" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="100"/>
       <c r="F17" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="33" t="s">
+      <c r="H17" s="98" t="s">
         <v>415</v>
       </c>
-      <c r="I17" s="98" t="s">
+      <c r="I17" s="99" t="s">
         <v>19</v>
       </c>
       <c r="J17" s="61" t="s">
@@ -17440,20 +17452,20 @@
       <c r="C18" s="28">
         <v>1.3</v>
       </c>
-      <c r="D18" s="99" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="99"/>
+      <c r="D18" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="100"/>
       <c r="F18" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G18" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="33" t="s">
+      <c r="H18" s="98" t="s">
         <v>415</v>
       </c>
-      <c r="I18" s="98" t="s">
+      <c r="I18" s="99" t="s">
         <v>19</v>
       </c>
       <c r="J18" s="61" t="s">
@@ -17476,20 +17488,20 @@
       <c r="C19" s="28">
         <v>1.3</v>
       </c>
-      <c r="D19" s="99" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="99"/>
+      <c r="D19" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="100"/>
       <c r="F19" s="31" t="s">
         <v>19</v>
       </c>
       <c r="G19" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="33" t="s">
+      <c r="H19" s="98" t="s">
         <v>415</v>
       </c>
-      <c r="I19" s="98" t="s">
+      <c r="I19" s="99" t="s">
         <v>19</v>
       </c>
       <c r="J19" s="61" t="s">
@@ -21510,7 +21522,7 @@
       <c r="C1" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="101" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="73"/>
@@ -21533,7 +21545,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="101"/>
+      <c r="H2" s="102"/>
       <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
@@ -21545,16 +21557,16 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="103" t="s">
         <v>450</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="103" t="s">
         <v>451</v>
       </c>
       <c r="C3" s="47">
         <v>112.0</v>
       </c>
-      <c r="D3" s="103" t="s">
+      <c r="D3" s="104" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="79"/>
@@ -21564,16 +21576,16 @@
       <c r="G3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="104" t="s">
+      <c r="H3" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="105" t="s">
+      <c r="I3" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="106" t="s">
+      <c r="J3" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="106" t="s">
+      <c r="K3" s="107" t="s">
         <v>15</v>
       </c>
     </row>
@@ -21587,10 +21599,10 @@
       <c r="C4" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="D4" s="107" t="s">
+      <c r="D4" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="108" t="s">
+      <c r="E4" s="109" t="s">
         <v>454</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -21599,7 +21611,7 @@
       <c r="G4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="109" t="s">
+      <c r="H4" s="110" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="5" t="s">
@@ -21622,10 +21634,10 @@
       <c r="C5" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="D5" s="107" t="s">
+      <c r="D5" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="108" t="s">
+      <c r="E5" s="109" t="s">
         <v>457</v>
       </c>
       <c r="F5" s="10" t="s">
@@ -21634,7 +21646,7 @@
       <c r="G5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="109" t="s">
+      <c r="H5" s="110" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="5" t="s">
@@ -21657,17 +21669,17 @@
       <c r="C6" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="D6" s="107" t="s">
+      <c r="D6" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="110"/>
+      <c r="E6" s="111"/>
       <c r="F6" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="109" t="s">
+      <c r="H6" s="110" t="s">
         <v>19</v>
       </c>
       <c r="I6" s="5" t="s">
@@ -21690,17 +21702,17 @@
       <c r="C7" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="D7" s="107" t="s">
+      <c r="D7" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="110"/>
+      <c r="E7" s="111"/>
       <c r="F7" s="48" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="109" t="s">
+      <c r="H7" s="110" t="s">
         <v>14</v>
       </c>
       <c r="I7" s="5" t="s">
@@ -21723,17 +21735,17 @@
       <c r="C8" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="D8" s="107" t="s">
+      <c r="D8" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="110"/>
+      <c r="E8" s="111"/>
       <c r="F8" s="48" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="109" t="s">
+      <c r="H8" s="110" t="s">
         <v>14</v>
       </c>
       <c r="I8" s="5" t="s">
@@ -21756,17 +21768,17 @@
       <c r="C9" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="D9" s="107" t="s">
+      <c r="D9" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="110"/>
+      <c r="E9" s="111"/>
       <c r="F9" s="48" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="109" t="s">
+      <c r="H9" s="110" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="5" t="s">
@@ -21789,17 +21801,17 @@
       <c r="C10" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="D10" s="107" t="s">
+      <c r="D10" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="110"/>
+      <c r="E10" s="111"/>
       <c r="F10" s="48" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="109" t="s">
+      <c r="H10" s="110" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="5" t="s">
@@ -21822,17 +21834,17 @@
       <c r="C11" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="D11" s="107" t="s">
+      <c r="D11" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="110"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="48" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="109" t="s">
+      <c r="H11" s="110" t="s">
         <v>14</v>
       </c>
       <c r="I11" s="5" t="s">
@@ -21855,17 +21867,17 @@
       <c r="C12" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="D12" s="107" t="s">
+      <c r="D12" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="110"/>
+      <c r="E12" s="111"/>
       <c r="F12" s="48" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="109" t="s">
+      <c r="H12" s="110" t="s">
         <v>14</v>
       </c>
       <c r="I12" s="5" t="s">
@@ -21888,17 +21900,17 @@
       <c r="C13" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="D13" s="107" t="s">
+      <c r="D13" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="110"/>
+      <c r="E13" s="111"/>
       <c r="F13" s="48" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="109" t="s">
+      <c r="H13" s="110" t="s">
         <v>14</v>
       </c>
       <c r="I13" s="5" t="s">
@@ -21921,34 +21933,34 @@
       <c r="C14" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="D14" s="111" t="s">
+      <c r="D14" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="112"/>
+      <c r="E14" s="113"/>
       <c r="F14" s="48" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="109" t="s">
+      <c r="H14" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="113" t="s">
+      <c r="I14" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="114" t="s">
+      <c r="J14" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="114" t="s">
+      <c r="K14" s="115" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="103" t="s">
         <v>468</v>
       </c>
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="103" t="s">
         <v>451</v>
       </c>
       <c r="C15" s="47" t="s">
@@ -21957,14 +21969,14 @@
       <c r="D15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="110"/>
+      <c r="E15" s="111"/>
       <c r="F15" s="48" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="104" t="s">
+      <c r="H15" s="105" t="s">
         <v>14</v>
       </c>
       <c r="I15" s="4" t="s">
@@ -21990,14 +22002,14 @@
       <c r="D16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="110"/>
+      <c r="E16" s="111"/>
       <c r="F16" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="109" t="s">
+      <c r="H16" s="110" t="s">
         <v>25</v>
       </c>
       <c r="I16" s="5" t="s">
@@ -22023,14 +22035,14 @@
       <c r="D17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="110"/>
+      <c r="E17" s="111"/>
       <c r="F17" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="109" t="s">
+      <c r="H17" s="110" t="s">
         <v>25</v>
       </c>
       <c r="I17" s="5" t="s">
@@ -22056,14 +22068,14 @@
       <c r="D18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="110"/>
+      <c r="E18" s="111"/>
       <c r="F18" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="109" t="s">
+      <c r="H18" s="110" t="s">
         <v>25</v>
       </c>
       <c r="I18" s="5" t="s">
@@ -22089,14 +22101,14 @@
       <c r="D19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="110"/>
+      <c r="E19" s="111"/>
       <c r="F19" s="48" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="109" t="s">
+      <c r="H19" s="110" t="s">
         <v>25</v>
       </c>
       <c r="I19" s="5" t="s">
@@ -22122,14 +22134,14 @@
       <c r="D20" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="110"/>
+      <c r="E20" s="111"/>
       <c r="F20" s="48" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="109" t="s">
+      <c r="H20" s="110" t="s">
         <v>25</v>
       </c>
       <c r="I20" s="5" t="s">
@@ -22153,14 +22165,14 @@
       <c r="D21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="110"/>
+      <c r="E21" s="111"/>
       <c r="F21" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="109" t="s">
+      <c r="H21" s="110" t="s">
         <v>25</v>
       </c>
       <c r="I21" s="5" t="s">
@@ -22184,14 +22196,14 @@
       <c r="D22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="110"/>
+      <c r="E22" s="111"/>
       <c r="F22" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="109" t="s">
+      <c r="H22" s="110" t="s">
         <v>25</v>
       </c>
       <c r="I22" s="5" t="s">
@@ -22215,14 +22227,14 @@
       <c r="D23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="110"/>
+      <c r="E23" s="111"/>
       <c r="F23" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="109" t="s">
+      <c r="H23" s="110" t="s">
         <v>25</v>
       </c>
       <c r="I23" s="5" t="s">
@@ -22246,14 +22258,14 @@
       <c r="D24" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="110"/>
+      <c r="E24" s="111"/>
       <c r="F24" s="48" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="109" t="s">
+      <c r="H24" s="110" t="s">
         <v>25</v>
       </c>
       <c r="I24" s="5" t="s">
@@ -22267,7 +22279,7 @@
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="115" t="s">
+      <c r="A25" s="116" t="s">
         <v>481</v>
       </c>
       <c r="B25" s="78">
@@ -22277,14 +22289,14 @@
       <c r="D25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="110"/>
+      <c r="E25" s="111"/>
       <c r="F25" s="48" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="109" t="s">
+      <c r="H25" s="110" t="s">
         <v>25</v>
       </c>
       <c r="I25" s="5" t="s">
@@ -23353,26 +23365,26 @@
       <c r="B1" s="71" t="s">
         <v>483</v>
       </c>
-      <c r="C1" s="116" t="s">
+      <c r="C1" s="117" t="s">
         <v>484</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="118"/>
-      <c r="F1" s="119" t="s">
+      <c r="E1" s="119"/>
+      <c r="F1" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="120"/>
-      <c r="H1" s="121" t="s">
+      <c r="G1" s="121"/>
+      <c r="H1" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122" t="s">
+      <c r="I1" s="123"/>
+      <c r="J1" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="74"/>
@@ -23399,7 +23411,7 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="125" t="s">
         <v>486</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -23408,16 +23420,16 @@
       <c r="C3" s="78">
         <v>224.0</v>
       </c>
-      <c r="D3" s="125" t="s">
+      <c r="D3" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="126" t="s">
+      <c r="E3" s="127" t="s">
         <v>487</v>
       </c>
-      <c r="F3" s="127" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="128"/>
+      <c r="F3" s="128" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="129"/>
       <c r="H3" s="32" t="s">
         <v>16</v>
       </c>
@@ -23436,22 +23448,22 @@
       <c r="C4" s="78">
         <v>256.0</v>
       </c>
-      <c r="D4" s="125" t="s">
+      <c r="D4" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="126" t="s">
+      <c r="E4" s="127" t="s">
         <v>488</v>
       </c>
-      <c r="F4" s="129" t="s">
+      <c r="F4" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="126" t="s">
+      <c r="G4" s="131" t="s">
         <v>489</v>
       </c>
-      <c r="H4" s="130" t="s">
+      <c r="H4" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="130" t="s">
+      <c r="I4" s="132" t="s">
         <v>487</v>
       </c>
       <c r="J4" s="36" t="s">
@@ -23471,16 +23483,16 @@
       <c r="C5" s="78">
         <v>2048.0</v>
       </c>
-      <c r="D5" s="125" t="s">
+      <c r="D5" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="126" t="s">
+      <c r="E5" s="127" t="s">
         <v>487</v>
       </c>
-      <c r="F5" s="129" t="s">
+      <c r="F5" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="128" t="s">
+      <c r="G5" s="133" t="s">
         <v>491</v>
       </c>
       <c r="H5" s="32" t="s">
@@ -23501,17 +23513,17 @@
       <c r="C6" s="78">
         <v>3076.0</v>
       </c>
-      <c r="D6" s="125" t="s">
+      <c r="D6" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="126" t="s">
+      <c r="E6" s="127" t="s">
         <v>488</v>
       </c>
-      <c r="F6" s="129" t="s">
+      <c r="F6" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="128" t="s">
-        <v>489</v>
+      <c r="G6" s="133" t="s">
+        <v>492</v>
       </c>
       <c r="H6" s="32" t="s">
         <v>16</v>
@@ -23534,22 +23546,22 @@
       <c r="C7" s="78">
         <v>2048.0</v>
       </c>
-      <c r="D7" s="125" t="s">
+      <c r="D7" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="126" t="s">
+      <c r="E7" s="127" t="s">
         <v>487</v>
       </c>
-      <c r="F7" s="129" t="s">
+      <c r="F7" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="126" t="s">
+      <c r="G7" s="131" t="s">
         <v>491</v>
       </c>
-      <c r="H7" s="130" t="s">
+      <c r="H7" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="131" t="s">
+      <c r="I7" s="134" t="s">
         <v>487</v>
       </c>
       <c r="J7" s="36" t="s">
@@ -23566,17 +23578,17 @@
       <c r="C8" s="78">
         <v>3076.0</v>
       </c>
-      <c r="D8" s="125" t="s">
+      <c r="D8" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="126" t="s">
+      <c r="E8" s="127" t="s">
         <v>488</v>
       </c>
-      <c r="F8" s="129" t="s">
+      <c r="F8" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="128" t="s">
-        <v>489</v>
+      <c r="G8" s="133" t="s">
+        <v>492</v>
       </c>
       <c r="H8" s="32" t="s">
         <v>16</v>
@@ -23596,14 +23608,14 @@
       <c r="C9" s="78">
         <v>1024.0</v>
       </c>
-      <c r="D9" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="126"/>
-      <c r="F9" s="132" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="128"/>
+      <c r="D9" s="129" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="127"/>
+      <c r="F9" s="135" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="129"/>
       <c r="H9" s="32" t="s">
         <v>16</v>
       </c>
@@ -23619,23 +23631,23 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="124" t="s">
-        <v>492</v>
+      <c r="A10" s="125" t="s">
+        <v>493</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C10" s="78">
         <v>224.0</v>
       </c>
-      <c r="D10" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="126"/>
-      <c r="F10" s="127" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="128"/>
+      <c r="D10" s="129" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="127"/>
+      <c r="F10" s="128" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="129"/>
       <c r="H10" s="32" t="s">
         <v>16</v>
       </c>
@@ -23654,14 +23666,14 @@
       <c r="C11" s="78">
         <v>256.0</v>
       </c>
-      <c r="D11" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="126"/>
-      <c r="F11" s="129" t="s">
+      <c r="D11" s="129" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="127"/>
+      <c r="F11" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="128" t="s">
+      <c r="G11" s="133" t="s">
         <v>489</v>
       </c>
       <c r="H11" s="32" t="s">
@@ -23680,19 +23692,19 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="B12" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C12" s="78">
         <v>2048.0</v>
       </c>
-      <c r="D12" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="126"/>
-      <c r="F12" s="129" t="s">
+      <c r="D12" s="129" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="127"/>
+      <c r="F12" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="128" t="s">
+      <c r="G12" s="133" t="s">
         <v>491</v>
       </c>
       <c r="H12" s="32" t="s">
@@ -23713,15 +23725,15 @@
       <c r="C13" s="78">
         <v>3076.0</v>
       </c>
-      <c r="D13" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="126"/>
-      <c r="F13" s="129" t="s">
+      <c r="D13" s="129" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="127"/>
+      <c r="F13" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="128" t="s">
-        <v>489</v>
+      <c r="G13" s="133" t="s">
+        <v>492</v>
       </c>
       <c r="H13" s="32" t="s">
         <v>16</v>
@@ -24799,53 +24811,53 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="133"/>
-      <c r="B1" s="134" t="s">
+      <c r="A1" s="136"/>
+      <c r="B1" s="137" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="74"/>
       <c r="D1" s="74"/>
-      <c r="E1" s="134" t="s">
+      <c r="E1" s="137" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="74"/>
       <c r="G1" s="74"/>
-      <c r="H1" s="134" t="s">
+      <c r="H1" s="137" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="78"/>
-      <c r="B2" s="135"/>
+      <c r="B2" s="138"/>
       <c r="C2" s="78" t="s">
-        <v>496</v>
-      </c>
-      <c r="D2" s="136" t="s">
         <v>497</v>
       </c>
-      <c r="E2" s="135"/>
+      <c r="D2" s="139" t="s">
+        <v>498</v>
+      </c>
+      <c r="E2" s="138"/>
       <c r="F2" s="78" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G2" s="78" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="48"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="78" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="78"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137" t="s">
+      <c r="D3" s="139"/>
+      <c r="E3" s="140" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="78"/>
@@ -24859,14 +24871,14 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="78" t="s">
-        <v>499</v>
-      </c>
-      <c r="B4" s="135"/>
+        <v>500</v>
+      </c>
+      <c r="B4" s="138"/>
       <c r="C4" s="78"/>
-      <c r="D4" s="138" t="s">
-        <v>500</v>
-      </c>
-      <c r="E4" s="135"/>
+      <c r="D4" s="141" t="s">
+        <v>501</v>
+      </c>
+      <c r="E4" s="138"/>
       <c r="F4" s="78"/>
       <c r="G4" s="78"/>
       <c r="H4" s="10" t="s">
@@ -24878,12 +24890,12 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="78"/>
-      <c r="B5" s="135"/>
+      <c r="B5" s="138"/>
       <c r="C5" s="78"/>
-      <c r="D5" s="139" t="s">
-        <v>501</v>
-      </c>
-      <c r="E5" s="135"/>
+      <c r="D5" s="142" t="s">
+        <v>502</v>
+      </c>
+      <c r="E5" s="138"/>
       <c r="F5" s="78"/>
       <c r="G5" s="78"/>
       <c r="H5" s="10"/>
@@ -24893,12 +24905,12 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="78"/>
-      <c r="B6" s="135"/>
+      <c r="B6" s="138"/>
       <c r="C6" s="78"/>
-      <c r="D6" s="139" t="s">
-        <v>502</v>
-      </c>
-      <c r="E6" s="135"/>
+      <c r="D6" s="142" t="s">
+        <v>503</v>
+      </c>
+      <c r="E6" s="138"/>
       <c r="F6" s="78"/>
       <c r="G6" s="78"/>
       <c r="H6" s="10"/>
@@ -24908,12 +24920,12 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="78"/>
-      <c r="B7" s="135"/>
+      <c r="B7" s="138"/>
       <c r="C7" s="78"/>
-      <c r="D7" s="139" t="s">
-        <v>503</v>
-      </c>
-      <c r="E7" s="135"/>
+      <c r="D7" s="142" t="s">
+        <v>504</v>
+      </c>
+      <c r="E7" s="138"/>
       <c r="F7" s="78"/>
       <c r="G7" s="78"/>
       <c r="H7" s="10"/>
@@ -24923,14 +24935,14 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="78" t="s">
-        <v>504</v>
-      </c>
-      <c r="B8" s="135"/>
+        <v>505</v>
+      </c>
+      <c r="B8" s="138"/>
       <c r="C8" s="78"/>
-      <c r="D8" s="136" t="s">
-        <v>505</v>
-      </c>
-      <c r="E8" s="135"/>
+      <c r="D8" s="139" t="s">
+        <v>506</v>
+      </c>
+      <c r="E8" s="138"/>
       <c r="F8" s="78"/>
       <c r="G8" s="78"/>
       <c r="H8" s="10" t="s">
@@ -24942,19 +24954,19 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="78" t="s">
-        <v>506</v>
-      </c>
-      <c r="B9" s="135"/>
+        <v>507</v>
+      </c>
+      <c r="B9" s="138"/>
       <c r="C9" s="78"/>
-      <c r="D9" s="136" t="s">
-        <v>507</v>
-      </c>
-      <c r="E9" s="140" t="s">
+      <c r="D9" s="139" t="s">
         <v>508</v>
+      </c>
+      <c r="E9" s="143" t="s">
+        <v>509</v>
       </c>
       <c r="F9" s="78"/>
       <c r="G9" s="78" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>16</v>
@@ -24965,14 +24977,14 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="78" t="s">
-        <v>509</v>
-      </c>
-      <c r="B10" s="135"/>
+        <v>510</v>
+      </c>
+      <c r="B10" s="138"/>
       <c r="C10" s="78"/>
-      <c r="D10" s="136" t="s">
-        <v>510</v>
-      </c>
-      <c r="E10" s="135"/>
+      <c r="D10" s="139" t="s">
+        <v>511</v>
+      </c>
+      <c r="E10" s="138"/>
       <c r="F10" s="78"/>
       <c r="G10" s="78"/>
       <c r="H10" s="10" t="s">
@@ -24984,16 +24996,16 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="78" t="s">
-        <v>511</v>
-      </c>
-      <c r="B11" s="140" t="s">
-        <v>508</v>
+        <v>512</v>
+      </c>
+      <c r="B11" s="143" t="s">
+        <v>509</v>
       </c>
       <c r="C11" s="78"/>
-      <c r="D11" s="139" t="s">
-        <v>500</v>
-      </c>
-      <c r="E11" s="135"/>
+      <c r="D11" s="142" t="s">
+        <v>501</v>
+      </c>
+      <c r="E11" s="138"/>
       <c r="F11" s="78"/>
       <c r="G11" s="78"/>
       <c r="H11" s="10" t="s">
@@ -25005,14 +25017,14 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="78"/>
-      <c r="B12" s="140" t="s">
-        <v>508</v>
+      <c r="B12" s="143" t="s">
+        <v>509</v>
       </c>
       <c r="C12" s="78"/>
-      <c r="D12" s="139" t="s">
-        <v>501</v>
-      </c>
-      <c r="E12" s="135"/>
+      <c r="D12" s="142" t="s">
+        <v>502</v>
+      </c>
+      <c r="E12" s="138"/>
       <c r="F12" s="78"/>
       <c r="G12" s="78"/>
       <c r="H12" s="10"/>
@@ -25022,14 +25034,14 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="78"/>
-      <c r="B13" s="140" t="s">
-        <v>508</v>
+      <c r="B13" s="143" t="s">
+        <v>509</v>
       </c>
       <c r="C13" s="78"/>
-      <c r="D13" s="139" t="s">
-        <v>502</v>
-      </c>
-      <c r="E13" s="135"/>
+      <c r="D13" s="142" t="s">
+        <v>503</v>
+      </c>
+      <c r="E13" s="138"/>
       <c r="F13" s="78"/>
       <c r="G13" s="78"/>
       <c r="H13" s="10"/>
@@ -25039,14 +25051,14 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="78"/>
-      <c r="B14" s="135" t="s">
-        <v>512</v>
+      <c r="B14" s="138" t="s">
+        <v>513</v>
       </c>
       <c r="C14" s="78"/>
-      <c r="D14" s="139" t="s">
-        <v>503</v>
-      </c>
-      <c r="E14" s="135"/>
+      <c r="D14" s="142" t="s">
+        <v>504</v>
+      </c>
+      <c r="E14" s="138"/>
       <c r="F14" s="78"/>
       <c r="G14" s="78"/>
       <c r="H14" s="10"/>
@@ -25055,341 +25067,341 @@
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="141" t="s">
-        <v>513</v>
-      </c>
-      <c r="B15" s="142"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="141"/>
-      <c r="I15" s="143"/>
+      <c r="A15" s="144" t="s">
+        <v>514</v>
+      </c>
+      <c r="B15" s="145"/>
+      <c r="C15" s="145"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="146"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="144" t="s">
-        <v>514</v>
-      </c>
-      <c r="B16" s="145"/>
+      <c r="A16" s="147" t="s">
+        <v>515</v>
+      </c>
+      <c r="B16" s="148"/>
       <c r="C16" s="24"/>
-      <c r="D16" s="144" t="s">
-        <v>515</v>
+      <c r="D16" s="147" t="s">
+        <v>516</v>
       </c>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="146" t="s">
+      <c r="G16" s="147"/>
+      <c r="H16" s="149" t="s">
         <v>22</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="144" t="s">
-        <v>517</v>
-      </c>
-      <c r="B17" s="145"/>
+      <c r="A17" s="147" t="s">
+        <v>518</v>
+      </c>
+      <c r="B17" s="148"/>
       <c r="C17" s="24"/>
-      <c r="D17" s="144" t="s">
-        <v>518</v>
+      <c r="D17" s="147" t="s">
+        <v>519</v>
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="144"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="147"/>
       <c r="I17" s="22" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="144" t="s">
-        <v>519</v>
-      </c>
-      <c r="B18" s="145"/>
-      <c r="C18" s="147" t="s">
+      <c r="A18" s="147" t="s">
         <v>520</v>
       </c>
-      <c r="D18" s="144" t="s">
+      <c r="B18" s="148"/>
+      <c r="C18" s="150" t="s">
         <v>521</v>
       </c>
-      <c r="E18" s="148" t="s">
-        <v>508</v>
-      </c>
-      <c r="F18" s="147" t="s">
-        <v>520</v>
-      </c>
-      <c r="G18" s="144"/>
-      <c r="H18" s="146" t="s">
+      <c r="D18" s="147" t="s">
+        <v>522</v>
+      </c>
+      <c r="E18" s="151" t="s">
+        <v>509</v>
+      </c>
+      <c r="F18" s="150" t="s">
+        <v>521</v>
+      </c>
+      <c r="G18" s="147"/>
+      <c r="H18" s="149" t="s">
         <v>22</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="144" t="s">
-        <v>522</v>
-      </c>
-      <c r="B19" s="147" t="s">
-        <v>508</v>
+      <c r="A19" s="147" t="s">
+        <v>523</v>
+      </c>
+      <c r="B19" s="150" t="s">
+        <v>509</v>
       </c>
       <c r="C19" s="24"/>
-      <c r="D19" s="149" t="s">
-        <v>523</v>
-      </c>
-      <c r="E19" s="150" t="s">
+      <c r="D19" s="152" t="s">
         <v>524</v>
       </c>
+      <c r="E19" s="153" t="s">
+        <v>525</v>
+      </c>
       <c r="F19" s="24"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="146" t="s">
+      <c r="G19" s="147"/>
+      <c r="H19" s="149" t="s">
         <v>22</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="144"/>
-      <c r="B20" s="151" t="s">
-        <v>512</v>
+      <c r="A20" s="147"/>
+      <c r="B20" s="154" t="s">
+        <v>513</v>
       </c>
       <c r="C20" s="24"/>
-      <c r="D20" s="149" t="s">
-        <v>525</v>
+      <c r="D20" s="152" t="s">
+        <v>526</v>
       </c>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
       <c r="I20" s="22" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="144"/>
-      <c r="B21" s="152" t="s">
-        <v>526</v>
+      <c r="A21" s="147"/>
+      <c r="B21" s="155" t="s">
+        <v>527</v>
       </c>
       <c r="C21" s="24"/>
-      <c r="D21" s="144" t="s">
-        <v>527</v>
+      <c r="D21" s="147" t="s">
+        <v>528</v>
       </c>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
       <c r="I21" s="22" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="144" t="s">
-        <v>528</v>
-      </c>
-      <c r="B22" s="151" t="s">
-        <v>512</v>
+      <c r="A22" s="147" t="s">
+        <v>529</v>
+      </c>
+      <c r="B22" s="154" t="s">
+        <v>513</v>
       </c>
       <c r="C22" s="24"/>
-      <c r="D22" s="144"/>
+      <c r="D22" s="147"/>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
-      <c r="G22" s="144"/>
-      <c r="H22" s="153" t="s">
-        <v>516</v>
+      <c r="G22" s="147"/>
+      <c r="H22" s="156" t="s">
+        <v>517</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="144" t="s">
-        <v>529</v>
-      </c>
-      <c r="B23" s="147" t="s">
-        <v>508</v>
+      <c r="A23" s="147" t="s">
+        <v>530</v>
+      </c>
+      <c r="B23" s="150" t="s">
+        <v>509</v>
       </c>
       <c r="C23" s="24"/>
-      <c r="D23" s="144" t="s">
-        <v>530</v>
+      <c r="D23" s="147" t="s">
+        <v>531</v>
       </c>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
-      <c r="G23" s="144"/>
-      <c r="H23" s="146" t="s">
+      <c r="G23" s="147"/>
+      <c r="H23" s="149" t="s">
         <v>22</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="144" t="s">
-        <v>531</v>
-      </c>
-      <c r="B24" s="147" t="s">
-        <v>508</v>
+      <c r="A24" s="147" t="s">
+        <v>532</v>
+      </c>
+      <c r="B24" s="150" t="s">
+        <v>509</v>
       </c>
       <c r="C24" s="24"/>
-      <c r="D24" s="154" t="s">
-        <v>532</v>
-      </c>
-      <c r="E24" s="147" t="s">
-        <v>508</v>
+      <c r="D24" s="157" t="s">
+        <v>533</v>
+      </c>
+      <c r="E24" s="150" t="s">
+        <v>509</v>
       </c>
       <c r="F24" s="24"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="146" t="s">
+      <c r="G24" s="147"/>
+      <c r="H24" s="149" t="s">
         <v>22</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="144"/>
-      <c r="B25" s="147" t="s">
-        <v>508</v>
+      <c r="A25" s="147"/>
+      <c r="B25" s="150" t="s">
+        <v>509</v>
       </c>
       <c r="C25" s="24"/>
-      <c r="D25" s="144" t="s">
-        <v>533</v>
+      <c r="D25" s="147" t="s">
+        <v>534</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
-      <c r="G25" s="144"/>
-      <c r="H25" s="144"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
       <c r="I25" s="22" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="144" t="s">
-        <v>534</v>
-      </c>
-      <c r="B26" s="151" t="s">
-        <v>512</v>
+      <c r="A26" s="147" t="s">
+        <v>535</v>
+      </c>
+      <c r="B26" s="154" t="s">
+        <v>513</v>
       </c>
       <c r="C26" s="24"/>
-      <c r="D26" s="144" t="s">
-        <v>535</v>
-      </c>
-      <c r="E26" s="147" t="s">
-        <v>508</v>
+      <c r="D26" s="147" t="s">
+        <v>536</v>
+      </c>
+      <c r="E26" s="150" t="s">
+        <v>509</v>
       </c>
       <c r="F26" s="24"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="146" t="s">
+      <c r="G26" s="147"/>
+      <c r="H26" s="149" t="s">
         <v>22</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="144"/>
-      <c r="B27" s="152" t="s">
-        <v>526</v>
+      <c r="A27" s="147"/>
+      <c r="B27" s="155" t="s">
+        <v>527</v>
       </c>
       <c r="C27" s="24"/>
-      <c r="D27" s="144" t="s">
-        <v>536</v>
+      <c r="D27" s="147" t="s">
+        <v>537</v>
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
-      <c r="G27" s="144"/>
-      <c r="H27" s="144"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="147"/>
       <c r="I27" s="22" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="144" t="s">
-        <v>537</v>
-      </c>
-      <c r="B28" s="151" t="s">
-        <v>512</v>
+      <c r="A28" s="147" t="s">
+        <v>538</v>
+      </c>
+      <c r="B28" s="154" t="s">
+        <v>513</v>
       </c>
       <c r="C28" s="24"/>
-      <c r="D28" s="144"/>
+      <c r="D28" s="147"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="153" t="s">
-        <v>516</v>
+      <c r="G28" s="147"/>
+      <c r="H28" s="156" t="s">
+        <v>517</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="144" t="s">
-        <v>538</v>
-      </c>
-      <c r="B29" s="151" t="s">
-        <v>512</v>
+      <c r="A29" s="147" t="s">
+        <v>539</v>
+      </c>
+      <c r="B29" s="154" t="s">
+        <v>513</v>
       </c>
       <c r="C29" s="24"/>
-      <c r="D29" s="144" t="s">
-        <v>539</v>
-      </c>
-      <c r="E29" s="151"/>
+      <c r="D29" s="147" t="s">
+        <v>540</v>
+      </c>
+      <c r="E29" s="154"/>
       <c r="F29" s="24"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="153" t="s">
-        <v>516</v>
+      <c r="G29" s="147"/>
+      <c r="H29" s="156" t="s">
+        <v>517</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="144"/>
+      <c r="A30" s="147"/>
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
-      <c r="D30" s="144"/>
+      <c r="D30" s="147"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
-      <c r="G30" s="144"/>
-      <c r="H30" s="144"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="147"/>
       <c r="I30" s="22" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="144" t="s">
-        <v>540</v>
-      </c>
-      <c r="B31" s="155" t="s">
+      <c r="A31" s="147" t="s">
+        <v>541</v>
+      </c>
+      <c r="B31" s="158" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="24"/>
-      <c r="D31" s="144"/>
+      <c r="D31" s="147"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
-      <c r="G31" s="144"/>
-      <c r="H31" s="144"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="147"/>
       <c r="I31" s="22" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="144" t="s">
-        <v>541</v>
+      <c r="A32" s="147" t="s">
+        <v>542</v>
       </c>
       <c r="B32" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="24"/>
-      <c r="D32" s="144"/>
+      <c r="D32" s="147"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
-      <c r="G32" s="144"/>
-      <c r="H32" s="144"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="147"/>
       <c r="I32" s="22" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>

--- a/DatabaseFiller/guidelines.xlsx
+++ b/DatabaseFiller/guidelines.xlsx
@@ -76,6 +76,14 @@
         <t xml:space="preserve">R32</t>
       </text>
     </comment>
+    <comment authorId="0" ref="D4">
+      <text>
+        <t xml:space="preserve">Same as in Public-Key Cryptography Standards (PKCS) 10 request or calculated by the issuing CA
+----
+non ricordo se avevamo deciso di lasciare solo la nota o come gestire questo caso
+	-Riccardo Germenia</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="D5">
       <text>
         <t xml:space="preserve">RSA, ECDSA, or DSA signature certificate: digital signature;
@@ -102,6 +110,16 @@
     <comment authorId="0" ref="B9">
       <text>
         <t xml:space="preserve">Required. Multiple SANs are permitted, e.g., for load balanced environments.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D9">
+      <text>
+        <t xml:space="preserve">DNS host name, or IP address if there is no DNS name assigned. Other name forms may be included, if appropriate.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G9">
+      <text>
+        <t xml:space="preserve">use wildcards</t>
       </text>
     </comment>
     <comment authorId="0" ref="H9">
@@ -849,12 +867,37 @@
         <t xml:space="preserve">value: 2, version: 3</t>
       </text>
     </comment>
+    <comment authorId="0" ref="A4">
+      <text>
+        <t xml:space="preserve"> Also known as DN</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C4">
+      <text>
+        <t xml:space="preserve">A single value should be encoded in each Relative Distinguished Name (RDN) (the single values that compose the DN). All attributes that are of DirectoryString type should be encoded as a PrintableString.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E4">
+      <text>
+        <t xml:space="preserve">use wildcards in CN</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C6">
+      <text>
+        <t xml:space="preserve">A single value should be encoded in each Relative Distinguished Name (RDN) (the single values that compose the DN). All attributes that are of DirectoryString type should be encoded as a PrintableString.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E6">
+      <text>
+        <t xml:space="preserve">use wildcards in CN</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2548" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2549" uniqueCount="594">
   <si>
     <t>NIST</t>
   </si>
@@ -2368,16 +2411,16 @@
     <t>X.509 version</t>
   </si>
   <si>
-    <t>value: 2, version: 3</t>
-  </si>
-  <si>
-    <t>Issuer Distinguished Name (DN)</t>
-  </si>
-  <si>
-    <t>A single value should be encoded in each Relative Distinguished Name (RDN) (the single values that compose the DN). All attributes that are of DirectoryString type should be encoded as a PrintableString.</t>
-  </si>
-  <si>
-    <t>use wildcards in CN, S</t>
+    <t>VALUE Certificate X.509 version == 2</t>
+  </si>
+  <si>
+    <t>Issuer Distinguished Name</t>
+  </si>
+  <si>
+    <t>VALUE Certificate , not in [Issuer Distinguished Name][CN,O,OU,L,S]</t>
+  </si>
+  <si>
+    <t>VALUE Certificate * not in [Issuer Distinguished Name][CN]</t>
   </si>
   <si>
     <t>validity</t>
@@ -2389,12 +2432,6 @@
     <t>Subject Distinguished Name</t>
   </si>
   <si>
-    <t>A single value should be encoded in each RDN (the single values that compose the DN). All attributes that are of DirectoryString type should be encoded as a PrintableString. If present, the CN attribute should be of the form: CN={host IP address | host DNS name}</t>
-  </si>
-  <si>
-    <t>use wildcards</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
@@ -2410,9 +2447,6 @@
     <t>Subject Key Identifier (SKI)</t>
   </si>
   <si>
-    <t>Same as in Public-Key Cryptography Standards (PKCS) 10 request or calculated by the issuing CA</t>
-  </si>
-  <si>
     <t>Key Usage</t>
   </si>
   <si>
@@ -2437,7 +2471,10 @@
     <t>Subject Alternative Name (SAN)</t>
   </si>
   <si>
-    <t>DNS host name, or IP address if there is no DNS name assigned. Other name forms may be included, if appropriate.</t>
+    <t>CONTAINS DNS OR CONTAINS IP Address</t>
+  </si>
+  <si>
+    <t>CONTAINS NOT *</t>
   </si>
   <si>
     <t>Authority Information Access</t>
@@ -3343,9 +3380,6 @@
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
@@ -3355,14 +3389,11 @@
     <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -3377,12 +3408,18 @@
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
@@ -4193,7 +4230,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="139" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B1" s="140" t="s">
         <v>0</v>
@@ -4217,14 +4254,14 @@
       <c r="A2" s="141"/>
       <c r="B2" s="27"/>
       <c r="C2" s="142" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D2" s="142" t="s">
         <v>502</v>
       </c>
       <c r="E2" s="143"/>
       <c r="F2" s="142" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G2" s="142" t="s">
         <v>502</v>
@@ -4237,98 +4274,96 @@
     </row>
     <row r="3">
       <c r="A3" s="142" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="149" t="s">
-        <v>516</v>
+      <c r="C3" s="149"/>
+      <c r="D3" s="148" t="s">
+        <v>514</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="151"/>
+      <c r="F3" s="150"/>
       <c r="G3" s="141"/>
       <c r="H3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="153"/>
+      <c r="I3" s="151"/>
       <c r="J3" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="142" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="151"/>
-      <c r="D4" s="149" t="s">
-        <v>518</v>
-      </c>
+      <c r="C4" s="150"/>
+      <c r="D4" s="148"/>
       <c r="E4" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="151"/>
+      <c r="F4" s="150"/>
       <c r="G4" s="141"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="155"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="153"/>
       <c r="J4" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="142" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="142" t="s">
-        <v>520</v>
-      </c>
-      <c r="D5" s="149" t="s">
-        <v>521</v>
+        <v>517</v>
+      </c>
+      <c r="D5" s="148" t="s">
+        <v>518</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="142" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G5" s="141"/>
       <c r="H5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="153"/>
+      <c r="I5" s="151"/>
       <c r="J5" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="142" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="151"/>
-      <c r="D6" s="156" t="s">
-        <v>523</v>
+      <c r="C6" s="150"/>
+      <c r="D6" s="154" t="s">
+        <v>520</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="151"/>
+      <c r="F6" s="150"/>
       <c r="G6" s="141"/>
       <c r="H6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="153"/>
+      <c r="I6" s="151"/>
       <c r="J6" s="11" t="s">
         <v>50</v>
       </c>
@@ -4338,90 +4373,92 @@
       <c r="B7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="151"/>
-      <c r="D7" s="149" t="s">
-        <v>524</v>
+      <c r="C7" s="150"/>
+      <c r="D7" s="148" t="s">
+        <v>521</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="151"/>
+      <c r="F7" s="150"/>
       <c r="G7" s="141"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="155"/>
+      <c r="H7" s="152"/>
+      <c r="I7" s="153"/>
       <c r="J7" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="142" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="152"/>
-      <c r="D8" s="152"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="149"/>
       <c r="E8" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="151"/>
+      <c r="F8" s="150"/>
       <c r="G8" s="141"/>
       <c r="H8" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="153"/>
+      <c r="I8" s="151"/>
       <c r="J8" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="142" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="152"/>
-      <c r="D9" s="157" t="s">
-        <v>527</v>
+      <c r="C9" s="149"/>
+      <c r="D9" s="155" t="s">
+        <v>524</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="151"/>
-      <c r="G9" s="141"/>
+        <v>13</v>
+      </c>
+      <c r="F9" s="150"/>
+      <c r="G9" s="148" t="s">
+        <v>525</v>
+      </c>
       <c r="H9" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="153"/>
+      <c r="I9" s="151"/>
       <c r="J9" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="142" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="152"/>
+      <c r="C10" s="149"/>
       <c r="D10" s="142" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E10" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="151"/>
+      <c r="F10" s="150"/>
       <c r="G10" s="142" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H10" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="158" t="s">
-        <v>530</v>
+      <c r="I10" s="156" t="s">
+        <v>528</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>50</v>
@@ -4432,42 +4469,42 @@
       <c r="B11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="151"/>
-      <c r="D11" s="149" t="s">
-        <v>531</v>
-      </c>
-      <c r="E11" s="146"/>
-      <c r="F11" s="151"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="148" t="s">
+        <v>529</v>
+      </c>
+      <c r="E11" s="157"/>
+      <c r="F11" s="150"/>
       <c r="G11" s="141"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="159"/>
+      <c r="H11" s="152"/>
+      <c r="I11" s="158"/>
       <c r="J11" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="142" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="151"/>
-      <c r="D12" s="149" t="s">
-        <v>533</v>
+      <c r="C12" s="150"/>
+      <c r="D12" s="148" t="s">
+        <v>531</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="151"/>
+      <c r="F12" s="150"/>
       <c r="G12" s="142" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H12" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="158" t="s">
-        <v>534</v>
+      <c r="I12" s="156" t="s">
+        <v>532</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>50</v>
@@ -4478,13 +4515,13 @@
       <c r="B13" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="151"/>
-      <c r="D13" s="149" t="s">
-        <v>535</v>
-      </c>
-      <c r="E13" s="150"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="151"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="148" t="s">
+        <v>533</v>
+      </c>
+      <c r="E13" s="159"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="150"/>
       <c r="H13" s="160"/>
       <c r="I13" s="161"/>
       <c r="J13" s="11" t="s">
@@ -4493,40 +4530,40 @@
     </row>
     <row r="14">
       <c r="A14" s="142" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="150"/>
+      <c r="G14" s="150"/>
       <c r="H14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="147"/>
+      <c r="I14" s="146"/>
       <c r="J14" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="142" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="151"/>
+      <c r="C15" s="150"/>
       <c r="D15" s="142"/>
       <c r="E15" s="162"/>
-      <c r="F15" s="152"/>
-      <c r="G15" s="152"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="149"/>
       <c r="H15" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="147"/>
+      <c r="I15" s="146"/>
       <c r="J15" s="11" t="s">
         <v>50</v>
       </c>
@@ -4536,7 +4573,7 @@
       <c r="B16" s="27"/>
       <c r="C16" s="141"/>
       <c r="D16" s="163"/>
-      <c r="E16" s="146"/>
+      <c r="E16" s="157"/>
       <c r="F16" s="141"/>
       <c r="G16" s="141"/>
       <c r="H16" s="160"/>
@@ -4547,14 +4584,14 @@
     </row>
     <row r="17">
       <c r="A17" s="142" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B17" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="141"/>
       <c r="D17" s="163"/>
-      <c r="E17" s="146"/>
+      <c r="E17" s="157"/>
       <c r="F17" s="141"/>
       <c r="G17" s="141"/>
       <c r="H17" s="160"/>
@@ -4565,14 +4602,14 @@
     </row>
     <row r="18">
       <c r="A18" s="142" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="141"/>
       <c r="D18" s="163"/>
-      <c r="E18" s="146"/>
+      <c r="E18" s="157"/>
       <c r="F18" s="141"/>
       <c r="G18" s="141"/>
       <c r="H18" s="160"/>
@@ -4657,7 +4694,7 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B2" s="119"/>
       <c r="C2" s="119"/>
@@ -4665,7 +4702,7 @@
     </row>
     <row r="3">
       <c r="A3" s="142" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>13</v>
@@ -4680,7 +4717,7 @@
     </row>
     <row r="4">
       <c r="A4" s="142" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B4" s="27"/>
       <c r="C4" s="160"/>
@@ -4770,7 +4807,7 @@
       </c>
       <c r="G1" s="167"/>
       <c r="H1" s="167" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="2">
@@ -4795,21 +4832,21 @@
     </row>
     <row r="4">
       <c r="A4" s="167" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B4" s="169" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C4" s="168"/>
       <c r="D4" s="169" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E4" s="168"/>
       <c r="F4" s="169" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G4" s="169" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H4" s="170"/>
     </row>
@@ -4826,20 +4863,20 @@
     <row r="6">
       <c r="A6" s="167"/>
       <c r="B6" s="171" t="s">
+        <v>547</v>
+      </c>
+      <c r="C6" s="169" t="s">
+        <v>548</v>
+      </c>
+      <c r="D6" s="169" t="s">
         <v>549</v>
-      </c>
-      <c r="C6" s="169" t="s">
-        <v>550</v>
-      </c>
-      <c r="D6" s="169" t="s">
-        <v>551</v>
       </c>
       <c r="E6" s="168"/>
       <c r="F6" s="171" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G6" s="169" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H6" s="170"/>
     </row>
@@ -4848,7 +4885,7 @@
       <c r="B7" s="167"/>
       <c r="C7" s="167"/>
       <c r="D7" s="169" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E7" s="168"/>
       <c r="F7" s="168"/>
@@ -4859,13 +4896,13 @@
       <c r="A8" s="167"/>
       <c r="B8" s="167"/>
       <c r="C8" s="167" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D8" s="168"/>
       <c r="E8" s="168"/>
       <c r="F8" s="168"/>
       <c r="G8" s="167" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H8" s="167" t="s">
         <v>414</v>
@@ -4875,7 +4912,7 @@
       <c r="A9" s="167"/>
       <c r="B9" s="167"/>
       <c r="C9" s="172" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D9" s="168"/>
       <c r="E9" s="168"/>
@@ -4886,18 +4923,18 @@
     <row r="10">
       <c r="A10" s="167"/>
       <c r="B10" s="169" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C10" s="169" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D10" s="168"/>
       <c r="E10" s="169" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F10" s="168"/>
       <c r="G10" s="169" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H10" s="170"/>
     </row>
@@ -4907,7 +4944,7 @@
       <c r="C11" s="167"/>
       <c r="D11" s="168"/>
       <c r="E11" s="169" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F11" s="168"/>
       <c r="G11" s="167"/>
@@ -4919,7 +4956,7 @@
       <c r="C12" s="167"/>
       <c r="D12" s="168"/>
       <c r="E12" s="169" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F12" s="168"/>
       <c r="G12" s="167"/>
@@ -4930,7 +4967,7 @@
       <c r="B13" s="167"/>
       <c r="C13" s="167"/>
       <c r="D13" s="169" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E13" s="167"/>
       <c r="F13" s="168"/>
@@ -4941,11 +4978,11 @@
       <c r="A14" s="167"/>
       <c r="B14" s="167"/>
       <c r="C14" s="169" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D14" s="168"/>
       <c r="E14" s="169" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F14" s="168"/>
       <c r="G14" s="168"/>
@@ -4957,7 +4994,7 @@
       <c r="C15" s="167"/>
       <c r="D15" s="168"/>
       <c r="E15" s="169" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F15" s="168"/>
       <c r="G15" s="168"/>
@@ -4967,31 +5004,31 @@
       <c r="A16" s="167"/>
       <c r="B16" s="167"/>
       <c r="C16" s="171" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D16" s="168"/>
       <c r="E16" s="167"/>
       <c r="F16" s="168"/>
       <c r="G16" s="171" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H16" s="174"/>
     </row>
     <row r="17">
       <c r="A17" s="167"/>
       <c r="B17" s="169" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C17" s="169" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D17" s="168"/>
       <c r="E17" s="169" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F17" s="168"/>
       <c r="G17" s="169" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H17" s="170"/>
     </row>
@@ -5001,7 +5038,7 @@
       <c r="C18" s="167"/>
       <c r="D18" s="168"/>
       <c r="E18" s="169" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F18" s="168"/>
       <c r="G18" s="167"/>
@@ -5013,7 +5050,7 @@
       <c r="C19" s="167"/>
       <c r="D19" s="168"/>
       <c r="E19" s="169" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F19" s="168"/>
       <c r="G19" s="168"/>
@@ -5023,11 +5060,11 @@
       <c r="A20" s="167"/>
       <c r="B20" s="167"/>
       <c r="C20" s="169" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D20" s="168"/>
       <c r="E20" s="169" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F20" s="167"/>
       <c r="G20" s="167"/>
@@ -5037,11 +5074,11 @@
       <c r="A21" s="167"/>
       <c r="B21" s="167"/>
       <c r="C21" s="169" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D21" s="168"/>
       <c r="E21" s="169" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F21" s="168"/>
       <c r="G21" s="168"/>
@@ -5050,14 +5087,14 @@
     <row r="22">
       <c r="A22" s="167"/>
       <c r="B22" s="172" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C22" s="172" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D22" s="168"/>
       <c r="E22" s="172" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F22" s="168"/>
       <c r="G22" s="168"/>
@@ -5067,7 +5104,7 @@
       <c r="A23" s="167"/>
       <c r="B23" s="167"/>
       <c r="C23" s="172" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D23" s="168"/>
       <c r="E23" s="167"/>
@@ -5079,7 +5116,7 @@
       <c r="A24" s="167"/>
       <c r="B24" s="167"/>
       <c r="C24" s="172" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D24" s="168"/>
       <c r="E24" s="168"/>
@@ -5091,7 +5128,7 @@
       <c r="A25" s="167"/>
       <c r="B25" s="167"/>
       <c r="C25" s="172" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D25" s="168"/>
       <c r="E25" s="168"/>
@@ -5102,16 +5139,16 @@
     <row r="26">
       <c r="A26" s="167"/>
       <c r="B26" s="167" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C26" s="168"/>
       <c r="D26" s="168"/>
       <c r="E26" s="167" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F26" s="168"/>
       <c r="G26" s="167" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H26" s="167" t="s">
         <v>414</v>
@@ -5120,25 +5157,25 @@
     <row r="27">
       <c r="A27" s="167"/>
       <c r="B27" s="169" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C27" s="168"/>
       <c r="D27" s="168"/>
       <c r="E27" s="168"/>
       <c r="F27" s="168"/>
       <c r="G27" s="171" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H27" s="170"/>
     </row>
     <row r="28">
       <c r="A28" s="167"/>
       <c r="B28" s="172" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C28" s="168"/>
       <c r="D28" s="167" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E28" s="168"/>
       <c r="F28" s="168"/>
@@ -5157,7 +5194,7 @@
     </row>
     <row r="30">
       <c r="A30" s="167" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B30" s="167"/>
       <c r="C30" s="168"/>
@@ -5222,7 +5259,7 @@
     </row>
     <row r="5">
       <c r="A5" s="179" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B5" s="177"/>
       <c r="C5" s="177"/>
@@ -5274,13 +5311,13 @@
     </row>
     <row r="12">
       <c r="A12" s="180" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D12" s="177"/>
     </row>
     <row r="13">
       <c r="A13" s="180" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B13" s="177"/>
       <c r="C13" s="177"/>
@@ -5288,13 +5325,13 @@
     </row>
     <row r="14">
       <c r="A14" s="180" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D14" s="177"/>
     </row>
     <row r="15">
       <c r="A15" s="180" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B15" s="177"/>
     </row>
@@ -27215,125 +27252,117 @@
       <c r="C3" s="142" t="s">
         <v>504</v>
       </c>
-      <c r="D3" s="146"/>
+      <c r="D3" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="E3" s="141"/>
       <c r="F3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="147"/>
+      <c r="G3" s="146"/>
       <c r="H3" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="147" t="s">
         <v>505</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="149" t="s">
+      <c r="C4" s="148" t="s">
         <v>506</v>
       </c>
-      <c r="D4" s="150"/>
-      <c r="E4" s="151"/>
+      <c r="D4" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="148" t="s">
+        <v>507</v>
+      </c>
       <c r="F4" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="147"/>
+      <c r="G4" s="146"/>
       <c r="H4" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="27"/>
-      <c r="C5" s="149"/>
+      <c r="A5" s="142" t="s">
+        <v>508</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="148" t="s">
+        <v>509</v>
+      </c>
       <c r="D5" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="152" t="s">
-        <v>507</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="E5" s="148" t="s">
+        <v>509</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="146"/>
+      <c r="H5" s="11" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="142" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="149" t="s">
-        <v>509</v>
+      <c r="C6" s="148" t="s">
+        <v>506</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="149" t="s">
-        <v>509</v>
+        <v>13</v>
+      </c>
+      <c r="E6" s="148" t="s">
+        <v>507</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="147"/>
+      <c r="G6" s="146"/>
       <c r="H6" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="142" t="s">
-        <v>510</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="149" t="s">
-        <v>511</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="149" t="s">
-        <v>512</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="147"/>
-      <c r="H7" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="F1:G1"/>
+  <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B2:B7 F2:F7 H2:H7 G3:G7 D5:D7">
+  <conditionalFormatting sqref="B2:B6 F2:F6 H2:H6 D3:D6 G3:G6">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"must not"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B7 F2:F7 H2:H7 G3:G7 D5:D7">
+  <conditionalFormatting sqref="B2:B6 F2:F6 H2:H6 D3:D6 G3:G6">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"recommended"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B7 F2:F7 H2:H7 G3:G7 D5:D7">
+  <conditionalFormatting sqref="B2:B6 F2:F6 H2:H6 D3:D6 G3:G6">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"not recommended"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B7 F2:F7 H2:H7 G3:G7 D5:D7">
+  <conditionalFormatting sqref="B2:B6 F2:F6 H2:H6 D3:D6 G3:G6">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"must"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B7 F2:F7 H2:H7 G3:G7 D5:D7">
+  <conditionalFormatting sqref="B2:B6 F2:F6 H2:H6 D3:D6 G3:G6">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"not recommended*"</formula>
     </cfRule>

--- a/DatabaseFiller/guidelines.xlsx
+++ b/DatabaseFiller/guidelines.xlsx
@@ -1031,7 +1031,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2551" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2551" uniqueCount="588">
   <si>
     <t>NIST</t>
   </si>
@@ -1105,18 +1105,12 @@
     <t>optional</t>
   </si>
   <si>
-    <t>THIS or protocols TLS 1.3</t>
-  </si>
-  <si>
     <t>TLS 1.3</t>
   </si>
   <si>
     <t>THIS or PROTOCOLS TLS 1.2</t>
   </si>
   <si>
-    <t>THIS or protocols TLS 1.2</t>
-  </si>
-  <si>
     <t>MYSQL</t>
   </si>
   <si>
@@ -2467,7 +2461,7 @@
     <t>rsa</t>
   </si>
   <si>
-    <t>THIS or CERTSIG ecdsa and CHECK_KEY_TYPE rsa</t>
+    <t>THIS or CertificateSignature ecdsa and CHECK_KEY_TYPE rsa</t>
   </si>
   <si>
     <t>dsa</t>
@@ -2479,7 +2473,7 @@
     <t>ecdsa</t>
   </si>
   <si>
-    <t>THIS or CERTSIG rsa and CHECK_KEY_TYPE ecddsa</t>
+    <t>THIS or CertificateSignature rsa and CHECK_KEY_TYPE ecddsa</t>
   </si>
   <si>
     <t>Use</t>
@@ -2593,7 +2587,7 @@
     <t>VALUE CertificateExtensions DNS in subjectAltName OR VALUE CertificateExtensions IP Address in subjectAltName</t>
   </si>
   <si>
-    <t>VALUE CertificateExtensions * not in subjectAltName</t>
+    <t>VALUE CertificateExtensions * not in subjectAltName and NOTE BSI guidelines prohibit the usage of * inside the subjectAltName field</t>
   </si>
   <si>
     <t>authorityInfoAccess</t>
@@ -4196,7 +4190,7 @@
         <v>21</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L7" s="11" t="s">
         <v>15</v>
@@ -4210,7 +4204,7 @@
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>18</v>
@@ -4231,7 +4225,7 @@
         <v>18</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>18</v>
@@ -4240,7 +4234,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>18</v>
@@ -4311,7 +4305,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="138" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B1" s="139" t="s">
         <v>0</v>
@@ -4328,34 +4322,34 @@
       </c>
       <c r="I1" s="107"/>
       <c r="J1" s="9" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="140"/>
       <c r="B2" s="11"/>
       <c r="C2" s="141" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D2" s="143" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E2" s="142"/>
       <c r="F2" s="141" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G2" s="141" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="143" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J2" s="144"/>
     </row>
     <row r="3">
       <c r="A3" s="141" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>18</v>
@@ -4377,7 +4371,7 @@
     </row>
     <row r="4">
       <c r="A4" s="141" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>18</v>
@@ -4397,22 +4391,22 @@
     </row>
     <row r="5">
       <c r="A5" s="141" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="141" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D5" s="149" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="141" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G5" s="140"/>
       <c r="H5" s="11" t="s">
@@ -4425,14 +4419,14 @@
     </row>
     <row r="6">
       <c r="A6" s="141" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="150"/>
       <c r="D6" s="154" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>18</v>
@@ -4454,7 +4448,7 @@
       </c>
       <c r="C7" s="150"/>
       <c r="D7" s="149" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>15</v>
@@ -4469,7 +4463,7 @@
     </row>
     <row r="8">
       <c r="A8" s="141" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>23</v>
@@ -4491,21 +4485,21 @@
     </row>
     <row r="9">
       <c r="A9" s="141" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="148"/>
       <c r="D9" s="156" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="150"/>
       <c r="G9" s="147" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>21</v>
@@ -4517,27 +4511,27 @@
     </row>
     <row r="10">
       <c r="A10" s="141" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="148"/>
       <c r="D10" s="157" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="150"/>
       <c r="G10" s="141" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="158" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>15</v>
@@ -4550,7 +4544,7 @@
       </c>
       <c r="C11" s="150"/>
       <c r="D11" s="157" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E11" s="159"/>
       <c r="F11" s="150"/>
@@ -4563,27 +4557,27 @@
     </row>
     <row r="12">
       <c r="A12" s="141" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="150"/>
       <c r="D12" s="149" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="150"/>
       <c r="G12" s="141" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>21</v>
       </c>
       <c r="I12" s="158" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>15</v>
@@ -4596,7 +4590,7 @@
       </c>
       <c r="C13" s="150"/>
       <c r="D13" s="149" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E13" s="161"/>
       <c r="F13" s="150"/>
@@ -4609,7 +4603,7 @@
     </row>
     <row r="14">
       <c r="A14" s="141" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>23</v>
@@ -4629,7 +4623,7 @@
     </row>
     <row r="15">
       <c r="A15" s="141" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>23</v>
@@ -4663,7 +4657,7 @@
     </row>
     <row r="17">
       <c r="A17" s="141" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>21</v>
@@ -4681,7 +4675,7 @@
     </row>
     <row r="18">
       <c r="A18" s="141" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>23</v>
@@ -4765,12 +4759,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B2" s="117"/>
       <c r="C2" s="117"/>
@@ -4778,7 +4772,7 @@
     </row>
     <row r="3">
       <c r="A3" s="141" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>13</v>
@@ -4793,7 +4787,7 @@
     </row>
     <row r="4">
       <c r="A4" s="141" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="162"/>
@@ -4883,7 +4877,7 @@
       </c>
       <c r="G1" s="170"/>
       <c r="H1" s="170" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="2">
@@ -4908,21 +4902,21 @@
     </row>
     <row r="4">
       <c r="A4" s="170" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B4" s="172" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C4" s="171"/>
       <c r="D4" s="172" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E4" s="171"/>
       <c r="F4" s="172" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G4" s="172" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H4" s="173"/>
     </row>
@@ -4939,20 +4933,20 @@
     <row r="6">
       <c r="A6" s="170"/>
       <c r="B6" s="174" t="s">
+        <v>541</v>
+      </c>
+      <c r="C6" s="172" t="s">
+        <v>542</v>
+      </c>
+      <c r="D6" s="172" t="s">
         <v>543</v>
-      </c>
-      <c r="C6" s="172" t="s">
-        <v>544</v>
-      </c>
-      <c r="D6" s="172" t="s">
-        <v>545</v>
       </c>
       <c r="E6" s="171"/>
       <c r="F6" s="174" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G6" s="172" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H6" s="173"/>
     </row>
@@ -4961,7 +4955,7 @@
       <c r="B7" s="170"/>
       <c r="C7" s="170"/>
       <c r="D7" s="172" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E7" s="171"/>
       <c r="F7" s="171"/>
@@ -4972,23 +4966,23 @@
       <c r="A8" s="170"/>
       <c r="B8" s="170"/>
       <c r="C8" s="170" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D8" s="171"/>
       <c r="E8" s="171"/>
       <c r="F8" s="171"/>
       <c r="G8" s="170" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H8" s="170" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="170"/>
       <c r="B9" s="170"/>
       <c r="C9" s="175" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D9" s="171"/>
       <c r="E9" s="171"/>
@@ -4999,18 +4993,18 @@
     <row r="10">
       <c r="A10" s="170"/>
       <c r="B10" s="172" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C10" s="172" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D10" s="171"/>
       <c r="E10" s="172" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F10" s="171"/>
       <c r="G10" s="172" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H10" s="173"/>
     </row>
@@ -5020,7 +5014,7 @@
       <c r="C11" s="170"/>
       <c r="D11" s="171"/>
       <c r="E11" s="172" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F11" s="171"/>
       <c r="G11" s="170"/>
@@ -5032,7 +5026,7 @@
       <c r="C12" s="170"/>
       <c r="D12" s="171"/>
       <c r="E12" s="172" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F12" s="171"/>
       <c r="G12" s="170"/>
@@ -5043,7 +5037,7 @@
       <c r="B13" s="170"/>
       <c r="C13" s="170"/>
       <c r="D13" s="172" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E13" s="170"/>
       <c r="F13" s="171"/>
@@ -5054,11 +5048,11 @@
       <c r="A14" s="170"/>
       <c r="B14" s="170"/>
       <c r="C14" s="172" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D14" s="171"/>
       <c r="E14" s="172" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F14" s="171"/>
       <c r="G14" s="171"/>
@@ -5070,7 +5064,7 @@
       <c r="C15" s="170"/>
       <c r="D15" s="171"/>
       <c r="E15" s="172" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F15" s="171"/>
       <c r="G15" s="171"/>
@@ -5080,31 +5074,31 @@
       <c r="A16" s="170"/>
       <c r="B16" s="170"/>
       <c r="C16" s="174" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D16" s="171"/>
       <c r="E16" s="170"/>
       <c r="F16" s="171"/>
       <c r="G16" s="174" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H16" s="177"/>
     </row>
     <row r="17">
       <c r="A17" s="170"/>
       <c r="B17" s="172" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C17" s="172" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D17" s="171"/>
       <c r="E17" s="172" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F17" s="171"/>
       <c r="G17" s="172" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H17" s="173"/>
     </row>
@@ -5114,7 +5108,7 @@
       <c r="C18" s="170"/>
       <c r="D18" s="171"/>
       <c r="E18" s="172" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F18" s="171"/>
       <c r="G18" s="170"/>
@@ -5126,7 +5120,7 @@
       <c r="C19" s="170"/>
       <c r="D19" s="171"/>
       <c r="E19" s="172" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F19" s="171"/>
       <c r="G19" s="171"/>
@@ -5136,11 +5130,11 @@
       <c r="A20" s="170"/>
       <c r="B20" s="170"/>
       <c r="C20" s="172" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D20" s="171"/>
       <c r="E20" s="172" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F20" s="170"/>
       <c r="G20" s="170"/>
@@ -5150,11 +5144,11 @@
       <c r="A21" s="170"/>
       <c r="B21" s="170"/>
       <c r="C21" s="172" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D21" s="171"/>
       <c r="E21" s="172" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F21" s="171"/>
       <c r="G21" s="171"/>
@@ -5163,14 +5157,14 @@
     <row r="22">
       <c r="A22" s="170"/>
       <c r="B22" s="175" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C22" s="175" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D22" s="171"/>
       <c r="E22" s="175" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F22" s="171"/>
       <c r="G22" s="171"/>
@@ -5180,7 +5174,7 @@
       <c r="A23" s="170"/>
       <c r="B23" s="170"/>
       <c r="C23" s="175" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D23" s="171"/>
       <c r="E23" s="170"/>
@@ -5192,7 +5186,7 @@
       <c r="A24" s="170"/>
       <c r="B24" s="170"/>
       <c r="C24" s="175" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D24" s="171"/>
       <c r="E24" s="171"/>
@@ -5204,7 +5198,7 @@
       <c r="A25" s="170"/>
       <c r="B25" s="170"/>
       <c r="C25" s="175" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D25" s="171"/>
       <c r="E25" s="171"/>
@@ -5215,43 +5209,43 @@
     <row r="26">
       <c r="A26" s="170"/>
       <c r="B26" s="170" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C26" s="171"/>
       <c r="D26" s="171"/>
       <c r="E26" s="170" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F26" s="171"/>
       <c r="G26" s="170" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H26" s="170" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="170"/>
       <c r="B27" s="172" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C27" s="171"/>
       <c r="D27" s="171"/>
       <c r="E27" s="171"/>
       <c r="F27" s="171"/>
       <c r="G27" s="174" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H27" s="173"/>
     </row>
     <row r="28">
       <c r="A28" s="170"/>
       <c r="B28" s="175" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C28" s="171"/>
       <c r="D28" s="170" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E28" s="171"/>
       <c r="F28" s="171"/>
@@ -5270,7 +5264,7 @@
     </row>
     <row r="30">
       <c r="A30" s="170" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B30" s="170"/>
       <c r="C30" s="171"/>
@@ -5335,7 +5329,7 @@
     </row>
     <row r="5">
       <c r="A5" s="182" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B5" s="180"/>
       <c r="C5" s="180"/>
@@ -5387,13 +5381,13 @@
     </row>
     <row r="12">
       <c r="A12" s="183" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D12" s="180"/>
     </row>
     <row r="13">
       <c r="A13" s="183" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B13" s="180"/>
       <c r="C13" s="180"/>
@@ -5401,13 +5395,13 @@
     </row>
     <row r="14">
       <c r="A14" s="183" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D14" s="180"/>
     </row>
     <row r="15">
       <c r="A15" s="183" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B15" s="180"/>
     </row>
@@ -5451,16 +5445,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>31</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>0</v>
@@ -5472,33 +5466,33 @@
         <v>3</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="E2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="J2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>36</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>38</v>
       </c>
       <c r="M2" s="8"/>
       <c r="N2" s="6" t="s">
@@ -5513,38 +5507,38 @@
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="20">
         <v>1.2</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I3" s="22"/>
       <c r="J3" s="11" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M3" s="21" t="s">
         <v>18</v>
@@ -5561,10 +5555,10 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="20">
         <v>1.2</v>
@@ -5574,20 +5568,20 @@
         <v>23</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I4" s="22"/>
       <c r="J4" s="11" t="s">
         <v>18</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L4" s="22"/>
       <c r="M4" s="21" t="s">
@@ -5605,10 +5599,10 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="20">
         <v>1.2</v>
@@ -5641,10 +5635,10 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" s="20">
         <v>1.2</v>
@@ -5654,20 +5648,20 @@
         <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I6" s="22"/>
       <c r="J6" s="11" t="s">
         <v>18</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L6" s="22"/>
       <c r="M6" s="21" t="s">
@@ -5685,10 +5679,10 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="20">
         <v>1.2</v>
@@ -5698,20 +5692,20 @@
         <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="11" t="s">
         <v>18</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L7" s="22"/>
       <c r="M7" s="21" t="s">
@@ -5729,10 +5723,10 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" s="20">
         <v>1.2</v>
@@ -5742,10 +5736,10 @@
         <v>23</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
@@ -5769,10 +5763,10 @@
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9" s="20">
         <v>1.2</v>
@@ -5782,10 +5776,10 @@
         <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
@@ -5809,10 +5803,10 @@
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" s="20">
         <v>1.2</v>
@@ -5822,7 +5816,7 @@
         <v>23</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
@@ -5831,10 +5825,10 @@
         <v>18</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M10" s="21" t="s">
         <v>14</v>
@@ -5851,10 +5845,10 @@
     </row>
     <row r="11">
       <c r="A11" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="20">
         <v>1.2</v>
@@ -5864,7 +5858,7 @@
         <v>23</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
@@ -5873,7 +5867,7 @@
         <v>18</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L11" s="22"/>
       <c r="M11" s="21" t="s">
@@ -5891,20 +5885,20 @@
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>59</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>61</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="21" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
@@ -5929,20 +5923,20 @@
     </row>
     <row r="13">
       <c r="A13" s="31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="35" t="s">
         <v>23</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G13" s="36"/>
       <c r="H13" s="36"/>
@@ -5967,38 +5961,38 @@
     </row>
     <row r="14">
       <c r="A14" s="38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C14" s="40">
         <v>1.2</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E14" s="41" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I14" s="22"/>
       <c r="J14" s="43" t="s">
         <v>18</v>
       </c>
       <c r="K14" s="42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L14" s="44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M14" s="41" t="s">
         <v>18</v>
@@ -6015,10 +6009,10 @@
     </row>
     <row r="15">
       <c r="A15" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C15" s="20">
         <v>1.2</v>
@@ -6028,20 +6022,20 @@
         <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I15" s="22"/>
       <c r="J15" s="11" t="s">
         <v>18</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L15" s="22"/>
       <c r="M15" s="21" t="s">
@@ -6059,10 +6053,10 @@
     </row>
     <row r="16">
       <c r="A16" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C16" s="20">
         <v>1.2</v>
@@ -6095,10 +6089,10 @@
     </row>
     <row r="17">
       <c r="A17" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C17" s="20">
         <v>1.2</v>
@@ -6131,10 +6125,10 @@
     </row>
     <row r="18">
       <c r="A18" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C18" s="20">
         <v>1.2</v>
@@ -6144,20 +6138,20 @@
         <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I18" s="22"/>
       <c r="J18" s="11" t="s">
         <v>18</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L18" s="22"/>
       <c r="M18" s="21" t="s">
@@ -6175,10 +6169,10 @@
     </row>
     <row r="19">
       <c r="A19" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C19" s="20">
         <v>1.2</v>
@@ -6188,20 +6182,20 @@
         <v>23</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I19" s="22"/>
       <c r="J19" s="11" t="s">
         <v>18</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L19" s="22"/>
       <c r="M19" s="21" t="s">
@@ -6219,10 +6213,10 @@
     </row>
     <row r="20">
       <c r="A20" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C20" s="20">
         <v>1.2</v>
@@ -6232,20 +6226,20 @@
         <v>23</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I20" s="22"/>
       <c r="J20" s="11" t="s">
         <v>18</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L20" s="22"/>
       <c r="M20" s="21" t="s">
@@ -6263,10 +6257,10 @@
     </row>
     <row r="21">
       <c r="A21" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C21" s="20">
         <v>1.2</v>
@@ -6276,10 +6270,10 @@
         <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H21" s="22"/>
       <c r="I21" s="22"/>
@@ -6287,7 +6281,7 @@
         <v>18</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L21" s="22"/>
       <c r="M21" s="21" t="s">
@@ -6305,10 +6299,10 @@
     </row>
     <row r="22">
       <c r="A22" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C22" s="20">
         <v>1.2</v>
@@ -6318,10 +6312,10 @@
         <v>23</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>
@@ -6345,10 +6339,10 @@
     </row>
     <row r="23">
       <c r="A23" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C23" s="20">
         <v>1.2</v>
@@ -6358,10 +6352,10 @@
         <v>23</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
@@ -6385,10 +6379,10 @@
     </row>
     <row r="24">
       <c r="A24" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C24" s="20">
         <v>1.2</v>
@@ -6398,7 +6392,7 @@
         <v>23</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
@@ -6407,10 +6401,10 @@
         <v>18</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L24" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M24" s="21" t="s">
         <v>14</v>
@@ -6427,10 +6421,10 @@
     </row>
     <row r="25">
       <c r="A25" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C25" s="20">
         <v>1.2</v>
@@ -6440,7 +6434,7 @@
         <v>23</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
@@ -6449,7 +6443,7 @@
         <v>18</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L25" s="22"/>
       <c r="M25" s="21" t="s">
@@ -6467,10 +6461,10 @@
     </row>
     <row r="26">
       <c r="A26" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C26" s="20">
         <v>1.2</v>
@@ -6480,7 +6474,7 @@
         <v>23</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
@@ -6489,7 +6483,7 @@
         <v>18</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L26" s="22"/>
       <c r="M26" s="21" t="s">
@@ -6507,10 +6501,10 @@
     </row>
     <row r="27">
       <c r="A27" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C27" s="20">
         <v>1.2</v>
@@ -6520,7 +6514,7 @@
         <v>23</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
@@ -6529,7 +6523,7 @@
         <v>18</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L27" s="22"/>
       <c r="M27" s="21" t="s">
@@ -6547,20 +6541,20 @@
     </row>
     <row r="28">
       <c r="A28" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="21" t="s">
         <v>23</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
@@ -6585,20 +6579,20 @@
     </row>
     <row r="29">
       <c r="A29" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="21" t="s">
         <v>23</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
@@ -6623,20 +6617,20 @@
     </row>
     <row r="30">
       <c r="A30" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="21" t="s">
         <v>23</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
@@ -6661,20 +6655,20 @@
     </row>
     <row r="31">
       <c r="A31" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="21" t="s">
         <v>23</v>
       </c>
       <c r="F31" s="46" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G31" s="25"/>
       <c r="H31" s="25"/>
@@ -6699,35 +6693,35 @@
     </row>
     <row r="32">
       <c r="A32" s="38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C32" s="40">
         <v>1.2</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E32" s="41" t="s">
         <v>23</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G32" s="44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H32" s="44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I32" s="44"/>
       <c r="J32" s="11" t="s">
         <v>18</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L32" s="22"/>
       <c r="M32" s="21" t="s">
@@ -6745,10 +6739,10 @@
     </row>
     <row r="33">
       <c r="A33" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C33" s="20">
         <v>1.2</v>
@@ -6758,20 +6752,20 @@
         <v>23</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I33" s="22"/>
       <c r="J33" s="11" t="s">
         <v>18</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L33" s="22"/>
       <c r="M33" s="21" t="s">
@@ -6789,10 +6783,10 @@
     </row>
     <row r="34">
       <c r="A34" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C34" s="20">
         <v>1.2</v>
@@ -6802,7 +6796,7 @@
         <v>23</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G34" s="25"/>
       <c r="H34" s="25"/>
@@ -6811,7 +6805,7 @@
         <v>18</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L34" s="22"/>
       <c r="M34" s="21" t="s">
@@ -6829,10 +6823,10 @@
     </row>
     <row r="35">
       <c r="A35" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C35" s="20">
         <v>1.2</v>
@@ -6842,7 +6836,7 @@
         <v>23</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G35" s="25"/>
       <c r="H35" s="25"/>
@@ -6851,7 +6845,7 @@
         <v>18</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L35" s="22"/>
       <c r="M35" s="21" t="s">
@@ -6869,20 +6863,20 @@
     </row>
     <row r="36">
       <c r="A36" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="21" t="s">
         <v>23</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G36" s="25"/>
       <c r="H36" s="25"/>
@@ -6907,20 +6901,20 @@
     </row>
     <row r="37">
       <c r="A37" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="21" t="s">
         <v>23</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G37" s="36"/>
       <c r="H37" s="36"/>
@@ -6945,26 +6939,26 @@
     </row>
     <row r="38">
       <c r="A38" s="38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C38" s="40">
         <v>1.2</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E38" s="41" t="s">
         <v>23</v>
       </c>
       <c r="F38" s="49"/>
       <c r="G38" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I38" s="22"/>
       <c r="J38" s="43" t="s">
@@ -6987,10 +6981,10 @@
     </row>
     <row r="39">
       <c r="A39" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C39" s="20">
         <v>1.2</v>
@@ -7001,10 +6995,10 @@
       </c>
       <c r="F39" s="25"/>
       <c r="G39" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I39" s="22"/>
       <c r="J39" s="11" t="s">
@@ -7027,10 +7021,10 @@
     </row>
     <row r="40">
       <c r="A40" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C40" s="20">
         <v>1.2</v>
@@ -7063,10 +7057,10 @@
     </row>
     <row r="41">
       <c r="A41" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C41" s="20">
         <v>1.2</v>
@@ -7099,13 +7093,13 @@
     </row>
     <row r="42">
       <c r="A42" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D42" s="24"/>
       <c r="E42" s="21" t="s">
@@ -7135,13 +7129,13 @@
     </row>
     <row r="43">
       <c r="A43" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D43" s="24"/>
       <c r="E43" s="21" t="s">
@@ -7171,26 +7165,26 @@
     </row>
     <row r="44">
       <c r="A44" s="38" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C44" s="40">
         <v>1.2</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E44" s="41" t="s">
         <v>23</v>
       </c>
       <c r="F44" s="49"/>
       <c r="G44" s="44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H44" s="44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I44" s="44"/>
       <c r="J44" s="11" t="s">
@@ -7213,10 +7207,10 @@
     </row>
     <row r="45">
       <c r="A45" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C45" s="20">
         <v>1.2</v>
@@ -7227,10 +7221,10 @@
       </c>
       <c r="F45" s="25"/>
       <c r="G45" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I45" s="22"/>
       <c r="J45" s="11" t="s">
@@ -7253,10 +7247,10 @@
     </row>
     <row r="46">
       <c r="A46" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C46" s="20">
         <v>1.2</v>
@@ -7289,10 +7283,10 @@
     </row>
     <row r="47">
       <c r="A47" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C47" s="20">
         <v>1.2</v>
@@ -7325,13 +7319,13 @@
     </row>
     <row r="48">
       <c r="A48" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D48" s="24"/>
       <c r="E48" s="21" t="s">
@@ -7361,13 +7355,13 @@
     </row>
     <row r="49">
       <c r="A49" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D49" s="24"/>
       <c r="E49" s="21" t="s">
@@ -7397,26 +7391,26 @@
     </row>
     <row r="50">
       <c r="A50" s="38" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C50" s="40">
         <v>1.2</v>
       </c>
       <c r="D50" s="38" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E50" s="41" t="s">
         <v>23</v>
       </c>
       <c r="F50" s="49"/>
       <c r="G50" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I50" s="22"/>
       <c r="J50" s="43" t="s">
@@ -7439,10 +7433,10 @@
     </row>
     <row r="51">
       <c r="A51" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C51" s="20">
         <v>1.2</v>
@@ -7453,10 +7447,10 @@
       </c>
       <c r="F51" s="25"/>
       <c r="G51" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I51" s="22"/>
       <c r="J51" s="11" t="s">
@@ -7479,10 +7473,10 @@
     </row>
     <row r="52">
       <c r="A52" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C52" s="20">
         <v>1.2</v>
@@ -7515,10 +7509,10 @@
     </row>
     <row r="53">
       <c r="A53" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C53" s="20">
         <v>1.2</v>
@@ -7551,13 +7545,13 @@
     </row>
     <row r="54">
       <c r="A54" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D54" s="24"/>
       <c r="E54" s="21" t="s">
@@ -7587,13 +7581,13 @@
     </row>
     <row r="55">
       <c r="A55" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D55" s="24"/>
       <c r="E55" s="21" t="s">
@@ -7623,26 +7617,26 @@
     </row>
     <row r="56">
       <c r="A56" s="38" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B56" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C56" s="40">
         <v>1.2</v>
       </c>
       <c r="D56" s="38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E56" s="41" t="s">
         <v>23</v>
       </c>
       <c r="F56" s="49"/>
       <c r="G56" s="44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H56" s="44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I56" s="44"/>
       <c r="J56" s="11" t="s">
@@ -7665,10 +7659,10 @@
     </row>
     <row r="57">
       <c r="A57" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C57" s="20">
         <v>1.2</v>
@@ -7679,10 +7673,10 @@
       </c>
       <c r="F57" s="25"/>
       <c r="G57" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H57" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I57" s="22"/>
       <c r="J57" s="11" t="s">
@@ -7705,10 +7699,10 @@
     </row>
     <row r="58">
       <c r="A58" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C58" s="20">
         <v>1.2</v>
@@ -7741,10 +7735,10 @@
     </row>
     <row r="59">
       <c r="A59" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C59" s="20">
         <v>1.2</v>
@@ -7777,13 +7771,13 @@
     </row>
     <row r="60">
       <c r="A60" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D60" s="24"/>
       <c r="E60" s="21" t="s">
@@ -7813,13 +7807,13 @@
     </row>
     <row r="61">
       <c r="A61" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D61" s="24"/>
       <c r="E61" s="21" t="s">
@@ -7849,26 +7843,26 @@
     </row>
     <row r="62">
       <c r="A62" s="38" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B62" s="52" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C62" s="40">
         <v>1.3</v>
       </c>
       <c r="D62" s="38" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E62" s="41" t="s">
         <v>23</v>
       </c>
       <c r="F62" s="49"/>
       <c r="G62" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I62" s="22"/>
       <c r="J62" s="11" t="s">
@@ -7891,10 +7885,10 @@
     </row>
     <row r="63">
       <c r="A63" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C63" s="20">
         <v>1.3</v>
@@ -7905,10 +7899,10 @@
       </c>
       <c r="F63" s="25"/>
       <c r="G63" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I63" s="22"/>
       <c r="J63" s="11" t="s">
@@ -7931,10 +7925,10 @@
     </row>
     <row r="64">
       <c r="A64" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C64" s="20">
         <v>1.3</v>
@@ -7967,10 +7961,10 @@
     </row>
     <row r="65">
       <c r="A65" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C65" s="20">
         <v>1.3</v>
@@ -7981,10 +7975,10 @@
       </c>
       <c r="F65" s="25"/>
       <c r="G65" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H65" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I65" s="22"/>
       <c r="J65" s="11" t="s">
@@ -8007,10 +8001,10 @@
     </row>
     <row r="66">
       <c r="A66" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C66" s="20">
         <v>1.3</v>
@@ -8021,7 +8015,7 @@
       </c>
       <c r="F66" s="25"/>
       <c r="G66" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H66" s="25"/>
       <c r="I66" s="25"/>
@@ -8045,10 +8039,10 @@
     </row>
     <row r="67">
       <c r="A67" s="38" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B67" s="52" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C67" s="53"/>
       <c r="D67" s="54"/>
@@ -8056,7 +8050,7 @@
         <v>23</v>
       </c>
       <c r="F67" s="42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G67" s="44"/>
       <c r="H67" s="49"/>
@@ -8065,10 +8059,10 @@
         <v>18</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L67" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M67" s="21" t="s">
         <v>14</v>
@@ -8085,10 +8079,10 @@
     </row>
     <row r="68">
       <c r="A68" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C68" s="55"/>
       <c r="D68" s="24"/>
@@ -8096,7 +8090,7 @@
         <v>23</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G68" s="22"/>
       <c r="H68" s="25"/>
@@ -8105,7 +8099,7 @@
         <v>18</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L68" s="22"/>
       <c r="M68" s="21" t="s">
@@ -8123,10 +8117,10 @@
     </row>
     <row r="69">
       <c r="A69" s="18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C69" s="55"/>
       <c r="D69" s="24"/>
@@ -8141,7 +8135,7 @@
         <v>18</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L69" s="22"/>
       <c r="M69" s="21" t="s">
@@ -8159,10 +8153,10 @@
     </row>
     <row r="70">
       <c r="A70" s="18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C70" s="55"/>
       <c r="D70" s="24"/>
@@ -8177,7 +8171,7 @@
         <v>18</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L70" s="22"/>
       <c r="M70" s="21" t="s">
@@ -8195,10 +8189,10 @@
     </row>
     <row r="71">
       <c r="A71" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C71" s="55"/>
       <c r="D71" s="24"/>
@@ -8213,7 +8207,7 @@
         <v>18</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L71" s="22"/>
       <c r="M71" s="21" t="s">
@@ -8231,10 +8225,10 @@
     </row>
     <row r="72">
       <c r="A72" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C72" s="55"/>
       <c r="D72" s="24"/>
@@ -8242,7 +8236,7 @@
         <v>23</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G72" s="25"/>
       <c r="H72" s="25"/>
@@ -8251,7 +8245,7 @@
         <v>18</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L72" s="22"/>
       <c r="M72" s="21" t="s">
@@ -8269,10 +8263,10 @@
     </row>
     <row r="73">
       <c r="A73" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C73" s="55"/>
       <c r="D73" s="24"/>
@@ -8280,7 +8274,7 @@
         <v>23</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G73" s="25"/>
       <c r="H73" s="25"/>
@@ -8289,7 +8283,7 @@
         <v>18</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L73" s="22"/>
       <c r="M73" s="21" t="s">
@@ -8307,10 +8301,10 @@
     </row>
     <row r="74">
       <c r="A74" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C74" s="55"/>
       <c r="D74" s="24"/>
@@ -8318,20 +8312,20 @@
         <v>23</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G74" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H74" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I74" s="22"/>
       <c r="J74" s="11" t="s">
         <v>18</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L74" s="22"/>
       <c r="M74" s="21" t="s">
@@ -8349,10 +8343,10 @@
     </row>
     <row r="75">
       <c r="A75" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C75" s="55"/>
       <c r="D75" s="24"/>
@@ -8360,20 +8354,20 @@
         <v>23</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G75" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H75" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I75" s="22"/>
       <c r="J75" s="11" t="s">
         <v>18</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L75" s="22"/>
       <c r="M75" s="21" t="s">
@@ -8391,10 +8385,10 @@
     </row>
     <row r="76">
       <c r="A76" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C76" s="55"/>
       <c r="D76" s="24"/>
@@ -8402,20 +8396,20 @@
         <v>23</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G76" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H76" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I76" s="22"/>
       <c r="J76" s="11" t="s">
         <v>18</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L76" s="22"/>
       <c r="M76" s="21" t="s">
@@ -8433,10 +8427,10 @@
     </row>
     <row r="77">
       <c r="A77" s="18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C77" s="55"/>
       <c r="D77" s="24"/>
@@ -8444,20 +8438,20 @@
         <v>23</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H77" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I77" s="22"/>
       <c r="J77" s="11" t="s">
         <v>18</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L77" s="22"/>
       <c r="M77" s="21" t="s">
@@ -8475,10 +8469,10 @@
     </row>
     <row r="78">
       <c r="A78" s="18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C78" s="55"/>
       <c r="D78" s="24"/>
@@ -8494,7 +8488,7 @@
       </c>
       <c r="K78" s="7"/>
       <c r="L78" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M78" s="21" t="s">
         <v>15</v>
@@ -8511,10 +8505,10 @@
     </row>
     <row r="79">
       <c r="A79" s="18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C79" s="55"/>
       <c r="D79" s="24"/>
@@ -8545,10 +8539,10 @@
     </row>
     <row r="80">
       <c r="A80" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C80" s="55"/>
       <c r="D80" s="24"/>
@@ -8579,10 +8573,10 @@
     </row>
     <row r="81">
       <c r="A81" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C81" s="55"/>
       <c r="D81" s="24"/>
@@ -8613,10 +8607,10 @@
     </row>
     <row r="82">
       <c r="A82" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C82" s="55"/>
       <c r="D82" s="24"/>
@@ -8624,10 +8618,10 @@
         <v>23</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G82" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H82" s="25"/>
       <c r="I82" s="25"/>
@@ -8651,10 +8645,10 @@
     </row>
     <row r="83">
       <c r="A83" s="18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C83" s="55"/>
       <c r="D83" s="24"/>
@@ -8662,10 +8656,10 @@
         <v>23</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G83" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H83" s="25"/>
       <c r="I83" s="25"/>
@@ -8689,10 +8683,10 @@
     </row>
     <row r="84">
       <c r="A84" s="18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B84" s="28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C84" s="55"/>
       <c r="D84" s="24"/>
@@ -8701,10 +8695,10 @@
       </c>
       <c r="F84" s="25"/>
       <c r="G84" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H84" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I84" s="22"/>
       <c r="J84" s="11" t="s">
@@ -8727,10 +8721,10 @@
     </row>
     <row r="85">
       <c r="A85" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C85" s="55"/>
       <c r="D85" s="24"/>
@@ -8739,10 +8733,10 @@
       </c>
       <c r="F85" s="25"/>
       <c r="G85" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H85" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I85" s="22"/>
       <c r="J85" s="11" t="s">
@@ -8765,10 +8759,10 @@
     </row>
     <row r="86">
       <c r="A86" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B86" s="28" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C86" s="55"/>
       <c r="D86" s="24"/>
@@ -8777,10 +8771,10 @@
       </c>
       <c r="F86" s="25"/>
       <c r="G86" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H86" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I86" s="22"/>
       <c r="J86" s="11" t="s">
@@ -8803,10 +8797,10 @@
     </row>
     <row r="87">
       <c r="A87" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B87" s="28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C87" s="55"/>
       <c r="D87" s="24"/>
@@ -8815,10 +8809,10 @@
       </c>
       <c r="F87" s="25"/>
       <c r="G87" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H87" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I87" s="22"/>
       <c r="J87" s="11" t="s">
@@ -8841,10 +8835,10 @@
     </row>
     <row r="88">
       <c r="A88" s="18" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B88" s="28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C88" s="55"/>
       <c r="D88" s="24"/>
@@ -8853,7 +8847,7 @@
       </c>
       <c r="F88" s="25"/>
       <c r="G88" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H88" s="25"/>
       <c r="I88" s="25"/>
@@ -8877,10 +8871,10 @@
     </row>
     <row r="89">
       <c r="A89" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B89" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C89" s="55"/>
       <c r="D89" s="24"/>
@@ -8889,7 +8883,7 @@
       </c>
       <c r="F89" s="25"/>
       <c r="G89" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H89" s="25"/>
       <c r="I89" s="25"/>
@@ -8913,10 +8907,10 @@
     </row>
     <row r="90">
       <c r="A90" s="18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B90" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C90" s="55"/>
       <c r="D90" s="24"/>
@@ -8947,10 +8941,10 @@
     </row>
     <row r="91">
       <c r="A91" s="18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B91" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C91" s="55"/>
       <c r="D91" s="24"/>
@@ -8981,10 +8975,10 @@
     </row>
     <row r="92">
       <c r="A92" s="18" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B92" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C92" s="55"/>
       <c r="D92" s="24"/>
@@ -8992,7 +8986,7 @@
         <v>23</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G92" s="25"/>
       <c r="H92" s="25"/>
@@ -9017,10 +9011,10 @@
     </row>
     <row r="93">
       <c r="A93" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B93" s="28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C93" s="55"/>
       <c r="D93" s="24"/>
@@ -9028,7 +9022,7 @@
         <v>23</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G93" s="25"/>
       <c r="H93" s="25"/>
@@ -9053,10 +9047,10 @@
     </row>
     <row r="94">
       <c r="A94" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B94" s="28" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C94" s="55"/>
       <c r="D94" s="24"/>
@@ -9064,7 +9058,7 @@
         <v>23</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G94" s="25"/>
       <c r="H94" s="25"/>
@@ -9089,10 +9083,10 @@
     </row>
     <row r="95">
       <c r="A95" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B95" s="28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C95" s="55"/>
       <c r="D95" s="24"/>
@@ -9100,7 +9094,7 @@
         <v>23</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G95" s="25"/>
       <c r="H95" s="25"/>
@@ -9125,10 +9119,10 @@
     </row>
     <row r="96">
       <c r="A96" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B96" s="28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C96" s="55"/>
       <c r="D96" s="24"/>
@@ -9159,10 +9153,10 @@
     </row>
     <row r="97">
       <c r="A97" s="18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B97" s="28" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C97" s="55"/>
       <c r="D97" s="24"/>
@@ -9193,10 +9187,10 @@
     </row>
     <row r="98">
       <c r="A98" s="18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C98" s="55"/>
       <c r="D98" s="24"/>
@@ -9227,10 +9221,10 @@
     </row>
     <row r="99">
       <c r="A99" s="18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C99" s="55"/>
       <c r="D99" s="24"/>
@@ -9261,10 +9255,10 @@
     </row>
     <row r="100">
       <c r="A100" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C100" s="55"/>
       <c r="D100" s="24"/>
@@ -9295,10 +9289,10 @@
     </row>
     <row r="101">
       <c r="A101" s="18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C101" s="55"/>
       <c r="D101" s="24"/>
@@ -9329,10 +9323,10 @@
     </row>
     <row r="102">
       <c r="A102" s="18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C102" s="55"/>
       <c r="D102" s="24"/>
@@ -9363,10 +9357,10 @@
     </row>
     <row r="103">
       <c r="A103" s="18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C103" s="55"/>
       <c r="D103" s="24"/>
@@ -9397,10 +9391,10 @@
     </row>
     <row r="104">
       <c r="A104" s="18" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C104" s="55"/>
       <c r="D104" s="24"/>
@@ -9431,10 +9425,10 @@
     </row>
     <row r="105">
       <c r="A105" s="18" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B105" s="57" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C105" s="55"/>
       <c r="D105" s="24"/>
@@ -9465,10 +9459,10 @@
     </row>
     <row r="106">
       <c r="A106" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C106" s="55"/>
       <c r="D106" s="24"/>
@@ -9499,10 +9493,10 @@
     </row>
     <row r="107">
       <c r="A107" s="18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C107" s="55"/>
       <c r="D107" s="24"/>
@@ -9533,10 +9527,10 @@
     </row>
     <row r="108">
       <c r="A108" s="31" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B108" s="58" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C108" s="59"/>
       <c r="D108" s="34"/>
@@ -9567,10 +9561,10 @@
     </row>
     <row r="109">
       <c r="A109" s="61" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B109" s="62" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C109" s="55"/>
       <c r="D109" s="61"/>
@@ -9601,10 +9595,10 @@
     </row>
     <row r="110">
       <c r="A110" s="61" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B110" s="62" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C110" s="55"/>
       <c r="D110" s="61"/>
@@ -9635,10 +9629,10 @@
     </row>
     <row r="111">
       <c r="A111" s="61" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B111" s="62" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C111" s="55"/>
       <c r="D111" s="61"/>
@@ -9669,10 +9663,10 @@
     </row>
     <row r="112">
       <c r="A112" s="61" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B112" s="62" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C112" s="55"/>
       <c r="D112" s="61"/>
@@ -9703,10 +9697,10 @@
     </row>
     <row r="113">
       <c r="A113" s="61" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B113" s="62" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C113" s="55"/>
       <c r="D113" s="61"/>
@@ -9737,10 +9731,10 @@
     </row>
     <row r="114">
       <c r="A114" s="61" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B114" s="62" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C114" s="55"/>
       <c r="D114" s="61"/>
@@ -9771,10 +9765,10 @@
     </row>
     <row r="115">
       <c r="A115" s="61" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B115" s="62" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C115" s="55"/>
       <c r="D115" s="61"/>
@@ -9805,10 +9799,10 @@
     </row>
     <row r="116">
       <c r="A116" s="61" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B116" s="62" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C116" s="55"/>
       <c r="D116" s="61"/>
@@ -9839,10 +9833,10 @@
     </row>
     <row r="117">
       <c r="A117" s="61" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B117" s="62" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C117" s="55"/>
       <c r="D117" s="61"/>
@@ -9873,10 +9867,10 @@
     </row>
     <row r="118">
       <c r="A118" s="61" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B118" s="62" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C118" s="55"/>
       <c r="D118" s="24"/>
@@ -9907,10 +9901,10 @@
     </row>
     <row r="119">
       <c r="A119" s="61" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B119" s="64" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C119" s="55"/>
       <c r="D119" s="61"/>
@@ -9941,10 +9935,10 @@
     </row>
     <row r="120">
       <c r="A120" s="61" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B120" s="64" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C120" s="55"/>
       <c r="D120" s="61"/>
@@ -9975,10 +9969,10 @@
     </row>
     <row r="121">
       <c r="A121" s="61" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B121" s="64" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C121" s="55"/>
       <c r="D121" s="61"/>
@@ -10009,10 +10003,10 @@
     </row>
     <row r="122">
       <c r="A122" s="18" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B122" s="64" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C122" s="55"/>
       <c r="D122" s="24"/>
@@ -10043,10 +10037,10 @@
     </row>
     <row r="123">
       <c r="A123" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B123" s="64" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C123" s="55"/>
       <c r="D123" s="24"/>
@@ -10077,10 +10071,10 @@
     </row>
     <row r="124">
       <c r="A124" s="18" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B124" s="64" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C124" s="55"/>
       <c r="D124" s="24"/>
@@ -10111,10 +10105,10 @@
     </row>
     <row r="125">
       <c r="A125" s="18" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B125" s="64" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C125" s="55"/>
       <c r="D125" s="24"/>
@@ -10145,10 +10139,10 @@
     </row>
     <row r="126">
       <c r="A126" s="18" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B126" s="64" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C126" s="55"/>
       <c r="D126" s="24"/>
@@ -10179,10 +10173,10 @@
     </row>
     <row r="127">
       <c r="A127" s="18" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B127" s="64" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C127" s="55"/>
       <c r="D127" s="24"/>
@@ -10213,10 +10207,10 @@
     </row>
     <row r="128">
       <c r="A128" s="18" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B128" s="64" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C128" s="55"/>
       <c r="D128" s="24"/>
@@ -10247,10 +10241,10 @@
     </row>
     <row r="129">
       <c r="A129" s="18" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B129" s="64" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C129" s="55"/>
       <c r="D129" s="24"/>
@@ -10281,10 +10275,10 @@
     </row>
     <row r="130">
       <c r="A130" s="18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B130" s="64" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C130" s="55"/>
       <c r="D130" s="24"/>
@@ -10315,10 +10309,10 @@
     </row>
     <row r="131">
       <c r="A131" s="18" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B131" s="62" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C131" s="55"/>
       <c r="D131" s="61"/>
@@ -10349,10 +10343,10 @@
     </row>
     <row r="132">
       <c r="A132" s="18" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B132" s="62" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C132" s="55"/>
       <c r="D132" s="61"/>
@@ -10383,10 +10377,10 @@
     </row>
     <row r="133">
       <c r="A133" s="18" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B133" s="62" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C133" s="55"/>
       <c r="D133" s="61"/>
@@ -10417,10 +10411,10 @@
     </row>
     <row r="134">
       <c r="A134" s="61" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B134" s="62" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C134" s="55"/>
       <c r="D134" s="61"/>
@@ -10451,10 +10445,10 @@
     </row>
     <row r="135">
       <c r="A135" s="18" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C135" s="55"/>
       <c r="D135" s="61"/>
@@ -10485,10 +10479,10 @@
     </row>
     <row r="136">
       <c r="A136" s="18" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C136" s="55"/>
       <c r="D136" s="24"/>
@@ -10519,10 +10513,10 @@
     </row>
     <row r="137">
       <c r="A137" s="18" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C137" s="55"/>
       <c r="D137" s="24"/>
@@ -10553,10 +10547,10 @@
     </row>
     <row r="138">
       <c r="A138" s="18" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C138" s="55"/>
       <c r="D138" s="24"/>
@@ -10587,10 +10581,10 @@
     </row>
     <row r="139">
       <c r="A139" s="18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C139" s="55"/>
       <c r="D139" s="24"/>
@@ -10621,10 +10615,10 @@
     </row>
     <row r="140">
       <c r="A140" s="18" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C140" s="55"/>
       <c r="D140" s="24"/>
@@ -10655,10 +10649,10 @@
     </row>
     <row r="141">
       <c r="A141" s="18" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C141" s="55"/>
       <c r="D141" s="24"/>
@@ -10689,10 +10683,10 @@
     </row>
     <row r="142">
       <c r="A142" s="18" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C142" s="55"/>
       <c r="D142" s="24"/>
@@ -10723,10 +10717,10 @@
     </row>
     <row r="143">
       <c r="A143" s="18" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C143" s="55"/>
       <c r="D143" s="24"/>
@@ -10757,10 +10751,10 @@
     </row>
     <row r="144">
       <c r="A144" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C144" s="55"/>
       <c r="D144" s="24"/>
@@ -10791,10 +10785,10 @@
     </row>
     <row r="145">
       <c r="A145" s="18" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C145" s="55"/>
       <c r="D145" s="24"/>
@@ -10825,10 +10819,10 @@
     </row>
     <row r="146">
       <c r="A146" s="65" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B146" s="62" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C146" s="55"/>
       <c r="D146" s="61"/>
@@ -10836,16 +10830,16 @@
         <v>21</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I146" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="J146" s="11" t="s">
         <v>15</v>
@@ -10935,13 +10929,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="67" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B1" s="68" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" s="69" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>0</v>
@@ -10953,13 +10947,13 @@
         <v>3</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="70"/>
       <c r="C2" s="71" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D2" s="69">
         <v>1.1</v>
@@ -10972,7 +10966,7 @@
       </c>
       <c r="G2" s="72"/>
       <c r="H2" s="73" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -10980,22 +10974,22 @@
     </row>
     <row r="3">
       <c r="A3" s="65" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B3" s="18">
         <v>0.0</v>
       </c>
       <c r="C3" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E3" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F3" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G3" s="21" t="s">
         <v>21</v>
@@ -11005,7 +10999,7 @@
         <v>15</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K3" s="21" t="s">
         <v>15</v>
@@ -11013,7 +11007,7 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B4" s="18">
         <v>1.0</v>
@@ -11038,19 +11032,19 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B5" s="18">
         <v>2.0</v>
       </c>
       <c r="C5" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F5" s="24"/>
       <c r="G5" s="21" t="s">
@@ -11069,26 +11063,26 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B6" s="18">
         <v>3.0</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="21" t="s">
         <v>21</v>
       </c>
       <c r="H6" s="76" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I6" s="21" t="s">
         <v>15</v>
@@ -11102,26 +11096,26 @@
     </row>
     <row r="7">
       <c r="A7" s="28" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B7" s="18">
         <v>4.0</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D7" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E7" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="21" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="76" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I7" s="21" t="s">
         <v>14</v>
@@ -11135,19 +11129,19 @@
     </row>
     <row r="8">
       <c r="A8" s="65" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B8" s="18">
         <v>5.0</v>
       </c>
       <c r="C8" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E8" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="21" t="s">
@@ -11166,19 +11160,19 @@
     </row>
     <row r="9">
       <c r="A9" s="65" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B9" s="18">
         <v>6.0</v>
       </c>
       <c r="C9" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="21" t="s">
@@ -11197,7 +11191,7 @@
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B10" s="18">
         <v>7.0</v>
@@ -11222,7 +11216,7 @@
     </row>
     <row r="11">
       <c r="A11" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B11" s="18">
         <v>8.0</v>
@@ -11247,7 +11241,7 @@
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B12" s="18">
         <v>9.0</v>
@@ -11272,28 +11266,28 @@
     </row>
     <row r="13">
       <c r="A13" s="65" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B13" s="18">
         <v>10.0</v>
       </c>
       <c r="C13" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E13" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F13" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>21</v>
       </c>
       <c r="H13" s="76" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>18</v>
@@ -11307,26 +11301,26 @@
     </row>
     <row r="14">
       <c r="A14" s="18" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B14" s="18">
         <v>11.0</v>
       </c>
       <c r="C14" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E14" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="21" t="s">
         <v>21</v>
       </c>
       <c r="H14" s="76" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I14" s="21" t="s">
         <v>15</v>
@@ -11340,19 +11334,19 @@
     </row>
     <row r="15">
       <c r="A15" s="18" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B15" s="18">
         <v>12.0</v>
       </c>
       <c r="C15" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E15" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="21" t="s">
@@ -11371,7 +11365,7 @@
     </row>
     <row r="16">
       <c r="A16" s="18" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B16" s="18">
         <v>13.0</v>
@@ -11379,10 +11373,10 @@
       <c r="C16" s="24"/>
       <c r="D16" s="18"/>
       <c r="E16" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F16" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G16" s="21" t="s">
         <v>21</v>
@@ -11400,7 +11394,7 @@
     </row>
     <row r="17">
       <c r="A17" s="18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B17" s="18">
         <v>14.0</v>
@@ -11425,7 +11419,7 @@
     </row>
     <row r="18">
       <c r="A18" s="18" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B18" s="18">
         <v>15.0</v>
@@ -11450,7 +11444,7 @@
     </row>
     <row r="19">
       <c r="A19" s="65" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B19" s="18">
         <v>16.0</v>
@@ -11475,26 +11469,26 @@
     </row>
     <row r="20">
       <c r="A20" s="65" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B20" s="18">
         <v>17.0</v>
       </c>
       <c r="C20" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E20" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="21" t="s">
         <v>18</v>
       </c>
       <c r="H20" s="76" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I20" s="21" t="s">
         <v>15</v>
@@ -11508,28 +11502,28 @@
     </row>
     <row r="21">
       <c r="A21" s="65" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B21" s="18">
         <v>18.0</v>
       </c>
       <c r="C21" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D21" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E21" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F21" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G21" s="21" t="s">
         <v>18</v>
       </c>
       <c r="H21" s="77" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I21" s="21" t="s">
         <v>15</v>
@@ -11543,7 +11537,7 @@
     </row>
     <row r="22">
       <c r="A22" s="18" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B22" s="18">
         <v>19.0</v>
@@ -11568,7 +11562,7 @@
     </row>
     <row r="23">
       <c r="A23" s="18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B23" s="18">
         <v>20.0</v>
@@ -11593,7 +11587,7 @@
     </row>
     <row r="24">
       <c r="A24" s="18" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B24" s="18">
         <v>21.0</v>
@@ -11618,26 +11612,26 @@
     </row>
     <row r="25">
       <c r="A25" s="65" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B25" s="18">
         <v>22.0</v>
       </c>
       <c r="C25" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D25" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E25" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="21" t="s">
         <v>21</v>
       </c>
       <c r="H25" s="76" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I25" s="21" t="s">
         <v>18</v>
@@ -11651,19 +11645,19 @@
     </row>
     <row r="26">
       <c r="A26" s="65" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B26" s="18">
         <v>23.0</v>
       </c>
       <c r="C26" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D26" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E26" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="21" t="s">
@@ -11682,7 +11676,7 @@
     </row>
     <row r="27">
       <c r="A27" s="65" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B27" s="18">
         <v>28.0</v>
@@ -11707,19 +11701,19 @@
     </row>
     <row r="28">
       <c r="A28" s="65" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B28" s="18">
         <v>35.0</v>
       </c>
       <c r="C28" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D28" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E28" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="21" t="s">
@@ -11738,7 +11732,7 @@
     </row>
     <row r="29">
       <c r="A29" s="65" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B29" s="18">
         <v>41.0</v>
@@ -11747,13 +11741,13 @@
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
       <c r="F29" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G29" s="21" t="s">
         <v>23</v>
       </c>
       <c r="H29" s="76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I29" s="21" t="s">
         <v>15</v>
@@ -11767,7 +11761,7 @@
     </row>
     <row r="30">
       <c r="A30" s="65" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B30" s="18">
         <v>42.0</v>
@@ -11776,7 +11770,7 @@
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
       <c r="F30" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G30" s="21" t="s">
         <v>14</v>
@@ -11794,7 +11788,7 @@
     </row>
     <row r="31">
       <c r="A31" s="65" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B31" s="18">
         <v>43.0</v>
@@ -11803,13 +11797,13 @@
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G31" s="21" t="s">
         <v>21</v>
       </c>
       <c r="H31" s="76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I31" s="21" t="s">
         <v>15</v>
@@ -11823,7 +11817,7 @@
     </row>
     <row r="32">
       <c r="A32" s="18" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B32" s="18">
         <v>44.0</v>
@@ -11832,13 +11826,13 @@
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
       <c r="F32" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G32" s="21" t="s">
         <v>21</v>
       </c>
       <c r="H32" s="76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I32" s="21" t="s">
         <v>15</v>
@@ -11852,7 +11846,7 @@
     </row>
     <row r="33">
       <c r="A33" s="65" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B33" s="18">
         <v>45.0</v>
@@ -11861,13 +11855,13 @@
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
       <c r="F33" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G33" s="21" t="s">
         <v>21</v>
       </c>
       <c r="H33" s="77" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I33" s="21" t="s">
         <v>15</v>
@@ -11881,7 +11875,7 @@
     </row>
     <row r="34">
       <c r="A34" s="65" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B34" s="18">
         <v>47.0</v>
@@ -11890,7 +11884,7 @@
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
       <c r="F34" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G34" s="21" t="s">
         <v>15</v>
@@ -11908,7 +11902,7 @@
     </row>
     <row r="35">
       <c r="A35" s="65" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B35" s="18">
         <v>48.0</v>
@@ -11917,7 +11911,7 @@
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
       <c r="F35" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G35" s="21" t="s">
         <v>15</v>
@@ -11935,7 +11929,7 @@
     </row>
     <row r="36">
       <c r="A36" s="65" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B36" s="18">
         <v>49.0</v>
@@ -11944,13 +11938,13 @@
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
       <c r="F36" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G36" s="21" t="s">
         <v>23</v>
       </c>
       <c r="H36" s="76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I36" s="21" t="s">
         <v>15</v>
@@ -11964,7 +11958,7 @@
     </row>
     <row r="37">
       <c r="A37" s="18" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B37" s="18">
         <v>50.0</v>
@@ -11973,13 +11967,13 @@
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
       <c r="F37" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G37" s="21" t="s">
         <v>21</v>
       </c>
       <c r="H37" s="76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I37" s="21" t="s">
         <v>15</v>
@@ -11993,7 +11987,7 @@
     </row>
     <row r="38">
       <c r="A38" s="18" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B38" s="18">
         <v>50.0</v>
@@ -12001,7 +11995,7 @@
       <c r="C38" s="24"/>
       <c r="D38" s="24"/>
       <c r="E38" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F38" s="24"/>
       <c r="G38" s="21" t="s">
@@ -12022,7 +12016,7 @@
     </row>
     <row r="39">
       <c r="A39" s="18" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B39" s="18">
         <v>51.0</v>
@@ -12031,13 +12025,13 @@
       <c r="D39" s="24"/>
       <c r="E39" s="24"/>
       <c r="F39" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G39" s="21" t="s">
         <v>21</v>
       </c>
       <c r="H39" s="76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I39" s="21" t="s">
         <v>15</v>
@@ -12051,19 +12045,19 @@
     </row>
     <row r="40">
       <c r="A40" s="18" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B40" s="65">
         <v>65281.0</v>
       </c>
       <c r="C40" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D40" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E40" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F40" s="18"/>
       <c r="G40" s="21" t="s">
@@ -24550,13 +24544,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="80" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" s="82" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D1" s="83" t="s">
         <v>0</v>
@@ -24568,7 +24562,7 @@
         <v>3</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
@@ -24580,7 +24574,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I2" s="85"/>
       <c r="J2" s="3" t="s">
@@ -24595,7 +24589,7 @@
     </row>
     <row r="3">
       <c r="A3" s="86" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B3" s="87">
         <v>21.0</v>
@@ -24629,19 +24623,19 @@
     </row>
     <row r="4">
       <c r="A4" s="92" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B4" s="92">
         <v>23.0</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D4" s="93" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="94" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>21</v>
@@ -24665,19 +24659,19 @@
     </row>
     <row r="5">
       <c r="A5" s="92" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B5" s="92">
         <v>24.0</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D5" s="93" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="94" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>18</v>
@@ -24701,13 +24695,13 @@
     </row>
     <row r="6">
       <c r="A6" s="92" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B6" s="92">
         <v>25.0</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D6" s="93" t="s">
         <v>23</v>
@@ -24735,13 +24729,13 @@
     </row>
     <row r="7">
       <c r="A7" s="92" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B7" s="92">
         <v>6.0</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D7" s="93" t="s">
         <v>23</v>
@@ -24767,13 +24761,13 @@
     </row>
     <row r="8">
       <c r="A8" s="92" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B8" s="92">
         <v>9.0</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D8" s="93" t="s">
         <v>23</v>
@@ -24799,13 +24793,13 @@
     </row>
     <row r="9">
       <c r="A9" s="92" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B9" s="92">
         <v>11.0</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D9" s="93" t="s">
         <v>23</v>
@@ -24831,13 +24825,13 @@
     </row>
     <row r="10">
       <c r="A10" s="92" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B10" s="92">
         <v>13.0</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D10" s="93" t="s">
         <v>23</v>
@@ -24863,13 +24857,13 @@
     </row>
     <row r="11">
       <c r="A11" s="92" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B11" s="92">
         <v>7.0</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D11" s="93" t="s">
         <v>23</v>
@@ -24895,13 +24889,13 @@
     </row>
     <row r="12">
       <c r="A12" s="92" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B12" s="92">
         <v>10.0</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D12" s="93" t="s">
         <v>23</v>
@@ -24927,13 +24921,13 @@
     </row>
     <row r="13">
       <c r="A13" s="92" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B13" s="92">
         <v>12.0</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D13" s="93" t="s">
         <v>23</v>
@@ -24959,13 +24953,13 @@
     </row>
     <row r="14">
       <c r="A14" s="92" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B14" s="92">
         <v>14.0</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D14" s="98" t="s">
         <v>23</v>
@@ -24991,13 +24985,13 @@
     </row>
     <row r="15">
       <c r="A15" s="87" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B15" s="87" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>15</v>
@@ -25023,7 +25017,7 @@
     </row>
     <row r="16">
       <c r="A16" s="92" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B16" s="92">
         <v>256.0</v>
@@ -25042,7 +25036,7 @@
         <v>18</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I16" s="95" t="s">
         <v>23</v>
@@ -25059,13 +25053,13 @@
     </row>
     <row r="17">
       <c r="A17" s="92" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B17" s="92">
         <v>257.0</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>23</v>
@@ -25093,13 +25087,13 @@
     </row>
     <row r="18">
       <c r="A18" s="92" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B18" s="92">
         <v>258.0</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>23</v>
@@ -25127,13 +25121,13 @@
     </row>
     <row r="19">
       <c r="A19" s="92" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B19" s="92">
         <v>259.0</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>23</v>
@@ -25159,13 +25153,13 @@
     </row>
     <row r="20">
       <c r="A20" s="92" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B20" s="92">
         <v>260.0</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>23</v>
@@ -25191,7 +25185,7 @@
     </row>
     <row r="21">
       <c r="A21" s="92" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B21" s="92">
         <v>26.0</v>
@@ -25223,7 +25217,7 @@
     </row>
     <row r="22">
       <c r="A22" s="92" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B22" s="92">
         <v>27.0</v>
@@ -25255,7 +25249,7 @@
     </row>
     <row r="23">
       <c r="A23" s="92" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B23" s="92">
         <v>28.0</v>
@@ -25287,7 +25281,7 @@
     </row>
     <row r="24">
       <c r="A24" s="102" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B24" s="92">
         <v>29.0</v>
@@ -25317,7 +25311,7 @@
     </row>
     <row r="25">
       <c r="A25" s="103" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B25" s="92">
         <v>30.0</v>
@@ -25413,13 +25407,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="104" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>0</v>
@@ -25431,7 +25425,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="106" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
@@ -25440,13 +25434,13 @@
       <c r="C2" s="107"/>
       <c r="D2" s="35"/>
       <c r="E2" s="108" t="s">
+        <v>425</v>
+      </c>
+      <c r="F2" s="109" t="s">
+        <v>426</v>
+      </c>
+      <c r="G2" s="109" t="s">
         <v>427</v>
-      </c>
-      <c r="F2" s="109" t="s">
-        <v>428</v>
-      </c>
-      <c r="G2" s="109" t="s">
-        <v>429</v>
       </c>
       <c r="H2" s="110"/>
       <c r="I2" s="111" t="s">
@@ -25461,10 +25455,10 @@
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C3" s="18">
         <v>1.3</v>
@@ -25473,13 +25467,13 @@
         <v>14</v>
       </c>
       <c r="E3" s="112" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F3" s="23" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H3" s="113" t="s">
         <v>13</v>
@@ -25496,10 +25490,10 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C4" s="18">
         <v>1.3</v>
@@ -25508,13 +25502,13 @@
         <v>14</v>
       </c>
       <c r="E4" s="112" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H4" s="113" t="s">
         <v>13</v>
@@ -25531,10 +25525,10 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C5" s="18">
         <v>1.3</v>
@@ -25543,13 +25537,13 @@
         <v>14</v>
       </c>
       <c r="E5" s="112" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F5" s="23" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H5" s="113" t="s">
         <v>13</v>
@@ -25566,10 +25560,10 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C6" s="18">
         <v>1.3</v>
@@ -25578,13 +25572,13 @@
         <v>13</v>
       </c>
       <c r="E6" s="112" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F6" s="23" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H6" s="113" t="s">
         <v>13</v>
@@ -25601,10 +25595,10 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C7" s="18">
         <v>1.3</v>
@@ -25613,13 +25607,13 @@
         <v>13</v>
       </c>
       <c r="E7" s="112" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H7" s="113" t="s">
         <v>13</v>
@@ -25636,10 +25630,10 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C8" s="18">
         <v>1.3</v>
@@ -25648,13 +25642,13 @@
         <v>13</v>
       </c>
       <c r="E8" s="112" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H8" s="113" t="s">
         <v>13</v>
@@ -25671,10 +25665,10 @@
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C9" s="18">
         <v>1.3</v>
@@ -25687,7 +25681,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H9" s="113" t="s">
         <v>18</v>
@@ -25704,10 +25698,10 @@
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C10" s="18">
         <v>1.3</v>
@@ -25720,7 +25714,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H10" s="113" t="s">
         <v>18</v>
@@ -25737,10 +25731,10 @@
     </row>
     <row r="11">
       <c r="A11" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C11" s="18">
         <v>1.3</v>
@@ -25753,7 +25747,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H11" s="113" t="s">
         <v>18</v>
@@ -25770,10 +25764,10 @@
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C12" s="18">
         <v>1.3</v>
@@ -25786,7 +25780,7 @@
         <v>15</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H12" s="113" t="s">
         <v>18</v>
@@ -25803,10 +25797,10 @@
     </row>
     <row r="13">
       <c r="A13" s="18" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C13" s="18">
         <v>1.3</v>
@@ -25819,7 +25813,7 @@
         <v>15</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H13" s="113" t="s">
         <v>18</v>
@@ -25836,10 +25830,10 @@
     </row>
     <row r="14">
       <c r="A14" s="18" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C14" s="18">
         <v>1.3</v>
@@ -25852,7 +25846,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H14" s="113" t="s">
         <v>18</v>
@@ -25869,10 +25863,10 @@
     </row>
     <row r="15">
       <c r="A15" s="18" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C15" s="18">
         <v>1.3</v>
@@ -25885,7 +25879,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H15" s="113" t="s">
         <v>18</v>
@@ -25902,10 +25896,10 @@
     </row>
     <row r="16">
       <c r="A16" s="18" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C16" s="18">
         <v>1.3</v>
@@ -25918,7 +25912,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H16" s="113" t="s">
         <v>18</v>
@@ -25935,10 +25929,10 @@
     </row>
     <row r="17">
       <c r="A17" s="18" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C17" s="18">
         <v>1.3</v>
@@ -25951,7 +25945,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H17" s="113" t="s">
         <v>18</v>
@@ -25968,10 +25962,10 @@
     </row>
     <row r="18">
       <c r="A18" s="18" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C18" s="18">
         <v>1.3</v>
@@ -25984,7 +25978,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H18" s="113" t="s">
         <v>18</v>
@@ -26001,10 +25995,10 @@
     </row>
     <row r="19">
       <c r="A19" s="18" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C19" s="18">
         <v>1.3</v>
@@ -26017,7 +26011,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H19" s="113" t="s">
         <v>18</v>
@@ -26034,10 +26028,10 @@
     </row>
     <row r="20">
       <c r="A20" s="18" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C20" s="18">
         <v>1.3</v>
@@ -26050,7 +26044,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H20" s="113" t="s">
         <v>18</v>
@@ -26067,10 +26061,10 @@
     </row>
     <row r="21">
       <c r="A21" s="18" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C21" s="18">
         <v>1.3</v>
@@ -26083,7 +26077,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H21" s="113" t="s">
         <v>18</v>
@@ -26100,10 +26094,10 @@
     </row>
     <row r="22">
       <c r="A22" s="18" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C22" s="18">
         <v>1.3</v>
@@ -26116,7 +26110,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H22" s="113" t="s">
         <v>18</v>
@@ -26196,13 +26190,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="114" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" s="82" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D1" s="115" t="s">
         <v>0</v>
@@ -26214,7 +26208,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="116" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
@@ -26236,7 +26230,7 @@
     </row>
     <row r="3">
       <c r="A3" s="92" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B3" s="92">
         <v>0.0</v>
@@ -26265,7 +26259,7 @@
     </row>
     <row r="4">
       <c r="A4" s="92" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B4" s="92">
         <v>1.0</v>
@@ -26294,7 +26288,7 @@
     </row>
     <row r="5">
       <c r="A5" s="92" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B5" s="92">
         <v>2.0</v>
@@ -26323,7 +26317,7 @@
     </row>
     <row r="6">
       <c r="A6" s="92" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B6" s="92">
         <v>3.0</v>
@@ -26352,7 +26346,7 @@
     </row>
     <row r="7">
       <c r="A7" s="92" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B7" s="92">
         <v>4.0</v>
@@ -26381,7 +26375,7 @@
     </row>
     <row r="8">
       <c r="A8" s="92" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B8" s="92">
         <v>5.0</v>
@@ -26410,7 +26404,7 @@
     </row>
     <row r="9">
       <c r="A9" s="92" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B9" s="92">
         <v>6.0</v>
@@ -26504,13 +26498,13 @@
   <sheetData>
     <row r="1" ht="23.25" customHeight="1">
       <c r="A1" s="121" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" s="82" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D1" s="83" t="s">
         <v>0</v>
@@ -26522,7 +26516,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="116" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
@@ -26531,7 +26525,7 @@
       <c r="C2" s="107"/>
       <c r="D2" s="122"/>
       <c r="E2" s="123" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F2" s="117"/>
       <c r="G2" s="117"/>
@@ -26547,7 +26541,7 @@
     </row>
     <row r="3">
       <c r="A3" s="92" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B3" s="92">
         <v>0.0</v>
@@ -26577,7 +26571,7 @@
     </row>
     <row r="4">
       <c r="A4" s="92" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B4" s="92">
         <v>1.0</v>
@@ -26589,7 +26583,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>18</v>
@@ -26609,7 +26603,7 @@
     </row>
     <row r="5">
       <c r="A5" s="92" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B5" s="92">
         <v>2.0</v>
@@ -26621,7 +26615,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>18</v>
@@ -26641,7 +26635,7 @@
     </row>
     <row r="6">
       <c r="A6" s="92" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B6" s="92">
         <v>3.0</v>
@@ -26653,7 +26647,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>18</v>
@@ -26732,13 +26726,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="124" t="s">
+        <v>481</v>
+      </c>
+      <c r="B1" s="124" t="s">
+        <v>482</v>
+      </c>
+      <c r="C1" s="82" t="s">
         <v>483</v>
-      </c>
-      <c r="B1" s="124" t="s">
-        <v>484</v>
-      </c>
-      <c r="C1" s="82" t="s">
-        <v>485</v>
       </c>
       <c r="D1" s="125" t="s">
         <v>0</v>
@@ -26749,7 +26743,7 @@
       </c>
       <c r="G1" s="126"/>
       <c r="H1" s="127" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I1" s="126"/>
       <c r="J1" s="127" t="s">
@@ -26757,7 +26751,7 @@
       </c>
       <c r="K1" s="128"/>
       <c r="L1" s="129" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M1" s="130"/>
       <c r="N1" s="130"/>
@@ -26768,19 +26762,19 @@
       <c r="C2" s="107"/>
       <c r="D2" s="110"/>
       <c r="E2" s="126" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F2" s="110"/>
       <c r="G2" s="126" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H2" s="110"/>
       <c r="I2" s="126" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="J2" s="110"/>
       <c r="K2" s="126" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="L2" s="131" t="s">
         <v>9</v>
@@ -26794,10 +26788,10 @@
     </row>
     <row r="3">
       <c r="A3" s="132" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B3" s="97" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="92">
         <v>224.0</v>
@@ -26806,7 +26800,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="133" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F3" s="134" t="s">
         <v>15</v>
@@ -26838,25 +26832,25 @@
         <v>18</v>
       </c>
       <c r="E4" s="133" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="135" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="135" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>18</v>
       </c>
       <c r="K4" s="137" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="L4" s="30" t="s">
         <v>15</v>
@@ -26870,7 +26864,7 @@
     </row>
     <row r="5">
       <c r="B5" s="97" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C5" s="92">
         <v>-1.0</v>
@@ -26903,7 +26897,7 @@
     </row>
     <row r="6">
       <c r="B6" s="97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C6" s="92">
         <v>2048.0</v>
@@ -26912,7 +26906,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="133" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>13</v>
@@ -26944,19 +26938,19 @@
         <v>18</v>
       </c>
       <c r="E7" s="133" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="135" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>21</v>
       </c>
       <c r="I7" s="135" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J7" s="22" t="s">
         <v>15</v>
@@ -26974,7 +26968,7 @@
     </row>
     <row r="8">
       <c r="B8" s="97" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" s="92">
         <v>2048.0</v>
@@ -26983,13 +26977,13 @@
         <v>18</v>
       </c>
       <c r="E8" s="133" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="135" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>13</v>
@@ -26999,7 +26993,7 @@
         <v>18</v>
       </c>
       <c r="K8" s="137" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="L8" s="30" t="s">
         <v>15</v>
@@ -27019,19 +27013,19 @@
         <v>18</v>
       </c>
       <c r="E9" s="133" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="135" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>21</v>
       </c>
       <c r="I9" s="135" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J9" s="22" t="s">
         <v>15</v>
@@ -27079,10 +27073,10 @@
     </row>
     <row r="11">
       <c r="A11" s="132" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B11" s="97" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C11" s="92">
         <v>224.0</v>
@@ -27125,13 +27119,13 @@
         <v>18</v>
       </c>
       <c r="G12" s="135" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>18</v>
       </c>
       <c r="I12" s="135" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J12" s="22" t="s">
         <v>15</v>
@@ -27149,7 +27143,7 @@
     </row>
     <row r="13">
       <c r="B13" s="97" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C13" s="92">
         <v>1024.0</v>
@@ -27222,13 +27216,13 @@
         <v>21</v>
       </c>
       <c r="G15" s="135" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>21</v>
       </c>
       <c r="I15" s="135" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J15" s="22" t="s">
         <v>15</v>
@@ -27317,7 +27311,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="138" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B1" s="139" t="s">
         <v>0</v>
@@ -27332,34 +27326,34 @@
       </c>
       <c r="G1" s="107"/>
       <c r="H1" s="9" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="140"/>
       <c r="B2" s="11"/>
       <c r="C2" s="141" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D2" s="142"/>
       <c r="E2" s="141" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="143" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H2" s="144"/>
     </row>
     <row r="3">
       <c r="A3" s="141" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="141" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>15</v>
@@ -27375,19 +27369,19 @@
     </row>
     <row r="4">
       <c r="A4" s="146" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="147" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>15</v>
@@ -27399,19 +27393,19 @@
     </row>
     <row r="5">
       <c r="A5" s="141" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="147" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="147" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>15</v>
@@ -27423,19 +27417,19 @@
     </row>
     <row r="6">
       <c r="A6" s="141" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="147" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="147" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>15</v>

--- a/DatabaseFiller/guidelines.xlsx
+++ b/DatabaseFiller/guidelines.xlsx
@@ -516,6 +516,12 @@
         <t xml:space="preserve">the server supports TLS 1.3</t>
       </text>
     </comment>
+    <comment authorId="0" ref="J16">
+      <text>
+        <t xml:space="preserve">ha senso mettere la seconda nota solo se è abilitata?
+	-Riccardo Germenia</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="G41">
       <text>
         <t xml:space="preserve">le lasciamo così?
@@ -779,15 +785,20 @@
         <t xml:space="preserve">BSI-TR-02102-2, 3.3.3 + 3.4.3</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G1">
+    <comment authorId="0" ref="H1">
       <text>
         <t xml:space="preserve">R8</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H1">
+    <comment authorId="0" ref="I1">
       <text>
         <t xml:space="preserve">Being a list of recommendations:
 not mentioned --&gt; not recommended</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G2">
+      <text>
+        <t xml:space="preserve">Not explicitally mentioned but required to match the mechanical check of the conditions with the NIST case</t>
       </text>
     </comment>
     <comment authorId="0" ref="D3">
@@ -795,7 +806,7 @@
         <t xml:space="preserve">TLS servers conforming to this specification shall be configured with an RSA signature certificate or an ECDSA signature certificate</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G3">
+    <comment authorId="0" ref="H3">
       <text>
         <t xml:space="preserve">R8+R5</t>
       </text>
@@ -818,12 +829,6 @@
     <comment authorId="0" ref="E6">
       <text>
         <t xml:space="preserve">At a minimum, TLS servers conforming to this specification shall be configured with an RSA signature certificate or an ECDSA signature certificate. </t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F4">
-      <text>
-        <t xml:space="preserve">essendo tutti e 3 validi andrebbe messa la condizione con i this or
-	-Riccardo Germenia</t>
       </text>
     </comment>
   </commentList>
@@ -1010,7 +1015,10 @@
     </comment>
     <comment authorId="0" ref="E6">
       <text>
-        <t xml:space="preserve">use wildcards in CN</t>
+        <t xml:space="preserve">use wildcards in CN
+----
+dato che NON DEVE avere le wildcards nel campo nella condizione va verificato sele contiene. Se le contiene risulta il livello must not
+	-Riccardo Germenia</t>
       </text>
     </comment>
   </commentList>
@@ -1018,7 +1026,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2555" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2560" uniqueCount="598">
   <si>
     <t>NIST</t>
   </si>
@@ -2103,10 +2111,10 @@
     <t>signature_algorithms</t>
   </si>
   <si>
-    <t>NOTE if this condition results as an ERROR "must be enabled" it may be a false positive. It is caused by the web-server not asking the certificate to the client not allowing the tool to verify whether the extension is supported</t>
-  </si>
-  <si>
-    <t>NOTE if this condition results as an ERROR "must be enabled" it may be a false positive. It is caused by the web-server not asking the certificate to the client not allowing the tool to verify whether the extension is supported. and NOTE in order for the web-server to be compliant with BSI guidelines you should enabled all the signature algorithms reccommended by BSI</t>
+    <t>NOTE_DISABLED if this condition results as an ERROR "must be enabled" it may be a false positive. It is caused by the web-server not asking the certificate to the client not allowing the tool to verify whether the extension is supported</t>
+  </si>
+  <si>
+    <t>NOTE_DISABLED if this condition results as an ERROR "must be enabled" it may be a false positive. It is caused by the web-server not asking the certificate to the client not allowing the tool to verify whether the extension is supported. and NOTE_ENABLED in order for the web-server to be compliant with BSI guidelines you should enabled all the signature algorithms reccommended by BSI</t>
   </si>
   <si>
     <t>use_srtp</t>
@@ -2184,13 +2192,13 @@
     <t>signature_algorithms_cert</t>
   </si>
   <si>
-    <t>TLS 1.3 and NOTE if this condition results as an ERROR "must be enabled" it may be a false positive. It is caused by the web-server not asking the certificate to the client not allowing the tool to verify whether the extension is supported</t>
-  </si>
-  <si>
-    <t>NOTE This field's level is not explicitly mentioned in the guidelines. If you want to use it in order for the web-server to be compliant with BSI guidelines you should enabled all the signature algorithms reccommended by BSI and also enable the rsa_pkcs1_sha256, rsa_pkcs1_sha384 and rsa_pkcs1_sha512 signature algorithms</t>
-  </si>
-  <si>
-    <t>TLS 1.2 and NOTE if this condition results as an ALERT "should be enabled" it may be a false positive. It is caused by the web-server not asking the certificate to the client not allowing the tool to verify whether the extension is supported</t>
+    <t>TLS 1.3 and NOTE_DISABLED if this condition results as an ERROR "must be enabled" it may be a false positive. It is caused by the web-server not asking the certificate to the client not allowing the tool to verify whether the extension is supported</t>
+  </si>
+  <si>
+    <t>NOTE_ENABLED This field's level is not explicitly mentioned in the guidelines. If you want to use it in order for the web-server to be compliant with BSI guidelines you should enabled all the signature algorithms reccommended by BSI and also enable the rsa_pkcs1_sha256, rsa_pkcs1_sha384 and rsa_pkcs1_sha512 signature algorithms</t>
+  </si>
+  <si>
+    <t>TLS 1.2 and NOTE_DISABLED if this condition results as an ALERT "should be enabled" it may be a false positive. It is caused by the web-server not asking the certificate to the client not allowing the tool to verify whether the extension is supported</t>
   </si>
   <si>
     <t>key_share</t>
@@ -2469,18 +2477,27 @@
     <t>THIS or CertificateSignature ecdsa and CHECK_KEY_TYPE rsa</t>
   </si>
   <si>
+    <t>THIS or CertificateSignature dsa;ecdsa</t>
+  </si>
+  <si>
     <t>dsa</t>
   </si>
   <si>
     <t>CHECK_KEY_TYPE dsa</t>
   </si>
   <si>
+    <t>THIS or CertificateSignature rsa;ecdsa</t>
+  </si>
+  <si>
     <t>ecdsa</t>
   </si>
   <si>
     <t>THIS or CertificateSignature rsa and CHECK_KEY_TYPE ecddsa</t>
   </si>
   <si>
+    <t>THIS or CertificateSignature rsa;dsa</t>
+  </si>
+  <si>
     <t>Use</t>
   </si>
   <si>
@@ -2532,7 +2549,7 @@
     <t>X.509 version</t>
   </si>
   <si>
-    <t>VALUE Certificate X.509 version == 2</t>
+    <t>NOTE_FALSE {reason} and VALUE Certificate X.509 version == 2</t>
   </si>
   <si>
     <t>Issuer Distinguished Name</t>
@@ -2541,7 +2558,7 @@
     <t>VALUE Certificate , not in [Issuer Distinguished Name][CN,O,OU,L,S]</t>
   </si>
   <si>
-    <t>VALUE Certificate * not in [Issuer Distinguished Name][CN] NOTE BSI guidelines prohibit the usage of * inside the CN field of the Issuer Distinguished Name</t>
+    <t>NOTE_TRUE the check failed in certificate {cert} for reason {reason}, remember that BSI guidelines prohibit the usage of * in this field and VALUE Certificate * in [Issuer Distinguished Name][CN]</t>
   </si>
   <si>
     <t>validity</t>
@@ -2553,7 +2570,7 @@
     <t>Subject Distinguished Name</t>
   </si>
   <si>
-    <t>VALUE Certificate * not in [Subject Distinguished Name][CN] and NOTE BSI guidelines prohibit the usage of * inside the CN field of the Subject Distinguished Name</t>
+    <t>NOTE_TRUE the check failed in certificate {cert} for reason {reason}, remember that BSI guidelines prohibit the usage of * in this field and VALUE Certificate * in [Subject Distinguished Name][CN]</t>
   </si>
   <si>
     <t>Extension</t>
@@ -2595,7 +2612,7 @@
     <t>VALUE CertificateExtensions DNS in subjectAltName OR VALUE CertificateExtensions IP Address in subjectAltName</t>
   </si>
   <si>
-    <t>VALUE CertificateExtensions * not in subjectAltName and NOTE BSI guidelines prohibit the usage of * inside the subjectAltName field</t>
+    <t>NOTE_TRUE the check failed in certificate {cert} for reason {reason} and VALUE CertificateExtensions * in subjectAltName</t>
   </si>
   <si>
     <t>authorityInfoAccess</t>
@@ -2809,7 +2826,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2901,6 +2918,11 @@
     <font>
       <b/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -3086,7 +3108,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="186">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3444,10 +3466,16 @@
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="3" fillId="4" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3472,13 +3500,13 @@
     <xf borderId="7" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3508,20 +3536,17 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -3529,16 +3554,16 @@
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="4" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3548,7 +3573,7 @@
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3557,13 +3582,16 @@
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3602,17 +3630,17 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -4312,389 +4340,389 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="138" t="s">
-        <v>512</v>
-      </c>
-      <c r="B1" s="139" t="s">
+      <c r="A1" s="140" t="s">
+        <v>515</v>
+      </c>
+      <c r="B1" s="141" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="108"/>
       <c r="D1" s="108"/>
-      <c r="E1" s="139" t="s">
+      <c r="E1" s="141" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="108"/>
       <c r="G1" s="108"/>
-      <c r="H1" s="139" t="s">
+      <c r="H1" s="141" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="108"/>
       <c r="J1" s="9" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="140"/>
+      <c r="A2" s="142"/>
       <c r="B2" s="11"/>
-      <c r="C2" s="141" t="s">
-        <v>513</v>
-      </c>
-      <c r="D2" s="143" t="s">
-        <v>502</v>
-      </c>
-      <c r="E2" s="142"/>
-      <c r="F2" s="141" t="s">
-        <v>513</v>
-      </c>
-      <c r="G2" s="141" t="s">
-        <v>502</v>
+      <c r="C2" s="143" t="s">
+        <v>516</v>
+      </c>
+      <c r="D2" s="145" t="s">
+        <v>505</v>
+      </c>
+      <c r="E2" s="144"/>
+      <c r="F2" s="143" t="s">
+        <v>516</v>
+      </c>
+      <c r="G2" s="143" t="s">
+        <v>505</v>
       </c>
       <c r="H2" s="10"/>
-      <c r="I2" s="143" t="s">
-        <v>502</v>
-      </c>
-      <c r="J2" s="144"/>
+      <c r="I2" s="145" t="s">
+        <v>505</v>
+      </c>
+      <c r="J2" s="146"/>
     </row>
     <row r="3">
-      <c r="A3" s="141" t="s">
-        <v>514</v>
+      <c r="A3" s="143" t="s">
+        <v>517</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="148"/>
-      <c r="D3" s="149"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="151"/>
       <c r="E3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="150"/>
-      <c r="G3" s="140"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="142"/>
       <c r="H3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="151"/>
+      <c r="I3" s="126"/>
       <c r="J3" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="141" t="s">
-        <v>515</v>
+      <c r="A4" s="143" t="s">
+        <v>518</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="150"/>
-      <c r="D4" s="149"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="151"/>
       <c r="E4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="150"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="153"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="154"/>
       <c r="J4" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="141" t="s">
-        <v>516</v>
+      <c r="A5" s="143" t="s">
+        <v>519</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="141" t="s">
-        <v>517</v>
-      </c>
-      <c r="D5" s="149" t="s">
-        <v>518</v>
+      <c r="C5" s="143" t="s">
+        <v>520</v>
+      </c>
+      <c r="D5" s="151" t="s">
+        <v>521</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="141" t="s">
-        <v>517</v>
-      </c>
-      <c r="G5" s="140"/>
+      <c r="F5" s="143" t="s">
+        <v>520</v>
+      </c>
+      <c r="G5" s="142"/>
       <c r="H5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="151"/>
+      <c r="I5" s="126"/>
       <c r="J5" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="141" t="s">
-        <v>519</v>
+      <c r="A6" s="143" t="s">
+        <v>522</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="150"/>
-      <c r="D6" s="154" t="s">
-        <v>520</v>
+      <c r="C6" s="152"/>
+      <c r="D6" s="155" t="s">
+        <v>523</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="150"/>
-      <c r="G6" s="140"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="142"/>
       <c r="H6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="151"/>
+      <c r="I6" s="126"/>
       <c r="J6" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="140"/>
+      <c r="A7" s="142"/>
       <c r="B7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="150"/>
-      <c r="D7" s="149" t="s">
-        <v>521</v>
+      <c r="C7" s="152"/>
+      <c r="D7" s="151" t="s">
+        <v>524</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="150"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="152"/>
-      <c r="I7" s="153"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="154"/>
       <c r="J7" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="141" t="s">
-        <v>522</v>
+      <c r="A8" s="143" t="s">
+        <v>525</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="148"/>
-      <c r="D8" s="155"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="156"/>
       <c r="E8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="150"/>
-      <c r="G8" s="140"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="142"/>
       <c r="H8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="151"/>
+      <c r="I8" s="126"/>
       <c r="J8" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="141" t="s">
-        <v>523</v>
+      <c r="A9" s="143" t="s">
+        <v>526</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="148"/>
-      <c r="D9" s="156" t="s">
-        <v>524</v>
+      <c r="C9" s="150"/>
+      <c r="D9" s="157" t="s">
+        <v>527</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="150"/>
-      <c r="G9" s="147" t="s">
-        <v>525</v>
+      <c r="F9" s="152"/>
+      <c r="G9" s="149" t="s">
+        <v>528</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="151"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="141" t="s">
-        <v>526</v>
+      <c r="A10" s="143" t="s">
+        <v>529</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="148"/>
-      <c r="D10" s="157" t="s">
-        <v>527</v>
+      <c r="C10" s="150"/>
+      <c r="D10" s="158" t="s">
+        <v>530</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="150"/>
-      <c r="G10" s="141" t="s">
-        <v>528</v>
+      <c r="F10" s="152"/>
+      <c r="G10" s="143" t="s">
+        <v>531</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="158" t="s">
-        <v>528</v>
+      <c r="I10" s="159" t="s">
+        <v>531</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="141"/>
+      <c r="A11" s="143"/>
       <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="150"/>
-      <c r="D11" s="157" t="s">
-        <v>529</v>
-      </c>
-      <c r="E11" s="159"/>
-      <c r="F11" s="150"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="152"/>
-      <c r="I11" s="160"/>
+      <c r="C11" s="152"/>
+      <c r="D11" s="158" t="s">
+        <v>532</v>
+      </c>
+      <c r="E11" s="160"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="153"/>
+      <c r="I11" s="161"/>
       <c r="J11" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="141" t="s">
-        <v>530</v>
+      <c r="A12" s="143" t="s">
+        <v>533</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="150"/>
-      <c r="D12" s="149" t="s">
-        <v>531</v>
+      <c r="C12" s="152"/>
+      <c r="D12" s="151" t="s">
+        <v>534</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="150"/>
-      <c r="G12" s="141" t="s">
-        <v>532</v>
+      <c r="F12" s="152"/>
+      <c r="G12" s="143" t="s">
+        <v>535</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="158" t="s">
-        <v>532</v>
+      <c r="I12" s="159" t="s">
+        <v>535</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="141"/>
+      <c r="A13" s="143"/>
       <c r="B13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="150"/>
-      <c r="D13" s="149" t="s">
-        <v>533</v>
-      </c>
-      <c r="E13" s="161"/>
-      <c r="F13" s="150"/>
-      <c r="G13" s="150"/>
-      <c r="H13" s="162"/>
-      <c r="I13" s="163"/>
+      <c r="C13" s="152"/>
+      <c r="D13" s="151" t="s">
+        <v>536</v>
+      </c>
+      <c r="E13" s="162"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="163"/>
+      <c r="I13" s="164"/>
       <c r="J13" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="141" t="s">
-        <v>534</v>
+      <c r="A14" s="143" t="s">
+        <v>537</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="150"/>
-      <c r="D14" s="164"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="150"/>
-      <c r="G14" s="150"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
       <c r="H14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="145"/>
+      <c r="I14" s="147"/>
       <c r="J14" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="141" t="s">
-        <v>535</v>
+      <c r="A15" s="143" t="s">
+        <v>538</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="150"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="165"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="148"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="150"/>
+      <c r="G15" s="150"/>
       <c r="H15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="145"/>
+      <c r="I15" s="147"/>
       <c r="J15" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="140"/>
+      <c r="A16" s="142"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="140"/>
-      <c r="D16" s="166"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="162"/>
-      <c r="I16" s="163"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="164"/>
       <c r="J16" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="141" t="s">
-        <v>536</v>
+      <c r="A17" s="143" t="s">
+        <v>539</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="140"/>
-      <c r="D17" s="166"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="162"/>
-      <c r="I17" s="163"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="168"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="164"/>
       <c r="J17" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="141" t="s">
-        <v>537</v>
+      <c r="A18" s="143" t="s">
+        <v>540</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="140"/>
-      <c r="D18" s="166"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="162"/>
-      <c r="I18" s="163"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="168"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="164"/>
       <c r="J18" s="12" t="s">
         <v>15</v>
       </c>
@@ -4756,51 +4784,51 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="167"/>
+      <c r="A1" s="169"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="168" t="s">
+      <c r="D1" s="170" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B2" s="118"/>
       <c r="C2" s="118"/>
       <c r="D2" s="111"/>
     </row>
     <row r="3">
-      <c r="A3" s="141" t="s">
-        <v>540</v>
+      <c r="A3" s="143" t="s">
+        <v>543</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="169" t="s">
+      <c r="C3" s="171" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="10"/>
-      <c r="E3" s="169" t="s">
+      <c r="E3" s="171" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="141" t="s">
-        <v>541</v>
+      <c r="A4" s="143" t="s">
+        <v>544</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="162"/>
+      <c r="C4" s="163"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="169" t="s">
+      <c r="E4" s="171" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4873,414 +4901,414 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="170" t="s">
+      <c r="D1" s="172" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170" t="s">
+      <c r="E1" s="172"/>
+      <c r="F1" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170" t="s">
-        <v>542</v>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="170"/>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
+      <c r="A2" s="172"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
     </row>
     <row r="3">
-      <c r="A3" s="170"/>
-      <c r="B3" s="170"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171"/>
+      <c r="A3" s="172"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
     </row>
     <row r="4">
-      <c r="A4" s="170" t="s">
-        <v>543</v>
-      </c>
-      <c r="B4" s="172" t="s">
-        <v>544</v>
-      </c>
-      <c r="C4" s="171"/>
-      <c r="D4" s="172" t="s">
-        <v>545</v>
-      </c>
-      <c r="E4" s="171"/>
-      <c r="F4" s="172" t="s">
+      <c r="A4" s="172" t="s">
         <v>546</v>
       </c>
-      <c r="G4" s="172" t="s">
+      <c r="B4" s="174" t="s">
         <v>547</v>
       </c>
-      <c r="H4" s="173"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="174" t="s">
+        <v>548</v>
+      </c>
+      <c r="E4" s="173"/>
+      <c r="F4" s="174" t="s">
+        <v>549</v>
+      </c>
+      <c r="G4" s="174" t="s">
+        <v>550</v>
+      </c>
+      <c r="H4" s="175"/>
     </row>
     <row r="5">
-      <c r="A5" s="170"/>
-      <c r="B5" s="170"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="173"/>
+      <c r="A5" s="172"/>
+      <c r="B5" s="172"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="172"/>
+      <c r="H5" s="175"/>
     </row>
     <row r="6">
-      <c r="A6" s="170"/>
-      <c r="B6" s="174" t="s">
-        <v>548</v>
-      </c>
-      <c r="C6" s="172" t="s">
-        <v>549</v>
-      </c>
-      <c r="D6" s="172" t="s">
-        <v>550</v>
-      </c>
-      <c r="E6" s="171"/>
-      <c r="F6" s="174" t="s">
+      <c r="A6" s="172"/>
+      <c r="B6" s="176" t="s">
         <v>551</v>
       </c>
-      <c r="G6" s="172" t="s">
+      <c r="C6" s="174" t="s">
         <v>552</v>
       </c>
-      <c r="H6" s="173"/>
+      <c r="D6" s="174" t="s">
+        <v>553</v>
+      </c>
+      <c r="E6" s="173"/>
+      <c r="F6" s="176" t="s">
+        <v>554</v>
+      </c>
+      <c r="G6" s="174" t="s">
+        <v>555</v>
+      </c>
+      <c r="H6" s="175"/>
     </row>
     <row r="7">
-      <c r="A7" s="170"/>
-      <c r="B7" s="170"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="172" t="s">
-        <v>553</v>
-      </c>
-      <c r="E7" s="171"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
+      <c r="A7" s="172"/>
+      <c r="B7" s="172"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="174" t="s">
+        <v>556</v>
+      </c>
+      <c r="E7" s="173"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="172"/>
+      <c r="H7" s="172"/>
     </row>
     <row r="8">
-      <c r="A8" s="170"/>
-      <c r="B8" s="170"/>
-      <c r="C8" s="170" t="s">
-        <v>554</v>
-      </c>
-      <c r="D8" s="171"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="170" t="s">
-        <v>555</v>
-      </c>
-      <c r="H8" s="170" t="s">
+      <c r="A8" s="172"/>
+      <c r="B8" s="172"/>
+      <c r="C8" s="172" t="s">
+        <v>557</v>
+      </c>
+      <c r="D8" s="173"/>
+      <c r="E8" s="173"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="172" t="s">
+        <v>558</v>
+      </c>
+      <c r="H8" s="172" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="170"/>
-      <c r="B9" s="170"/>
-      <c r="C9" s="175" t="s">
+      <c r="A9" s="172"/>
+      <c r="B9" s="172"/>
+      <c r="C9" s="177" t="s">
+        <v>559</v>
+      </c>
+      <c r="D9" s="173"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="173"/>
+      <c r="G9" s="173"/>
+      <c r="H9" s="178"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="172"/>
+      <c r="B10" s="174" t="s">
+        <v>560</v>
+      </c>
+      <c r="C10" s="174" t="s">
+        <v>561</v>
+      </c>
+      <c r="D10" s="173"/>
+      <c r="E10" s="174" t="s">
+        <v>562</v>
+      </c>
+      <c r="F10" s="173"/>
+      <c r="G10" s="174" t="s">
+        <v>563</v>
+      </c>
+      <c r="H10" s="175"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="172"/>
+      <c r="B11" s="172"/>
+      <c r="C11" s="172"/>
+      <c r="D11" s="173"/>
+      <c r="E11" s="174" t="s">
+        <v>564</v>
+      </c>
+      <c r="F11" s="173"/>
+      <c r="G11" s="172"/>
+      <c r="H11" s="175"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="172"/>
+      <c r="B12" s="172"/>
+      <c r="C12" s="172"/>
+      <c r="D12" s="173"/>
+      <c r="E12" s="174" t="s">
+        <v>565</v>
+      </c>
+      <c r="F12" s="173"/>
+      <c r="G12" s="172"/>
+      <c r="H12" s="175"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="172"/>
+      <c r="B13" s="172"/>
+      <c r="C13" s="172"/>
+      <c r="D13" s="174" t="s">
         <v>556</v>
       </c>
-      <c r="D9" s="171"/>
-      <c r="E9" s="171"/>
-      <c r="F9" s="171"/>
-      <c r="G9" s="171"/>
-      <c r="H9" s="176"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="170"/>
-      <c r="B10" s="172" t="s">
-        <v>557</v>
-      </c>
-      <c r="C10" s="172" t="s">
-        <v>558</v>
-      </c>
-      <c r="D10" s="171"/>
-      <c r="E10" s="172" t="s">
-        <v>559</v>
-      </c>
-      <c r="F10" s="171"/>
-      <c r="G10" s="172" t="s">
-        <v>560</v>
-      </c>
-      <c r="H10" s="173"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="170"/>
-      <c r="B11" s="170"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="171"/>
-      <c r="E11" s="172" t="s">
-        <v>561</v>
-      </c>
-      <c r="F11" s="171"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="173"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="170"/>
-      <c r="B12" s="170"/>
-      <c r="C12" s="170"/>
-      <c r="D12" s="171"/>
-      <c r="E12" s="172" t="s">
-        <v>562</v>
-      </c>
-      <c r="F12" s="171"/>
-      <c r="G12" s="170"/>
-      <c r="H12" s="173"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="170"/>
-      <c r="B13" s="170"/>
-      <c r="C13" s="170"/>
-      <c r="D13" s="172" t="s">
-        <v>553</v>
-      </c>
-      <c r="E13" s="170"/>
-      <c r="F13" s="171"/>
-      <c r="G13" s="170"/>
-      <c r="H13" s="173"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="172"/>
+      <c r="H13" s="175"/>
     </row>
     <row r="14">
-      <c r="A14" s="170"/>
-      <c r="B14" s="170"/>
-      <c r="C14" s="172" t="s">
-        <v>563</v>
-      </c>
-      <c r="D14" s="171"/>
-      <c r="E14" s="172" t="s">
-        <v>564</v>
-      </c>
-      <c r="F14" s="171"/>
-      <c r="G14" s="171"/>
-      <c r="H14" s="173"/>
+      <c r="A14" s="172"/>
+      <c r="B14" s="172"/>
+      <c r="C14" s="174" t="s">
+        <v>566</v>
+      </c>
+      <c r="D14" s="173"/>
+      <c r="E14" s="174" t="s">
+        <v>567</v>
+      </c>
+      <c r="F14" s="173"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="175"/>
     </row>
     <row r="15">
-      <c r="A15" s="170"/>
-      <c r="B15" s="170"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="171"/>
-      <c r="E15" s="172" t="s">
-        <v>565</v>
-      </c>
-      <c r="F15" s="171"/>
-      <c r="G15" s="171"/>
-      <c r="H15" s="173"/>
+      <c r="A15" s="172"/>
+      <c r="B15" s="172"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="174" t="s">
+        <v>568</v>
+      </c>
+      <c r="F15" s="173"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="175"/>
     </row>
     <row r="16">
-      <c r="A16" s="170"/>
-      <c r="B16" s="170"/>
-      <c r="C16" s="174" t="s">
-        <v>566</v>
-      </c>
-      <c r="D16" s="171"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="174" t="s">
-        <v>567</v>
-      </c>
-      <c r="H16" s="177"/>
+      <c r="A16" s="172"/>
+      <c r="B16" s="172"/>
+      <c r="C16" s="176" t="s">
+        <v>569</v>
+      </c>
+      <c r="D16" s="173"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="176" t="s">
+        <v>570</v>
+      </c>
+      <c r="H16" s="179"/>
     </row>
     <row r="17">
-      <c r="A17" s="170"/>
-      <c r="B17" s="172" t="s">
-        <v>568</v>
-      </c>
-      <c r="C17" s="172" t="s">
-        <v>569</v>
-      </c>
-      <c r="D17" s="171"/>
-      <c r="E17" s="172" t="s">
+      <c r="A17" s="172"/>
+      <c r="B17" s="174" t="s">
+        <v>571</v>
+      </c>
+      <c r="C17" s="174" t="s">
+        <v>572</v>
+      </c>
+      <c r="D17" s="173"/>
+      <c r="E17" s="174" t="s">
+        <v>573</v>
+      </c>
+      <c r="F17" s="173"/>
+      <c r="G17" s="174" t="s">
+        <v>574</v>
+      </c>
+      <c r="H17" s="175"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="172"/>
+      <c r="B18" s="172"/>
+      <c r="C18" s="172"/>
+      <c r="D18" s="173"/>
+      <c r="E18" s="174" t="s">
+        <v>575</v>
+      </c>
+      <c r="F18" s="173"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="175"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="172"/>
+      <c r="B19" s="172"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="173"/>
+      <c r="E19" s="174" t="s">
+        <v>576</v>
+      </c>
+      <c r="F19" s="173"/>
+      <c r="G19" s="173"/>
+      <c r="H19" s="175"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="172"/>
+      <c r="B20" s="172"/>
+      <c r="C20" s="174" t="s">
+        <v>577</v>
+      </c>
+      <c r="D20" s="173"/>
+      <c r="E20" s="174" t="s">
+        <v>578</v>
+      </c>
+      <c r="F20" s="172"/>
+      <c r="G20" s="172"/>
+      <c r="H20" s="175"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="172"/>
+      <c r="B21" s="172"/>
+      <c r="C21" s="174" t="s">
+        <v>579</v>
+      </c>
+      <c r="D21" s="173"/>
+      <c r="E21" s="174" t="s">
+        <v>580</v>
+      </c>
+      <c r="F21" s="173"/>
+      <c r="G21" s="173"/>
+      <c r="H21" s="175"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="172"/>
+      <c r="B22" s="177" t="s">
+        <v>581</v>
+      </c>
+      <c r="C22" s="177" t="s">
+        <v>582</v>
+      </c>
+      <c r="D22" s="173"/>
+      <c r="E22" s="177" t="s">
+        <v>583</v>
+      </c>
+      <c r="F22" s="173"/>
+      <c r="G22" s="173"/>
+      <c r="H22" s="178"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="172"/>
+      <c r="B23" s="172"/>
+      <c r="C23" s="177" t="s">
+        <v>584</v>
+      </c>
+      <c r="D23" s="173"/>
+      <c r="E23" s="172"/>
+      <c r="F23" s="173"/>
+      <c r="G23" s="173"/>
+      <c r="H23" s="178"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="172"/>
+      <c r="B24" s="172"/>
+      <c r="C24" s="177" t="s">
+        <v>585</v>
+      </c>
+      <c r="D24" s="173"/>
+      <c r="E24" s="173"/>
+      <c r="F24" s="173"/>
+      <c r="G24" s="173"/>
+      <c r="H24" s="178"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="172"/>
+      <c r="B25" s="172"/>
+      <c r="C25" s="177" t="s">
+        <v>586</v>
+      </c>
+      <c r="D25" s="173"/>
+      <c r="E25" s="173"/>
+      <c r="F25" s="173"/>
+      <c r="G25" s="173"/>
+      <c r="H25" s="178"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="172"/>
+      <c r="B26" s="172" t="s">
+        <v>587</v>
+      </c>
+      <c r="C26" s="173"/>
+      <c r="D26" s="173"/>
+      <c r="E26" s="172" t="s">
+        <v>588</v>
+      </c>
+      <c r="F26" s="173"/>
+      <c r="G26" s="172" t="s">
         <v>570</v>
       </c>
-      <c r="F17" s="171"/>
-      <c r="G17" s="172" t="s">
-        <v>571</v>
-      </c>
-      <c r="H17" s="173"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="170"/>
-      <c r="B18" s="170"/>
-      <c r="C18" s="170"/>
-      <c r="D18" s="171"/>
-      <c r="E18" s="172" t="s">
-        <v>572</v>
-      </c>
-      <c r="F18" s="171"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="173"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="170"/>
-      <c r="B19" s="170"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="171"/>
-      <c r="E19" s="172" t="s">
-        <v>573</v>
-      </c>
-      <c r="F19" s="171"/>
-      <c r="G19" s="171"/>
-      <c r="H19" s="173"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="170"/>
-      <c r="B20" s="170"/>
-      <c r="C20" s="172" t="s">
-        <v>574</v>
-      </c>
-      <c r="D20" s="171"/>
-      <c r="E20" s="172" t="s">
-        <v>575</v>
-      </c>
-      <c r="F20" s="170"/>
-      <c r="G20" s="170"/>
-      <c r="H20" s="173"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="170"/>
-      <c r="B21" s="170"/>
-      <c r="C21" s="172" t="s">
-        <v>576</v>
-      </c>
-      <c r="D21" s="171"/>
-      <c r="E21" s="172" t="s">
-        <v>577</v>
-      </c>
-      <c r="F21" s="171"/>
-      <c r="G21" s="171"/>
-      <c r="H21" s="173"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="170"/>
-      <c r="B22" s="175" t="s">
-        <v>578</v>
-      </c>
-      <c r="C22" s="175" t="s">
-        <v>579</v>
-      </c>
-      <c r="D22" s="171"/>
-      <c r="E22" s="175" t="s">
-        <v>580</v>
-      </c>
-      <c r="F22" s="171"/>
-      <c r="G22" s="171"/>
-      <c r="H22" s="176"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="170"/>
-      <c r="B23" s="170"/>
-      <c r="C23" s="175" t="s">
-        <v>581</v>
-      </c>
-      <c r="D23" s="171"/>
-      <c r="E23" s="170"/>
-      <c r="F23" s="171"/>
-      <c r="G23" s="171"/>
-      <c r="H23" s="176"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="170"/>
-      <c r="B24" s="170"/>
-      <c r="C24" s="175" t="s">
-        <v>582</v>
-      </c>
-      <c r="D24" s="171"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="171"/>
-      <c r="G24" s="171"/>
-      <c r="H24" s="176"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="170"/>
-      <c r="B25" s="170"/>
-      <c r="C25" s="175" t="s">
-        <v>583</v>
-      </c>
-      <c r="D25" s="171"/>
-      <c r="E25" s="171"/>
-      <c r="F25" s="171"/>
-      <c r="G25" s="171"/>
-      <c r="H25" s="176"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="170"/>
-      <c r="B26" s="170" t="s">
-        <v>584</v>
-      </c>
-      <c r="C26" s="171"/>
-      <c r="D26" s="171"/>
-      <c r="E26" s="170" t="s">
-        <v>585</v>
-      </c>
-      <c r="F26" s="171"/>
-      <c r="G26" s="170" t="s">
-        <v>567</v>
-      </c>
-      <c r="H26" s="170" t="s">
+      <c r="H26" s="172" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="170"/>
-      <c r="B27" s="172" t="s">
-        <v>586</v>
-      </c>
-      <c r="C27" s="171"/>
-      <c r="D27" s="171"/>
-      <c r="E27" s="171"/>
-      <c r="F27" s="171"/>
-      <c r="G27" s="174" t="s">
-        <v>567</v>
-      </c>
-      <c r="H27" s="173"/>
+      <c r="A27" s="172"/>
+      <c r="B27" s="174" t="s">
+        <v>589</v>
+      </c>
+      <c r="C27" s="173"/>
+      <c r="D27" s="173"/>
+      <c r="E27" s="173"/>
+      <c r="F27" s="173"/>
+      <c r="G27" s="176" t="s">
+        <v>570</v>
+      </c>
+      <c r="H27" s="175"/>
     </row>
     <row r="28">
-      <c r="A28" s="170"/>
-      <c r="B28" s="175" t="s">
-        <v>587</v>
-      </c>
-      <c r="C28" s="171"/>
-      <c r="D28" s="170" t="s">
-        <v>588</v>
-      </c>
-      <c r="E28" s="171"/>
-      <c r="F28" s="171"/>
-      <c r="G28" s="178"/>
-      <c r="H28" s="176"/>
+      <c r="A28" s="172"/>
+      <c r="B28" s="177" t="s">
+        <v>590</v>
+      </c>
+      <c r="C28" s="173"/>
+      <c r="D28" s="172" t="s">
+        <v>591</v>
+      </c>
+      <c r="E28" s="173"/>
+      <c r="F28" s="173"/>
+      <c r="G28" s="180"/>
+      <c r="H28" s="178"/>
     </row>
     <row r="29">
-      <c r="A29" s="170"/>
-      <c r="B29" s="170"/>
-      <c r="C29" s="170"/>
-      <c r="D29" s="170"/>
-      <c r="E29" s="171"/>
-      <c r="F29" s="171"/>
-      <c r="G29" s="178"/>
-      <c r="H29" s="176"/>
+      <c r="A29" s="172"/>
+      <c r="B29" s="172"/>
+      <c r="C29" s="172"/>
+      <c r="D29" s="172"/>
+      <c r="E29" s="173"/>
+      <c r="F29" s="173"/>
+      <c r="G29" s="180"/>
+      <c r="H29" s="178"/>
     </row>
     <row r="30">
-      <c r="A30" s="170" t="s">
-        <v>589</v>
-      </c>
-      <c r="B30" s="170"/>
-      <c r="C30" s="171"/>
-      <c r="D30" s="171"/>
-      <c r="E30" s="171"/>
-      <c r="F30" s="171"/>
-      <c r="G30" s="171"/>
-      <c r="H30" s="176"/>
+      <c r="A30" s="172" t="s">
+        <v>592</v>
+      </c>
+      <c r="B30" s="172"/>
+      <c r="C30" s="173"/>
+      <c r="D30" s="173"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="173"/>
+      <c r="G30" s="173"/>
+      <c r="H30" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5313,105 +5341,105 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="179" t="str">
+      <c r="A2" s="181" t="str">
         <f>HYPERLINK("http://www.isg.rhul.ac.uk/tls/Lucky13.html","Lucky 13")</f>
         <v>Lucky 13</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
     </row>
     <row r="3">
-      <c r="A3" s="181" t="str">
+      <c r="A3" s="183" t="str">
         <f>HYPERLINK("https://nerdoholic.org/uploads/dergln/beast_part2/ssl_jun21.pdf","BEAST")</f>
         <v>BEAST</v>
       </c>
-      <c r="B3" s="180"/>
+      <c r="B3" s="182"/>
     </row>
     <row r="4">
-      <c r="A4" s="179" t="str">
+      <c r="A4" s="181" t="str">
         <f>HYPERLINK("https://sweet32.info/","Sweet32")</f>
         <v>Sweet32</v>
       </c>
-      <c r="D4" s="180"/>
+      <c r="D4" s="182"/>
     </row>
     <row r="5">
-      <c r="A5" s="182" t="s">
-        <v>590</v>
-      </c>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
+      <c r="A5" s="184" t="s">
+        <v>593</v>
+      </c>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
     </row>
     <row r="6">
-      <c r="A6" s="179" t="str">
+      <c r="A6" s="181" t="str">
         <f>HYPERLINK("http://breachattack.com/","BREACH")</f>
         <v>BREACH</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="179" t="str">
+      <c r="A7" s="181" t="str">
         <f>HYPERLINK("https://security.googleblog.com/2014/10/this-poodle-bites-exploiting-ssl-30.html","POODLE")</f>
         <v>POODLE</v>
       </c>
-      <c r="B7" s="180"/>
-      <c r="D7" s="180"/>
+      <c r="B7" s="182"/>
+      <c r="D7" s="182"/>
     </row>
     <row r="8">
-      <c r="A8" s="179" t="str">
+      <c r="A8" s="181" t="str">
         <f>HYPERLINK("https://mitls.org/pages/attacks/3SHAKE","3SHAKE")</f>
         <v>3SHAKE</v>
       </c>
-      <c r="B8" s="180"/>
-      <c r="C8" s="180"/>
-      <c r="D8" s="180"/>
+      <c r="B8" s="182"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="182"/>
     </row>
     <row r="9">
-      <c r="A9" s="179" t="str">
+      <c r="A9" s="181" t="str">
         <f>HYPERLINK("https://drownattack.com/","DROWN")</f>
         <v>DROWN</v>
       </c>
-      <c r="D9" s="180"/>
+      <c r="D9" s="182"/>
     </row>
     <row r="10">
-      <c r="A10" s="179" t="str">
+      <c r="A10" s="181" t="str">
         <f>HYPERLINK("https://robotattack.org/","ROBOT ")</f>
         <v>ROBOT </v>
       </c>
-      <c r="B10" s="180"/>
-      <c r="D10" s="180"/>
+      <c r="B10" s="182"/>
+      <c r="D10" s="182"/>
     </row>
     <row r="11">
-      <c r="A11" s="179" t="str">
+      <c r="A11" s="181" t="str">
         <f>HYPERLINK("https://www.kb.cert.org/vuls/id/120541/","Renegotiation attack")</f>
         <v>Renegotiation attack</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="183" t="s">
-        <v>591</v>
-      </c>
-      <c r="D12" s="180"/>
+      <c r="A12" s="185" t="s">
+        <v>594</v>
+      </c>
+      <c r="D12" s="182"/>
     </row>
     <row r="13">
-      <c r="A13" s="183" t="s">
-        <v>592</v>
-      </c>
-      <c r="B13" s="180"/>
-      <c r="C13" s="180"/>
-      <c r="D13" s="180"/>
+      <c r="A13" s="185" t="s">
+        <v>595</v>
+      </c>
+      <c r="B13" s="182"/>
+      <c r="C13" s="182"/>
+      <c r="D13" s="182"/>
     </row>
     <row r="14">
-      <c r="A14" s="183" t="s">
-        <v>593</v>
-      </c>
-      <c r="D14" s="180"/>
+      <c r="A14" s="185" t="s">
+        <v>596</v>
+      </c>
+      <c r="D14" s="182"/>
     </row>
     <row r="15">
-      <c r="A15" s="183" t="s">
-        <v>594</v>
-      </c>
-      <c r="B15" s="180"/>
+      <c r="A15" s="185" t="s">
+        <v>597</v>
+      </c>
+      <c r="B15" s="182"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -12059,7 +12087,9 @@
       <c r="I38" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="J38" s="21"/>
+      <c r="J38" s="79" t="s">
+        <v>389</v>
+      </c>
       <c r="K38" s="21" t="s">
         <v>23</v>
       </c>
@@ -25490,9 +25520,9 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3 K3:L994 G5:G8 I7:J7 G13:G14 I13:J13 G16 I16 I18:J18 G20:G21 G25:G26 I25:J26 G29:G33 G36:G994 I40:J994">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
@@ -27500,9 +27530,12 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="14.75"/>
+    <col customWidth="1" min="3" max="3" width="10.5"/>
     <col customWidth="1" min="4" max="4" width="13.75"/>
-    <col customWidth="1" min="5" max="5" width="25.5"/>
+    <col customWidth="1" min="5" max="5" width="49.5"/>
     <col customWidth="1" min="6" max="6" width="13.75"/>
+    <col customWidth="1" min="7" max="7" width="55.63"/>
+    <col customWidth="1" min="8" max="8" width="13.75"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.25" customHeight="1">
@@ -27521,10 +27554,11 @@
       <c r="F1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="84" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="117" t="s">
+      <c r="I1" s="117" t="s">
         <v>30</v>
       </c>
     </row>
@@ -27536,15 +27570,18 @@
       <c r="E2" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="119" t="s">
+      <c r="F2" s="123"/>
+      <c r="G2" s="125" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="108"/>
+      <c r="I2" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="119" t="s">
+      <c r="J2" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="119" t="s">
+      <c r="K2" s="119" t="s">
         <v>11</v>
       </c>
     </row>
@@ -27561,20 +27598,21 @@
       <c r="D3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="126"/>
+      <c r="H3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="I3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -27591,28 +27629,31 @@
       <c r="D4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="7" t="s">
         <v>482</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="126" t="s">
+        <v>483</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="I4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="93" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B5" s="93">
         <v>2.0</v>
@@ -27620,17 +27661,17 @@
       <c r="C5" s="93">
         <v>1.2</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>484</v>
+      <c r="D5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>485</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>15</v>
+      <c r="G5" s="126" t="s">
+        <v>486</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>15</v>
@@ -27639,12 +27680,15 @@
         <v>15</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="93" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B6" s="93">
         <v>3.0</v>
@@ -27655,22 +27699,25 @@
       <c r="D6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>486</v>
+      <c r="E6" s="7" t="s">
+        <v>488</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="126" t="s">
+        <v>489</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="I6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -27680,26 +27727,26 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:J6">
+  <conditionalFormatting sqref="D3:K6">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"must not"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:J6">
+  <conditionalFormatting sqref="D3:K6">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"recommended"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:J6">
+  <conditionalFormatting sqref="D3:K6">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"not recommended"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:J6">
+  <conditionalFormatting sqref="D3:K6">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"must"</formula>
     </cfRule>
@@ -27734,70 +27781,70 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="125" t="s">
-        <v>487</v>
-      </c>
-      <c r="B1" s="125" t="s">
-        <v>488</v>
+      <c r="A1" s="127" t="s">
+        <v>490</v>
+      </c>
+      <c r="B1" s="127" t="s">
+        <v>491</v>
       </c>
       <c r="C1" s="83" t="s">
-        <v>489</v>
-      </c>
-      <c r="D1" s="126" t="s">
+        <v>492</v>
+      </c>
+      <c r="D1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="127"/>
-      <c r="F1" s="128" t="s">
+      <c r="E1" s="129"/>
+      <c r="F1" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="127"/>
-      <c r="H1" s="128" t="s">
-        <v>490</v>
-      </c>
-      <c r="I1" s="127"/>
-      <c r="J1" s="128" t="s">
+      <c r="G1" s="129"/>
+      <c r="H1" s="130" t="s">
+        <v>493</v>
+      </c>
+      <c r="I1" s="129"/>
+      <c r="J1" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="129"/>
-      <c r="L1" s="130" t="s">
+      <c r="K1" s="131"/>
+      <c r="L1" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
     </row>
     <row r="2">
       <c r="A2" s="108"/>
       <c r="B2" s="108"/>
       <c r="C2" s="108"/>
       <c r="D2" s="111"/>
-      <c r="E2" s="127" t="s">
-        <v>491</v>
+      <c r="E2" s="129" t="s">
+        <v>494</v>
       </c>
       <c r="F2" s="111"/>
-      <c r="G2" s="127" t="s">
-        <v>491</v>
+      <c r="G2" s="129" t="s">
+        <v>494</v>
       </c>
       <c r="H2" s="111"/>
-      <c r="I2" s="127" t="s">
-        <v>491</v>
+      <c r="I2" s="129" t="s">
+        <v>494</v>
       </c>
       <c r="J2" s="111"/>
-      <c r="K2" s="127" t="s">
-        <v>491</v>
-      </c>
-      <c r="L2" s="132" t="s">
+      <c r="K2" s="129" t="s">
+        <v>494</v>
+      </c>
+      <c r="L2" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="132" t="s">
+      <c r="M2" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="132" t="s">
+      <c r="N2" s="134" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="133" t="s">
-        <v>492</v>
+      <c r="A3" s="135" t="s">
+        <v>495</v>
       </c>
       <c r="B3" s="98" t="s">
         <v>39</v>
@@ -27808,17 +27855,17 @@
       <c r="D3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="134" t="s">
-        <v>493</v>
-      </c>
-      <c r="F3" s="135" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="136"/>
-      <c r="H3" s="137" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="136"/>
+      <c r="E3" s="136" t="s">
+        <v>496</v>
+      </c>
+      <c r="F3" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="138"/>
+      <c r="H3" s="139" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="138"/>
       <c r="J3" s="22" t="s">
         <v>15</v>
       </c>
@@ -27840,26 +27887,26 @@
       <c r="D4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="134" t="s">
-        <v>494</v>
+      <c r="E4" s="136" t="s">
+        <v>497</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="136" t="s">
-        <v>495</v>
+      <c r="G4" s="138" t="s">
+        <v>498</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="136" t="s">
-        <v>495</v>
+      <c r="I4" s="138" t="s">
+        <v>498</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>18</v>
       </c>
       <c r="K4" s="79" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="L4" s="30" t="s">
         <v>15</v>
@@ -27873,34 +27920,34 @@
     </row>
     <row r="5">
       <c r="B5" s="98" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C5" s="93">
         <v>-1.0</v>
       </c>
-      <c r="D5" s="135" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="134"/>
-      <c r="F5" s="135" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="136"/>
-      <c r="H5" s="135" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="136"/>
-      <c r="J5" s="135" t="s">
+      <c r="D5" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="136"/>
+      <c r="F5" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="138"/>
+      <c r="H5" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="138"/>
+      <c r="J5" s="137" t="s">
         <v>15</v>
       </c>
       <c r="K5" s="79"/>
-      <c r="L5" s="135" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="135" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="135" t="s">
+      <c r="L5" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="137" t="s">
         <v>15</v>
       </c>
     </row>
@@ -27914,17 +27961,17 @@
       <c r="D6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="134" t="s">
-        <v>493</v>
+      <c r="E6" s="136" t="s">
+        <v>496</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="136"/>
+      <c r="G6" s="138"/>
       <c r="H6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="136"/>
+      <c r="I6" s="138"/>
       <c r="J6" s="22" t="s">
         <v>15</v>
       </c>
@@ -27946,20 +27993,20 @@
       <c r="D7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="134" t="s">
-        <v>494</v>
+      <c r="E7" s="136" t="s">
+        <v>497</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="136" t="s">
-        <v>495</v>
+      <c r="G7" s="138" t="s">
+        <v>498</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="136" t="s">
-        <v>495</v>
+      <c r="I7" s="138" t="s">
+        <v>498</v>
       </c>
       <c r="J7" s="22" t="s">
         <v>15</v>
@@ -27985,24 +28032,24 @@
       <c r="D8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="134" t="s">
-        <v>493</v>
+      <c r="E8" s="136" t="s">
+        <v>496</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="136" t="s">
+      <c r="G8" s="138" t="s">
         <v>436</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="136"/>
+      <c r="I8" s="138"/>
       <c r="J8" s="11" t="s">
         <v>18</v>
       </c>
       <c r="K8" s="79" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="L8" s="30" t="s">
         <v>15</v>
@@ -28021,20 +28068,20 @@
       <c r="D9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="134" t="s">
-        <v>494</v>
+      <c r="E9" s="136" t="s">
+        <v>497</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="136" t="s">
-        <v>495</v>
+      <c r="G9" s="138" t="s">
+        <v>498</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="136" t="s">
-        <v>495</v>
+      <c r="I9" s="138" t="s">
+        <v>498</v>
       </c>
       <c r="J9" s="22" t="s">
         <v>15</v>
@@ -28054,18 +28101,18 @@
       <c r="C10" s="93">
         <v>1024.0</v>
       </c>
-      <c r="D10" s="135" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="136"/>
-      <c r="F10" s="135" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="136"/>
-      <c r="H10" s="137" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="136"/>
+      <c r="D10" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="138"/>
+      <c r="F10" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="138"/>
+      <c r="H10" s="139" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="138"/>
       <c r="J10" s="22" t="s">
         <v>15</v>
       </c>
@@ -28081,27 +28128,27 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="133" t="s">
-        <v>497</v>
+      <c r="A11" s="135" t="s">
+        <v>500</v>
       </c>
       <c r="B11" s="98" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C11" s="93">
         <v>224.0</v>
       </c>
-      <c r="D11" s="135" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="136"/>
-      <c r="F11" s="135" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="136"/>
-      <c r="H11" s="137" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="136"/>
+      <c r="D11" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="138"/>
+      <c r="F11" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="138"/>
+      <c r="H11" s="139" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="138"/>
       <c r="J11" s="22" t="s">
         <v>15</v>
       </c>
@@ -28120,21 +28167,21 @@
       <c r="C12" s="93">
         <v>256.0</v>
       </c>
-      <c r="D12" s="135" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="136"/>
+      <c r="D12" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="138"/>
       <c r="F12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="136" t="s">
-        <v>495</v>
+      <c r="G12" s="138" t="s">
+        <v>498</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="136" t="s">
-        <v>495</v>
+      <c r="I12" s="138" t="s">
+        <v>498</v>
       </c>
       <c r="J12" s="22" t="s">
         <v>15</v>
@@ -28152,31 +28199,31 @@
     </row>
     <row r="13">
       <c r="B13" s="98" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C13" s="93">
         <v>1024.0</v>
       </c>
-      <c r="D13" s="135" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="136"/>
-      <c r="F13" s="135" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="136"/>
-      <c r="H13" s="135" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="136"/>
-      <c r="J13" s="135" t="s">
+      <c r="D13" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="138"/>
+      <c r="F13" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="138"/>
+      <c r="H13" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="138"/>
+      <c r="J13" s="137" t="s">
         <v>15</v>
       </c>
       <c r="K13" s="22"/>
-      <c r="L13" s="135" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="135" t="s">
+      <c r="L13" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="137" t="s">
         <v>15</v>
       </c>
       <c r="N13" s="7" t="s">
@@ -28187,18 +28234,18 @@
       <c r="C14" s="93">
         <v>2048.0</v>
       </c>
-      <c r="D14" s="135" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="136"/>
+      <c r="D14" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="138"/>
       <c r="F14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="136"/>
+      <c r="G14" s="138"/>
       <c r="H14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="136"/>
+      <c r="I14" s="138"/>
       <c r="J14" s="22" t="s">
         <v>15</v>
       </c>
@@ -28217,21 +28264,21 @@
       <c r="C15" s="93">
         <v>3076.0</v>
       </c>
-      <c r="D15" s="135" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="136"/>
+      <c r="D15" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="138"/>
       <c r="F15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="136" t="s">
-        <v>495</v>
+      <c r="G15" s="138" t="s">
+        <v>498</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="136" t="s">
-        <v>495</v>
+      <c r="I15" s="138" t="s">
+        <v>498</v>
       </c>
       <c r="J15" s="22" t="s">
         <v>15</v>
@@ -28319,131 +28366,131 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="138" t="s">
-        <v>500</v>
-      </c>
-      <c r="B1" s="139" t="s">
+      <c r="A1" s="140" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="141" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="108"/>
-      <c r="D1" s="139" t="s">
+      <c r="D1" s="141" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="108"/>
-      <c r="F1" s="139" t="s">
+      <c r="F1" s="141" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="108"/>
       <c r="H1" s="9" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="140"/>
+      <c r="A2" s="142"/>
       <c r="B2" s="11"/>
-      <c r="C2" s="141" t="s">
-        <v>502</v>
-      </c>
-      <c r="D2" s="142"/>
-      <c r="E2" s="141" t="s">
-        <v>502</v>
+      <c r="C2" s="143" t="s">
+        <v>505</v>
+      </c>
+      <c r="D2" s="144"/>
+      <c r="E2" s="143" t="s">
+        <v>505</v>
       </c>
       <c r="F2" s="10"/>
-      <c r="G2" s="143" t="s">
-        <v>502</v>
-      </c>
-      <c r="H2" s="144"/>
+      <c r="G2" s="145" t="s">
+        <v>505</v>
+      </c>
+      <c r="H2" s="146"/>
     </row>
     <row r="3">
-      <c r="A3" s="141" t="s">
-        <v>503</v>
+      <c r="A3" s="143" t="s">
+        <v>506</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="141" t="s">
-        <v>504</v>
+      <c r="C3" s="143" t="s">
+        <v>507</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="140"/>
+      <c r="E3" s="142"/>
       <c r="F3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="145"/>
+      <c r="G3" s="147"/>
       <c r="H3" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="146" t="s">
-        <v>505</v>
+      <c r="A4" s="148" t="s">
+        <v>508</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="147" t="s">
-        <v>506</v>
+      <c r="C4" s="149" t="s">
+        <v>509</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="147" t="s">
-        <v>507</v>
+      <c r="E4" s="149" t="s">
+        <v>510</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="145"/>
+      <c r="G4" s="147"/>
       <c r="H4" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="141" t="s">
-        <v>508</v>
+      <c r="A5" s="143" t="s">
+        <v>511</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="147" t="s">
-        <v>509</v>
+      <c r="C5" s="149" t="s">
+        <v>512</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="147" t="s">
-        <v>509</v>
+      <c r="E5" s="149" t="s">
+        <v>512</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="145"/>
+      <c r="G5" s="147"/>
       <c r="H5" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="141" t="s">
-        <v>510</v>
+      <c r="A6" s="143" t="s">
+        <v>513</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="147" t="s">
-        <v>506</v>
+      <c r="C6" s="149" t="s">
+        <v>509</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="147" t="s">
-        <v>511</v>
+      <c r="E6" s="149" t="s">
+        <v>514</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="145"/>
+      <c r="G6" s="147"/>
       <c r="H6" s="12" t="s">
         <v>15</v>
       </c>

--- a/DatabaseFiller/guidelines.xlsx
+++ b/DatabaseFiller/guidelines.xlsx
@@ -1005,7 +1005,11 @@
     </comment>
     <comment authorId="0" ref="E4">
       <text>
-        <t xml:space="preserve">use wildcards in CN</t>
+        <t xml:space="preserve">use wildcards in CN
+----
+questo sistema è in fase di test
+L'idea è fornire delle keyword tipo {cert} che possono essere inserite nelle note condizionali per mostrare il problema incontrato. Per applicare questa cosa la nota va prima del controllo
+	-Riccardo Germenia</t>
       </text>
     </comment>
     <comment authorId="0" ref="C6">
@@ -1015,10 +1019,7 @@
     </comment>
     <comment authorId="0" ref="E6">
       <text>
-        <t xml:space="preserve">use wildcards in CN
-----
-dato che NON DEVE avere le wildcards nel campo nella condizione va verificato sele contiene. Se le contiene risulta il livello must not
-	-Riccardo Germenia</t>
+        <t xml:space="preserve">use wildcards in CN</t>
       </text>
     </comment>
   </commentList>
@@ -1325,7 +1326,7 @@
     <t>0x00,0x39</t>
   </si>
   <si>
-    <t>TLS_DHE_DSS_WITH_AES_128_GCM_SHA256 (0x00, 0xA2)</t>
+    <t>TLS_DHE_DSS_WITH_AES_128_GCM_SHA256</t>
   </si>
   <si>
     <t>0x00,0xA2</t>
@@ -1334,7 +1335,7 @@
     <t>DSA</t>
   </si>
   <si>
-    <t>TLS_DHE_DSS_WITH_AES_256_GCM_SHA384 (0x00, 0xA3)</t>
+    <t>TLS_DHE_DSS_WITH_AES_256_GCM_SHA384</t>
   </si>
   <si>
     <t>0x00,0xA3</t>
@@ -2075,7 +2076,7 @@
     <t>truncated_hmac</t>
   </si>
   <si>
-    <t>CIPHER CBC and VLP false and NOTE should only be used if the server communicates with constrained-device clients</t>
+    <t>CIPHER CBC and VLP false and NOTE_ENABLED should only be used if the server communicates with constrained-device clients</t>
   </si>
   <si>
     <t>status_request</t>
@@ -2549,7 +2550,7 @@
     <t>X.509 version</t>
   </si>
   <si>
-    <t>NOTE_FALSE {reason} and VALUE Certificate X.509 version == 2</t>
+    <t>VALUE Certificate X.509 version == 2</t>
   </si>
   <si>
     <t>Issuer Distinguished Name</t>
@@ -11157,7 +11158,7 @@
       <c r="G7" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="76" t="s">
+      <c r="H7" s="77" t="s">
         <v>349</v>
       </c>
       <c r="I7" s="21" t="s">

--- a/DatabaseFiller/guidelines.xlsx
+++ b/DatabaseFiller/guidelines.xlsx
@@ -590,6 +590,12 @@
         <t xml:space="preserve">Use up to year 2022</t>
       </text>
     </comment>
+    <comment authorId="0" ref="A24">
+      <text>
+        <t xml:space="preserve">la x qui era minuscola, nello standard è maiuscola
+	-Riccardo Germenia</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -2310,10 +2316,10 @@
     <t>brainpoolP512r1</t>
   </si>
   <si>
-    <t>x25519 / Curve25519</t>
-  </si>
-  <si>
-    <t>x448 / Curve448</t>
+    <t>X25519 / Curve25519</t>
+  </si>
+  <si>
+    <t>X448 / Curve448</t>
   </si>
   <si>
     <t>SignatureScheme</t>
@@ -3408,10 +3414,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>

--- a/DatabaseFiller/guidelines.xlsx
+++ b/DatabaseFiller/guidelines.xlsx
@@ -90,10 +90,7 @@
     </comment>
     <comment authorId="0" ref="D3">
       <text>
-        <t xml:space="preserve">Same as subject key identifier in issuing CA certificate; Prohibited: Issuer DN, Serial Number tuple
-----
-todo fix this condition. Will create a new function
-	-Riccardo Germenia</t>
+        <t xml:space="preserve">Same as subject key identifier in issuing CA certificate; Prohibited: Issuer DN, Serial Number tuple</t>
       </text>
     </comment>
     <comment authorId="0" ref="H3">
@@ -108,7 +105,10 @@
     </comment>
     <comment authorId="0" ref="D4">
       <text>
-        <t xml:space="preserve">Same as in Public-Key Cryptography Standards (PKCS) 10 request or calculated by the issuing CA</t>
+        <t xml:space="preserve">Same as in Public-Key Cryptography Standards (PKCS) 10 request or calculated by the issuing CA
+----
+le parentesi nelle note danno problemi
+	-Riccardo Germenia</t>
       </text>
     </comment>
     <comment authorId="0" ref="A5">
@@ -141,18 +141,23 @@
     <comment authorId="0" ref="D6">
       <text>
         <t xml:space="preserve">id-kp-serverAuth {1 3 6 1 5 5 7 3 1}
-http://oid-info.com/get/1.3.6.1.5.5.7.3.1
-----
-si può compattare anche la riga sotto con la condiziona contains_not ma devo verificare che escano due note separate per le condizioni
-	-Riccardo Germenia
-http://oid-info.com/get/1.3.6.1.5.5.7.3.1
-	-Riccardo Germenia</t>
+http://oid-info.com/get/1.3.6.1.5.5.7.3.1</t>
       </text>
     </comment>
     <comment authorId="0" ref="H6">
       <text>
         <t xml:space="preserve">R28
 </t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A7">
+      <text>
+        <t xml:space="preserve">Extended Key Usage</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D7">
+      <text>
+        <t xml:space="preserve">the keyAgreement and keyEncipherments are considered mutually exclusive as show in section 5.4.3 of https://www.etsi.org/deliver/etsi_ts/102200_102299/102280/01.01.01_60/ts_102280v010101p.pdf</t>
       </text>
     </comment>
     <comment authorId="0" ref="A9">
@@ -212,11 +217,15 @@
     </comment>
     <comment authorId="0" ref="D13">
       <text>
-        <t xml:space="preserve">A CRL can be indicated in two ways:
-- DistributionPoint ::= SEQUENCE
-- DistributionPointName ::= CHOICE
-The certificate can only employ the DistributionPoint "SEQUENCE" type, using the "distributionPoint" field.
-The use of the two other fields ("reasons" and "cRLIssuer") or the other method "CHOICE" are forbidded</t>
+        <t xml:space="preserve">A CRL is indicated by a DistributionPoint ::= SEQUENCE.
+This SEQUENCE can contain three items:
+    distributionPoint: DistributionPointName
+    reasons: ReasonFlags
+    cRLIssuer: GeneralNames.
+The DistributionPointName type is a CHOICE with two options:
+    fullName
+    nameRelativeToCRLIssuer
+A valid distributionPoint must not have the "reasons" and "cRLIssuer" fields and the distributionPoint can not be of type nameRelativeToCRLIssuer</t>
       </text>
     </comment>
     <comment authorId="0" ref="A14">
@@ -233,10 +242,7 @@
     </comment>
     <comment authorId="0" ref="A15">
       <text>
-        <t xml:space="preserve">TLS Certificate Status Request
-----
-update: si deve usare OCSP_stapling e vedere se è offered o not offered
-	-Riccardo Germenia</t>
+        <t xml:space="preserve">TLS Certificate Status Request</t>
       </text>
     </comment>
     <comment authorId="0" ref="B15">
@@ -244,21 +250,25 @@
         <t xml:space="preserve">Optional. This extension (sometimes referred to as the “must staple” extension) may be present to indicate to clients that the server supports OCSP stapling and will provide a stapled OCSP response when one is requested.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B13">
+    <comment authorId="0" ref="D12">
       <text>
-        <t xml:space="preserve">CRL Distribution Points cercarlo dentro RFC per capire cosa si intende nel commento
+        <t xml:space="preserve">Possibilità:
+1) verificare se url è valido
+2) vedere se url risponde con 200
+3) verificare se è parte di una lista di crl "valide"
+	-Riccardo Germenia
+cert_crlDistributionPoints del dump di testssl contiene le informazioni. Se non contiene "http" allora non rispetta il criterio.
+	-Riccardo Germenia
+per ora controllo se contine i valori IP o URI che sono entrambi validi in teoria
 	-Riccardo Germenia</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A17">
+    <comment authorId="0" ref="A1">
       <text>
         <t xml:space="preserve">'authorityInfoAccess' contiene anche l'url dell'OCSP
-	-Riccardo Germenia</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A18">
-      <text>
-        <t xml:space="preserve">'crlDistributionPoints' se c'è questo campo in teoria c'è anche la CRL per la revoca
+	-Riccardo Germenia
+----
+'crlDistributionPoints' se c'è questo campo in teoria c'è anche la CRL per la revoca
 	-Riccardo Germenia</t>
       </text>
     </comment>
@@ -588,12 +598,6 @@
     <comment authorId="0" ref="H16">
       <text>
         <t xml:space="preserve">Use up to year 2022</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A24">
-      <text>
-        <t xml:space="preserve">la x qui era minuscola, nello standard è maiuscola
-	-Riccardo Germenia</t>
       </text>
     </comment>
   </commentList>
@@ -1011,11 +1015,7 @@
     </comment>
     <comment authorId="0" ref="E4">
       <text>
-        <t xml:space="preserve">use wildcards in CN
-----
-questo sistema è in fase di test
-L'idea è fornire delle keyword tipo {cert} che possono essere inserite nelle note condizionali per mostrare il problema incontrato. Per applicare questa cosa la nota va prima del controllo
-	-Riccardo Germenia</t>
+        <t xml:space="preserve">use wildcards in CN</t>
       </text>
     </comment>
     <comment authorId="0" ref="C6">
@@ -1033,7 +1033,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2560" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2558" uniqueCount="598">
   <si>
     <t>NIST</t>
   </si>
@@ -2589,9 +2589,15 @@
     <t>authorityKeyIdentifier</t>
   </si>
   <si>
+    <t>CHECK_AKI</t>
+  </si>
+  <si>
     <t>subjectKeyIdentifier</t>
   </si>
   <si>
+    <t>NOTE_ALWAYS The guidelines state `Same as in Public-Key Cryptography Standards PKCS 10 request or calculated by the issuing CA`. The tool can not verify this condition since this specific check can only be performed by monitoring the endpoint during the certificate issuing phase</t>
+  </si>
+  <si>
     <t>keyUsage</t>
   </si>
   <si>
@@ -2604,10 +2610,10 @@
     <t>extendedKeyUsage</t>
   </si>
   <si>
-    <t>VALUE CertificateExtensions TLS Web Server Authentication in extendedKeyUsage AND VALUE CertificateExtensions anyExtendedKeyUsage not in extendedKeyUsage</t>
-  </si>
-  <si>
-    <t>anyExtendedKeyUsage</t>
+    <t>NOTE_FALSE the check failed in certificate {cert} for reason {reason} AND VALUE CertificateExtensions TLS Web Server Authentication in extendedKeyUsage</t>
+  </si>
+  <si>
+    <t>(NOTE_TRUE the check failed in certificate {cert} for reason {reason} AND VALUE CertificateExtensions Any Extended Key Usage in extendedKeyUsage) OR CHECK_SAME_KEYUSAGE</t>
   </si>
   <si>
     <t>Certificate Policies</t>
@@ -2637,25 +2643,19 @@
     <t>crlDistributionPoints</t>
   </si>
   <si>
-    <t>HTTP value in distributionPoint field pointing to a full and complete CRL.</t>
+    <t>VALUE CertificateExtensions IP in crlDistributionPoints OR VALUE CertificateExtensions URI in crlDistributionPoints</t>
   </si>
   <si>
     <t>THIS or CertificateExtensions Authority Information Access</t>
   </si>
   <si>
-    <t>reasons and cRLIssuer fields, and nameRelativetoCRLIssuer CHOICE</t>
+    <t>NOTE_TRUE the check failed in certificate {cert} for reason {reason} AND (VALUE CertificateExtensions Relative Name in crlDistributionPoints OR VALUE CertificateExtensions CRL Issuer in crlDistributionPoints OR VALUE CertificateExtensions Reasons in crlDistributionPoints) AND DISABLE_IF False</t>
   </si>
   <si>
     <t>ct_precert_scts</t>
   </si>
   <si>
     <t>OCSP must staple extension</t>
-  </si>
-  <si>
-    <t>revocation with OCSP</t>
-  </si>
-  <si>
-    <t>revocation with CRL</t>
   </si>
   <si>
     <t>AgID</t>
@@ -2833,7 +2833,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2950,12 +2950,6 @@
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -3115,7 +3109,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="184">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3595,12 +3589,6 @@
     <xf borderId="1" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
@@ -3637,17 +3625,17 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -4398,7 +4386,9 @@
         <v>18</v>
       </c>
       <c r="C3" s="150"/>
-      <c r="D3" s="151"/>
+      <c r="D3" s="151" t="s">
+        <v>518</v>
+      </c>
       <c r="E3" s="11" t="s">
         <v>15</v>
       </c>
@@ -4414,13 +4404,15 @@
     </row>
     <row r="4">
       <c r="A4" s="143" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="152"/>
-      <c r="D4" s="151"/>
+      <c r="D4" s="151" t="s">
+        <v>520</v>
+      </c>
       <c r="E4" s="11" t="s">
         <v>15</v>
       </c>
@@ -4434,22 +4426,22 @@
     </row>
     <row r="5">
       <c r="A5" s="143" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="143" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D5" s="151" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="143" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="G5" s="142"/>
       <c r="H5" s="11" t="s">
@@ -4462,14 +4454,14 @@
     </row>
     <row r="6">
       <c r="A6" s="143" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="152"/>
       <c r="D6" s="155" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>18</v>
@@ -4485,13 +4477,15 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="142"/>
+      <c r="A7" s="143" t="s">
+        <v>524</v>
+      </c>
       <c r="B7" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="152"/>
       <c r="D7" s="151" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>15</v>
@@ -4506,7 +4500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="143" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>23</v>
@@ -4528,21 +4522,21 @@
     </row>
     <row r="9">
       <c r="A9" s="143" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="150"/>
       <c r="D9" s="157" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="152"/>
       <c r="G9" s="149" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>21</v>
@@ -4554,40 +4548,42 @@
     </row>
     <row r="10">
       <c r="A10" s="143" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="150"/>
       <c r="D10" s="158" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="152"/>
       <c r="G10" s="143" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="159" t="s">
+        <v>533</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="143" t="s">
         <v>531</v>
       </c>
-      <c r="J10" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="143"/>
       <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="152"/>
       <c r="D11" s="158" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E11" s="160"/>
       <c r="F11" s="152"/>
@@ -4600,40 +4596,42 @@
     </row>
     <row r="12">
       <c r="A12" s="143" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="152"/>
       <c r="D12" s="151" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="152"/>
       <c r="G12" s="143" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>21</v>
       </c>
       <c r="I12" s="159" t="s">
+        <v>537</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="143" t="s">
         <v>535</v>
       </c>
-      <c r="J12" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="143"/>
       <c r="B13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="152"/>
       <c r="D13" s="151" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E13" s="162"/>
       <c r="F13" s="152"/>
@@ -4646,7 +4644,7 @@
     </row>
     <row r="14">
       <c r="A14" s="143" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>23</v>
@@ -4666,7 +4664,7 @@
     </row>
     <row r="15">
       <c r="A15" s="143" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>23</v>
@@ -4684,83 +4682,33 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="142"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="143" t="s">
-        <v>539</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="142"/>
-      <c r="D17" s="168"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="164"/>
-      <c r="J17" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="143" t="s">
-        <v>540</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="142"/>
-      <c r="D18" s="168"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="164"/>
-      <c r="J18" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B2:B18 H2:H18 J2:J18 E3:E10 I3:I18 E12">
+  <conditionalFormatting sqref="B2:B15 H2:H15 J2:J15 E3:E10 I3:I15 E12">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"must not"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B18 H2:H18 J2:J18 E3:E10 I3:I18 E12">
+  <conditionalFormatting sqref="B2:B15 H2:H15 J2:J15 E3:E10 I3:I15 E12">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"recommended"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B18 H2:H18 J2:J18 E3:E10 I3:I18 E12">
+  <conditionalFormatting sqref="B2:B15 H2:H15 J2:J15 E3:E10 I3:I15 E12">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"not recommended"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B18 H2:H18 J2:J18 E3:E10 I3:I18 E12">
+  <conditionalFormatting sqref="B2:B15 H2:H15 J2:J15 E3:E10 I3:I15 E12">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"must"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B18 H2:H18 J2:J18 E3:E10 I3:I18 E12">
+  <conditionalFormatting sqref="B2:B15 H2:H15 J2:J15 E3:E10 I3:I15 E12">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"not recommended*"</formula>
     </cfRule>
@@ -4791,14 +4739,14 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="169"/>
+      <c r="A1" s="167"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="170" t="s">
+      <c r="D1" s="168" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -4820,11 +4768,11 @@
       <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="171" t="s">
+      <c r="C3" s="169" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="10"/>
-      <c r="E3" s="171" t="s">
+      <c r="E3" s="169" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4835,7 +4783,7 @@
       <c r="B4" s="11"/>
       <c r="C4" s="163"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="171" t="s">
+      <c r="E4" s="169" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4908,414 +4856,414 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="170" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="172" t="s">
+      <c r="D1" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172" t="s">
+      <c r="E1" s="170"/>
+      <c r="F1" s="170" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172" t="s">
+      <c r="G1" s="170"/>
+      <c r="H1" s="170" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="172"/>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
+      <c r="A2" s="170"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
     </row>
     <row r="3">
-      <c r="A3" s="172"/>
-      <c r="B3" s="172"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
+      <c r="A3" s="170"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
     </row>
     <row r="4">
-      <c r="A4" s="172" t="s">
+      <c r="A4" s="170" t="s">
         <v>546</v>
       </c>
-      <c r="B4" s="174" t="s">
+      <c r="B4" s="172" t="s">
         <v>547</v>
       </c>
-      <c r="C4" s="173"/>
-      <c r="D4" s="174" t="s">
+      <c r="C4" s="171"/>
+      <c r="D4" s="172" t="s">
         <v>548</v>
       </c>
-      <c r="E4" s="173"/>
-      <c r="F4" s="174" t="s">
+      <c r="E4" s="171"/>
+      <c r="F4" s="172" t="s">
         <v>549</v>
       </c>
-      <c r="G4" s="174" t="s">
+      <c r="G4" s="172" t="s">
         <v>550</v>
       </c>
-      <c r="H4" s="175"/>
+      <c r="H4" s="173"/>
     </row>
     <row r="5">
-      <c r="A5" s="172"/>
-      <c r="B5" s="172"/>
-      <c r="C5" s="173"/>
-      <c r="D5" s="173"/>
-      <c r="E5" s="173"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
-      <c r="H5" s="175"/>
+      <c r="A5" s="170"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="170"/>
+      <c r="G5" s="170"/>
+      <c r="H5" s="173"/>
     </row>
     <row r="6">
-      <c r="A6" s="172"/>
-      <c r="B6" s="176" t="s">
+      <c r="A6" s="170"/>
+      <c r="B6" s="174" t="s">
         <v>551</v>
       </c>
-      <c r="C6" s="174" t="s">
+      <c r="C6" s="172" t="s">
         <v>552</v>
       </c>
-      <c r="D6" s="174" t="s">
+      <c r="D6" s="172" t="s">
         <v>553</v>
       </c>
-      <c r="E6" s="173"/>
-      <c r="F6" s="176" t="s">
+      <c r="E6" s="171"/>
+      <c r="F6" s="174" t="s">
         <v>554</v>
       </c>
-      <c r="G6" s="174" t="s">
+      <c r="G6" s="172" t="s">
         <v>555</v>
       </c>
-      <c r="H6" s="175"/>
+      <c r="H6" s="173"/>
     </row>
     <row r="7">
-      <c r="A7" s="172"/>
-      <c r="B7" s="172"/>
-      <c r="C7" s="172"/>
-      <c r="D7" s="174" t="s">
+      <c r="A7" s="170"/>
+      <c r="B7" s="170"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="172" t="s">
         <v>556</v>
       </c>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="172"/>
-      <c r="H7" s="172"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
     </row>
     <row r="8">
-      <c r="A8" s="172"/>
-      <c r="B8" s="172"/>
-      <c r="C8" s="172" t="s">
+      <c r="A8" s="170"/>
+      <c r="B8" s="170"/>
+      <c r="C8" s="170" t="s">
         <v>557</v>
       </c>
-      <c r="D8" s="173"/>
-      <c r="E8" s="173"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="172" t="s">
+      <c r="D8" s="171"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="170" t="s">
         <v>558</v>
       </c>
-      <c r="H8" s="172" t="s">
+      <c r="H8" s="170" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="172"/>
-      <c r="B9" s="172"/>
-      <c r="C9" s="177" t="s">
+      <c r="A9" s="170"/>
+      <c r="B9" s="170"/>
+      <c r="C9" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="D9" s="173"/>
-      <c r="E9" s="173"/>
-      <c r="F9" s="173"/>
-      <c r="G9" s="173"/>
-      <c r="H9" s="178"/>
+      <c r="D9" s="171"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="171"/>
+      <c r="H9" s="176"/>
     </row>
     <row r="10">
-      <c r="A10" s="172"/>
-      <c r="B10" s="174" t="s">
+      <c r="A10" s="170"/>
+      <c r="B10" s="172" t="s">
         <v>560</v>
       </c>
-      <c r="C10" s="174" t="s">
+      <c r="C10" s="172" t="s">
         <v>561</v>
       </c>
-      <c r="D10" s="173"/>
-      <c r="E10" s="174" t="s">
+      <c r="D10" s="171"/>
+      <c r="E10" s="172" t="s">
         <v>562</v>
       </c>
-      <c r="F10" s="173"/>
-      <c r="G10" s="174" t="s">
+      <c r="F10" s="171"/>
+      <c r="G10" s="172" t="s">
         <v>563</v>
       </c>
-      <c r="H10" s="175"/>
+      <c r="H10" s="173"/>
     </row>
     <row r="11">
-      <c r="A11" s="172"/>
-      <c r="B11" s="172"/>
-      <c r="C11" s="172"/>
-      <c r="D11" s="173"/>
-      <c r="E11" s="174" t="s">
+      <c r="A11" s="170"/>
+      <c r="B11" s="170"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="172" t="s">
         <v>564</v>
       </c>
-      <c r="F11" s="173"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="175"/>
+      <c r="F11" s="171"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="173"/>
     </row>
     <row r="12">
-      <c r="A12" s="172"/>
-      <c r="B12" s="172"/>
-      <c r="C12" s="172"/>
-      <c r="D12" s="173"/>
-      <c r="E12" s="174" t="s">
+      <c r="A12" s="170"/>
+      <c r="B12" s="170"/>
+      <c r="C12" s="170"/>
+      <c r="D12" s="171"/>
+      <c r="E12" s="172" t="s">
         <v>565</v>
       </c>
-      <c r="F12" s="173"/>
-      <c r="G12" s="172"/>
-      <c r="H12" s="175"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="170"/>
+      <c r="H12" s="173"/>
     </row>
     <row r="13">
-      <c r="A13" s="172"/>
-      <c r="B13" s="172"/>
-      <c r="C13" s="172"/>
-      <c r="D13" s="174" t="s">
+      <c r="A13" s="170"/>
+      <c r="B13" s="170"/>
+      <c r="C13" s="170"/>
+      <c r="D13" s="172" t="s">
         <v>556</v>
       </c>
-      <c r="E13" s="172"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="175"/>
+      <c r="E13" s="170"/>
+      <c r="F13" s="171"/>
+      <c r="G13" s="170"/>
+      <c r="H13" s="173"/>
     </row>
     <row r="14">
-      <c r="A14" s="172"/>
-      <c r="B14" s="172"/>
-      <c r="C14" s="174" t="s">
+      <c r="A14" s="170"/>
+      <c r="B14" s="170"/>
+      <c r="C14" s="172" t="s">
         <v>566</v>
       </c>
-      <c r="D14" s="173"/>
-      <c r="E14" s="174" t="s">
+      <c r="D14" s="171"/>
+      <c r="E14" s="172" t="s">
         <v>567</v>
       </c>
-      <c r="F14" s="173"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="175"/>
+      <c r="F14" s="171"/>
+      <c r="G14" s="171"/>
+      <c r="H14" s="173"/>
     </row>
     <row r="15">
-      <c r="A15" s="172"/>
-      <c r="B15" s="172"/>
-      <c r="C15" s="172"/>
-      <c r="D15" s="173"/>
-      <c r="E15" s="174" t="s">
+      <c r="A15" s="170"/>
+      <c r="B15" s="170"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="171"/>
+      <c r="E15" s="172" t="s">
         <v>568</v>
       </c>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="175"/>
+      <c r="F15" s="171"/>
+      <c r="G15" s="171"/>
+      <c r="H15" s="173"/>
     </row>
     <row r="16">
-      <c r="A16" s="172"/>
-      <c r="B16" s="172"/>
-      <c r="C16" s="176" t="s">
+      <c r="A16" s="170"/>
+      <c r="B16" s="170"/>
+      <c r="C16" s="174" t="s">
         <v>569</v>
       </c>
-      <c r="D16" s="173"/>
-      <c r="E16" s="172"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="176" t="s">
+      <c r="D16" s="171"/>
+      <c r="E16" s="170"/>
+      <c r="F16" s="171"/>
+      <c r="G16" s="174" t="s">
         <v>570</v>
       </c>
-      <c r="H16" s="179"/>
+      <c r="H16" s="177"/>
     </row>
     <row r="17">
-      <c r="A17" s="172"/>
-      <c r="B17" s="174" t="s">
+      <c r="A17" s="170"/>
+      <c r="B17" s="172" t="s">
         <v>571</v>
       </c>
-      <c r="C17" s="174" t="s">
+      <c r="C17" s="172" t="s">
         <v>572</v>
       </c>
-      <c r="D17" s="173"/>
-      <c r="E17" s="174" t="s">
+      <c r="D17" s="171"/>
+      <c r="E17" s="172" t="s">
         <v>573</v>
       </c>
-      <c r="F17" s="173"/>
-      <c r="G17" s="174" t="s">
+      <c r="F17" s="171"/>
+      <c r="G17" s="172" t="s">
         <v>574</v>
       </c>
-      <c r="H17" s="175"/>
+      <c r="H17" s="173"/>
     </row>
     <row r="18">
-      <c r="A18" s="172"/>
-      <c r="B18" s="172"/>
-      <c r="C18" s="172"/>
-      <c r="D18" s="173"/>
-      <c r="E18" s="174" t="s">
+      <c r="A18" s="170"/>
+      <c r="B18" s="170"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="171"/>
+      <c r="E18" s="172" t="s">
         <v>575</v>
       </c>
-      <c r="F18" s="173"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="175"/>
+      <c r="F18" s="171"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="173"/>
     </row>
     <row r="19">
-      <c r="A19" s="172"/>
-      <c r="B19" s="172"/>
-      <c r="C19" s="172"/>
-      <c r="D19" s="173"/>
-      <c r="E19" s="174" t="s">
+      <c r="A19" s="170"/>
+      <c r="B19" s="170"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="171"/>
+      <c r="E19" s="172" t="s">
         <v>576</v>
       </c>
-      <c r="F19" s="173"/>
-      <c r="G19" s="173"/>
-      <c r="H19" s="175"/>
+      <c r="F19" s="171"/>
+      <c r="G19" s="171"/>
+      <c r="H19" s="173"/>
     </row>
     <row r="20">
-      <c r="A20" s="172"/>
-      <c r="B20" s="172"/>
-      <c r="C20" s="174" t="s">
+      <c r="A20" s="170"/>
+      <c r="B20" s="170"/>
+      <c r="C20" s="172" t="s">
         <v>577</v>
       </c>
-      <c r="D20" s="173"/>
-      <c r="E20" s="174" t="s">
+      <c r="D20" s="171"/>
+      <c r="E20" s="172" t="s">
         <v>578</v>
       </c>
-      <c r="F20" s="172"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="175"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="170"/>
+      <c r="H20" s="173"/>
     </row>
     <row r="21">
-      <c r="A21" s="172"/>
-      <c r="B21" s="172"/>
-      <c r="C21" s="174" t="s">
+      <c r="A21" s="170"/>
+      <c r="B21" s="170"/>
+      <c r="C21" s="172" t="s">
         <v>579</v>
       </c>
-      <c r="D21" s="173"/>
-      <c r="E21" s="174" t="s">
+      <c r="D21" s="171"/>
+      <c r="E21" s="172" t="s">
         <v>580</v>
       </c>
-      <c r="F21" s="173"/>
-      <c r="G21" s="173"/>
-      <c r="H21" s="175"/>
+      <c r="F21" s="171"/>
+      <c r="G21" s="171"/>
+      <c r="H21" s="173"/>
     </row>
     <row r="22">
-      <c r="A22" s="172"/>
-      <c r="B22" s="177" t="s">
+      <c r="A22" s="170"/>
+      <c r="B22" s="175" t="s">
         <v>581</v>
       </c>
-      <c r="C22" s="177" t="s">
+      <c r="C22" s="175" t="s">
         <v>582</v>
       </c>
-      <c r="D22" s="173"/>
-      <c r="E22" s="177" t="s">
+      <c r="D22" s="171"/>
+      <c r="E22" s="175" t="s">
         <v>583</v>
       </c>
-      <c r="F22" s="173"/>
-      <c r="G22" s="173"/>
-      <c r="H22" s="178"/>
+      <c r="F22" s="171"/>
+      <c r="G22" s="171"/>
+      <c r="H22" s="176"/>
     </row>
     <row r="23">
-      <c r="A23" s="172"/>
-      <c r="B23" s="172"/>
-      <c r="C23" s="177" t="s">
+      <c r="A23" s="170"/>
+      <c r="B23" s="170"/>
+      <c r="C23" s="175" t="s">
         <v>584</v>
       </c>
-      <c r="D23" s="173"/>
-      <c r="E23" s="172"/>
-      <c r="F23" s="173"/>
-      <c r="G23" s="173"/>
-      <c r="H23" s="178"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="171"/>
+      <c r="G23" s="171"/>
+      <c r="H23" s="176"/>
     </row>
     <row r="24">
-      <c r="A24" s="172"/>
-      <c r="B24" s="172"/>
-      <c r="C24" s="177" t="s">
+      <c r="A24" s="170"/>
+      <c r="B24" s="170"/>
+      <c r="C24" s="175" t="s">
         <v>585</v>
       </c>
-      <c r="D24" s="173"/>
-      <c r="E24" s="173"/>
-      <c r="F24" s="173"/>
-      <c r="G24" s="173"/>
-      <c r="H24" s="178"/>
+      <c r="D24" s="171"/>
+      <c r="E24" s="171"/>
+      <c r="F24" s="171"/>
+      <c r="G24" s="171"/>
+      <c r="H24" s="176"/>
     </row>
     <row r="25">
-      <c r="A25" s="172"/>
-      <c r="B25" s="172"/>
-      <c r="C25" s="177" t="s">
+      <c r="A25" s="170"/>
+      <c r="B25" s="170"/>
+      <c r="C25" s="175" t="s">
         <v>586</v>
       </c>
-      <c r="D25" s="173"/>
-      <c r="E25" s="173"/>
-      <c r="F25" s="173"/>
-      <c r="G25" s="173"/>
-      <c r="H25" s="178"/>
+      <c r="D25" s="171"/>
+      <c r="E25" s="171"/>
+      <c r="F25" s="171"/>
+      <c r="G25" s="171"/>
+      <c r="H25" s="176"/>
     </row>
     <row r="26">
-      <c r="A26" s="172"/>
-      <c r="B26" s="172" t="s">
+      <c r="A26" s="170"/>
+      <c r="B26" s="170" t="s">
         <v>587</v>
       </c>
-      <c r="C26" s="173"/>
-      <c r="D26" s="173"/>
-      <c r="E26" s="172" t="s">
+      <c r="C26" s="171"/>
+      <c r="D26" s="171"/>
+      <c r="E26" s="170" t="s">
         <v>588</v>
       </c>
-      <c r="F26" s="173"/>
-      <c r="G26" s="172" t="s">
+      <c r="F26" s="171"/>
+      <c r="G26" s="170" t="s">
         <v>570</v>
       </c>
-      <c r="H26" s="172" t="s">
+      <c r="H26" s="170" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="172"/>
-      <c r="B27" s="174" t="s">
+      <c r="A27" s="170"/>
+      <c r="B27" s="172" t="s">
         <v>589</v>
       </c>
-      <c r="C27" s="173"/>
-      <c r="D27" s="173"/>
-      <c r="E27" s="173"/>
-      <c r="F27" s="173"/>
-      <c r="G27" s="176" t="s">
+      <c r="C27" s="171"/>
+      <c r="D27" s="171"/>
+      <c r="E27" s="171"/>
+      <c r="F27" s="171"/>
+      <c r="G27" s="174" t="s">
         <v>570</v>
       </c>
-      <c r="H27" s="175"/>
+      <c r="H27" s="173"/>
     </row>
     <row r="28">
-      <c r="A28" s="172"/>
-      <c r="B28" s="177" t="s">
+      <c r="A28" s="170"/>
+      <c r="B28" s="175" t="s">
         <v>590</v>
       </c>
-      <c r="C28" s="173"/>
-      <c r="D28" s="172" t="s">
+      <c r="C28" s="171"/>
+      <c r="D28" s="170" t="s">
         <v>591</v>
       </c>
-      <c r="E28" s="173"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="180"/>
-      <c r="H28" s="178"/>
+      <c r="E28" s="171"/>
+      <c r="F28" s="171"/>
+      <c r="G28" s="178"/>
+      <c r="H28" s="176"/>
     </row>
     <row r="29">
-      <c r="A29" s="172"/>
-      <c r="B29" s="172"/>
-      <c r="C29" s="172"/>
-      <c r="D29" s="172"/>
-      <c r="E29" s="173"/>
-      <c r="F29" s="173"/>
-      <c r="G29" s="180"/>
-      <c r="H29" s="178"/>
+      <c r="A29" s="170"/>
+      <c r="B29" s="170"/>
+      <c r="C29" s="170"/>
+      <c r="D29" s="170"/>
+      <c r="E29" s="171"/>
+      <c r="F29" s="171"/>
+      <c r="G29" s="178"/>
+      <c r="H29" s="176"/>
     </row>
     <row r="30">
-      <c r="A30" s="172" t="s">
+      <c r="A30" s="170" t="s">
         <v>592</v>
       </c>
-      <c r="B30" s="172"/>
-      <c r="C30" s="173"/>
-      <c r="D30" s="173"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="173"/>
-      <c r="G30" s="173"/>
-      <c r="H30" s="178"/>
+      <c r="B30" s="170"/>
+      <c r="C30" s="171"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
+      <c r="G30" s="171"/>
+      <c r="H30" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5348,105 +5296,105 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="181" t="str">
+      <c r="A2" s="179" t="str">
         <f>HYPERLINK("http://www.isg.rhul.ac.uk/tls/Lucky13.html","Lucky 13")</f>
         <v>Lucky 13</v>
       </c>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
     </row>
     <row r="3">
-      <c r="A3" s="183" t="str">
+      <c r="A3" s="181" t="str">
         <f>HYPERLINK("https://nerdoholic.org/uploads/dergln/beast_part2/ssl_jun21.pdf","BEAST")</f>
         <v>BEAST</v>
       </c>
-      <c r="B3" s="182"/>
+      <c r="B3" s="180"/>
     </row>
     <row r="4">
-      <c r="A4" s="181" t="str">
+      <c r="A4" s="179" t="str">
         <f>HYPERLINK("https://sweet32.info/","Sweet32")</f>
         <v>Sweet32</v>
       </c>
-      <c r="D4" s="182"/>
+      <c r="D4" s="180"/>
     </row>
     <row r="5">
-      <c r="A5" s="184" t="s">
+      <c r="A5" s="182" t="s">
         <v>593</v>
       </c>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
+      <c r="B5" s="180"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="180"/>
     </row>
     <row r="6">
-      <c r="A6" s="181" t="str">
+      <c r="A6" s="179" t="str">
         <f>HYPERLINK("http://breachattack.com/","BREACH")</f>
         <v>BREACH</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="181" t="str">
+      <c r="A7" s="179" t="str">
         <f>HYPERLINK("https://security.googleblog.com/2014/10/this-poodle-bites-exploiting-ssl-30.html","POODLE")</f>
         <v>POODLE</v>
       </c>
-      <c r="B7" s="182"/>
-      <c r="D7" s="182"/>
+      <c r="B7" s="180"/>
+      <c r="D7" s="180"/>
     </row>
     <row r="8">
-      <c r="A8" s="181" t="str">
+      <c r="A8" s="179" t="str">
         <f>HYPERLINK("https://mitls.org/pages/attacks/3SHAKE","3SHAKE")</f>
         <v>3SHAKE</v>
       </c>
-      <c r="B8" s="182"/>
-      <c r="C8" s="182"/>
-      <c r="D8" s="182"/>
+      <c r="B8" s="180"/>
+      <c r="C8" s="180"/>
+      <c r="D8" s="180"/>
     </row>
     <row r="9">
-      <c r="A9" s="181" t="str">
+      <c r="A9" s="179" t="str">
         <f>HYPERLINK("https://drownattack.com/","DROWN")</f>
         <v>DROWN</v>
       </c>
-      <c r="D9" s="182"/>
+      <c r="D9" s="180"/>
     </row>
     <row r="10">
-      <c r="A10" s="181" t="str">
+      <c r="A10" s="179" t="str">
         <f>HYPERLINK("https://robotattack.org/","ROBOT ")</f>
         <v>ROBOT </v>
       </c>
-      <c r="B10" s="182"/>
-      <c r="D10" s="182"/>
+      <c r="B10" s="180"/>
+      <c r="D10" s="180"/>
     </row>
     <row r="11">
-      <c r="A11" s="181" t="str">
+      <c r="A11" s="179" t="str">
         <f>HYPERLINK("https://www.kb.cert.org/vuls/id/120541/","Renegotiation attack")</f>
         <v>Renegotiation attack</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="185" t="s">
+      <c r="A12" s="183" t="s">
         <v>594</v>
       </c>
-      <c r="D12" s="182"/>
+      <c r="D12" s="180"/>
     </row>
     <row r="13">
-      <c r="A13" s="185" t="s">
+      <c r="A13" s="183" t="s">
         <v>595</v>
       </c>
-      <c r="B13" s="182"/>
-      <c r="C13" s="182"/>
-      <c r="D13" s="182"/>
+      <c r="B13" s="180"/>
+      <c r="C13" s="180"/>
+      <c r="D13" s="180"/>
     </row>
     <row r="14">
-      <c r="A14" s="185" t="s">
+      <c r="A14" s="183" t="s">
         <v>596</v>
       </c>
-      <c r="D14" s="182"/>
+      <c r="D14" s="180"/>
     </row>
     <row r="15">
-      <c r="A15" s="185" t="s">
+      <c r="A15" s="183" t="s">
         <v>597</v>
       </c>
-      <c r="B15" s="182"/>
+      <c r="B15" s="180"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/DatabaseFiller/guidelines.xlsx
+++ b/DatabaseFiller/guidelines.xlsx
@@ -1046,7 +1046,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="605">
   <si>
     <t>NIST</t>
   </si>
@@ -2587,13 +2587,13 @@
     <t>X.509 version</t>
   </si>
   <si>
-    <t>VALUE Certificate X.509 version == 2</t>
+    <t>VALUE Certificate 2 == X.509 version and NOTE_FALSE In order for the certificate to be compliant it has to use X.509 version 2</t>
   </si>
   <si>
     <t>Issuer Distinguished Name</t>
   </si>
   <si>
-    <t>VALUE Certificate , not in [Issuer Distinguished Name][CN,O,OU,L,S]</t>
+    <t>VALUE Certificate , not in [Issuer Distinguished Name][CN,O,OU,L,S] and NOTE_FALSE The fields CN, O, OU, L, S of the Issuer Distinguished Name field should contain a single value [no "," character allowed]</t>
   </si>
   <si>
     <t>NOTE_TRUE the check failed in certificate {cert} for reason {reason}, remember that BSI guidelines prohibit the usage of * in this field and VALUE Certificate * in [Issuer Distinguished Name][CN]</t>
@@ -2602,7 +2602,10 @@
     <t>validity</t>
   </si>
   <si>
-    <t>YEARS &lt;= 3</t>
+    <t>YEARS &lt;= 3 and NOTE_FALSE In order for the certificate to be compliant it should have a validity of 3 years or less</t>
+  </si>
+  <si>
+    <t>YEARS &lt;= 3 and NOTE_FALSE In order for the certificate to be compliant it must have a validity of 3 years or less</t>
   </si>
   <si>
     <t>Subject Distinguished Name</t>
@@ -2635,7 +2638,7 @@
     <t>yes</t>
   </si>
   <si>
-    <t>CertificateExtensions digitalSignature OR CertificateExtensions keyAgreement</t>
+    <t>(VALUE CertificateExtensions Digital Signature in keyUsage OR VALUE CertificateExtensions Key Agreement in keyUsage) and NOTE_FALSE Invalid keyUsage, allowed key usages are digital signature if using RSA certificate and key agreement if using ECDH or DH certificate</t>
   </si>
   <si>
     <t>extendedKeyUsage</t>
@@ -4373,7 +4376,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="142" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B1" s="143" t="s">
         <v>0</v>
@@ -4397,14 +4400,14 @@
       <c r="A2" s="144"/>
       <c r="B2" s="11"/>
       <c r="C2" s="145" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D2" s="147" t="s">
         <v>511</v>
       </c>
       <c r="E2" s="146"/>
       <c r="F2" s="145" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G2" s="145" t="s">
         <v>511</v>
@@ -4417,14 +4420,14 @@
     </row>
     <row r="3">
       <c r="A3" s="145" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="152"/>
       <c r="D3" s="153" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>15</v>
@@ -4441,14 +4444,14 @@
     </row>
     <row r="4">
       <c r="A4" s="145" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="154"/>
       <c r="D4" s="153" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>15</v>
@@ -4463,22 +4466,22 @@
     </row>
     <row r="5">
       <c r="A5" s="145" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="145" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D5" s="153" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="145" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G5" s="144"/>
       <c r="H5" s="11" t="s">
@@ -4491,14 +4494,14 @@
     </row>
     <row r="6">
       <c r="A6" s="145" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="154"/>
       <c r="D6" s="157" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>18</v>
@@ -4515,14 +4518,14 @@
     </row>
     <row r="7">
       <c r="A7" s="145" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="154"/>
       <c r="D7" s="153" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>15</v>
@@ -4537,7 +4540,7 @@
     </row>
     <row r="8">
       <c r="A8" s="145" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>23</v>
@@ -4559,21 +4562,21 @@
     </row>
     <row r="9">
       <c r="A9" s="145" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="152"/>
       <c r="D9" s="159" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="154"/>
       <c r="G9" s="151" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>21</v>
@@ -4585,27 +4588,27 @@
     </row>
     <row r="10">
       <c r="A10" s="145" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="152"/>
       <c r="D10" s="160" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="154"/>
       <c r="G10" s="145" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="161" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>15</v>
@@ -4613,14 +4616,14 @@
     </row>
     <row r="11">
       <c r="A11" s="145" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="154"/>
       <c r="D11" s="160" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E11" s="162"/>
       <c r="F11" s="154"/>
@@ -4633,27 +4636,27 @@
     </row>
     <row r="12">
       <c r="A12" s="145" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="154"/>
       <c r="D12" s="153" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="154"/>
       <c r="G12" s="145" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>21</v>
       </c>
       <c r="I12" s="161" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>15</v>
@@ -4661,14 +4664,14 @@
     </row>
     <row r="13">
       <c r="A13" s="145" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="154"/>
       <c r="D13" s="153" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E13" s="164"/>
       <c r="F13" s="154"/>
@@ -4681,7 +4684,7 @@
     </row>
     <row r="14">
       <c r="A14" s="145" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>23</v>
@@ -4701,7 +4704,7 @@
     </row>
     <row r="15">
       <c r="A15" s="145" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>23</v>
@@ -4787,12 +4790,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B2" s="120"/>
       <c r="C2" s="120"/>
@@ -4800,7 +4803,7 @@
     </row>
     <row r="3">
       <c r="A3" s="145" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>13</v>
@@ -4815,7 +4818,7 @@
     </row>
     <row r="4">
       <c r="A4" s="145" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="165"/>
@@ -4905,7 +4908,7 @@
       </c>
       <c r="G1" s="172"/>
       <c r="H1" s="172" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="2">
@@ -4930,21 +4933,21 @@
     </row>
     <row r="4">
       <c r="A4" s="172" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B4" s="174" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C4" s="173"/>
       <c r="D4" s="174" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E4" s="173"/>
       <c r="F4" s="174" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G4" s="174" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H4" s="175"/>
     </row>
@@ -4961,20 +4964,20 @@
     <row r="6">
       <c r="A6" s="172"/>
       <c r="B6" s="176" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C6" s="174" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D6" s="174" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E6" s="173"/>
       <c r="F6" s="176" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G6" s="174" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H6" s="175"/>
     </row>
@@ -4983,7 +4986,7 @@
       <c r="B7" s="172"/>
       <c r="C7" s="172"/>
       <c r="D7" s="174" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E7" s="173"/>
       <c r="F7" s="173"/>
@@ -4994,13 +4997,13 @@
       <c r="A8" s="172"/>
       <c r="B8" s="172"/>
       <c r="C8" s="172" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D8" s="173"/>
       <c r="E8" s="173"/>
       <c r="F8" s="173"/>
       <c r="G8" s="172" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H8" s="172" t="s">
         <v>420</v>
@@ -5010,7 +5013,7 @@
       <c r="A9" s="172"/>
       <c r="B9" s="172"/>
       <c r="C9" s="177" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D9" s="173"/>
       <c r="E9" s="173"/>
@@ -5021,18 +5024,18 @@
     <row r="10">
       <c r="A10" s="172"/>
       <c r="B10" s="174" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C10" s="174" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D10" s="173"/>
       <c r="E10" s="174" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F10" s="173"/>
       <c r="G10" s="174" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H10" s="175"/>
     </row>
@@ -5042,7 +5045,7 @@
       <c r="C11" s="172"/>
       <c r="D11" s="173"/>
       <c r="E11" s="174" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F11" s="173"/>
       <c r="G11" s="172"/>
@@ -5054,7 +5057,7 @@
       <c r="C12" s="172"/>
       <c r="D12" s="173"/>
       <c r="E12" s="174" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F12" s="173"/>
       <c r="G12" s="172"/>
@@ -5065,7 +5068,7 @@
       <c r="B13" s="172"/>
       <c r="C13" s="172"/>
       <c r="D13" s="174" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E13" s="172"/>
       <c r="F13" s="173"/>
@@ -5076,11 +5079,11 @@
       <c r="A14" s="172"/>
       <c r="B14" s="172"/>
       <c r="C14" s="174" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D14" s="173"/>
       <c r="E14" s="174" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F14" s="173"/>
       <c r="G14" s="173"/>
@@ -5092,7 +5095,7 @@
       <c r="C15" s="172"/>
       <c r="D15" s="173"/>
       <c r="E15" s="174" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F15" s="173"/>
       <c r="G15" s="173"/>
@@ -5102,31 +5105,31 @@
       <c r="A16" s="172"/>
       <c r="B16" s="172"/>
       <c r="C16" s="176" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D16" s="173"/>
       <c r="E16" s="172"/>
       <c r="F16" s="173"/>
       <c r="G16" s="176" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H16" s="179"/>
     </row>
     <row r="17">
       <c r="A17" s="172"/>
       <c r="B17" s="174" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C17" s="174" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D17" s="173"/>
       <c r="E17" s="174" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F17" s="173"/>
       <c r="G17" s="174" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H17" s="175"/>
     </row>
@@ -5136,7 +5139,7 @@
       <c r="C18" s="172"/>
       <c r="D18" s="173"/>
       <c r="E18" s="174" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F18" s="173"/>
       <c r="G18" s="172"/>
@@ -5148,7 +5151,7 @@
       <c r="C19" s="172"/>
       <c r="D19" s="173"/>
       <c r="E19" s="174" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F19" s="173"/>
       <c r="G19" s="173"/>
@@ -5158,11 +5161,11 @@
       <c r="A20" s="172"/>
       <c r="B20" s="172"/>
       <c r="C20" s="174" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D20" s="173"/>
       <c r="E20" s="174" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F20" s="172"/>
       <c r="G20" s="172"/>
@@ -5172,11 +5175,11 @@
       <c r="A21" s="172"/>
       <c r="B21" s="172"/>
       <c r="C21" s="174" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D21" s="173"/>
       <c r="E21" s="174" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F21" s="173"/>
       <c r="G21" s="173"/>
@@ -5185,14 +5188,14 @@
     <row r="22">
       <c r="A22" s="172"/>
       <c r="B22" s="177" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C22" s="177" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D22" s="173"/>
       <c r="E22" s="177" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F22" s="173"/>
       <c r="G22" s="173"/>
@@ -5202,7 +5205,7 @@
       <c r="A23" s="172"/>
       <c r="B23" s="172"/>
       <c r="C23" s="177" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D23" s="173"/>
       <c r="E23" s="172"/>
@@ -5214,7 +5217,7 @@
       <c r="A24" s="172"/>
       <c r="B24" s="172"/>
       <c r="C24" s="177" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D24" s="173"/>
       <c r="E24" s="173"/>
@@ -5226,7 +5229,7 @@
       <c r="A25" s="172"/>
       <c r="B25" s="172"/>
       <c r="C25" s="177" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D25" s="173"/>
       <c r="E25" s="173"/>
@@ -5237,16 +5240,16 @@
     <row r="26">
       <c r="A26" s="172"/>
       <c r="B26" s="172" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C26" s="173"/>
       <c r="D26" s="173"/>
       <c r="E26" s="172" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F26" s="173"/>
       <c r="G26" s="172" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H26" s="172" t="s">
         <v>420</v>
@@ -5255,25 +5258,25 @@
     <row r="27">
       <c r="A27" s="172"/>
       <c r="B27" s="174" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C27" s="173"/>
       <c r="D27" s="173"/>
       <c r="E27" s="173"/>
       <c r="F27" s="173"/>
       <c r="G27" s="176" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H27" s="175"/>
     </row>
     <row r="28">
       <c r="A28" s="172"/>
       <c r="B28" s="177" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C28" s="173"/>
       <c r="D28" s="172" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E28" s="173"/>
       <c r="F28" s="173"/>
@@ -5292,7 +5295,7 @@
     </row>
     <row r="30">
       <c r="A30" s="172" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B30" s="172"/>
       <c r="C30" s="173"/>
@@ -5357,7 +5360,7 @@
     </row>
     <row r="5">
       <c r="A5" s="184" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B5" s="182"/>
       <c r="C5" s="182"/>
@@ -5409,13 +5412,13 @@
     </row>
     <row r="12">
       <c r="A12" s="185" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D12" s="182"/>
     </row>
     <row r="13">
       <c r="A13" s="185" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B13" s="182"/>
       <c r="C13" s="182"/>
@@ -5423,13 +5426,13 @@
     </row>
     <row r="14">
       <c r="A14" s="185" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D14" s="182"/>
     </row>
     <row r="15">
       <c r="A15" s="185" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B15" s="182"/>
     </row>
@@ -28739,7 +28742,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="151" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>15</v>
@@ -28751,7 +28754,7 @@
     </row>
     <row r="6">
       <c r="A6" s="145" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>18</v>
@@ -28763,7 +28766,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="151" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>15</v>

--- a/DatabaseFiller/guidelines.xlsx
+++ b/DatabaseFiller/guidelines.xlsx
@@ -1046,7 +1046,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="606">
   <si>
     <t>NIST</t>
   </si>
@@ -2593,7 +2593,7 @@
     <t>Issuer Distinguished Name</t>
   </si>
   <si>
-    <t>VALUE Certificate , not in [Issuer Distinguished Name][CN,O,OU,L,S] and NOTE_FALSE The fields CN, O, OU, L, S of the Issuer Distinguished Name field should contain a single value [no "," character allowed]</t>
+    <t>CHECK_DN Issuer Distinguished Name - der</t>
   </si>
   <si>
     <t>NOTE_TRUE the check failed in certificate {cert} for reason {reason}, remember that BSI guidelines prohibit the usage of * in this field and VALUE Certificate * in [Issuer Distinguished Name][CN]</t>
@@ -2611,6 +2611,9 @@
     <t>Subject Distinguished Name</t>
   </si>
   <si>
+    <t>CHECK_DN Subject Distinguished Name - der</t>
+  </si>
+  <si>
     <t>NOTE_TRUE the check failed in certificate {cert} for reason {reason}, remember that BSI guidelines prohibit the usage of * in this field and VALUE Certificate * in [Subject Distinguished Name][CN]</t>
   </si>
   <si>
@@ -2665,13 +2668,13 @@
     <t>authorityInfoAccess</t>
   </si>
   <si>
-    <t>VALUE CertificateExtensions OCSP - URI in subjectAltName</t>
+    <t>VALUE CertificateExtensions OCSP - URI in authorityInfoAccess and NOTE_FALSE the authorityInfoAccess extension must have a field CA Issuers containing HTTP URL for certificates issued to issuing CA</t>
   </si>
   <si>
     <t>THIS or CertificateExtensions CRL Distribution Points</t>
   </si>
   <si>
-    <t>VALUE CertificateExtensions CA ISSUERS - URI in subjectAltName</t>
+    <t>VALUE CertificateExtensions CA ISSUERS - URI in authorityInfoAccess and NOTE_FALSE the authorityInfoAccess extension must have the Online Certificate Status Protocol and it must contain HTTP URL for the issuing CA OCSP responder</t>
   </si>
   <si>
     <t>crlDistributionPoints</t>
@@ -4376,7 +4379,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="142" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B1" s="143" t="s">
         <v>0</v>
@@ -4400,14 +4403,14 @@
       <c r="A2" s="144"/>
       <c r="B2" s="11"/>
       <c r="C2" s="145" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D2" s="147" t="s">
         <v>511</v>
       </c>
       <c r="E2" s="146"/>
       <c r="F2" s="145" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G2" s="145" t="s">
         <v>511</v>
@@ -4420,14 +4423,14 @@
     </row>
     <row r="3">
       <c r="A3" s="145" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="152"/>
       <c r="D3" s="153" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>15</v>
@@ -4444,14 +4447,14 @@
     </row>
     <row r="4">
       <c r="A4" s="145" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="154"/>
       <c r="D4" s="153" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>15</v>
@@ -4466,22 +4469,22 @@
     </row>
     <row r="5">
       <c r="A5" s="145" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="145" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D5" s="153" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="145" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G5" s="144"/>
       <c r="H5" s="11" t="s">
@@ -4494,14 +4497,14 @@
     </row>
     <row r="6">
       <c r="A6" s="145" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="154"/>
       <c r="D6" s="157" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>18</v>
@@ -4518,14 +4521,14 @@
     </row>
     <row r="7">
       <c r="A7" s="145" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="154"/>
       <c r="D7" s="153" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>15</v>
@@ -4540,7 +4543,7 @@
     </row>
     <row r="8">
       <c r="A8" s="145" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>23</v>
@@ -4562,21 +4565,21 @@
     </row>
     <row r="9">
       <c r="A9" s="145" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="152"/>
       <c r="D9" s="159" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="154"/>
       <c r="G9" s="151" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>21</v>
@@ -4588,27 +4591,27 @@
     </row>
     <row r="10">
       <c r="A10" s="145" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="152"/>
       <c r="D10" s="160" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="154"/>
       <c r="G10" s="145" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="161" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>15</v>
@@ -4616,14 +4619,14 @@
     </row>
     <row r="11">
       <c r="A11" s="145" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="154"/>
       <c r="D11" s="160" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E11" s="162"/>
       <c r="F11" s="154"/>
@@ -4636,27 +4639,27 @@
     </row>
     <row r="12">
       <c r="A12" s="145" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="154"/>
       <c r="D12" s="153" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="154"/>
       <c r="G12" s="145" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>21</v>
       </c>
       <c r="I12" s="161" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>15</v>
@@ -4664,14 +4667,14 @@
     </row>
     <row r="13">
       <c r="A13" s="145" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="154"/>
       <c r="D13" s="153" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E13" s="164"/>
       <c r="F13" s="154"/>
@@ -4684,7 +4687,7 @@
     </row>
     <row r="14">
       <c r="A14" s="145" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>23</v>
@@ -4704,7 +4707,7 @@
     </row>
     <row r="15">
       <c r="A15" s="145" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>23</v>
@@ -4790,12 +4793,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B2" s="120"/>
       <c r="C2" s="120"/>
@@ -4803,7 +4806,7 @@
     </row>
     <row r="3">
       <c r="A3" s="145" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>13</v>
@@ -4818,7 +4821,7 @@
     </row>
     <row r="4">
       <c r="A4" s="145" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="165"/>
@@ -4908,7 +4911,7 @@
       </c>
       <c r="G1" s="172"/>
       <c r="H1" s="172" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="2">
@@ -4933,21 +4936,21 @@
     </row>
     <row r="4">
       <c r="A4" s="172" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B4" s="174" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C4" s="173"/>
       <c r="D4" s="174" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E4" s="173"/>
       <c r="F4" s="174" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G4" s="174" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H4" s="175"/>
     </row>
@@ -4964,20 +4967,20 @@
     <row r="6">
       <c r="A6" s="172"/>
       <c r="B6" s="176" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C6" s="174" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D6" s="174" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E6" s="173"/>
       <c r="F6" s="176" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G6" s="174" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H6" s="175"/>
     </row>
@@ -4986,7 +4989,7 @@
       <c r="B7" s="172"/>
       <c r="C7" s="172"/>
       <c r="D7" s="174" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E7" s="173"/>
       <c r="F7" s="173"/>
@@ -4997,13 +5000,13 @@
       <c r="A8" s="172"/>
       <c r="B8" s="172"/>
       <c r="C8" s="172" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D8" s="173"/>
       <c r="E8" s="173"/>
       <c r="F8" s="173"/>
       <c r="G8" s="172" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H8" s="172" t="s">
         <v>420</v>
@@ -5013,7 +5016,7 @@
       <c r="A9" s="172"/>
       <c r="B9" s="172"/>
       <c r="C9" s="177" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D9" s="173"/>
       <c r="E9" s="173"/>
@@ -5024,18 +5027,18 @@
     <row r="10">
       <c r="A10" s="172"/>
       <c r="B10" s="174" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C10" s="174" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D10" s="173"/>
       <c r="E10" s="174" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F10" s="173"/>
       <c r="G10" s="174" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H10" s="175"/>
     </row>
@@ -5045,7 +5048,7 @@
       <c r="C11" s="172"/>
       <c r="D11" s="173"/>
       <c r="E11" s="174" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F11" s="173"/>
       <c r="G11" s="172"/>
@@ -5057,7 +5060,7 @@
       <c r="C12" s="172"/>
       <c r="D12" s="173"/>
       <c r="E12" s="174" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F12" s="173"/>
       <c r="G12" s="172"/>
@@ -5068,7 +5071,7 @@
       <c r="B13" s="172"/>
       <c r="C13" s="172"/>
       <c r="D13" s="174" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E13" s="172"/>
       <c r="F13" s="173"/>
@@ -5079,11 +5082,11 @@
       <c r="A14" s="172"/>
       <c r="B14" s="172"/>
       <c r="C14" s="174" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D14" s="173"/>
       <c r="E14" s="174" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F14" s="173"/>
       <c r="G14" s="173"/>
@@ -5095,7 +5098,7 @@
       <c r="C15" s="172"/>
       <c r="D15" s="173"/>
       <c r="E15" s="174" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F15" s="173"/>
       <c r="G15" s="173"/>
@@ -5105,31 +5108,31 @@
       <c r="A16" s="172"/>
       <c r="B16" s="172"/>
       <c r="C16" s="176" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D16" s="173"/>
       <c r="E16" s="172"/>
       <c r="F16" s="173"/>
       <c r="G16" s="176" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H16" s="179"/>
     </row>
     <row r="17">
       <c r="A17" s="172"/>
       <c r="B17" s="174" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C17" s="174" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D17" s="173"/>
       <c r="E17" s="174" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F17" s="173"/>
       <c r="G17" s="174" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H17" s="175"/>
     </row>
@@ -5139,7 +5142,7 @@
       <c r="C18" s="172"/>
       <c r="D18" s="173"/>
       <c r="E18" s="174" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F18" s="173"/>
       <c r="G18" s="172"/>
@@ -5151,7 +5154,7 @@
       <c r="C19" s="172"/>
       <c r="D19" s="173"/>
       <c r="E19" s="174" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F19" s="173"/>
       <c r="G19" s="173"/>
@@ -5161,11 +5164,11 @@
       <c r="A20" s="172"/>
       <c r="B20" s="172"/>
       <c r="C20" s="174" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D20" s="173"/>
       <c r="E20" s="174" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F20" s="172"/>
       <c r="G20" s="172"/>
@@ -5175,11 +5178,11 @@
       <c r="A21" s="172"/>
       <c r="B21" s="172"/>
       <c r="C21" s="174" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D21" s="173"/>
       <c r="E21" s="174" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F21" s="173"/>
       <c r="G21" s="173"/>
@@ -5188,14 +5191,14 @@
     <row r="22">
       <c r="A22" s="172"/>
       <c r="B22" s="177" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C22" s="177" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D22" s="173"/>
       <c r="E22" s="177" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F22" s="173"/>
       <c r="G22" s="173"/>
@@ -5205,7 +5208,7 @@
       <c r="A23" s="172"/>
       <c r="B23" s="172"/>
       <c r="C23" s="177" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D23" s="173"/>
       <c r="E23" s="172"/>
@@ -5217,7 +5220,7 @@
       <c r="A24" s="172"/>
       <c r="B24" s="172"/>
       <c r="C24" s="177" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D24" s="173"/>
       <c r="E24" s="173"/>
@@ -5229,7 +5232,7 @@
       <c r="A25" s="172"/>
       <c r="B25" s="172"/>
       <c r="C25" s="177" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D25" s="173"/>
       <c r="E25" s="173"/>
@@ -5240,16 +5243,16 @@
     <row r="26">
       <c r="A26" s="172"/>
       <c r="B26" s="172" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C26" s="173"/>
       <c r="D26" s="173"/>
       <c r="E26" s="172" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F26" s="173"/>
       <c r="G26" s="172" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H26" s="172" t="s">
         <v>420</v>
@@ -5258,25 +5261,25 @@
     <row r="27">
       <c r="A27" s="172"/>
       <c r="B27" s="174" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C27" s="173"/>
       <c r="D27" s="173"/>
       <c r="E27" s="173"/>
       <c r="F27" s="173"/>
       <c r="G27" s="176" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H27" s="175"/>
     </row>
     <row r="28">
       <c r="A28" s="172"/>
       <c r="B28" s="177" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C28" s="173"/>
       <c r="D28" s="172" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E28" s="173"/>
       <c r="F28" s="173"/>
@@ -5295,7 +5298,7 @@
     </row>
     <row r="30">
       <c r="A30" s="172" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B30" s="172"/>
       <c r="C30" s="173"/>
@@ -5360,7 +5363,7 @@
     </row>
     <row r="5">
       <c r="A5" s="184" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B5" s="182"/>
       <c r="C5" s="182"/>
@@ -5412,13 +5415,13 @@
     </row>
     <row r="12">
       <c r="A12" s="185" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D12" s="182"/>
     </row>
     <row r="13">
       <c r="A13" s="185" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B13" s="182"/>
       <c r="C13" s="182"/>
@@ -5426,13 +5429,13 @@
     </row>
     <row r="14">
       <c r="A14" s="185" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D14" s="182"/>
     </row>
     <row r="15">
       <c r="A15" s="185" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B15" s="182"/>
     </row>
@@ -28760,13 +28763,13 @@
         <v>18</v>
       </c>
       <c r="C6" s="151" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="151" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>15</v>

--- a/DatabaseFiller/guidelines.xlsx
+++ b/DatabaseFiller/guidelines.xlsx
@@ -1023,7 +1023,10 @@
     </comment>
     <comment authorId="0" ref="C4">
       <text>
-        <t xml:space="preserve">A single value should be encoded in each Relative Distinguished Name (RDN) (the single values that compose the DN). All attributes that are of DirectoryString type should be encoded as a PrintableString.</t>
+        <t xml:space="preserve">A single value should be encoded in each Relative Distinguished Name (RDN) (the single values that compose the DN). All attributes that are of DirectoryString type should be encoded as a PrintableString.
+----
+ho aggiunto un controllo molto specifico su questa cosa perché richiesto dal NIST e indovina un po' manco loro lo rispettano
+	-Riccardo Germenia</t>
       </text>
     </comment>
     <comment authorId="0" ref="E4">
@@ -3150,7 +3153,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="187">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3490,6 +3493,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -4378,20 +4384,20 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="143" t="s">
         <v>523</v>
       </c>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="144" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="110"/>
       <c r="D1" s="110"/>
-      <c r="E1" s="143" t="s">
+      <c r="E1" s="144" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="110"/>
       <c r="G1" s="110"/>
-      <c r="H1" s="143" t="s">
+      <c r="H1" s="144" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="110"/>
@@ -4400,217 +4406,217 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="144"/>
+      <c r="A2" s="145"/>
       <c r="B2" s="11"/>
-      <c r="C2" s="145" t="s">
+      <c r="C2" s="146" t="s">
         <v>524</v>
       </c>
-      <c r="D2" s="147" t="s">
+      <c r="D2" s="148" t="s">
         <v>511</v>
       </c>
-      <c r="E2" s="146"/>
-      <c r="F2" s="145" t="s">
+      <c r="E2" s="147"/>
+      <c r="F2" s="146" t="s">
         <v>524</v>
       </c>
-      <c r="G2" s="145" t="s">
+      <c r="G2" s="146" t="s">
         <v>511</v>
       </c>
       <c r="H2" s="10"/>
-      <c r="I2" s="147" t="s">
+      <c r="I2" s="148" t="s">
         <v>511</v>
       </c>
-      <c r="J2" s="148"/>
+      <c r="J2" s="149"/>
     </row>
     <row r="3">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="146" t="s">
         <v>525</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="153" t="s">
+      <c r="C3" s="153"/>
+      <c r="D3" s="154" t="s">
         <v>526</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="154"/>
-      <c r="G3" s="144"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="145"/>
       <c r="H3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="128"/>
+      <c r="I3" s="129"/>
       <c r="J3" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="145" t="s">
+      <c r="A4" s="146" t="s">
         <v>527</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="154"/>
-      <c r="D4" s="153" t="s">
+      <c r="C4" s="155"/>
+      <c r="D4" s="154" t="s">
         <v>528</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="154"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="156"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="156"/>
+      <c r="I4" s="157"/>
       <c r="J4" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="146" t="s">
         <v>529</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="145" t="s">
+      <c r="C5" s="146" t="s">
         <v>530</v>
       </c>
-      <c r="D5" s="153" t="s">
+      <c r="D5" s="154" t="s">
         <v>531</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="145" t="s">
+      <c r="F5" s="146" t="s">
         <v>530</v>
       </c>
-      <c r="G5" s="144"/>
+      <c r="G5" s="145"/>
       <c r="H5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="128"/>
+      <c r="I5" s="129"/>
       <c r="J5" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="145" t="s">
+      <c r="A6" s="146" t="s">
         <v>532</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="154"/>
-      <c r="D6" s="157" t="s">
+      <c r="C6" s="155"/>
+      <c r="D6" s="158" t="s">
         <v>533</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="154"/>
-      <c r="G6" s="144"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="145"/>
       <c r="H6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="128"/>
+      <c r="I6" s="129"/>
       <c r="J6" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="145" t="s">
+      <c r="A7" s="146" t="s">
         <v>532</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="154"/>
-      <c r="D7" s="153" t="s">
+      <c r="C7" s="155"/>
+      <c r="D7" s="154" t="s">
         <v>534</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="154"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="156"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="156"/>
+      <c r="I7" s="157"/>
       <c r="J7" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="145" t="s">
+      <c r="A8" s="146" t="s">
         <v>535</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="152"/>
-      <c r="D8" s="158"/>
+      <c r="C8" s="153"/>
+      <c r="D8" s="159"/>
       <c r="E8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="154"/>
-      <c r="G8" s="144"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="145"/>
       <c r="H8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="128"/>
+      <c r="I8" s="129"/>
       <c r="J8" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="145" t="s">
+      <c r="A9" s="146" t="s">
         <v>536</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="152"/>
-      <c r="D9" s="159" t="s">
+      <c r="C9" s="153"/>
+      <c r="D9" s="160" t="s">
         <v>537</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="154"/>
-      <c r="G9" s="151" t="s">
+      <c r="F9" s="155"/>
+      <c r="G9" s="152" t="s">
         <v>538</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="128"/>
+      <c r="I9" s="129"/>
       <c r="J9" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="145" t="s">
+      <c r="A10" s="146" t="s">
         <v>539</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="152"/>
-      <c r="D10" s="160" t="s">
+      <c r="C10" s="153"/>
+      <c r="D10" s="161" t="s">
         <v>540</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="154"/>
-      <c r="G10" s="145" t="s">
+      <c r="F10" s="155"/>
+      <c r="G10" s="146" t="s">
         <v>541</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="161" t="s">
+      <c r="I10" s="162" t="s">
         <v>541</v>
       </c>
       <c r="J10" s="12" t="s">
@@ -4618,47 +4624,47 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="145" t="s">
+      <c r="A11" s="146" t="s">
         <v>539</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="154"/>
-      <c r="D11" s="160" t="s">
+      <c r="C11" s="155"/>
+      <c r="D11" s="161" t="s">
         <v>542</v>
       </c>
-      <c r="E11" s="162"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="155"/>
-      <c r="I11" s="163"/>
+      <c r="E11" s="163"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="164"/>
       <c r="J11" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="145" t="s">
+      <c r="A12" s="146" t="s">
         <v>543</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="154"/>
-      <c r="D12" s="153" t="s">
+      <c r="C12" s="155"/>
+      <c r="D12" s="154" t="s">
         <v>544</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="154"/>
-      <c r="G12" s="145" t="s">
+      <c r="F12" s="155"/>
+      <c r="G12" s="146" t="s">
         <v>545</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="161" t="s">
+      <c r="I12" s="162" t="s">
         <v>545</v>
       </c>
       <c r="J12" s="12" t="s">
@@ -4666,61 +4672,61 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="145" t="s">
+      <c r="A13" s="146" t="s">
         <v>543</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="154"/>
-      <c r="D13" s="153" t="s">
+      <c r="C13" s="155"/>
+      <c r="D13" s="154" t="s">
         <v>546</v>
       </c>
-      <c r="E13" s="164"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="165"/>
-      <c r="I13" s="166"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="166"/>
+      <c r="I13" s="167"/>
       <c r="J13" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="145" t="s">
+      <c r="A14" s="146" t="s">
         <v>547</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="154"/>
-      <c r="D14" s="167"/>
-      <c r="E14" s="164"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="154"/>
+      <c r="C14" s="155"/>
+      <c r="D14" s="168"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="155"/>
+      <c r="G14" s="155"/>
       <c r="H14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="149"/>
+      <c r="I14" s="150"/>
       <c r="J14" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="145" t="s">
+      <c r="A15" s="146" t="s">
         <v>548</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="154"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="168"/>
-      <c r="F15" s="152"/>
-      <c r="G15" s="152"/>
+      <c r="C15" s="155"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="153"/>
       <c r="H15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="149"/>
+      <c r="I15" s="150"/>
       <c r="J15" s="12" t="s">
         <v>15</v>
       </c>
@@ -4782,14 +4788,14 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="169"/>
+      <c r="A1" s="170"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="170" t="s">
+      <c r="D1" s="171" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -4800,33 +4806,33 @@
       <c r="A2" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
       <c r="D2" s="113"/>
     </row>
     <row r="3">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="146" t="s">
         <v>551</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="171" t="s">
+      <c r="C3" s="172" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="10"/>
-      <c r="E3" s="171" t="s">
+      <c r="E3" s="172" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="145" t="s">
+      <c r="A4" s="146" t="s">
         <v>552</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="165"/>
+      <c r="C4" s="166"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="171" t="s">
+      <c r="E4" s="172" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4899,414 +4905,414 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="172" t="s">
+      <c r="D1" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172" t="s">
+      <c r="E1" s="173"/>
+      <c r="F1" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172" t="s">
+      <c r="G1" s="173"/>
+      <c r="H1" s="173" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="172"/>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
+      <c r="A2" s="173"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
     </row>
     <row r="3">
-      <c r="A3" s="172"/>
-      <c r="B3" s="172"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
+      <c r="A3" s="173"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
     </row>
     <row r="4">
-      <c r="A4" s="172" t="s">
+      <c r="A4" s="173" t="s">
         <v>554</v>
       </c>
-      <c r="B4" s="174" t="s">
+      <c r="B4" s="175" t="s">
         <v>555</v>
       </c>
-      <c r="C4" s="173"/>
-      <c r="D4" s="174" t="s">
+      <c r="C4" s="174"/>
+      <c r="D4" s="175" t="s">
         <v>556</v>
       </c>
-      <c r="E4" s="173"/>
-      <c r="F4" s="174" t="s">
+      <c r="E4" s="174"/>
+      <c r="F4" s="175" t="s">
         <v>557</v>
       </c>
-      <c r="G4" s="174" t="s">
+      <c r="G4" s="175" t="s">
         <v>558</v>
       </c>
-      <c r="H4" s="175"/>
+      <c r="H4" s="176"/>
     </row>
     <row r="5">
-      <c r="A5" s="172"/>
-      <c r="B5" s="172"/>
-      <c r="C5" s="173"/>
-      <c r="D5" s="173"/>
-      <c r="E5" s="173"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
-      <c r="H5" s="175"/>
+      <c r="A5" s="173"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="173"/>
+      <c r="G5" s="173"/>
+      <c r="H5" s="176"/>
     </row>
     <row r="6">
-      <c r="A6" s="172"/>
-      <c r="B6" s="176" t="s">
+      <c r="A6" s="173"/>
+      <c r="B6" s="177" t="s">
         <v>559</v>
       </c>
-      <c r="C6" s="174" t="s">
+      <c r="C6" s="175" t="s">
         <v>560</v>
       </c>
-      <c r="D6" s="174" t="s">
+      <c r="D6" s="175" t="s">
         <v>561</v>
       </c>
-      <c r="E6" s="173"/>
-      <c r="F6" s="176" t="s">
+      <c r="E6" s="174"/>
+      <c r="F6" s="177" t="s">
         <v>562</v>
       </c>
-      <c r="G6" s="174" t="s">
+      <c r="G6" s="175" t="s">
         <v>563</v>
       </c>
-      <c r="H6" s="175"/>
+      <c r="H6" s="176"/>
     </row>
     <row r="7">
-      <c r="A7" s="172"/>
-      <c r="B7" s="172"/>
-      <c r="C7" s="172"/>
-      <c r="D7" s="174" t="s">
+      <c r="A7" s="173"/>
+      <c r="B7" s="173"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="175" t="s">
         <v>564</v>
       </c>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="172"/>
-      <c r="H7" s="172"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="173"/>
+      <c r="H7" s="173"/>
     </row>
     <row r="8">
-      <c r="A8" s="172"/>
-      <c r="B8" s="172"/>
-      <c r="C8" s="172" t="s">
+      <c r="A8" s="173"/>
+      <c r="B8" s="173"/>
+      <c r="C8" s="173" t="s">
         <v>565</v>
       </c>
-      <c r="D8" s="173"/>
-      <c r="E8" s="173"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="172" t="s">
+      <c r="D8" s="174"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="174"/>
+      <c r="G8" s="173" t="s">
         <v>566</v>
       </c>
-      <c r="H8" s="172" t="s">
+      <c r="H8" s="173" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="172"/>
-      <c r="B9" s="172"/>
-      <c r="C9" s="177" t="s">
+      <c r="A9" s="173"/>
+      <c r="B9" s="173"/>
+      <c r="C9" s="178" t="s">
         <v>567</v>
       </c>
-      <c r="D9" s="173"/>
-      <c r="E9" s="173"/>
-      <c r="F9" s="173"/>
-      <c r="G9" s="173"/>
-      <c r="H9" s="178"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="174"/>
+      <c r="G9" s="174"/>
+      <c r="H9" s="179"/>
     </row>
     <row r="10">
-      <c r="A10" s="172"/>
-      <c r="B10" s="174" t="s">
+      <c r="A10" s="173"/>
+      <c r="B10" s="175" t="s">
         <v>568</v>
       </c>
-      <c r="C10" s="174" t="s">
+      <c r="C10" s="175" t="s">
         <v>569</v>
       </c>
-      <c r="D10" s="173"/>
-      <c r="E10" s="174" t="s">
+      <c r="D10" s="174"/>
+      <c r="E10" s="175" t="s">
         <v>570</v>
       </c>
-      <c r="F10" s="173"/>
-      <c r="G10" s="174" t="s">
+      <c r="F10" s="174"/>
+      <c r="G10" s="175" t="s">
         <v>571</v>
       </c>
-      <c r="H10" s="175"/>
+      <c r="H10" s="176"/>
     </row>
     <row r="11">
-      <c r="A11" s="172"/>
-      <c r="B11" s="172"/>
-      <c r="C11" s="172"/>
-      <c r="D11" s="173"/>
-      <c r="E11" s="174" t="s">
+      <c r="A11" s="173"/>
+      <c r="B11" s="173"/>
+      <c r="C11" s="173"/>
+      <c r="D11" s="174"/>
+      <c r="E11" s="175" t="s">
         <v>572</v>
       </c>
-      <c r="F11" s="173"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="175"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="173"/>
+      <c r="H11" s="176"/>
     </row>
     <row r="12">
-      <c r="A12" s="172"/>
-      <c r="B12" s="172"/>
-      <c r="C12" s="172"/>
-      <c r="D12" s="173"/>
-      <c r="E12" s="174" t="s">
+      <c r="A12" s="173"/>
+      <c r="B12" s="173"/>
+      <c r="C12" s="173"/>
+      <c r="D12" s="174"/>
+      <c r="E12" s="175" t="s">
         <v>573</v>
       </c>
-      <c r="F12" s="173"/>
-      <c r="G12" s="172"/>
-      <c r="H12" s="175"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="173"/>
+      <c r="H12" s="176"/>
     </row>
     <row r="13">
-      <c r="A13" s="172"/>
-      <c r="B13" s="172"/>
-      <c r="C13" s="172"/>
-      <c r="D13" s="174" t="s">
+      <c r="A13" s="173"/>
+      <c r="B13" s="173"/>
+      <c r="C13" s="173"/>
+      <c r="D13" s="175" t="s">
         <v>564</v>
       </c>
-      <c r="E13" s="172"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="175"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="176"/>
     </row>
     <row r="14">
-      <c r="A14" s="172"/>
-      <c r="B14" s="172"/>
-      <c r="C14" s="174" t="s">
+      <c r="A14" s="173"/>
+      <c r="B14" s="173"/>
+      <c r="C14" s="175" t="s">
         <v>574</v>
       </c>
-      <c r="D14" s="173"/>
-      <c r="E14" s="174" t="s">
+      <c r="D14" s="174"/>
+      <c r="E14" s="175" t="s">
         <v>575</v>
       </c>
-      <c r="F14" s="173"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="175"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="174"/>
+      <c r="H14" s="176"/>
     </row>
     <row r="15">
-      <c r="A15" s="172"/>
-      <c r="B15" s="172"/>
-      <c r="C15" s="172"/>
-      <c r="D15" s="173"/>
-      <c r="E15" s="174" t="s">
+      <c r="A15" s="173"/>
+      <c r="B15" s="173"/>
+      <c r="C15" s="173"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="175" t="s">
         <v>576</v>
       </c>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="175"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="176"/>
     </row>
     <row r="16">
-      <c r="A16" s="172"/>
-      <c r="B16" s="172"/>
-      <c r="C16" s="176" t="s">
+      <c r="A16" s="173"/>
+      <c r="B16" s="173"/>
+      <c r="C16" s="177" t="s">
         <v>577</v>
       </c>
-      <c r="D16" s="173"/>
-      <c r="E16" s="172"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="176" t="s">
+      <c r="D16" s="174"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="177" t="s">
         <v>578</v>
       </c>
-      <c r="H16" s="179"/>
+      <c r="H16" s="180"/>
     </row>
     <row r="17">
-      <c r="A17" s="172"/>
-      <c r="B17" s="174" t="s">
+      <c r="A17" s="173"/>
+      <c r="B17" s="175" t="s">
         <v>579</v>
       </c>
-      <c r="C17" s="174" t="s">
+      <c r="C17" s="175" t="s">
         <v>580</v>
       </c>
-      <c r="D17" s="173"/>
-      <c r="E17" s="174" t="s">
+      <c r="D17" s="174"/>
+      <c r="E17" s="175" t="s">
         <v>581</v>
       </c>
-      <c r="F17" s="173"/>
-      <c r="G17" s="174" t="s">
+      <c r="F17" s="174"/>
+      <c r="G17" s="175" t="s">
         <v>582</v>
       </c>
-      <c r="H17" s="175"/>
+      <c r="H17" s="176"/>
     </row>
     <row r="18">
-      <c r="A18" s="172"/>
-      <c r="B18" s="172"/>
-      <c r="C18" s="172"/>
-      <c r="D18" s="173"/>
-      <c r="E18" s="174" t="s">
+      <c r="A18" s="173"/>
+      <c r="B18" s="173"/>
+      <c r="C18" s="173"/>
+      <c r="D18" s="174"/>
+      <c r="E18" s="175" t="s">
         <v>583</v>
       </c>
-      <c r="F18" s="173"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="175"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="173"/>
+      <c r="H18" s="176"/>
     </row>
     <row r="19">
-      <c r="A19" s="172"/>
-      <c r="B19" s="172"/>
-      <c r="C19" s="172"/>
-      <c r="D19" s="173"/>
-      <c r="E19" s="174" t="s">
+      <c r="A19" s="173"/>
+      <c r="B19" s="173"/>
+      <c r="C19" s="173"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="175" t="s">
         <v>584</v>
       </c>
-      <c r="F19" s="173"/>
-      <c r="G19" s="173"/>
-      <c r="H19" s="175"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="176"/>
     </row>
     <row r="20">
-      <c r="A20" s="172"/>
-      <c r="B20" s="172"/>
-      <c r="C20" s="174" t="s">
+      <c r="A20" s="173"/>
+      <c r="B20" s="173"/>
+      <c r="C20" s="175" t="s">
         <v>585</v>
       </c>
-      <c r="D20" s="173"/>
-      <c r="E20" s="174" t="s">
+      <c r="D20" s="174"/>
+      <c r="E20" s="175" t="s">
         <v>586</v>
       </c>
-      <c r="F20" s="172"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="175"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="173"/>
+      <c r="H20" s="176"/>
     </row>
     <row r="21">
-      <c r="A21" s="172"/>
-      <c r="B21" s="172"/>
-      <c r="C21" s="174" t="s">
+      <c r="A21" s="173"/>
+      <c r="B21" s="173"/>
+      <c r="C21" s="175" t="s">
         <v>587</v>
       </c>
-      <c r="D21" s="173"/>
-      <c r="E21" s="174" t="s">
+      <c r="D21" s="174"/>
+      <c r="E21" s="175" t="s">
         <v>588</v>
       </c>
-      <c r="F21" s="173"/>
-      <c r="G21" s="173"/>
-      <c r="H21" s="175"/>
+      <c r="F21" s="174"/>
+      <c r="G21" s="174"/>
+      <c r="H21" s="176"/>
     </row>
     <row r="22">
-      <c r="A22" s="172"/>
-      <c r="B22" s="177" t="s">
+      <c r="A22" s="173"/>
+      <c r="B22" s="178" t="s">
         <v>589</v>
       </c>
-      <c r="C22" s="177" t="s">
+      <c r="C22" s="178" t="s">
         <v>590</v>
       </c>
-      <c r="D22" s="173"/>
-      <c r="E22" s="177" t="s">
+      <c r="D22" s="174"/>
+      <c r="E22" s="178" t="s">
         <v>591</v>
       </c>
-      <c r="F22" s="173"/>
-      <c r="G22" s="173"/>
-      <c r="H22" s="178"/>
+      <c r="F22" s="174"/>
+      <c r="G22" s="174"/>
+      <c r="H22" s="179"/>
     </row>
     <row r="23">
-      <c r="A23" s="172"/>
-      <c r="B23" s="172"/>
-      <c r="C23" s="177" t="s">
+      <c r="A23" s="173"/>
+      <c r="B23" s="173"/>
+      <c r="C23" s="178" t="s">
         <v>592</v>
       </c>
-      <c r="D23" s="173"/>
-      <c r="E23" s="172"/>
-      <c r="F23" s="173"/>
-      <c r="G23" s="173"/>
-      <c r="H23" s="178"/>
+      <c r="D23" s="174"/>
+      <c r="E23" s="173"/>
+      <c r="F23" s="174"/>
+      <c r="G23" s="174"/>
+      <c r="H23" s="179"/>
     </row>
     <row r="24">
-      <c r="A24" s="172"/>
-      <c r="B24" s="172"/>
-      <c r="C24" s="177" t="s">
+      <c r="A24" s="173"/>
+      <c r="B24" s="173"/>
+      <c r="C24" s="178" t="s">
         <v>593</v>
       </c>
-      <c r="D24" s="173"/>
-      <c r="E24" s="173"/>
-      <c r="F24" s="173"/>
-      <c r="G24" s="173"/>
-      <c r="H24" s="178"/>
+      <c r="D24" s="174"/>
+      <c r="E24" s="174"/>
+      <c r="F24" s="174"/>
+      <c r="G24" s="174"/>
+      <c r="H24" s="179"/>
     </row>
     <row r="25">
-      <c r="A25" s="172"/>
-      <c r="B25" s="172"/>
-      <c r="C25" s="177" t="s">
+      <c r="A25" s="173"/>
+      <c r="B25" s="173"/>
+      <c r="C25" s="178" t="s">
         <v>594</v>
       </c>
-      <c r="D25" s="173"/>
-      <c r="E25" s="173"/>
-      <c r="F25" s="173"/>
-      <c r="G25" s="173"/>
-      <c r="H25" s="178"/>
+      <c r="D25" s="174"/>
+      <c r="E25" s="174"/>
+      <c r="F25" s="174"/>
+      <c r="G25" s="174"/>
+      <c r="H25" s="179"/>
     </row>
     <row r="26">
-      <c r="A26" s="172"/>
-      <c r="B26" s="172" t="s">
+      <c r="A26" s="173"/>
+      <c r="B26" s="173" t="s">
         <v>595</v>
       </c>
-      <c r="C26" s="173"/>
-      <c r="D26" s="173"/>
-      <c r="E26" s="172" t="s">
+      <c r="C26" s="174"/>
+      <c r="D26" s="174"/>
+      <c r="E26" s="173" t="s">
         <v>596</v>
       </c>
-      <c r="F26" s="173"/>
-      <c r="G26" s="172" t="s">
+      <c r="F26" s="174"/>
+      <c r="G26" s="173" t="s">
         <v>578</v>
       </c>
-      <c r="H26" s="172" t="s">
+      <c r="H26" s="173" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="172"/>
-      <c r="B27" s="174" t="s">
+      <c r="A27" s="173"/>
+      <c r="B27" s="175" t="s">
         <v>597</v>
       </c>
-      <c r="C27" s="173"/>
-      <c r="D27" s="173"/>
-      <c r="E27" s="173"/>
-      <c r="F27" s="173"/>
-      <c r="G27" s="176" t="s">
+      <c r="C27" s="174"/>
+      <c r="D27" s="174"/>
+      <c r="E27" s="174"/>
+      <c r="F27" s="174"/>
+      <c r="G27" s="177" t="s">
         <v>578</v>
       </c>
-      <c r="H27" s="175"/>
+      <c r="H27" s="176"/>
     </row>
     <row r="28">
-      <c r="A28" s="172"/>
-      <c r="B28" s="177" t="s">
+      <c r="A28" s="173"/>
+      <c r="B28" s="178" t="s">
         <v>598</v>
       </c>
-      <c r="C28" s="173"/>
-      <c r="D28" s="172" t="s">
+      <c r="C28" s="174"/>
+      <c r="D28" s="173" t="s">
         <v>599</v>
       </c>
-      <c r="E28" s="173"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="180"/>
-      <c r="H28" s="178"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="174"/>
+      <c r="G28" s="181"/>
+      <c r="H28" s="179"/>
     </row>
     <row r="29">
-      <c r="A29" s="172"/>
-      <c r="B29" s="172"/>
-      <c r="C29" s="172"/>
-      <c r="D29" s="172"/>
-      <c r="E29" s="173"/>
-      <c r="F29" s="173"/>
-      <c r="G29" s="180"/>
-      <c r="H29" s="178"/>
+      <c r="A29" s="173"/>
+      <c r="B29" s="173"/>
+      <c r="C29" s="173"/>
+      <c r="D29" s="173"/>
+      <c r="E29" s="174"/>
+      <c r="F29" s="174"/>
+      <c r="G29" s="181"/>
+      <c r="H29" s="179"/>
     </row>
     <row r="30">
-      <c r="A30" s="172" t="s">
+      <c r="A30" s="173" t="s">
         <v>600</v>
       </c>
-      <c r="B30" s="172"/>
-      <c r="C30" s="173"/>
-      <c r="D30" s="173"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="173"/>
-      <c r="G30" s="173"/>
-      <c r="H30" s="178"/>
+      <c r="B30" s="173"/>
+      <c r="C30" s="174"/>
+      <c r="D30" s="174"/>
+      <c r="E30" s="174"/>
+      <c r="F30" s="174"/>
+      <c r="G30" s="174"/>
+      <c r="H30" s="179"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5339,105 +5345,105 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="181" t="str">
+      <c r="A2" s="182" t="str">
         <f>HYPERLINK("http://www.isg.rhul.ac.uk/tls/Lucky13.html","Lucky 13")</f>
         <v>Lucky 13</v>
       </c>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
     </row>
     <row r="3">
-      <c r="A3" s="183" t="str">
+      <c r="A3" s="184" t="str">
         <f>HYPERLINK("https://nerdoholic.org/uploads/dergln/beast_part2/ssl_jun21.pdf","BEAST")</f>
         <v>BEAST</v>
       </c>
-      <c r="B3" s="182"/>
+      <c r="B3" s="183"/>
     </row>
     <row r="4">
-      <c r="A4" s="181" t="str">
+      <c r="A4" s="182" t="str">
         <f>HYPERLINK("https://sweet32.info/","Sweet32")</f>
         <v>Sweet32</v>
       </c>
-      <c r="D4" s="182"/>
+      <c r="D4" s="183"/>
     </row>
     <row r="5">
-      <c r="A5" s="184" t="s">
+      <c r="A5" s="185" t="s">
         <v>601</v>
       </c>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
+      <c r="B5" s="183"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
     </row>
     <row r="6">
-      <c r="A6" s="181" t="str">
+      <c r="A6" s="182" t="str">
         <f>HYPERLINK("http://breachattack.com/","BREACH")</f>
         <v>BREACH</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="181" t="str">
+      <c r="A7" s="182" t="str">
         <f>HYPERLINK("https://security.googleblog.com/2014/10/this-poodle-bites-exploiting-ssl-30.html","POODLE")</f>
         <v>POODLE</v>
       </c>
-      <c r="B7" s="182"/>
-      <c r="D7" s="182"/>
+      <c r="B7" s="183"/>
+      <c r="D7" s="183"/>
     </row>
     <row r="8">
-      <c r="A8" s="181" t="str">
+      <c r="A8" s="182" t="str">
         <f>HYPERLINK("https://mitls.org/pages/attacks/3SHAKE","3SHAKE")</f>
         <v>3SHAKE</v>
       </c>
-      <c r="B8" s="182"/>
-      <c r="C8" s="182"/>
-      <c r="D8" s="182"/>
+      <c r="B8" s="183"/>
+      <c r="C8" s="183"/>
+      <c r="D8" s="183"/>
     </row>
     <row r="9">
-      <c r="A9" s="181" t="str">
+      <c r="A9" s="182" t="str">
         <f>HYPERLINK("https://drownattack.com/","DROWN")</f>
         <v>DROWN</v>
       </c>
-      <c r="D9" s="182"/>
+      <c r="D9" s="183"/>
     </row>
     <row r="10">
-      <c r="A10" s="181" t="str">
+      <c r="A10" s="182" t="str">
         <f>HYPERLINK("https://robotattack.org/","ROBOT ")</f>
         <v>ROBOT </v>
       </c>
-      <c r="B10" s="182"/>
-      <c r="D10" s="182"/>
+      <c r="B10" s="183"/>
+      <c r="D10" s="183"/>
     </row>
     <row r="11">
-      <c r="A11" s="181" t="str">
+      <c r="A11" s="182" t="str">
         <f>HYPERLINK("https://www.kb.cert.org/vuls/id/120541/","Renegotiation attack")</f>
         <v>Renegotiation attack</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="185" t="s">
+      <c r="A12" s="186" t="s">
         <v>602</v>
       </c>
-      <c r="D12" s="182"/>
+      <c r="D12" s="183"/>
     </row>
     <row r="13">
-      <c r="A13" s="185" t="s">
+      <c r="A13" s="186" t="s">
         <v>603</v>
       </c>
-      <c r="B13" s="182"/>
-      <c r="C13" s="182"/>
-      <c r="D13" s="182"/>
+      <c r="B13" s="183"/>
+      <c r="C13" s="183"/>
+      <c r="D13" s="183"/>
     </row>
     <row r="14">
-      <c r="A14" s="185" t="s">
+      <c r="A14" s="186" t="s">
         <v>604</v>
       </c>
-      <c r="D14" s="182"/>
+      <c r="D14" s="183"/>
     </row>
     <row r="15">
-      <c r="A15" s="185" t="s">
+      <c r="A15" s="186" t="s">
         <v>605</v>
       </c>
-      <c r="B15" s="182"/>
+      <c r="B15" s="183"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -27539,15 +27545,15 @@
       <c r="B2" s="110"/>
       <c r="C2" s="110"/>
       <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
+      <c r="E2" s="121"/>
       <c r="F2" s="113"/>
-      <c r="G2" s="121" t="s">
+      <c r="G2" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="121" t="s">
+      <c r="I2" s="122" t="s">
         <v>11</v>
       </c>
     </row>
@@ -27567,16 +27573,16 @@
       <c r="E3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="122" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="123" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="123" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="123" t="s">
+      <c r="F3" s="123" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="124" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="124" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="124" t="s">
         <v>15</v>
       </c>
     </row>
@@ -27596,16 +27602,16 @@
       <c r="E4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="122" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="123" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="123" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="123" t="s">
+      <c r="F4" s="123" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="124" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="124" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="124" t="s">
         <v>15</v>
       </c>
     </row>
@@ -27625,16 +27631,16 @@
       <c r="E5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="122" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="123" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="123" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="123" t="s">
+      <c r="F5" s="123" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="124" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="124" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="124" t="s">
         <v>15</v>
       </c>
     </row>
@@ -27654,16 +27660,16 @@
       <c r="E6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="122" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="123" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="123" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="123" t="s">
+      <c r="F6" s="123" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="124" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="124" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="124" t="s">
         <v>15</v>
       </c>
     </row>
@@ -27683,16 +27689,16 @@
       <c r="E7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="122" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="123" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="123" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="123" t="s">
+      <c r="F7" s="123" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="124" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="124" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="124" t="s">
         <v>15</v>
       </c>
     </row>
@@ -27712,16 +27718,16 @@
       <c r="E8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="122" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="123" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="123" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="123" t="s">
+      <c r="F8" s="123" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="124" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="124" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="124" t="s">
         <v>15</v>
       </c>
     </row>
@@ -27741,25 +27747,24 @@
       <c r="E9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="122" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="123" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="123" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="123" t="s">
+      <c r="F9" s="123" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="124" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="124" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="124" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:I1"/>
@@ -27823,7 +27828,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="23.25" customHeight="1">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="125" t="s">
         <v>485</v>
       </c>
       <c r="B1" s="86" t="s">
@@ -27850,22 +27855,22 @@
       <c r="A2" s="110"/>
       <c r="B2" s="110"/>
       <c r="C2" s="110"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="126" t="s">
+      <c r="D2" s="126"/>
+      <c r="E2" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="125"/>
-      <c r="G2" s="127" t="s">
+      <c r="F2" s="126"/>
+      <c r="G2" s="128" t="s">
         <v>35</v>
       </c>
       <c r="H2" s="110"/>
-      <c r="I2" s="121" t="s">
+      <c r="I2" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="121" t="s">
+      <c r="J2" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="121" t="s">
+      <c r="K2" s="122" t="s">
         <v>11</v>
       </c>
     </row>
@@ -27886,7 +27891,7 @@
       <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="128"/>
+      <c r="G3" s="129"/>
       <c r="H3" s="7" t="s">
         <v>13</v>
       </c>
@@ -27919,7 +27924,7 @@
       <c r="F4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="128" t="s">
+      <c r="G4" s="129" t="s">
         <v>489</v>
       </c>
       <c r="H4" s="7" t="s">
@@ -27954,7 +27959,7 @@
       <c r="F5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="128" t="s">
+      <c r="G5" s="129" t="s">
         <v>492</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -27989,7 +27994,7 @@
       <c r="F6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="128" t="s">
+      <c r="G6" s="129" t="s">
         <v>495</v>
       </c>
       <c r="H6" s="7" t="s">
@@ -28065,69 +28070,69 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="130" t="s">
         <v>496</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="130" t="s">
         <v>497</v>
       </c>
       <c r="C1" s="87" t="s">
         <v>498</v>
       </c>
-      <c r="D1" s="130" t="s">
+      <c r="D1" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="131"/>
-      <c r="F1" s="132" t="s">
+      <c r="E1" s="132"/>
+      <c r="F1" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="131"/>
-      <c r="H1" s="132" t="s">
+      <c r="G1" s="132"/>
+      <c r="H1" s="133" t="s">
         <v>499</v>
       </c>
-      <c r="I1" s="131"/>
-      <c r="J1" s="132" t="s">
+      <c r="I1" s="132"/>
+      <c r="J1" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="133"/>
-      <c r="L1" s="134" t="s">
+      <c r="K1" s="134"/>
+      <c r="L1" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
     </row>
     <row r="2">
       <c r="A2" s="110"/>
       <c r="B2" s="110"/>
       <c r="C2" s="110"/>
       <c r="D2" s="113"/>
-      <c r="E2" s="131" t="s">
+      <c r="E2" s="132" t="s">
         <v>500</v>
       </c>
       <c r="F2" s="113"/>
-      <c r="G2" s="131" t="s">
+      <c r="G2" s="132" t="s">
         <v>500</v>
       </c>
       <c r="H2" s="113"/>
-      <c r="I2" s="131" t="s">
+      <c r="I2" s="132" t="s">
         <v>500</v>
       </c>
       <c r="J2" s="113"/>
-      <c r="K2" s="131" t="s">
+      <c r="K2" s="132" t="s">
         <v>500</v>
       </c>
-      <c r="L2" s="136" t="s">
+      <c r="L2" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="136" t="s">
+      <c r="M2" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="136" t="s">
+      <c r="N2" s="137" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="138" t="s">
         <v>501</v>
       </c>
       <c r="B3" s="100" t="s">
@@ -28139,17 +28144,17 @@
       <c r="D3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="138" t="s">
+      <c r="E3" s="139" t="s">
         <v>502</v>
       </c>
-      <c r="F3" s="139" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="140"/>
-      <c r="H3" s="141" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="140"/>
+      <c r="F3" s="140" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="141"/>
+      <c r="H3" s="142" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="141"/>
       <c r="J3" s="23" t="s">
         <v>15</v>
       </c>
@@ -28171,19 +28176,19 @@
       <c r="D4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="138" t="s">
+      <c r="E4" s="139" t="s">
         <v>503</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="140" t="s">
+      <c r="G4" s="141" t="s">
         <v>504</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="140" t="s">
+      <c r="I4" s="141" t="s">
         <v>504</v>
       </c>
       <c r="J4" s="11" t="s">
@@ -28209,29 +28214,29 @@
       <c r="C5" s="25">
         <v>-1.0</v>
       </c>
-      <c r="D5" s="139" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="138"/>
-      <c r="F5" s="139" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="140"/>
-      <c r="H5" s="139" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="140"/>
-      <c r="J5" s="139" t="s">
+      <c r="D5" s="140" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="139"/>
+      <c r="F5" s="140" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="141"/>
+      <c r="H5" s="140" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="141"/>
+      <c r="J5" s="140" t="s">
         <v>15</v>
       </c>
       <c r="K5" s="83"/>
-      <c r="L5" s="139" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="139" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="139" t="s">
+      <c r="L5" s="140" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="140" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="140" t="s">
         <v>15</v>
       </c>
     </row>
@@ -28245,17 +28250,17 @@
       <c r="D6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="E6" s="139" t="s">
         <v>502</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="140"/>
+      <c r="G6" s="141"/>
       <c r="H6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="140"/>
+      <c r="I6" s="141"/>
       <c r="J6" s="23" t="s">
         <v>15</v>
       </c>
@@ -28277,19 +28282,19 @@
       <c r="D7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="138" t="s">
+      <c r="E7" s="139" t="s">
         <v>503</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="140" t="s">
+      <c r="G7" s="141" t="s">
         <v>504</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="140" t="s">
+      <c r="I7" s="141" t="s">
         <v>504</v>
       </c>
       <c r="J7" s="23" t="s">
@@ -28316,19 +28321,19 @@
       <c r="D8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="138" t="s">
+      <c r="E8" s="139" t="s">
         <v>502</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="140" t="s">
+      <c r="G8" s="141" t="s">
         <v>442</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="140"/>
+      <c r="I8" s="141"/>
       <c r="J8" s="11" t="s">
         <v>18</v>
       </c>
@@ -28352,19 +28357,19 @@
       <c r="D9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="138" t="s">
+      <c r="E9" s="139" t="s">
         <v>503</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="140" t="s">
+      <c r="G9" s="141" t="s">
         <v>504</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="140" t="s">
+      <c r="I9" s="141" t="s">
         <v>504</v>
       </c>
       <c r="J9" s="23" t="s">
@@ -28385,18 +28390,18 @@
       <c r="C10" s="25">
         <v>1024.0</v>
       </c>
-      <c r="D10" s="139" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="140"/>
-      <c r="F10" s="139" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="140"/>
-      <c r="H10" s="141" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="140"/>
+      <c r="D10" s="140" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="141"/>
+      <c r="F10" s="140" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="141"/>
+      <c r="H10" s="142" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="141"/>
       <c r="J10" s="23" t="s">
         <v>15</v>
       </c>
@@ -28412,7 +28417,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="137" t="s">
+      <c r="A11" s="138" t="s">
         <v>506</v>
       </c>
       <c r="B11" s="100" t="s">
@@ -28421,18 +28426,18 @@
       <c r="C11" s="25">
         <v>224.0</v>
       </c>
-      <c r="D11" s="139" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="140"/>
-      <c r="F11" s="139" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="140"/>
-      <c r="H11" s="141" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="140"/>
+      <c r="D11" s="140" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="141"/>
+      <c r="F11" s="140" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="141"/>
+      <c r="H11" s="142" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="141"/>
       <c r="J11" s="23" t="s">
         <v>15</v>
       </c>
@@ -28451,20 +28456,20 @@
       <c r="C12" s="25">
         <v>256.0</v>
       </c>
-      <c r="D12" s="139" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="140"/>
+      <c r="D12" s="140" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="141"/>
       <c r="F12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="140" t="s">
+      <c r="G12" s="141" t="s">
         <v>504</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="140" t="s">
+      <c r="I12" s="141" t="s">
         <v>504</v>
       </c>
       <c r="J12" s="23" t="s">
@@ -28488,26 +28493,26 @@
       <c r="C13" s="25">
         <v>1024.0</v>
       </c>
-      <c r="D13" s="139" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="140"/>
-      <c r="F13" s="139" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="140"/>
-      <c r="H13" s="139" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="140"/>
-      <c r="J13" s="139" t="s">
+      <c r="D13" s="140" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="141"/>
+      <c r="F13" s="140" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="141"/>
+      <c r="H13" s="140" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="141"/>
+      <c r="J13" s="140" t="s">
         <v>15</v>
       </c>
       <c r="K13" s="23"/>
-      <c r="L13" s="139" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="139" t="s">
+      <c r="L13" s="140" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="140" t="s">
         <v>15</v>
       </c>
       <c r="N13" s="7" t="s">
@@ -28518,18 +28523,18 @@
       <c r="C14" s="25">
         <v>2048.0</v>
       </c>
-      <c r="D14" s="139" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="140"/>
+      <c r="D14" s="140" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="141"/>
       <c r="F14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="140"/>
+      <c r="G14" s="141"/>
       <c r="H14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="140"/>
+      <c r="I14" s="141"/>
       <c r="J14" s="23" t="s">
         <v>15</v>
       </c>
@@ -28548,20 +28553,20 @@
       <c r="C15" s="25">
         <v>3076.0</v>
       </c>
-      <c r="D15" s="139" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="140"/>
+      <c r="D15" s="140" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="141"/>
       <c r="F15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="140" t="s">
+      <c r="G15" s="141" t="s">
         <v>504</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="140" t="s">
+      <c r="I15" s="141" t="s">
         <v>504</v>
       </c>
       <c r="J15" s="23" t="s">
@@ -28650,18 +28655,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="143" t="s">
         <v>509</v>
       </c>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="144" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="110"/>
-      <c r="D1" s="143" t="s">
+      <c r="D1" s="144" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="110"/>
-      <c r="F1" s="143" t="s">
+      <c r="F1" s="144" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="110"/>
@@ -28670,111 +28675,111 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="144"/>
+      <c r="A2" s="145"/>
       <c r="B2" s="11"/>
-      <c r="C2" s="145" t="s">
+      <c r="C2" s="146" t="s">
         <v>511</v>
       </c>
-      <c r="D2" s="146"/>
-      <c r="E2" s="145" t="s">
+      <c r="D2" s="147"/>
+      <c r="E2" s="146" t="s">
         <v>511</v>
       </c>
       <c r="F2" s="10"/>
-      <c r="G2" s="147" t="s">
+      <c r="G2" s="148" t="s">
         <v>511</v>
       </c>
-      <c r="H2" s="148"/>
+      <c r="H2" s="149"/>
     </row>
     <row r="3">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="146" t="s">
         <v>512</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="145" t="s">
+      <c r="C3" s="146" t="s">
         <v>513</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="144"/>
+      <c r="E3" s="145"/>
       <c r="F3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="149"/>
+      <c r="G3" s="150"/>
       <c r="H3" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="151" t="s">
         <v>514</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="151" t="s">
+      <c r="C4" s="152" t="s">
         <v>515</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="151" t="s">
+      <c r="E4" s="152" t="s">
         <v>516</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="149"/>
+      <c r="G4" s="150"/>
       <c r="H4" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="146" t="s">
         <v>517</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="151" t="s">
+      <c r="C5" s="152" t="s">
         <v>518</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="151" t="s">
+      <c r="E5" s="152" t="s">
         <v>519</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="149"/>
+      <c r="G5" s="150"/>
       <c r="H5" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="145" t="s">
+      <c r="A6" s="146" t="s">
         <v>520</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="151" t="s">
+      <c r="C6" s="152" t="s">
         <v>521</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="151" t="s">
+      <c r="E6" s="152" t="s">
         <v>522</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="149"/>
+      <c r="G6" s="150"/>
       <c r="H6" s="12" t="s">
         <v>15</v>
       </c>

--- a/DatabaseFiller/guidelines.xlsx
+++ b/DatabaseFiller/guidelines.xlsx
@@ -2266,7 +2266,7 @@
     <t>112 - 128</t>
   </si>
   <si>
-    <t>THIS or Groups P-384</t>
+    <t>THIS or Groups secp384r1 / P-384</t>
   </si>
   <si>
     <t>secp384r1 / P-384</t>
@@ -2275,7 +2275,7 @@
     <t>112 - 192</t>
   </si>
   <si>
-    <t>THIS or Groups P-256</t>
+    <t>THIS or Groups secp256r1 / P-256</t>
   </si>
   <si>
     <t>secp521r1 / P-521</t>
@@ -3430,7 +3430,7 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>

--- a/DatabaseFiller/guidelines.xlsx
+++ b/DatabaseFiller/guidelines.xlsx
@@ -598,6 +598,19 @@
         <t xml:space="preserve">either this or P-256</t>
       </text>
     </comment>
+    <comment authorId="0" ref="B15">
+      <text>
+        <t xml:space="preserve">this entry refers to user-generated DH groups so it does not have a IANA id</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I15">
+      <text>
+        <t xml:space="preserve">Dans le cas de DHE, la sécurité de l’échange est liée à l’ordre du groupe multiplicatif en
+jeu. L’attaque Logjam [4] a illustré l’insuffisance des groupes de taille 512-bits, et pousse à
+déconseiller l’utilisation de groupes 1024-bits. Le RGS préconise l’utilisation de groupes 3072-
+bits ou plus, et tolère les groupes 2048-bits pour une protection des données jusqu’en 2030.</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="F16">
       <text>
         <t xml:space="preserve">Up to 2022</t>
@@ -611,12 +624,6 @@
     <comment authorId="0" ref="H16">
       <text>
         <t xml:space="preserve">Use up to year 2022</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A15">
-      <text>
-        <t xml:space="preserve">questa linea non credo sia necessaria perché viene coperta dalle keylengths
-	-Riccardo Germenia</t>
       </text>
     </comment>
   </commentList>
@@ -962,65 +969,70 @@
     <comment authorId="0" ref="F7">
       <text>
         <t xml:space="preserve">"A key length of ≥ 3000 bits will be mandatory from 2023 for cryptographic DLIES and DSA implementations that are to be compliant with this Technical Guideline."
+Change mandated by BSI-TR-02102-1, version 2023-1, Table 3.1
+This is translated as recommended since the must is limited to the context of the DSA keys</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H7">
+      <text>
+        <t xml:space="preserve">"A key length of ≥ 3000 bits will be mandatory from 2023 for cryptographic DLIES and DSA implementations that are to be compliant with this Technical Guideline."
+Change mandated by BSI-TR-02102-1, version 2023-1, Table 3.1.
+This is translated as recommended since the must is limited to the context of the DSA keys</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G8">
+      <text>
+        <t xml:space="preserve">As an interim arrangement, the usage of RSA keys of length at least 2000 bits will however
+remain compliant with this Technical Guideline through 2023.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H8">
+      <text>
+        <t xml:space="preserve">"Transitionally, also the use of RSA-keys with a length of ≥ 2000 bits will remain compliant until the end of 2023; from 2024 onwards, an RSA key length of ≥ 3000 bits will be mandatory."
 Change mandated by BSI-TR-02102-1, version 2023-1, Table 3.1</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H7">
+    <comment authorId="0" ref="H9">
+      <text>
+        <t xml:space="preserve">"Transitionally, also the use of RSA-keys with a length of ≥ 2000 bits will remain compliant until the end of 2023; from 2024 onwards, an RSA key length of ≥ 3000 bits will be mandatory."
+Change mandated by BSI-TR-02102-1, version 2023-1, Table 3.1.
+This is translated as recommended since the must is limited to the context of the RSA keys</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F11">
+      <text>
+        <t xml:space="preserve">Not mentioned starting from version 2023-01 of TR-02102-2</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H11">
+      <text>
+        <t xml:space="preserve">Not mentioned starting from version 2023-01 of TR-02102-2</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F14">
       <text>
         <t xml:space="preserve">"A key length of ≥ 3000 bits will be mandatory from 2023 for cryptographic DLIES and DSA implementations that are to be compliant with this Technical Guideline."
 Change mandated by BSI-TR-02102-1, version 2023-1, Table 3.1</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G8">
-      <text>
-        <t xml:space="preserve">As an interim arrangement, the usage of RSA keys of length at least 2000 bits will however
-remain compliant with this Technical Guideline through 2023.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H8">
-      <text>
-        <t xml:space="preserve">"Transitionally, also the use of RSA-keys with a length of ≥ 2000 bits will remain compliant until the end of 2023; from 2024 onwards, an RSA key length of ≥ 3000 bits will be mandatory."
-Change mandated by BSI-TR-02102-1, version 2023-1, Table 3.1</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H9">
-      <text>
-        <t xml:space="preserve">"Transitionally, also the use of RSA-keys with a length of ≥ 2000 bits will remain compliant until the end of 2023; from 2024 onwards, an RSA key length of ≥ 3000 bits will be mandatory."
-Change mandated by BSI-TR-02102-1, version 2023-1, Table 3.1</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F11">
-      <text>
-        <t xml:space="preserve">Not mentioned starting from version 2023-01 of TR-02102-2</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H11">
-      <text>
-        <t xml:space="preserve">Not mentioned starting from version 2023-01 of TR-02102-2</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F14">
+    <comment authorId="0" ref="H14">
       <text>
         <t xml:space="preserve">"A key length of ≥ 3000 bits will be mandatory from 2023 for cryptographic DLIES and DSA implementations that are to be compliant with this Technical Guideline."
 Change mandated by BSI-TR-02102-1, version 2023-1, Table 3.1</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H14">
+    <comment authorId="0" ref="F15">
       <text>
         <t xml:space="preserve">"A key length of ≥ 3000 bits will be mandatory from 2023 for cryptographic DLIES and DSA implementations that are to be compliant with this Technical Guideline."
-Change mandated by BSI-TR-02102-1, version 2023-1, Table 3.1</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F15">
+Change mandated by BSI-TR-02102-1, version 2023-1, Table 3.1
+This is translated as recommended since the must is limited to the context of the DH keys</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H15">
       <text>
         <t xml:space="preserve">"A key length of ≥ 3000 bits will be mandatory from 2023 for cryptographic DLIES and DSA implementations that are to be compliant with this Technical Guideline."
-Change mandated by BSI-TR-02102-1, version 2023-1, Table 3.1</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H15">
-      <text>
-        <t xml:space="preserve">"A key length of ≥ 3000 bits will be mandatory from 2023 for cryptographic DLIES and DSA implementations that are to be compliant with this Technical Guideline."
-Change mandated by BSI-TR-02102-1, version 2023-1, Table 3.1</t>
+Change mandated by BSI-TR-02102-1, version 2023-1, Table 3.1.
+This is translated as recommended since the must is limited to the context of the DH keys</t>
       </text>
     </comment>
   </commentList>
@@ -1050,10 +1062,7 @@
     </comment>
     <comment authorId="0" ref="C4">
       <text>
-        <t xml:space="preserve">A single value should be encoded in each Relative Distinguished Name (RDN) (the single values that compose the DN). All attributes that are of DirectoryString type should be encoded as a PrintableString.
-----
-ho aggiunto un controllo molto specifico su questa cosa perché richiesto dal NIST e indovina un po' manco loro lo rispettano
-	-Riccardo Germenia</t>
+        <t xml:space="preserve">A single value should be encoded in each Relative Distinguished Name (RDN) (the single values that compose the DN). All attributes that are of DirectoryString type should be encoded as a PrintableString.</t>
       </text>
     </comment>
     <comment authorId="0" ref="E4">
@@ -3195,7 +3204,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="190">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3491,6 +3500,9 @@
     </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -4432,239 +4444,239 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>528</v>
       </c>
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="146" t="s">
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="146" t="s">
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="110"/>
+      <c r="I1" s="111"/>
       <c r="J1" s="9" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="147"/>
+      <c r="A2" s="148"/>
       <c r="B2" s="11"/>
-      <c r="C2" s="148" t="s">
+      <c r="C2" s="149" t="s">
         <v>529</v>
       </c>
-      <c r="D2" s="150" t="s">
+      <c r="D2" s="151" t="s">
         <v>516</v>
       </c>
-      <c r="E2" s="149"/>
-      <c r="F2" s="148" t="s">
+      <c r="E2" s="150"/>
+      <c r="F2" s="149" t="s">
         <v>529</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="149" t="s">
         <v>516</v>
       </c>
       <c r="H2" s="10"/>
-      <c r="I2" s="150" t="s">
+      <c r="I2" s="151" t="s">
         <v>516</v>
       </c>
-      <c r="J2" s="151"/>
+      <c r="J2" s="152"/>
     </row>
     <row r="3">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="149" t="s">
         <v>530</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="156" t="s">
+      <c r="C3" s="156"/>
+      <c r="D3" s="157" t="s">
         <v>531</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="157"/>
-      <c r="G3" s="147"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="148"/>
       <c r="H3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="130"/>
+      <c r="I3" s="131"/>
       <c r="J3" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="149" t="s">
         <v>532</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="157"/>
-      <c r="D4" s="156" t="s">
+      <c r="C4" s="158"/>
+      <c r="D4" s="157" t="s">
         <v>533</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="157"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="159"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="160"/>
       <c r="J4" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="149" t="s">
         <v>534</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="148" t="s">
+      <c r="C5" s="149" t="s">
         <v>535</v>
       </c>
-      <c r="D5" s="156" t="s">
+      <c r="D5" s="157" t="s">
         <v>536</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="148" t="s">
+      <c r="F5" s="149" t="s">
         <v>535</v>
       </c>
-      <c r="G5" s="147"/>
+      <c r="G5" s="148"/>
       <c r="H5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="130"/>
+      <c r="I5" s="131"/>
       <c r="J5" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="148" t="s">
+      <c r="A6" s="149" t="s">
         <v>537</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="157"/>
-      <c r="D6" s="160" t="s">
+      <c r="C6" s="158"/>
+      <c r="D6" s="161" t="s">
         <v>538</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="157"/>
-      <c r="G6" s="147"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="148"/>
       <c r="H6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="130"/>
+      <c r="I6" s="131"/>
       <c r="J6" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="148" t="s">
+      <c r="A7" s="149" t="s">
         <v>537</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="157"/>
-      <c r="D7" s="156" t="s">
+      <c r="C7" s="158"/>
+      <c r="D7" s="157" t="s">
         <v>539</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="157"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="158"/>
-      <c r="I7" s="159"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="160"/>
       <c r="J7" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="148" t="s">
+      <c r="A8" s="149" t="s">
         <v>540</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="155"/>
-      <c r="D8" s="161"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="162"/>
       <c r="E8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="157"/>
-      <c r="G8" s="147"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="148"/>
       <c r="H8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="130"/>
+      <c r="I8" s="131"/>
       <c r="J8" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="148" t="s">
+      <c r="A9" s="149" t="s">
         <v>541</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="155"/>
-      <c r="D9" s="162" t="s">
+      <c r="C9" s="156"/>
+      <c r="D9" s="163" t="s">
         <v>542</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="157"/>
-      <c r="G9" s="154" t="s">
+      <c r="F9" s="158"/>
+      <c r="G9" s="155" t="s">
         <v>543</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="130"/>
+      <c r="I9" s="131"/>
       <c r="J9" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="148" t="s">
+      <c r="A10" s="149" t="s">
         <v>544</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="155"/>
-      <c r="D10" s="163" t="s">
+      <c r="C10" s="156"/>
+      <c r="D10" s="164" t="s">
         <v>545</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="157"/>
-      <c r="G10" s="148" t="s">
+      <c r="F10" s="158"/>
+      <c r="G10" s="149" t="s">
         <v>546</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="164" t="s">
+      <c r="I10" s="165" t="s">
         <v>546</v>
       </c>
       <c r="J10" s="12" t="s">
@@ -4672,47 +4684,47 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="148" t="s">
+      <c r="A11" s="149" t="s">
         <v>544</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="157"/>
-      <c r="D11" s="163" t="s">
+      <c r="C11" s="158"/>
+      <c r="D11" s="164" t="s">
         <v>547</v>
       </c>
-      <c r="E11" s="165"/>
-      <c r="F11" s="157"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="166"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="167"/>
       <c r="J11" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="148" t="s">
+      <c r="A12" s="149" t="s">
         <v>548</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="157"/>
-      <c r="D12" s="156" t="s">
+      <c r="C12" s="158"/>
+      <c r="D12" s="157" t="s">
         <v>549</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="157"/>
-      <c r="G12" s="148" t="s">
+      <c r="F12" s="158"/>
+      <c r="G12" s="149" t="s">
         <v>550</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="164" t="s">
+      <c r="I12" s="165" t="s">
         <v>550</v>
       </c>
       <c r="J12" s="12" t="s">
@@ -4720,61 +4732,61 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="148" t="s">
+      <c r="A13" s="149" t="s">
         <v>548</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="157"/>
-      <c r="D13" s="156" t="s">
+      <c r="C13" s="158"/>
+      <c r="D13" s="157" t="s">
         <v>551</v>
       </c>
-      <c r="E13" s="167"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="168"/>
-      <c r="I13" s="169"/>
+      <c r="E13" s="168"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="170"/>
       <c r="J13" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="148" t="s">
+      <c r="A14" s="149" t="s">
         <v>552</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="157"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="167"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="157"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="171"/>
+      <c r="E14" s="168"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
       <c r="H14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="152"/>
+      <c r="I14" s="153"/>
       <c r="J14" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="148" t="s">
+      <c r="A15" s="149" t="s">
         <v>553</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="157"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="171"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="155"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="172"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="156"/>
       <c r="H15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="152"/>
+      <c r="I15" s="153"/>
       <c r="J15" s="12" t="s">
         <v>15</v>
       </c>
@@ -4836,14 +4848,14 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="172"/>
+      <c r="A1" s="173"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="173" t="s">
+      <c r="D1" s="174" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -4854,33 +4866,33 @@
       <c r="A2" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="122"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="123"/>
     </row>
     <row r="3">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="149" t="s">
         <v>556</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="174" t="s">
+      <c r="C3" s="175" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="10"/>
-      <c r="E3" s="174" t="s">
+      <c r="E3" s="175" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="149" t="s">
         <v>557</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="168"/>
+      <c r="C4" s="169"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="174" t="s">
+      <c r="E4" s="175" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4953,414 +4965,414 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="175" t="s">
+      <c r="D1" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175" t="s">
+      <c r="E1" s="176"/>
+      <c r="F1" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175" t="s">
+      <c r="G1" s="176"/>
+      <c r="H1" s="176" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="175"/>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
+      <c r="A2" s="176"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
     </row>
     <row r="3">
-      <c r="A3" s="175"/>
-      <c r="B3" s="175"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
+      <c r="A3" s="176"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
     </row>
     <row r="4">
-      <c r="A4" s="175" t="s">
+      <c r="A4" s="176" t="s">
         <v>559</v>
       </c>
-      <c r="B4" s="177" t="s">
+      <c r="B4" s="178" t="s">
         <v>560</v>
       </c>
-      <c r="C4" s="176"/>
-      <c r="D4" s="177" t="s">
+      <c r="C4" s="177"/>
+      <c r="D4" s="178" t="s">
         <v>561</v>
       </c>
-      <c r="E4" s="176"/>
-      <c r="F4" s="177" t="s">
+      <c r="E4" s="177"/>
+      <c r="F4" s="178" t="s">
         <v>562</v>
       </c>
-      <c r="G4" s="177" t="s">
+      <c r="G4" s="178" t="s">
         <v>563</v>
       </c>
-      <c r="H4" s="178"/>
+      <c r="H4" s="179"/>
     </row>
     <row r="5">
-      <c r="A5" s="175"/>
-      <c r="B5" s="175"/>
-      <c r="C5" s="176"/>
-      <c r="D5" s="176"/>
-      <c r="E5" s="176"/>
-      <c r="F5" s="175"/>
-      <c r="G5" s="175"/>
-      <c r="H5" s="178"/>
+      <c r="A5" s="176"/>
+      <c r="B5" s="176"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="176"/>
+      <c r="H5" s="179"/>
     </row>
     <row r="6">
-      <c r="A6" s="175"/>
-      <c r="B6" s="179" t="s">
+      <c r="A6" s="176"/>
+      <c r="B6" s="180" t="s">
         <v>564</v>
       </c>
-      <c r="C6" s="177" t="s">
+      <c r="C6" s="178" t="s">
         <v>565</v>
       </c>
-      <c r="D6" s="177" t="s">
+      <c r="D6" s="178" t="s">
         <v>566</v>
       </c>
-      <c r="E6" s="176"/>
-      <c r="F6" s="179" t="s">
+      <c r="E6" s="177"/>
+      <c r="F6" s="180" t="s">
         <v>567</v>
       </c>
-      <c r="G6" s="177" t="s">
+      <c r="G6" s="178" t="s">
         <v>568</v>
       </c>
-      <c r="H6" s="178"/>
+      <c r="H6" s="179"/>
     </row>
     <row r="7">
-      <c r="A7" s="175"/>
-      <c r="B7" s="175"/>
-      <c r="C7" s="175"/>
-      <c r="D7" s="177" t="s">
+      <c r="A7" s="176"/>
+      <c r="B7" s="176"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="178" t="s">
         <v>569</v>
       </c>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="175"/>
-      <c r="H7" s="175"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="176"/>
     </row>
     <row r="8">
-      <c r="A8" s="175"/>
-      <c r="B8" s="175"/>
-      <c r="C8" s="175" t="s">
+      <c r="A8" s="176"/>
+      <c r="B8" s="176"/>
+      <c r="C8" s="176" t="s">
         <v>570</v>
       </c>
-      <c r="D8" s="176"/>
-      <c r="E8" s="176"/>
-      <c r="F8" s="176"/>
-      <c r="G8" s="175" t="s">
+      <c r="D8" s="177"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="176" t="s">
         <v>571</v>
       </c>
-      <c r="H8" s="175" t="s">
+      <c r="H8" s="176" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="175"/>
-      <c r="B9" s="175"/>
-      <c r="C9" s="180" t="s">
+      <c r="A9" s="176"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="181" t="s">
         <v>572</v>
       </c>
-      <c r="D9" s="176"/>
-      <c r="E9" s="176"/>
-      <c r="F9" s="176"/>
-      <c r="G9" s="176"/>
-      <c r="H9" s="181"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="177"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="182"/>
     </row>
     <row r="10">
-      <c r="A10" s="175"/>
-      <c r="B10" s="177" t="s">
+      <c r="A10" s="176"/>
+      <c r="B10" s="178" t="s">
         <v>573</v>
       </c>
-      <c r="C10" s="177" t="s">
+      <c r="C10" s="178" t="s">
         <v>574</v>
       </c>
-      <c r="D10" s="176"/>
-      <c r="E10" s="177" t="s">
+      <c r="D10" s="177"/>
+      <c r="E10" s="178" t="s">
         <v>575</v>
       </c>
-      <c r="F10" s="176"/>
-      <c r="G10" s="177" t="s">
+      <c r="F10" s="177"/>
+      <c r="G10" s="178" t="s">
         <v>576</v>
       </c>
-      <c r="H10" s="178"/>
+      <c r="H10" s="179"/>
     </row>
     <row r="11">
-      <c r="A11" s="175"/>
-      <c r="B11" s="175"/>
-      <c r="C11" s="175"/>
-      <c r="D11" s="176"/>
-      <c r="E11" s="177" t="s">
+      <c r="A11" s="176"/>
+      <c r="B11" s="176"/>
+      <c r="C11" s="176"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="178" t="s">
         <v>577</v>
       </c>
-      <c r="F11" s="176"/>
-      <c r="G11" s="175"/>
-      <c r="H11" s="178"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="179"/>
     </row>
     <row r="12">
-      <c r="A12" s="175"/>
-      <c r="B12" s="175"/>
-      <c r="C12" s="175"/>
-      <c r="D12" s="176"/>
-      <c r="E12" s="177" t="s">
+      <c r="A12" s="176"/>
+      <c r="B12" s="176"/>
+      <c r="C12" s="176"/>
+      <c r="D12" s="177"/>
+      <c r="E12" s="178" t="s">
         <v>578</v>
       </c>
-      <c r="F12" s="176"/>
-      <c r="G12" s="175"/>
-      <c r="H12" s="178"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="176"/>
+      <c r="H12" s="179"/>
     </row>
     <row r="13">
-      <c r="A13" s="175"/>
-      <c r="B13" s="175"/>
-      <c r="C13" s="175"/>
-      <c r="D13" s="177" t="s">
+      <c r="A13" s="176"/>
+      <c r="B13" s="176"/>
+      <c r="C13" s="176"/>
+      <c r="D13" s="178" t="s">
         <v>569</v>
       </c>
-      <c r="E13" s="175"/>
-      <c r="F13" s="176"/>
-      <c r="G13" s="175"/>
-      <c r="H13" s="178"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="179"/>
     </row>
     <row r="14">
-      <c r="A14" s="175"/>
-      <c r="B14" s="175"/>
-      <c r="C14" s="177" t="s">
+      <c r="A14" s="176"/>
+      <c r="B14" s="176"/>
+      <c r="C14" s="178" t="s">
         <v>579</v>
       </c>
-      <c r="D14" s="176"/>
-      <c r="E14" s="177" t="s">
+      <c r="D14" s="177"/>
+      <c r="E14" s="178" t="s">
         <v>580</v>
       </c>
-      <c r="F14" s="176"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="178"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="179"/>
     </row>
     <row r="15">
-      <c r="A15" s="175"/>
-      <c r="B15" s="175"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="176"/>
-      <c r="E15" s="177" t="s">
+      <c r="A15" s="176"/>
+      <c r="B15" s="176"/>
+      <c r="C15" s="176"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="178" t="s">
         <v>581</v>
       </c>
-      <c r="F15" s="176"/>
-      <c r="G15" s="176"/>
-      <c r="H15" s="178"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="179"/>
     </row>
     <row r="16">
-      <c r="A16" s="175"/>
-      <c r="B16" s="175"/>
-      <c r="C16" s="179" t="s">
+      <c r="A16" s="176"/>
+      <c r="B16" s="176"/>
+      <c r="C16" s="180" t="s">
         <v>582</v>
       </c>
-      <c r="D16" s="176"/>
-      <c r="E16" s="175"/>
-      <c r="F16" s="176"/>
-      <c r="G16" s="179" t="s">
+      <c r="D16" s="177"/>
+      <c r="E16" s="176"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="180" t="s">
         <v>583</v>
       </c>
-      <c r="H16" s="182"/>
+      <c r="H16" s="183"/>
     </row>
     <row r="17">
-      <c r="A17" s="175"/>
-      <c r="B17" s="177" t="s">
+      <c r="A17" s="176"/>
+      <c r="B17" s="178" t="s">
         <v>584</v>
       </c>
-      <c r="C17" s="177" t="s">
+      <c r="C17" s="178" t="s">
         <v>585</v>
       </c>
-      <c r="D17" s="176"/>
-      <c r="E17" s="177" t="s">
+      <c r="D17" s="177"/>
+      <c r="E17" s="178" t="s">
         <v>586</v>
       </c>
-      <c r="F17" s="176"/>
-      <c r="G17" s="177" t="s">
+      <c r="F17" s="177"/>
+      <c r="G17" s="178" t="s">
         <v>587</v>
       </c>
-      <c r="H17" s="178"/>
+      <c r="H17" s="179"/>
     </row>
     <row r="18">
-      <c r="A18" s="175"/>
-      <c r="B18" s="175"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="176"/>
-      <c r="E18" s="177" t="s">
+      <c r="A18" s="176"/>
+      <c r="B18" s="176"/>
+      <c r="C18" s="176"/>
+      <c r="D18" s="177"/>
+      <c r="E18" s="178" t="s">
         <v>588</v>
       </c>
-      <c r="F18" s="176"/>
-      <c r="G18" s="175"/>
-      <c r="H18" s="178"/>
+      <c r="F18" s="177"/>
+      <c r="G18" s="176"/>
+      <c r="H18" s="179"/>
     </row>
     <row r="19">
-      <c r="A19" s="175"/>
-      <c r="B19" s="175"/>
-      <c r="C19" s="175"/>
-      <c r="D19" s="176"/>
-      <c r="E19" s="177" t="s">
+      <c r="A19" s="176"/>
+      <c r="B19" s="176"/>
+      <c r="C19" s="176"/>
+      <c r="D19" s="177"/>
+      <c r="E19" s="178" t="s">
         <v>589</v>
       </c>
-      <c r="F19" s="176"/>
-      <c r="G19" s="176"/>
-      <c r="H19" s="178"/>
+      <c r="F19" s="177"/>
+      <c r="G19" s="177"/>
+      <c r="H19" s="179"/>
     </row>
     <row r="20">
-      <c r="A20" s="175"/>
-      <c r="B20" s="175"/>
-      <c r="C20" s="177" t="s">
+      <c r="A20" s="176"/>
+      <c r="B20" s="176"/>
+      <c r="C20" s="178" t="s">
         <v>590</v>
       </c>
-      <c r="D20" s="176"/>
-      <c r="E20" s="177" t="s">
+      <c r="D20" s="177"/>
+      <c r="E20" s="178" t="s">
         <v>591</v>
       </c>
-      <c r="F20" s="175"/>
-      <c r="G20" s="175"/>
-      <c r="H20" s="178"/>
+      <c r="F20" s="176"/>
+      <c r="G20" s="176"/>
+      <c r="H20" s="179"/>
     </row>
     <row r="21">
-      <c r="A21" s="175"/>
-      <c r="B21" s="175"/>
-      <c r="C21" s="177" t="s">
+      <c r="A21" s="176"/>
+      <c r="B21" s="176"/>
+      <c r="C21" s="178" t="s">
         <v>592</v>
       </c>
-      <c r="D21" s="176"/>
-      <c r="E21" s="177" t="s">
+      <c r="D21" s="177"/>
+      <c r="E21" s="178" t="s">
         <v>593</v>
       </c>
-      <c r="F21" s="176"/>
-      <c r="G21" s="176"/>
-      <c r="H21" s="178"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="179"/>
     </row>
     <row r="22">
-      <c r="A22" s="175"/>
-      <c r="B22" s="180" t="s">
+      <c r="A22" s="176"/>
+      <c r="B22" s="181" t="s">
         <v>594</v>
       </c>
-      <c r="C22" s="180" t="s">
+      <c r="C22" s="181" t="s">
         <v>595</v>
       </c>
-      <c r="D22" s="176"/>
-      <c r="E22" s="180" t="s">
+      <c r="D22" s="177"/>
+      <c r="E22" s="181" t="s">
         <v>596</v>
       </c>
-      <c r="F22" s="176"/>
-      <c r="G22" s="176"/>
-      <c r="H22" s="181"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="182"/>
     </row>
     <row r="23">
-      <c r="A23" s="175"/>
-      <c r="B23" s="175"/>
-      <c r="C23" s="180" t="s">
+      <c r="A23" s="176"/>
+      <c r="B23" s="176"/>
+      <c r="C23" s="181" t="s">
         <v>597</v>
       </c>
-      <c r="D23" s="176"/>
-      <c r="E23" s="175"/>
-      <c r="F23" s="176"/>
-      <c r="G23" s="176"/>
-      <c r="H23" s="181"/>
+      <c r="D23" s="177"/>
+      <c r="E23" s="176"/>
+      <c r="F23" s="177"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="182"/>
     </row>
     <row r="24">
-      <c r="A24" s="175"/>
-      <c r="B24" s="175"/>
-      <c r="C24" s="180" t="s">
+      <c r="A24" s="176"/>
+      <c r="B24" s="176"/>
+      <c r="C24" s="181" t="s">
         <v>598</v>
       </c>
-      <c r="D24" s="176"/>
-      <c r="E24" s="176"/>
-      <c r="F24" s="176"/>
-      <c r="G24" s="176"/>
-      <c r="H24" s="181"/>
+      <c r="D24" s="177"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="182"/>
     </row>
     <row r="25">
-      <c r="A25" s="175"/>
-      <c r="B25" s="175"/>
-      <c r="C25" s="180" t="s">
+      <c r="A25" s="176"/>
+      <c r="B25" s="176"/>
+      <c r="C25" s="181" t="s">
         <v>599</v>
       </c>
-      <c r="D25" s="176"/>
-      <c r="E25" s="176"/>
-      <c r="F25" s="176"/>
-      <c r="G25" s="176"/>
-      <c r="H25" s="181"/>
+      <c r="D25" s="177"/>
+      <c r="E25" s="177"/>
+      <c r="F25" s="177"/>
+      <c r="G25" s="177"/>
+      <c r="H25" s="182"/>
     </row>
     <row r="26">
-      <c r="A26" s="175"/>
-      <c r="B26" s="175" t="s">
+      <c r="A26" s="176"/>
+      <c r="B26" s="176" t="s">
         <v>600</v>
       </c>
-      <c r="C26" s="176"/>
-      <c r="D26" s="176"/>
-      <c r="E26" s="175" t="s">
+      <c r="C26" s="177"/>
+      <c r="D26" s="177"/>
+      <c r="E26" s="176" t="s">
         <v>601</v>
       </c>
-      <c r="F26" s="176"/>
-      <c r="G26" s="175" t="s">
+      <c r="F26" s="177"/>
+      <c r="G26" s="176" t="s">
         <v>583</v>
       </c>
-      <c r="H26" s="175" t="s">
+      <c r="H26" s="176" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="175"/>
-      <c r="B27" s="177" t="s">
+      <c r="A27" s="176"/>
+      <c r="B27" s="178" t="s">
         <v>602</v>
       </c>
-      <c r="C27" s="176"/>
-      <c r="D27" s="176"/>
-      <c r="E27" s="176"/>
-      <c r="F27" s="176"/>
-      <c r="G27" s="179" t="s">
+      <c r="C27" s="177"/>
+      <c r="D27" s="177"/>
+      <c r="E27" s="177"/>
+      <c r="F27" s="177"/>
+      <c r="G27" s="180" t="s">
         <v>583</v>
       </c>
-      <c r="H27" s="178"/>
+      <c r="H27" s="179"/>
     </row>
     <row r="28">
-      <c r="A28" s="175"/>
-      <c r="B28" s="180" t="s">
+      <c r="A28" s="176"/>
+      <c r="B28" s="181" t="s">
         <v>603</v>
       </c>
-      <c r="C28" s="176"/>
-      <c r="D28" s="175" t="s">
+      <c r="C28" s="177"/>
+      <c r="D28" s="176" t="s">
         <v>604</v>
       </c>
-      <c r="E28" s="176"/>
-      <c r="F28" s="176"/>
-      <c r="G28" s="183"/>
-      <c r="H28" s="181"/>
+      <c r="E28" s="177"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="182"/>
     </row>
     <row r="29">
-      <c r="A29" s="175"/>
-      <c r="B29" s="175"/>
-      <c r="C29" s="175"/>
-      <c r="D29" s="175"/>
-      <c r="E29" s="176"/>
-      <c r="F29" s="176"/>
-      <c r="G29" s="183"/>
-      <c r="H29" s="181"/>
+      <c r="A29" s="176"/>
+      <c r="B29" s="176"/>
+      <c r="C29" s="176"/>
+      <c r="D29" s="176"/>
+      <c r="E29" s="177"/>
+      <c r="F29" s="177"/>
+      <c r="G29" s="184"/>
+      <c r="H29" s="182"/>
     </row>
     <row r="30">
-      <c r="A30" s="175" t="s">
+      <c r="A30" s="176" t="s">
         <v>605</v>
       </c>
-      <c r="B30" s="175"/>
-      <c r="C30" s="176"/>
-      <c r="D30" s="176"/>
-      <c r="E30" s="176"/>
-      <c r="F30" s="176"/>
-      <c r="G30" s="176"/>
-      <c r="H30" s="181"/>
+      <c r="B30" s="176"/>
+      <c r="C30" s="177"/>
+      <c r="D30" s="177"/>
+      <c r="E30" s="177"/>
+      <c r="F30" s="177"/>
+      <c r="G30" s="177"/>
+      <c r="H30" s="182"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5393,105 +5405,105 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="184" t="str">
+      <c r="A2" s="185" t="str">
         <f>HYPERLINK("http://www.isg.rhul.ac.uk/tls/Lucky13.html","Lucky 13")</f>
         <v>Lucky 13</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
     </row>
     <row r="3">
-      <c r="A3" s="186" t="str">
+      <c r="A3" s="187" t="str">
         <f>HYPERLINK("https://nerdoholic.org/uploads/dergln/beast_part2/ssl_jun21.pdf","BEAST")</f>
         <v>BEAST</v>
       </c>
-      <c r="B3" s="185"/>
+      <c r="B3" s="186"/>
     </row>
     <row r="4">
-      <c r="A4" s="184" t="str">
+      <c r="A4" s="185" t="str">
         <f>HYPERLINK("https://sweet32.info/","Sweet32")</f>
         <v>Sweet32</v>
       </c>
-      <c r="D4" s="185"/>
+      <c r="D4" s="186"/>
     </row>
     <row r="5">
-      <c r="A5" s="187" t="s">
+      <c r="A5" s="188" t="s">
         <v>606</v>
       </c>
-      <c r="B5" s="185"/>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
+      <c r="B5" s="186"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="186"/>
     </row>
     <row r="6">
-      <c r="A6" s="184" t="str">
+      <c r="A6" s="185" t="str">
         <f>HYPERLINK("http://breachattack.com/","BREACH")</f>
         <v>BREACH</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="184" t="str">
+      <c r="A7" s="185" t="str">
         <f>HYPERLINK("https://security.googleblog.com/2014/10/this-poodle-bites-exploiting-ssl-30.html","POODLE")</f>
         <v>POODLE</v>
       </c>
-      <c r="B7" s="185"/>
-      <c r="D7" s="185"/>
+      <c r="B7" s="186"/>
+      <c r="D7" s="186"/>
     </row>
     <row r="8">
-      <c r="A8" s="184" t="str">
+      <c r="A8" s="185" t="str">
         <f>HYPERLINK("https://mitls.org/pages/attacks/3SHAKE","3SHAKE")</f>
         <v>3SHAKE</v>
       </c>
-      <c r="B8" s="185"/>
-      <c r="C8" s="185"/>
-      <c r="D8" s="185"/>
+      <c r="B8" s="186"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="186"/>
     </row>
     <row r="9">
-      <c r="A9" s="184" t="str">
+      <c r="A9" s="185" t="str">
         <f>HYPERLINK("https://drownattack.com/","DROWN")</f>
         <v>DROWN</v>
       </c>
-      <c r="D9" s="185"/>
+      <c r="D9" s="186"/>
     </row>
     <row r="10">
-      <c r="A10" s="184" t="str">
+      <c r="A10" s="185" t="str">
         <f>HYPERLINK("https://robotattack.org/","ROBOT ")</f>
         <v>ROBOT </v>
       </c>
-      <c r="B10" s="185"/>
-      <c r="D10" s="185"/>
+      <c r="B10" s="186"/>
+      <c r="D10" s="186"/>
     </row>
     <row r="11">
-      <c r="A11" s="184" t="str">
+      <c r="A11" s="185" t="str">
         <f>HYPERLINK("https://www.kb.cert.org/vuls/id/120541/","Renegotiation attack")</f>
         <v>Renegotiation attack</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="188" t="s">
+      <c r="A12" s="189" t="s">
         <v>607</v>
       </c>
-      <c r="D12" s="185"/>
+      <c r="D12" s="186"/>
     </row>
     <row r="13">
-      <c r="A13" s="188" t="s">
+      <c r="A13" s="189" t="s">
         <v>608</v>
       </c>
-      <c r="B13" s="185"/>
-      <c r="C13" s="185"/>
-      <c r="D13" s="185"/>
+      <c r="B13" s="186"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="186"/>
     </row>
     <row r="14">
-      <c r="A14" s="188" t="s">
+      <c r="A14" s="189" t="s">
         <v>609</v>
       </c>
-      <c r="D14" s="185"/>
+      <c r="D14" s="186"/>
     </row>
     <row r="15">
-      <c r="A15" s="188" t="s">
+      <c r="A15" s="189" t="s">
         <v>610</v>
       </c>
-      <c r="B15" s="185"/>
+      <c r="B15" s="186"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -13009,7 +13021,7 @@
       <c r="A15" s="58" t="s">
         <v>419</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="104" t="s">
         <v>420</v>
       </c>
       <c r="C15" s="44" t="s">
@@ -13212,7 +13224,7 @@
       <c r="B21" s="25">
         <v>26.0</v>
       </c>
-      <c r="C21" s="104"/>
+      <c r="C21" s="105"/>
       <c r="D21" s="11" t="s">
         <v>15</v>
       </c>
@@ -13244,7 +13256,7 @@
       <c r="B22" s="25">
         <v>27.0</v>
       </c>
-      <c r="C22" s="104"/>
+      <c r="C22" s="105"/>
       <c r="D22" s="11" t="s">
         <v>15</v>
       </c>
@@ -13276,7 +13288,7 @@
       <c r="B23" s="25">
         <v>28.0</v>
       </c>
-      <c r="C23" s="104"/>
+      <c r="C23" s="105"/>
       <c r="D23" s="11" t="s">
         <v>15</v>
       </c>
@@ -13302,13 +13314,13 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="105" t="s">
+      <c r="A24" s="106" t="s">
         <v>433</v>
       </c>
       <c r="B24" s="25">
         <v>29.0</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="105"/>
       <c r="D24" s="11" t="s">
         <v>15</v>
       </c>
@@ -13332,13 +13344,13 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="106" t="s">
+      <c r="A25" s="107" t="s">
         <v>434</v>
       </c>
       <c r="B25" s="25">
         <v>30.0</v>
       </c>
-      <c r="C25" s="104"/>
+      <c r="C25" s="105"/>
       <c r="D25" s="11" t="s">
         <v>15</v>
       </c>
@@ -13429,7 +13441,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="108" t="s">
         <v>435</v>
       </c>
       <c r="B1" s="16" t="s">
@@ -13438,7 +13450,7 @@
       <c r="C1" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="109" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="15" t="s">
@@ -13448,35 +13460,35 @@
         <v>3</v>
       </c>
       <c r="I1" s="4"/>
-      <c r="J1" s="109" t="s">
+      <c r="J1" s="110" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
       <c r="D2" s="36"/>
-      <c r="E2" s="111" t="s">
+      <c r="E2" s="112" t="s">
         <v>437</v>
       </c>
-      <c r="F2" s="112" t="s">
+      <c r="F2" s="113" t="s">
         <v>438</v>
       </c>
-      <c r="G2" s="112" t="s">
+      <c r="G2" s="113" t="s">
         <v>439</v>
       </c>
-      <c r="H2" s="113"/>
-      <c r="I2" s="114" t="s">
+      <c r="H2" s="114"/>
+      <c r="I2" s="115" t="s">
         <v>440</v>
       </c>
-      <c r="J2" s="115" t="s">
+      <c r="J2" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="115" t="s">
+      <c r="K2" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="115" t="s">
+      <c r="L2" s="116" t="s">
         <v>11</v>
       </c>
     </row>
@@ -13493,7 +13505,7 @@
       <c r="D3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="116" t="s">
+      <c r="E3" s="117" t="s">
         <v>443</v>
       </c>
       <c r="F3" s="26" t="s">
@@ -13529,7 +13541,7 @@
       <c r="D4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="116" t="s">
+      <c r="E4" s="117" t="s">
         <v>443</v>
       </c>
       <c r="F4" s="26" t="s">
@@ -13565,7 +13577,7 @@
       <c r="D5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="116" t="s">
+      <c r="E5" s="117" t="s">
         <v>443</v>
       </c>
       <c r="F5" s="26" t="s">
@@ -13601,7 +13613,7 @@
       <c r="D6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="116" t="s">
+      <c r="E6" s="117" t="s">
         <v>443</v>
       </c>
       <c r="F6" s="26" t="s">
@@ -13637,7 +13649,7 @@
       <c r="D7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="116" t="s">
+      <c r="E7" s="117" t="s">
         <v>443</v>
       </c>
       <c r="F7" s="26" t="s">
@@ -13673,7 +13685,7 @@
       <c r="D8" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="116" t="s">
+      <c r="E8" s="117" t="s">
         <v>453</v>
       </c>
       <c r="F8" s="26" t="s">
@@ -13709,7 +13721,7 @@
       <c r="D9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="116" t="s">
+      <c r="E9" s="117" t="s">
         <v>453</v>
       </c>
       <c r="F9" s="26" t="s">
@@ -13745,7 +13757,7 @@
       <c r="D10" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="116" t="s">
+      <c r="E10" s="117" t="s">
         <v>453</v>
       </c>
       <c r="F10" s="26" t="s">
@@ -13781,7 +13793,7 @@
       <c r="D11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="116" t="s">
+      <c r="E11" s="117" t="s">
         <v>453</v>
       </c>
       <c r="F11" s="26" t="s">
@@ -13817,7 +13829,7 @@
       <c r="D12" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="116" t="s">
+      <c r="E12" s="117" t="s">
         <v>453</v>
       </c>
       <c r="F12" s="26" t="s">
@@ -13853,7 +13865,7 @@
       <c r="D13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="116"/>
+      <c r="E13" s="117"/>
       <c r="F13" s="26" t="s">
         <v>18</v>
       </c>
@@ -13887,7 +13899,7 @@
       <c r="D14" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="116"/>
+      <c r="E14" s="117"/>
       <c r="F14" s="26" t="s">
         <v>18</v>
       </c>
@@ -13921,7 +13933,7 @@
       <c r="D15" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="116"/>
+      <c r="E15" s="117"/>
       <c r="F15" s="26" t="s">
         <v>18</v>
       </c>
@@ -13955,7 +13967,7 @@
       <c r="D16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="116"/>
+      <c r="E16" s="117"/>
       <c r="F16" s="26" t="s">
         <v>15</v>
       </c>
@@ -13989,7 +14001,7 @@
       <c r="D17" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="116"/>
+      <c r="E17" s="117"/>
       <c r="F17" s="26" t="s">
         <v>15</v>
       </c>
@@ -14023,7 +14035,7 @@
       <c r="D18" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="116"/>
+      <c r="E18" s="117"/>
       <c r="F18" s="26" t="s">
         <v>18</v>
       </c>
@@ -14057,7 +14069,7 @@
       <c r="D19" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="116"/>
+      <c r="E19" s="117"/>
       <c r="F19" s="26" t="s">
         <v>18</v>
       </c>
@@ -14091,7 +14103,7 @@
       <c r="D20" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="116"/>
+      <c r="E20" s="117"/>
       <c r="F20" s="26" t="s">
         <v>18</v>
       </c>
@@ -14125,7 +14137,7 @@
       <c r="D21" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="116"/>
+      <c r="E21" s="117"/>
       <c r="F21" s="26" t="s">
         <v>18</v>
       </c>
@@ -14159,7 +14171,7 @@
       <c r="D22" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="116"/>
+      <c r="E22" s="117"/>
       <c r="F22" s="26" t="s">
         <v>18</v>
       </c>
@@ -14193,7 +14205,7 @@
       <c r="D23" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="116"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="26" t="s">
         <v>18</v>
       </c>
@@ -14227,7 +14239,7 @@
       <c r="D24" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="116"/>
+      <c r="E24" s="117"/>
       <c r="F24" s="26" t="s">
         <v>18</v>
       </c>
@@ -14261,7 +14273,7 @@
       <c r="D25" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="116"/>
+      <c r="E25" s="117"/>
       <c r="F25" s="26" t="s">
         <v>18</v>
       </c>
@@ -14295,7 +14307,7 @@
       <c r="D26" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="116"/>
+      <c r="E26" s="117"/>
       <c r="F26" s="26" t="s">
         <v>18</v>
       </c>
@@ -14380,7 +14392,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="118" t="s">
         <v>482</v>
       </c>
       <c r="B1" s="86" t="s">
@@ -14389,7 +14401,7 @@
       <c r="C1" s="87" t="s">
         <v>436</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="119" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="88" t="s">
@@ -14398,24 +14410,24 @@
       <c r="F1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="119" t="s">
+      <c r="G1" s="120" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="123" t="s">
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="123" t="s">
+      <c r="H2" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="123" t="s">
+      <c r="I2" s="124" t="s">
         <v>11</v>
       </c>
     </row>
@@ -14435,16 +14447,16 @@
       <c r="E3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="124" t="s">
+      <c r="F3" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="125" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="125" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="125" t="s">
+      <c r="G3" s="126" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="126" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="126" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14464,16 +14476,16 @@
       <c r="E4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="124" t="s">
+      <c r="F4" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="125" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="125" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="125" t="s">
+      <c r="G4" s="126" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="126" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="126" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14493,16 +14505,16 @@
       <c r="E5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="124" t="s">
+      <c r="F5" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="125" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="125" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="125" t="s">
+      <c r="G5" s="126" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="126" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="126" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14522,16 +14534,16 @@
       <c r="E6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="124" t="s">
+      <c r="F6" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="125" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="125" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="125" t="s">
+      <c r="G6" s="126" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="126" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="126" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14551,16 +14563,16 @@
       <c r="E7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="124" t="s">
+      <c r="F7" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="125" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="125" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="125" t="s">
+      <c r="G7" s="126" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="126" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="126" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14580,16 +14592,16 @@
       <c r="E8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="124" t="s">
+      <c r="F8" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="125" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="125" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="125" t="s">
+      <c r="G8" s="126" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="126" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="126" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14609,16 +14621,16 @@
       <c r="E9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="124" t="s">
+      <c r="F9" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="125" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="125" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="125" t="s">
+      <c r="G9" s="126" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="126" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="126" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14690,7 +14702,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="23.25" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>490</v>
       </c>
       <c r="B1" s="86" t="s">
@@ -14709,30 +14721,30 @@
       <c r="H1" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="119" t="s">
+      <c r="I1" s="120" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="128" t="s">
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="127"/>
-      <c r="G2" s="129" t="s">
+      <c r="F2" s="128"/>
+      <c r="G2" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="110"/>
-      <c r="I2" s="123" t="s">
+      <c r="H2" s="111"/>
+      <c r="I2" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="123" t="s">
+      <c r="J2" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="123" t="s">
+      <c r="K2" s="124" t="s">
         <v>11</v>
       </c>
     </row>
@@ -14753,7 +14765,7 @@
       <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="130"/>
+      <c r="G3" s="131"/>
       <c r="H3" s="7" t="s">
         <v>13</v>
       </c>
@@ -14786,7 +14798,7 @@
       <c r="F4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="130" t="s">
+      <c r="G4" s="131" t="s">
         <v>494</v>
       </c>
       <c r="H4" s="7" t="s">
@@ -14821,7 +14833,7 @@
       <c r="F5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="130" t="s">
+      <c r="G5" s="131" t="s">
         <v>497</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -14856,7 +14868,7 @@
       <c r="F6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="130" t="s">
+      <c r="G6" s="131" t="s">
         <v>500</v>
       </c>
       <c r="H6" s="7" t="s">
@@ -14932,69 +14944,69 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="132" t="s">
         <v>501</v>
       </c>
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="132" t="s">
         <v>502</v>
       </c>
       <c r="C1" s="87" t="s">
         <v>503</v>
       </c>
-      <c r="D1" s="132" t="s">
+      <c r="D1" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="133"/>
-      <c r="F1" s="134" t="s">
+      <c r="E1" s="134"/>
+      <c r="F1" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="133"/>
-      <c r="H1" s="134" t="s">
+      <c r="G1" s="134"/>
+      <c r="H1" s="135" t="s">
         <v>504</v>
       </c>
-      <c r="I1" s="133"/>
-      <c r="J1" s="134" t="s">
+      <c r="I1" s="134"/>
+      <c r="J1" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="135"/>
-      <c r="L1" s="136" t="s">
+      <c r="K1" s="136"/>
+      <c r="L1" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
     </row>
     <row r="2">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="133" t="s">
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="134" t="s">
         <v>505</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="133" t="s">
+      <c r="F2" s="123"/>
+      <c r="G2" s="134" t="s">
         <v>505</v>
       </c>
-      <c r="H2" s="122"/>
-      <c r="I2" s="133" t="s">
+      <c r="H2" s="123"/>
+      <c r="I2" s="134" t="s">
         <v>505</v>
       </c>
-      <c r="J2" s="122"/>
-      <c r="K2" s="133" t="s">
+      <c r="J2" s="123"/>
+      <c r="K2" s="134" t="s">
         <v>505</v>
       </c>
-      <c r="L2" s="138" t="s">
+      <c r="L2" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="138" t="s">
+      <c r="M2" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="138" t="s">
+      <c r="N2" s="139" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="140" t="s">
         <v>506</v>
       </c>
       <c r="B3" s="100" t="s">
@@ -15006,17 +15018,17 @@
       <c r="D3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="140" t="s">
+      <c r="E3" s="141" t="s">
         <v>507</v>
       </c>
-      <c r="F3" s="141" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="142"/>
-      <c r="H3" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="142"/>
+      <c r="F3" s="142" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="143"/>
+      <c r="H3" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="143"/>
       <c r="J3" s="23" t="s">
         <v>15</v>
       </c>
@@ -15038,19 +15050,19 @@
       <c r="D4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="140" t="s">
+      <c r="E4" s="141" t="s">
         <v>508</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="142" t="s">
+      <c r="G4" s="143" t="s">
         <v>509</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="142" t="s">
+      <c r="I4" s="143" t="s">
         <v>509</v>
       </c>
       <c r="J4" s="11" t="s">
@@ -15076,29 +15088,29 @@
       <c r="C5" s="25">
         <v>-1.0</v>
       </c>
-      <c r="D5" s="141" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="140"/>
-      <c r="F5" s="141" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="142"/>
-      <c r="H5" s="141" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="142"/>
-      <c r="J5" s="141" t="s">
+      <c r="D5" s="142" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="141"/>
+      <c r="F5" s="142" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="143"/>
+      <c r="H5" s="142" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="143"/>
+      <c r="J5" s="142" t="s">
         <v>15</v>
       </c>
       <c r="K5" s="84"/>
-      <c r="L5" s="141" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="141" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="141" t="s">
+      <c r="L5" s="142" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="142" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="142" t="s">
         <v>15</v>
       </c>
     </row>
@@ -15112,17 +15124,17 @@
       <c r="D6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="140" t="s">
+      <c r="E6" s="141" t="s">
         <v>507</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="142"/>
+      <c r="G6" s="143"/>
       <c r="H6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="142"/>
+      <c r="I6" s="143"/>
       <c r="J6" s="23" t="s">
         <v>15</v>
       </c>
@@ -15144,19 +15156,19 @@
       <c r="D7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="140" t="s">
+      <c r="E7" s="141" t="s">
         <v>508</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="142" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="143" t="s">
         <v>509</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="142" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="143" t="s">
         <v>509</v>
       </c>
       <c r="J7" s="23" t="s">
@@ -15183,19 +15195,19 @@
       <c r="D8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="140" t="s">
+      <c r="E8" s="141" t="s">
         <v>507</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="142" t="s">
+      <c r="G8" s="143" t="s">
         <v>443</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="142"/>
+      <c r="I8" s="143"/>
       <c r="J8" s="11" t="s">
         <v>18</v>
       </c>
@@ -15219,19 +15231,19 @@
       <c r="D9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="140" t="s">
+      <c r="E9" s="141" t="s">
         <v>508</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="142" t="s">
+      <c r="G9" s="143" t="s">
         <v>509</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="142" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="143" t="s">
         <v>509</v>
       </c>
       <c r="J9" s="23" t="s">
@@ -15252,18 +15264,18 @@
       <c r="C10" s="25">
         <v>1024.0</v>
       </c>
-      <c r="D10" s="141" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="142"/>
-      <c r="F10" s="141" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="142"/>
-      <c r="H10" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="142"/>
+      <c r="D10" s="142" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="143"/>
+      <c r="F10" s="142" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="143"/>
+      <c r="H10" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="143"/>
       <c r="J10" s="23" t="s">
         <v>15</v>
       </c>
@@ -15279,7 +15291,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="139" t="s">
+      <c r="A11" s="140" t="s">
         <v>511</v>
       </c>
       <c r="B11" s="100" t="s">
@@ -15288,18 +15300,18 @@
       <c r="C11" s="25">
         <v>224.0</v>
       </c>
-      <c r="D11" s="141" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="142"/>
-      <c r="F11" s="141" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="142"/>
-      <c r="H11" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="142"/>
+      <c r="D11" s="142" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="143"/>
+      <c r="F11" s="142" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="143"/>
+      <c r="H11" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="143"/>
       <c r="J11" s="23" t="s">
         <v>15</v>
       </c>
@@ -15318,20 +15330,20 @@
       <c r="C12" s="25">
         <v>256.0</v>
       </c>
-      <c r="D12" s="141" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="142"/>
+      <c r="D12" s="142" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="143"/>
       <c r="F12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="142" t="s">
+      <c r="G12" s="143" t="s">
         <v>509</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="142" t="s">
+      <c r="I12" s="143" t="s">
         <v>509</v>
       </c>
       <c r="J12" s="23" t="s">
@@ -15355,26 +15367,26 @@
       <c r="C13" s="25">
         <v>1024.0</v>
       </c>
-      <c r="D13" s="141" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="142"/>
-      <c r="F13" s="141" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="142"/>
-      <c r="H13" s="141" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="142"/>
-      <c r="J13" s="141" t="s">
+      <c r="D13" s="142" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="143"/>
+      <c r="F13" s="142" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="143"/>
+      <c r="H13" s="142" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="143"/>
+      <c r="J13" s="142" t="s">
         <v>15</v>
       </c>
       <c r="K13" s="23"/>
-      <c r="L13" s="141" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="144" t="s">
+      <c r="L13" s="142" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="145" t="s">
         <v>15</v>
       </c>
       <c r="N13" s="7" t="s">
@@ -15385,18 +15397,18 @@
       <c r="C14" s="25">
         <v>2048.0</v>
       </c>
-      <c r="D14" s="141" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="142"/>
+      <c r="D14" s="142" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="143"/>
       <c r="F14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="142"/>
+      <c r="G14" s="143"/>
       <c r="H14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="142"/>
+      <c r="I14" s="143"/>
       <c r="J14" s="23" t="s">
         <v>15</v>
       </c>
@@ -15415,20 +15427,20 @@
       <c r="C15" s="25">
         <v>3076.0</v>
       </c>
-      <c r="D15" s="141" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="142"/>
+      <c r="D15" s="142" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="143"/>
       <c r="F15" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="142" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="143" t="s">
         <v>509</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="142" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="143" t="s">
         <v>509</v>
       </c>
       <c r="J15" s="23" t="s">
@@ -15517,131 +15529,131 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>514</v>
       </c>
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="146" t="s">
+      <c r="C1" s="111"/>
+      <c r="D1" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="110"/>
-      <c r="F1" s="146" t="s">
+      <c r="E1" s="111"/>
+      <c r="F1" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="110"/>
+      <c r="G1" s="111"/>
       <c r="H1" s="9" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="147"/>
+      <c r="A2" s="148"/>
       <c r="B2" s="11"/>
-      <c r="C2" s="148" t="s">
+      <c r="C2" s="149" t="s">
         <v>516</v>
       </c>
-      <c r="D2" s="149"/>
-      <c r="E2" s="148" t="s">
+      <c r="D2" s="150"/>
+      <c r="E2" s="149" t="s">
         <v>516</v>
       </c>
       <c r="F2" s="10"/>
-      <c r="G2" s="150" t="s">
+      <c r="G2" s="151" t="s">
         <v>516</v>
       </c>
-      <c r="H2" s="151"/>
+      <c r="H2" s="152"/>
     </row>
     <row r="3">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="149" t="s">
         <v>517</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="148" t="s">
+      <c r="C3" s="149" t="s">
         <v>518</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="147"/>
+      <c r="E3" s="148"/>
       <c r="F3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="152"/>
+      <c r="G3" s="153"/>
       <c r="H3" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="153" t="s">
+      <c r="A4" s="154" t="s">
         <v>519</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="154" t="s">
+      <c r="C4" s="155" t="s">
         <v>520</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="154" t="s">
+      <c r="E4" s="155" t="s">
         <v>521</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="152"/>
+      <c r="G4" s="153"/>
       <c r="H4" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="149" t="s">
         <v>522</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="154" t="s">
+      <c r="C5" s="155" t="s">
         <v>523</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="154" t="s">
+      <c r="E5" s="155" t="s">
         <v>524</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="152"/>
+      <c r="G5" s="153"/>
       <c r="H5" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="148" t="s">
+      <c r="A6" s="149" t="s">
         <v>525</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="154" t="s">
+      <c r="C6" s="155" t="s">
         <v>526</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="154" t="s">
+      <c r="E6" s="155" t="s">
         <v>527</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="152"/>
+      <c r="G6" s="153"/>
       <c r="H6" s="12" t="s">
         <v>15</v>
       </c>

--- a/DatabaseFiller/guidelines.xlsx
+++ b/DatabaseFiller/guidelines.xlsx
@@ -15428,7 +15428,7 @@
     </row>
     <row r="15">
       <c r="C15" s="26">
-        <v>3076.0</v>
+        <v>3072.0</v>
       </c>
       <c r="D15" s="143" t="s">
         <v>15</v>

--- a/DatabaseFiller/guidelines.xlsx
+++ b/DatabaseFiller/guidelines.xlsx
@@ -14,9 +14,6 @@
     <sheet state="visible" name="Certificate" sheetId="9" r:id="rId12"/>
     <sheet state="visible" name="Certificate Extensions" sheetId="10" r:id="rId13"/>
     <sheet state="visible" name="Misc" sheetId="11" r:id="rId14"/>
-    <sheet state="visible" name="Ignored --&gt;" sheetId="12" r:id="rId15"/>
-    <sheet state="visible" name="ToC" sheetId="13" r:id="rId16"/>
-    <sheet state="visible" name="attacks explicitly cited" sheetId="14" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -282,62 +279,6 @@
 </comments>
 </file>
 
-<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="C9">
-      <text>
-        <t xml:space="preserve">certificate policies, CAB forum; transparency is dealt with under extensions</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C14">
-      <text>
-        <t xml:space="preserve">Lucky 13, POODLE</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H16">
-      <text>
-        <t xml:space="preserve">cannot confirm random bit generator (RBG) has been validated in accordance with the SP 800-
-90 series</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B28">
-      <text>
-        <t xml:space="preserve">OS, private key store, security patches</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="A3">
-      <text>
-        <t xml:space="preserve">Currently not added to TLSA since the only server-side mitigation is to disable TLSv1 entirely, and any modern browser already has built-in mitigations that *should* make the attack obsolete.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A7">
-      <text>
-        <t xml:space="preserve">TLS: https://www.imperialviolet.org/2014/12/08/poodleagain.html</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A10">
-      <text>
-        <t xml:space="preserve">Not a new attack, more an identification of vulnerabilities that enable the known attack (DROWN).</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
@@ -1085,7 +1026,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2598" uniqueCount="558">
   <si>
     <t>NIST</t>
   </si>
@@ -2188,10 +2129,10 @@
     <t>signature_algorithms</t>
   </si>
   <si>
-    <t>NOTE_DISABLED if this condition results as an ERROR "must be enabled" it may be a false positive. It is caused by the web-server not asking the certificate to the client not allowing the tool to verify whether the extension is supported</t>
-  </si>
-  <si>
-    <t>NOTE_DISABLED if this condition results as an ERROR "must be enabled" it may be a false positive. It is caused by the web-server not asking the certificate to the client not allowing the tool to verify whether the extension is supported. and NOTE_ENABLED in order for the web-server to be compliant with BSI guidelines you should enabled all the signature algorithms reccommended by BSI</t>
+    <t>NOTE_DISABLED if this condition results as an ERROR "must be enabled" it may be a false positive. It is caused by the web server not asking the certificate to the client not allowing the tool to verify whether the extension is supported</t>
+  </si>
+  <si>
+    <t>NOTE_DISABLED if this condition results as an ERROR "must be enabled" it may be a false positive. It is caused by the web server not asking the certificate to the client not allowing the tool to verify whether the extension is supported. and NOTE_ENABLED in order for the web-server to be compliant with BSI guidelines you should enabled all the signature algorithms reccommended by BSI</t>
   </si>
   <si>
     <t>use_srtp</t>
@@ -2650,7 +2591,7 @@
     <t>CHECK_DN Issuer Distinguished Name - der</t>
   </si>
   <si>
-    <t>NOTE_TRUE the check failed in certificate {cert} for reason {reason}, remember that BSI guidelines prohibit the usage of * in this field and VALUE Certificate * in [Issuer Distinguished Name][CN]</t>
+    <t>NOTE_TRUE BSI guidelines prohibit the usage of *  in this field. Issue detected: {reason} within certificate #{cert} and VALUE Certificate * in [Issuer Distinguished Name][CN]</t>
   </si>
   <si>
     <t>validity</t>
@@ -2668,7 +2609,7 @@
     <t>CHECK_DN Subject Distinguished Name - der</t>
   </si>
   <si>
-    <t>NOTE_TRUE the check failed in certificate {cert} for reason {reason}, remember that BSI guidelines prohibit the usage of * in this field and VALUE Certificate * in [Subject Distinguished Name][CN]</t>
+    <t>NOTE_TRUE BSI guidelines prohibit the usage of *  in this field. Issue detected: {reason} within certificate #{cert} and VALUE Certificate * in [Subject Distinguished Name][CN]</t>
   </si>
   <si>
     <t>Extension</t>
@@ -2701,10 +2642,10 @@
     <t>extendedKeyUsage</t>
   </si>
   <si>
-    <t>NOTE_FALSE the check failed in certificate {cert} for reason {reason} AND VALUE CertificateExtensions TLS Web Server Authentication in extendedKeyUsage</t>
-  </si>
-  <si>
-    <t>(NOTE_TRUE the check failed in certificate {cert} for reason {reason} AND VALUE CertificateExtensions Any Extended Key Usage in extendedKeyUsage) OR CHECK_SAME_KEYUSAGE</t>
+    <t>NOTE_FALSE Issue detected: {reason} within certificate #{cert} AND VALUE CertificateExtensions TLS Web Server Authentication in extendedKeyUsage</t>
+  </si>
+  <si>
+    <t>(NOTE_TRUE Issue detected: {reason} within certificate #{cert} AND VALUE CertificateExtensions Any Extended Key Usage in extendedKeyUsage) OR CHECK_SAME_KEYUSAGE</t>
   </si>
   <si>
     <t>Certificate Policies</t>
@@ -2716,7 +2657,7 @@
     <t>VALUE CertificateExtensions DNS in subjectAltName OR VALUE CertificateExtensions IP Address in subjectAltName</t>
   </si>
   <si>
-    <t>NOTE_TRUE the check failed in certificate {cert} for reason {reason} and VALUE CertificateExtensions * in subjectAltName</t>
+    <t>NOTE_TRUE Issue detected: {reason} within certificate #{cert} and VALUE CertificateExtensions * in subjectAltName</t>
   </si>
   <si>
     <t>authorityInfoAccess</t>
@@ -2740,7 +2681,7 @@
     <t>THIS or CertificateExtensions Authority Information Access</t>
   </si>
   <si>
-    <t>NOTE_TRUE the check failed in certificate {cert} for reason {reason} AND (VALUE CertificateExtensions Relative Name in crlDistributionPoints OR VALUE CertificateExtensions CRL Issuer in crlDistributionPoints OR VALUE CertificateExtensions Reasons in crlDistributionPoints) AND DISABLE_IF False</t>
+    <t>NOTE_TRUE Issue detected: {reason} within certificate #{cert} AND (VALUE CertificateExtensions Relative Name in crlDistributionPoints OR VALUE CertificateExtensions CRL Issuer in crlDistributionPoints OR VALUE CertificateExtensions Reasons in crlDistributionPoints) AND DISABLE_IF False</t>
   </si>
   <si>
     <t>ct_precert_scts</t>
@@ -2759,172 +2700,13 @@
   </si>
   <si>
     <t>Client-initiated renegotiation</t>
-  </si>
-  <si>
-    <t>TLSAssistant applicable</t>
-  </si>
-  <si>
-    <t>3 Minimum Requirements for TLS Servers</t>
-  </si>
-  <si>
-    <t>3.1 Protocol Version Support</t>
-  </si>
-  <si>
-    <t>3.2 SSL/TLS versions</t>
-  </si>
-  <si>
-    <t>2 TLS Handshake Parameters</t>
-  </si>
-  <si>
-    <t>2.1 Protocol Versions</t>
-  </si>
-  <si>
-    <t>3.2 Server Keys and Certificates</t>
-  </si>
-  <si>
-    <t>3.2.1 Server Certificate Profile</t>
-  </si>
-  <si>
-    <t>3.[3,4] Recommendations for TLS 1.[2.3]</t>
-  </si>
-  <si>
-    <t>3 Setting Up a PKI</t>
-  </si>
-  <si>
-    <t>3.1 X.509 Certificate Attributes</t>
-  </si>
-  <si>
-    <t>3.6 Domain parameters and key lengths</t>
-  </si>
-  <si>
-    <t>3.2.2 Obtaining Revocation Status Information for the Client Certificate</t>
-  </si>
-  <si>
-    <t>3.2 Trust Establishment</t>
-  </si>
-  <si>
-    <t>3.2.3 Server Public-Key Certificate Assurance</t>
-  </si>
-  <si>
-    <t>3.3 Cryptographic Support</t>
-  </si>
-  <si>
-    <t>3.3.1 Cipher Suites</t>
-  </si>
-  <si>
-    <t>3.3.1, 3.4.4 Cipher suites</t>
-  </si>
-  <si>
-    <t>2.2 Cipher Suites</t>
-  </si>
-  <si>
-    <t>3.x.3 Signature algorithms</t>
-  </si>
-  <si>
-    <t>3.4.1 Handshake modes</t>
-  </si>
-  <si>
-    <t>3.3.2 Implementation Considerations</t>
-  </si>
-  <si>
-    <t>3.3.4.3 TLS compression and the CRIME attack</t>
-  </si>
-  <si>
-    <t>3.3.4.4 The Lucky 13 attack</t>
-  </si>
-  <si>
-    <t>3.3.3 Validated Cryptography</t>
-  </si>
-  <si>
-    <t>2.4 Additional Considerations</t>
-  </si>
-  <si>
-    <t>3.4 TLS Extension Support</t>
-  </si>
-  <si>
-    <t>3.4.1 Mandatory TLS Extensions</t>
-  </si>
-  <si>
-    <t>3.3.4.2 Truncated HMAC output</t>
-  </si>
-  <si>
-    <t>2.3 Extensions</t>
-  </si>
-  <si>
-    <t>3.3.4.5 The Encrypt-then-MAC extension</t>
-  </si>
-  <si>
-    <t>3.3.4.7 The Extended Master Secret extension</t>
-  </si>
-  <si>
-    <t>3.4.2 Conditional TLS Extensions</t>
-  </si>
-  <si>
-    <t>3.x.2 Diffie-Hellman groups</t>
-  </si>
-  <si>
-    <t>3.4.3 Discouraged TLS Extensions</t>
-  </si>
-  <si>
-    <t>3.3.4.6 The Heartbeat extension</t>
-  </si>
-  <si>
-    <t>3.5 Client Authentication</t>
-  </si>
-  <si>
-    <t>3.5.1 Path Validation</t>
-  </si>
-  <si>
-    <t>3.5 Authentication of the communication partners</t>
-  </si>
-  <si>
-    <t>3.5.2 Trust Anchor Store</t>
-  </si>
-  <si>
-    <t>3.5.3 Checking the Client Key Size</t>
-  </si>
-  <si>
-    <t>3.5.4 Server Hints List</t>
-  </si>
-  <si>
-    <t>3.6 Session Resumption and Early Data</t>
-  </si>
-  <si>
-    <t>3.3.4.1 Session renegotiation</t>
-  </si>
-  <si>
-    <t>3.7 Compression Methods</t>
-  </si>
-  <si>
-    <t>3.8 Operational Considerations</t>
-  </si>
-  <si>
-    <t>4 Keys and random numbers</t>
-  </si>
-  <si>
-    <t>4 Minimum Requirements for TLS Clients</t>
-  </si>
-  <si>
-    <t>CRIME</t>
-  </si>
-  <si>
-    <t>Logjam</t>
-  </si>
-  <si>
-    <t>Heartbleed</t>
-  </si>
-  <si>
-    <t>FREAK</t>
-  </si>
-  <si>
-    <t>Klima</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="30">
+  <fonts count="26">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -3046,27 +2828,8 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <u/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF1155CC"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3089,24 +2852,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6B8AF"/>
-        <bgColor rgb="FFE6B8AF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEFEFEF"/>
-        <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
   </fills>
@@ -3204,7 +2949,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="177">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3709,46 +3454,6 @@
     </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3818,18 +3523,6 @@
 </file>
 
 <file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -4936,591 +4629,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="10.13"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="177" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="177" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="177"/>
-      <c r="H1" s="177" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="177"/>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="177"/>
-      <c r="B3" s="177"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="177" t="s">
-        <v>559</v>
-      </c>
-      <c r="B4" s="179" t="s">
-        <v>560</v>
-      </c>
-      <c r="C4" s="178"/>
-      <c r="D4" s="179" t="s">
-        <v>561</v>
-      </c>
-      <c r="E4" s="178"/>
-      <c r="F4" s="179" t="s">
-        <v>562</v>
-      </c>
-      <c r="G4" s="179" t="s">
-        <v>563</v>
-      </c>
-      <c r="H4" s="180"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="177"/>
-      <c r="B5" s="177"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="177"/>
-      <c r="G5" s="177"/>
-      <c r="H5" s="180"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="177"/>
-      <c r="B6" s="181" t="s">
-        <v>564</v>
-      </c>
-      <c r="C6" s="179" t="s">
-        <v>565</v>
-      </c>
-      <c r="D6" s="179" t="s">
-        <v>566</v>
-      </c>
-      <c r="E6" s="178"/>
-      <c r="F6" s="181" t="s">
-        <v>567</v>
-      </c>
-      <c r="G6" s="179" t="s">
-        <v>568</v>
-      </c>
-      <c r="H6" s="180"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="177"/>
-      <c r="B7" s="177"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="179" t="s">
-        <v>569</v>
-      </c>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="177"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="177"/>
-      <c r="B8" s="177"/>
-      <c r="C8" s="177" t="s">
-        <v>570</v>
-      </c>
-      <c r="D8" s="178"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="177" t="s">
-        <v>571</v>
-      </c>
-      <c r="H8" s="177" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="177"/>
-      <c r="B9" s="177"/>
-      <c r="C9" s="182" t="s">
-        <v>572</v>
-      </c>
-      <c r="D9" s="178"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="183"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="177"/>
-      <c r="B10" s="179" t="s">
-        <v>573</v>
-      </c>
-      <c r="C10" s="179" t="s">
-        <v>574</v>
-      </c>
-      <c r="D10" s="178"/>
-      <c r="E10" s="179" t="s">
-        <v>575</v>
-      </c>
-      <c r="F10" s="178"/>
-      <c r="G10" s="179" t="s">
-        <v>576</v>
-      </c>
-      <c r="H10" s="180"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="177"/>
-      <c r="B11" s="177"/>
-      <c r="C11" s="177"/>
-      <c r="D11" s="178"/>
-      <c r="E11" s="179" t="s">
-        <v>577</v>
-      </c>
-      <c r="F11" s="178"/>
-      <c r="G11" s="177"/>
-      <c r="H11" s="180"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="177"/>
-      <c r="B12" s="177"/>
-      <c r="C12" s="177"/>
-      <c r="D12" s="178"/>
-      <c r="E12" s="179" t="s">
-        <v>578</v>
-      </c>
-      <c r="F12" s="178"/>
-      <c r="G12" s="177"/>
-      <c r="H12" s="180"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="177"/>
-      <c r="B13" s="177"/>
-      <c r="C13" s="177"/>
-      <c r="D13" s="179" t="s">
-        <v>569</v>
-      </c>
-      <c r="E13" s="177"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="180"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="177"/>
-      <c r="B14" s="177"/>
-      <c r="C14" s="179" t="s">
-        <v>579</v>
-      </c>
-      <c r="D14" s="178"/>
-      <c r="E14" s="179" t="s">
-        <v>580</v>
-      </c>
-      <c r="F14" s="178"/>
-      <c r="G14" s="178"/>
-      <c r="H14" s="180"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="177"/>
-      <c r="B15" s="177"/>
-      <c r="C15" s="177"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="179" t="s">
-        <v>581</v>
-      </c>
-      <c r="F15" s="178"/>
-      <c r="G15" s="178"/>
-      <c r="H15" s="180"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="177"/>
-      <c r="B16" s="177"/>
-      <c r="C16" s="181" t="s">
-        <v>582</v>
-      </c>
-      <c r="D16" s="178"/>
-      <c r="E16" s="177"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="181" t="s">
-        <v>583</v>
-      </c>
-      <c r="H16" s="184"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="177"/>
-      <c r="B17" s="179" t="s">
-        <v>584</v>
-      </c>
-      <c r="C17" s="179" t="s">
-        <v>585</v>
-      </c>
-      <c r="D17" s="178"/>
-      <c r="E17" s="179" t="s">
-        <v>586</v>
-      </c>
-      <c r="F17" s="178"/>
-      <c r="G17" s="179" t="s">
-        <v>587</v>
-      </c>
-      <c r="H17" s="180"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="177"/>
-      <c r="B18" s="177"/>
-      <c r="C18" s="177"/>
-      <c r="D18" s="178"/>
-      <c r="E18" s="179" t="s">
-        <v>588</v>
-      </c>
-      <c r="F18" s="178"/>
-      <c r="G18" s="177"/>
-      <c r="H18" s="180"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="177"/>
-      <c r="B19" s="177"/>
-      <c r="C19" s="177"/>
-      <c r="D19" s="178"/>
-      <c r="E19" s="179" t="s">
-        <v>589</v>
-      </c>
-      <c r="F19" s="178"/>
-      <c r="G19" s="178"/>
-      <c r="H19" s="180"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="177"/>
-      <c r="B20" s="177"/>
-      <c r="C20" s="179" t="s">
-        <v>590</v>
-      </c>
-      <c r="D20" s="178"/>
-      <c r="E20" s="179" t="s">
-        <v>591</v>
-      </c>
-      <c r="F20" s="177"/>
-      <c r="G20" s="177"/>
-      <c r="H20" s="180"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="177"/>
-      <c r="B21" s="177"/>
-      <c r="C21" s="179" t="s">
-        <v>592</v>
-      </c>
-      <c r="D21" s="178"/>
-      <c r="E21" s="179" t="s">
-        <v>593</v>
-      </c>
-      <c r="F21" s="178"/>
-      <c r="G21" s="178"/>
-      <c r="H21" s="180"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="177"/>
-      <c r="B22" s="182" t="s">
-        <v>594</v>
-      </c>
-      <c r="C22" s="182" t="s">
-        <v>595</v>
-      </c>
-      <c r="D22" s="178"/>
-      <c r="E22" s="182" t="s">
-        <v>596</v>
-      </c>
-      <c r="F22" s="178"/>
-      <c r="G22" s="178"/>
-      <c r="H22" s="183"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="177"/>
-      <c r="B23" s="177"/>
-      <c r="C23" s="182" t="s">
-        <v>597</v>
-      </c>
-      <c r="D23" s="178"/>
-      <c r="E23" s="177"/>
-      <c r="F23" s="178"/>
-      <c r="G23" s="178"/>
-      <c r="H23" s="183"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="177"/>
-      <c r="B24" s="177"/>
-      <c r="C24" s="182" t="s">
-        <v>598</v>
-      </c>
-      <c r="D24" s="178"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="178"/>
-      <c r="G24" s="178"/>
-      <c r="H24" s="183"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="177"/>
-      <c r="B25" s="177"/>
-      <c r="C25" s="182" t="s">
-        <v>599</v>
-      </c>
-      <c r="D25" s="178"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="178"/>
-      <c r="G25" s="178"/>
-      <c r="H25" s="183"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="177"/>
-      <c r="B26" s="177" t="s">
-        <v>600</v>
-      </c>
-      <c r="C26" s="178"/>
-      <c r="D26" s="178"/>
-      <c r="E26" s="177" t="s">
-        <v>601</v>
-      </c>
-      <c r="F26" s="178"/>
-      <c r="G26" s="177" t="s">
-        <v>583</v>
-      </c>
-      <c r="H26" s="177" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="177"/>
-      <c r="B27" s="179" t="s">
-        <v>602</v>
-      </c>
-      <c r="C27" s="178"/>
-      <c r="D27" s="178"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="178"/>
-      <c r="G27" s="181" t="s">
-        <v>583</v>
-      </c>
-      <c r="H27" s="180"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="177"/>
-      <c r="B28" s="182" t="s">
-        <v>603</v>
-      </c>
-      <c r="C28" s="178"/>
-      <c r="D28" s="177" t="s">
-        <v>604</v>
-      </c>
-      <c r="E28" s="178"/>
-      <c r="F28" s="178"/>
-      <c r="G28" s="185"/>
-      <c r="H28" s="183"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="177"/>
-      <c r="B29" s="177"/>
-      <c r="C29" s="177"/>
-      <c r="D29" s="177"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="178"/>
-      <c r="G29" s="185"/>
-      <c r="H29" s="183"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="177" t="s">
-        <v>605</v>
-      </c>
-      <c r="B30" s="177"/>
-      <c r="C30" s="178"/>
-      <c r="D30" s="178"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="178"/>
-      <c r="G30" s="178"/>
-      <c r="H30" s="183"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="186" t="str">
-        <f>HYPERLINK("http://www.isg.rhul.ac.uk/tls/Lucky13.html","Lucky 13")</f>
-        <v>Lucky 13</v>
-      </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="188" t="str">
-        <f>HYPERLINK("https://nerdoholic.org/uploads/dergln/beast_part2/ssl_jun21.pdf","BEAST")</f>
-        <v>BEAST</v>
-      </c>
-      <c r="B3" s="187"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="186" t="str">
-        <f>HYPERLINK("https://sweet32.info/","Sweet32")</f>
-        <v>Sweet32</v>
-      </c>
-      <c r="D4" s="187"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="189" t="s">
-        <v>606</v>
-      </c>
-      <c r="B5" s="187"/>
-      <c r="C5" s="187"/>
-      <c r="D5" s="187"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="186" t="str">
-        <f>HYPERLINK("http://breachattack.com/","BREACH")</f>
-        <v>BREACH</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="186" t="str">
-        <f>HYPERLINK("https://security.googleblog.com/2014/10/this-poodle-bites-exploiting-ssl-30.html","POODLE")</f>
-        <v>POODLE</v>
-      </c>
-      <c r="B7" s="187"/>
-      <c r="D7" s="187"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="186" t="str">
-        <f>HYPERLINK("https://mitls.org/pages/attacks/3SHAKE","3SHAKE")</f>
-        <v>3SHAKE</v>
-      </c>
-      <c r="B8" s="187"/>
-      <c r="C8" s="187"/>
-      <c r="D8" s="187"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="186" t="str">
-        <f>HYPERLINK("https://drownattack.com/","DROWN")</f>
-        <v>DROWN</v>
-      </c>
-      <c r="D9" s="187"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="186" t="str">
-        <f>HYPERLINK("https://robotattack.org/","ROBOT ")</f>
-        <v>ROBOT </v>
-      </c>
-      <c r="B10" s="187"/>
-      <c r="D10" s="187"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="186" t="str">
-        <f>HYPERLINK("https://www.kb.cert.org/vuls/id/120541/","Renegotiation attack")</f>
-        <v>Renegotiation attack</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="190" t="s">
-        <v>607</v>
-      </c>
-      <c r="D12" s="187"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="190" t="s">
-        <v>608</v>
-      </c>
-      <c r="B13" s="187"/>
-      <c r="C13" s="187"/>
-      <c r="D13" s="187"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="190" t="s">
-        <v>609</v>
-      </c>
-      <c r="D14" s="187"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="190" t="s">
-        <v>610</v>
-      </c>
-      <c r="B15" s="187"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId2" ref="A5"/>
-    <hyperlink r:id="rId3" ref="A12"/>
-    <hyperlink r:id="rId4" ref="A13"/>
-    <hyperlink r:id="rId5" location="freak" ref="A14"/>
-    <hyperlink r:id="rId6" ref="A15"/>
-  </hyperlinks>
-  <drawing r:id="rId7"/>
-  <legacyDrawing r:id="rId8"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
